--- a/pvstand/datos_procesados_analisis_integrado_py/iv600/iv_curves/iv_curves_report.xlsx
+++ b/pvstand/datos_procesados_analisis_integrado_py/iv600/iv_curves/iv_curves_report.xlsx
@@ -472,7 +472,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -490,13 +490,15 @@
           <t>IV600</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>725</v>
+      </c>
       <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -514,13 +516,15 @@
           <t>IV600</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>725</v>
+      </c>
       <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -538,7 +542,9 @@
           <t>IV600</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>725</v>
+      </c>
       <c r="F4" t="inlineStr"/>
     </row>
   </sheetData>
@@ -635,7 +641,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -648,7 +654,9 @@
           <t>IV600_sample_1</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>725</v>
+      </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
         <v>380.686889648438</v>
@@ -678,7 +686,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -691,7 +699,9 @@
           <t>IV600_sample_2</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>725</v>
+      </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
         <v>380.693603515625</v>
@@ -721,7 +731,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -734,7 +744,9 @@
           <t>IV600_sample_3</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>725</v>
+      </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
         <v>315.244567871094</v>

--- a/pvstand/datos_procesados_analisis_integrado_py/iv600/iv_curves/iv_curves_report.xlsx
+++ b/pvstand/datos_procesados_analisis_integrado_py/iv600/iv_curves/iv_curves_report.xlsx
@@ -779,7 +779,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D129"/>
+  <dimension ref="A1:F129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -805,7 +805,17 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Resistance_Ohm</t>
+          <t>Voltage_V_1000</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Current_A_1000</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Power_W_1000</t>
         </is>
       </c>
     </row>
@@ -820,7 +830,13 @@
         <v>4.88571166992188</v>
       </c>
       <c r="D2" t="n">
-        <v>0.04266958252646281</v>
+        <v>0.456586539745331</v>
+      </c>
+      <c r="E2" t="n">
+        <v>14.75933206492455</v>
+      </c>
+      <c r="F2" t="n">
+        <v>6.738912356476212</v>
       </c>
     </row>
     <row r="3">
@@ -834,7 +850,13 @@
         <v>169.91487121582</v>
       </c>
       <c r="D3" t="n">
-        <v>1.484373554316008</v>
+        <v>15.8813457489014</v>
+      </c>
+      <c r="E3" t="n">
+        <v>14.75727212840111</v>
+      </c>
+      <c r="F3" t="n">
+        <v>234.365340981764</v>
       </c>
     </row>
     <row r="4">
@@ -848,7 +870,13 @@
         <v>171.619338989258</v>
       </c>
       <c r="D4" t="n">
-        <v>1.499624377829812</v>
+        <v>16.0425853729248</v>
+      </c>
+      <c r="E4" t="n">
+        <v>14.75549763646621</v>
+      </c>
+      <c r="F4" t="n">
+        <v>236.7163305529993</v>
       </c>
     </row>
     <row r="5">
@@ -862,7 +890,13 @@
         <v>175.939483642578</v>
       </c>
       <c r="D5" t="n">
-        <v>1.537796696246243</v>
+        <v>16.4486827850342</v>
+      </c>
+      <c r="E5" t="n">
+        <v>14.753470585264</v>
+      </c>
+      <c r="F5" t="n">
+        <v>242.6751576353404</v>
       </c>
     </row>
     <row r="6">
@@ -876,7 +910,13 @@
         <v>177.495071411133</v>
       </c>
       <c r="D6" t="n">
-        <v>1.551778980947275</v>
+        <v>16.5961780548096</v>
+      </c>
+      <c r="E6" t="n">
+        <v>14.75163689975076</v>
+      </c>
+      <c r="F6" t="n">
+        <v>244.8207925881631</v>
       </c>
     </row>
     <row r="7">
@@ -890,7 +930,13 @@
         <v>179.878128051758</v>
       </c>
       <c r="D7" t="n">
-        <v>1.57300589116934</v>
+        <v>16.8210983276367</v>
+      </c>
+      <c r="E7" t="n">
+        <v>14.74979532176055</v>
+      </c>
+      <c r="F7" t="n">
+        <v>248.10775741985</v>
       </c>
     </row>
     <row r="8">
@@ -904,7 +950,13 @@
         <v>182.370681762695</v>
       </c>
       <c r="D8" t="n">
-        <v>1.595266898769234</v>
+        <v>17.0566673278809</v>
+      </c>
+      <c r="E8" t="n">
+        <v>14.74764988340179</v>
+      </c>
+      <c r="F8" t="n">
+        <v>251.5457579292459</v>
       </c>
     </row>
     <row r="9">
@@ -918,7 +970,13 @@
         <v>184.31266784668</v>
       </c>
       <c r="D9" t="n">
-        <v>1.6128935505751</v>
+        <v>17.2417144775391</v>
+      </c>
+      <c r="E9" t="n">
+        <v>14.74472703604869</v>
+      </c>
+      <c r="F9" t="n">
+        <v>254.2243736048029</v>
       </c>
     </row>
     <row r="10">
@@ -932,7 +990,13 @@
         <v>186.906234741211</v>
       </c>
       <c r="D10" t="n">
-        <v>1.636153464327474</v>
+        <v>17.4873466491699</v>
+      </c>
+      <c r="E10" t="n">
+        <v>14.74218565842207</v>
+      </c>
+      <c r="F10" t="n">
+        <v>257.8017109752478</v>
       </c>
     </row>
     <row r="11">
@@ -946,7 +1010,13 @@
         <v>190.529541015625</v>
       </c>
       <c r="D11" t="n">
-        <v>1.668473350029675</v>
+        <v>17.8295669555664</v>
+      </c>
+      <c r="E11" t="n">
+        <v>14.7395258936389</v>
+      </c>
+      <c r="F11" t="n">
+        <v>262.7993638139394</v>
       </c>
     </row>
     <row r="12">
@@ -960,7 +1030,13 @@
         <v>192.103622436523</v>
       </c>
       <c r="D12" t="n">
-        <v>1.683018747333794</v>
+        <v>17.9809341430664</v>
+      </c>
+      <c r="E12" t="n">
+        <v>14.73619263747641</v>
+      </c>
+      <c r="F12" t="n">
+        <v>264.9705093340033</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +1050,13 @@
         <v>194.385238647461</v>
       </c>
       <c r="D13" t="n">
-        <v>1.703830416564853</v>
+        <v>18.1988868713379</v>
+      </c>
+      <c r="E13" t="n">
+        <v>14.73263576112938</v>
+      </c>
+      <c r="F13" t="n">
+        <v>268.1175715334207</v>
       </c>
     </row>
     <row r="14">
@@ -988,7 +1070,13 @@
         <v>196.729400634766</v>
       </c>
       <c r="D14" t="n">
-        <v>1.725399097751462</v>
+        <v>18.4238090515137</v>
+      </c>
+      <c r="E14" t="n">
+        <v>14.72827385211807</v>
+      </c>
+      <c r="F14" t="n">
+        <v>271.3509051098255</v>
       </c>
     </row>
     <row r="15">
@@ -1002,7 +1090,13 @@
         <v>198.362258911133</v>
       </c>
       <c r="D15" t="n">
-        <v>1.740662171146499</v>
+        <v>18.5817565917969</v>
+      </c>
+      <c r="E15" t="n">
+        <v>14.7242868357691</v>
+      </c>
+      <c r="F15" t="n">
+        <v>273.6031139700609</v>
       </c>
     </row>
     <row r="16">
@@ -1016,7 +1110,13 @@
         <v>201.704940795898</v>
       </c>
       <c r="D16" t="n">
-        <v>1.770948721731633</v>
+        <v>18.8999767303467</v>
+      </c>
+      <c r="E16" t="n">
+        <v>14.72032086602579</v>
+      </c>
+      <c r="F16" t="n">
+        <v>278.2137218311245</v>
       </c>
     </row>
     <row r="17">
@@ -1030,7 +1130,13 @@
         <v>204.744720458984</v>
       </c>
       <c r="D17" t="n">
-        <v>1.798744011573931</v>
+        <v>19.190710067749</v>
+      </c>
+      <c r="E17" t="n">
+        <v>14.71579321499531</v>
+      </c>
+      <c r="F17" t="n">
+        <v>282.4065210059229</v>
       </c>
     </row>
     <row r="18">
@@ -1044,7 +1150,13 @@
         <v>206.101013183594</v>
       </c>
       <c r="D18" t="n">
-        <v>1.812156117047719</v>
+        <v>19.3258171081543</v>
+      </c>
+      <c r="E18" t="n">
+        <v>14.70971469221448</v>
+      </c>
+      <c r="F18" t="n">
+        <v>284.2772558548673</v>
       </c>
     </row>
     <row r="19">
@@ -1058,7 +1170,13 @@
         <v>208.43180847168</v>
       </c>
       <c r="D19" t="n">
-        <v>1.834715247137509</v>
+        <v>19.555383682251</v>
+      </c>
+      <c r="E19" t="n">
+        <v>14.70143285290952</v>
+      </c>
+      <c r="F19" t="n">
+        <v>287.4921601174956</v>
       </c>
     </row>
     <row r="20">
@@ -1072,7 +1190,13 @@
         <v>210.690826416016</v>
       </c>
       <c r="D20" t="n">
-        <v>1.856600025764827</v>
+        <v>19.777982711792</v>
+      </c>
+      <c r="E20" t="n">
+        <v>14.69351275213835</v>
+      </c>
+      <c r="F20" t="n">
+        <v>290.6080411872875</v>
       </c>
     </row>
     <row r="21">
@@ -1086,7 +1210,13 @@
         <v>212.253860473633</v>
       </c>
       <c r="D21" t="n">
-        <v>1.87215388437785</v>
+        <v>19.9341888427734</v>
+      </c>
+      <c r="E21" t="n">
+        <v>14.6865239636651</v>
+      </c>
+      <c r="F21" t="n">
+        <v>292.7639421356171</v>
       </c>
     </row>
     <row r="22">
@@ -1100,7 +1230,13 @@
         <v>215.840469360352</v>
       </c>
       <c r="D22" t="n">
-        <v>1.905199617949222</v>
+        <v>20.2785396575928</v>
+      </c>
+      <c r="E22" t="n">
+        <v>14.68108604694235</v>
+      </c>
+      <c r="F22" t="n">
+        <v>297.7109856194526</v>
       </c>
     </row>
     <row r="23">
@@ -1114,7 +1250,13 @@
         <v>218.157653808594</v>
       </c>
       <c r="D23" t="n">
-        <v>1.926863932203025</v>
+        <v>20.502685546875</v>
+      </c>
+      <c r="E23" t="n">
+        <v>14.67647289407669</v>
+      </c>
+      <c r="F23" t="n">
+        <v>300.9071086844889</v>
       </c>
     </row>
     <row r="24">
@@ -1128,7 +1270,13 @@
         <v>219.967376708984</v>
       </c>
       <c r="D24" t="n">
-        <v>1.943806314958291</v>
+        <v>20.6778621673584</v>
+      </c>
+      <c r="E24" t="n">
+        <v>14.67285550873848</v>
+      </c>
+      <c r="F24" t="n">
+        <v>303.4032838112597</v>
       </c>
     </row>
     <row r="25">
@@ -1142,7 +1290,13 @@
         <v>222.430541992188</v>
       </c>
       <c r="D25" t="n">
-        <v>1.966619836287076</v>
+        <v>20.9149780273438</v>
+      </c>
+      <c r="E25" t="n">
+        <v>14.66894873257338</v>
+      </c>
+      <c r="F25" t="n">
+        <v>306.8007404260049</v>
       </c>
     </row>
     <row r="26">
@@ -1156,7 +1310,13 @@
         <v>224.788375854492</v>
       </c>
       <c r="D26" t="n">
-        <v>1.98828965265485</v>
+        <v>21.1410598754883</v>
+      </c>
+      <c r="E26" t="n">
+        <v>14.66591275971517</v>
+      </c>
+      <c r="F26" t="n">
+        <v>310.0529397818263</v>
       </c>
     </row>
     <row r="27">
@@ -1170,7 +1330,13 @@
         <v>226.468551635742</v>
       </c>
       <c r="D27" t="n">
-        <v>2.003938964176583</v>
+        <v>21.3032665252686</v>
+      </c>
+      <c r="E27" t="n">
+        <v>14.66302937474745</v>
+      </c>
+      <c r="F27" t="n">
+        <v>312.3704228380875</v>
       </c>
     </row>
     <row r="28">
@@ -1184,7 +1350,13 @@
         <v>229.86750793457</v>
       </c>
       <c r="D28" t="n">
-        <v>2.034932858387926</v>
+        <v>21.6278743743896</v>
+      </c>
+      <c r="E28" t="n">
+        <v>14.65972242684193</v>
+      </c>
+      <c r="F28" t="n">
+        <v>317.0586350111591</v>
       </c>
     </row>
     <row r="29">
@@ -1198,7 +1370,13 @@
         <v>232.060684204102</v>
       </c>
       <c r="D29" t="n">
-        <v>2.055147305628259</v>
+        <v>21.838472366333</v>
+      </c>
+      <c r="E29" t="n">
+        <v>14.65687192719559</v>
+      </c>
+      <c r="F29" t="n">
+        <v>320.0836925589428</v>
       </c>
     </row>
     <row r="30">
@@ -1212,7 +1390,13 @@
         <v>234.034759521484</v>
       </c>
       <c r="D30" t="n">
-        <v>2.073513028096211</v>
+        <v>22.028938293457</v>
+      </c>
+      <c r="E30" t="n">
+        <v>14.65375045250207</v>
+      </c>
+      <c r="F30" t="n">
+        <v>322.8065644858857</v>
       </c>
     </row>
     <row r="31">
@@ -1226,7 +1410,13 @@
         <v>236.35270690918</v>
       </c>
       <c r="D31" t="n">
-        <v>2.094917717082594</v>
+        <v>22.25172996521</v>
+      </c>
+      <c r="E31" t="n">
+        <v>14.65071447964372</v>
+      </c>
+      <c r="F31" t="n">
+        <v>326.0037423984243</v>
       </c>
     </row>
     <row r="32">
@@ -1240,7 +1430,13 @@
         <v>238.622406005859</v>
       </c>
       <c r="D32" t="n">
-        <v>2.115839503775899</v>
+        <v>22.4696846008301</v>
+      </c>
+      <c r="E32" t="n">
+        <v>14.64792975063986</v>
+      </c>
+      <c r="F32" t="n">
+        <v>329.1343615519936</v>
       </c>
     </row>
     <row r="33">
@@ -1254,7 +1450,13 @@
         <v>240.322525024414</v>
       </c>
       <c r="D33" t="n">
-        <v>2.131932638902497</v>
+        <v>22.635181427002</v>
+      </c>
+      <c r="E33" t="n">
+        <v>14.64443075245821</v>
+      </c>
+      <c r="F33" t="n">
+        <v>331.4793469770589</v>
       </c>
     </row>
     <row r="34">
@@ -1268,7 +1470,13 @@
         <v>244.135360717773</v>
       </c>
       <c r="D34" t="n">
-        <v>2.166475251160984</v>
+        <v>22.9981136322021</v>
+      </c>
+      <c r="E34" t="n">
+        <v>14.64200250033669</v>
+      </c>
+      <c r="F34" t="n">
+        <v>336.7384373057305</v>
       </c>
     </row>
     <row r="35">
@@ -1282,7 +1490,13 @@
         <v>245.977005004883</v>
       </c>
       <c r="D35" t="n">
-        <v>2.183428031655908</v>
+        <v>23.1748371124268</v>
+      </c>
+      <c r="E35" t="n">
+        <v>14.63995703335462</v>
+      </c>
+      <c r="F35" t="n">
+        <v>339.2786195809205</v>
       </c>
     </row>
     <row r="36">
@@ -1296,7 +1510,13 @@
         <v>248.117263793945</v>
       </c>
       <c r="D36" t="n">
-        <v>2.203091660292275</v>
+        <v>23.3800144195557</v>
+      </c>
+      <c r="E36" t="n">
+        <v>14.63774582435352</v>
+      </c>
+      <c r="F36" t="n">
+        <v>342.2307084431765</v>
       </c>
     </row>
     <row r="37">
@@ -1310,7 +1530,13 @@
         <v>250.407318115234</v>
       </c>
       <c r="D37" t="n">
-        <v>2.224161518155042</v>
+        <v>23.5997104644775</v>
+      </c>
+      <c r="E37" t="n">
+        <v>14.63532414929614</v>
+      </c>
+      <c r="F37" t="n">
+        <v>345.3894124771643</v>
       </c>
     </row>
     <row r="38">
@@ -1324,7 +1550,13 @@
         <v>252.556289672852</v>
       </c>
       <c r="D38" t="n">
-        <v>2.244368375590744</v>
+        <v>23.808177947998</v>
+      </c>
+      <c r="E38" t="n">
+        <v>14.63167387863683</v>
+      </c>
+      <c r="F38" t="n">
+        <v>348.3534953796597</v>
       </c>
     </row>
     <row r="39">
@@ -1338,7 +1570,13 @@
         <v>254.183822631836</v>
       </c>
       <c r="D39" t="n">
-        <v>2.260560435190144</v>
+        <v>23.9707717895508</v>
+      </c>
+      <c r="E39" t="n">
+        <v>14.626078112372</v>
+      </c>
+      <c r="F39" t="n">
+        <v>350.5983806078132</v>
       </c>
     </row>
     <row r="40">
@@ -1352,7 +1590,13 @@
         <v>256.900329589844</v>
       </c>
       <c r="D40" t="n">
-        <v>2.286563985332342</v>
+        <v>24.2367286682129</v>
+      </c>
+      <c r="E40" t="n">
+        <v>14.62017717032593</v>
+      </c>
+      <c r="F40" t="n">
+        <v>354.3452671583902</v>
       </c>
     </row>
     <row r="41">
@@ -1366,7 +1610,13 @@
         <v>259.653015136719</v>
       </c>
       <c r="D41" t="n">
-        <v>2.312830504959736</v>
+        <v>24.5057830810547</v>
+      </c>
+      <c r="E41" t="n">
+        <v>14.61459455818966</v>
+      </c>
+      <c r="F41" t="n">
+        <v>358.1420840605582</v>
       </c>
     </row>
     <row r="42">
@@ -1380,7 +1630,13 @@
         <v>261.801696777344</v>
       </c>
       <c r="D42" t="n">
-        <v>2.333516617928324</v>
+        <v>24.7167682647705</v>
+      </c>
+      <c r="E42" t="n">
+        <v>14.60974989266235</v>
+      </c>
+      <c r="F42" t="n">
+        <v>361.1058025031909</v>
       </c>
     </row>
     <row r="43">
@@ -1394,7 +1650,13 @@
         <v>264.124938964844</v>
       </c>
       <c r="D43" t="n">
-        <v>2.355571210401696</v>
+        <v>24.9432373046875</v>
+      </c>
+      <c r="E43" t="n">
+        <v>14.60557214145007</v>
+      </c>
+      <c r="F43" t="n">
+        <v>364.3102518949219</v>
       </c>
     </row>
     <row r="44">
@@ -1408,7 +1670,13 @@
         <v>266.106292724609</v>
       </c>
       <c r="D44" t="n">
-        <v>2.374716102734009</v>
+        <v>25.1381568908691</v>
+      </c>
+      <c r="E44" t="n">
+        <v>14.60103791335531</v>
+      </c>
+      <c r="F44" t="n">
+        <v>367.0431818354538</v>
       </c>
     </row>
     <row r="45">
@@ -1422,7 +1690,13 @@
         <v>269.162902832031</v>
       </c>
       <c r="D45" t="n">
-        <v>2.403465576960085</v>
+        <v>25.4346961975098</v>
+      </c>
+      <c r="E45" t="n">
+        <v>14.59656419425172</v>
+      </c>
+      <c r="F45" t="n">
+        <v>371.259175808242</v>
       </c>
     </row>
     <row r="46">
@@ -1436,7 +1710,13 @@
         <v>272.001831054688</v>
       </c>
       <c r="D46" t="n">
-        <v>2.429879172204119</v>
+        <v>25.708589553833</v>
+      </c>
+      <c r="E46" t="n">
+        <v>14.59336905643862</v>
+      </c>
+      <c r="F46" t="n">
+        <v>375.1749352795877</v>
       </c>
     </row>
     <row r="47">
@@ -1450,7 +1730,13 @@
         <v>273.327575683594</v>
       </c>
       <c r="D47" t="n">
-        <v>2.44299036619565</v>
+        <v>25.8406009674072</v>
+      </c>
+      <c r="E47" t="n">
+        <v>14.58958198284276</v>
+      </c>
+      <c r="F47" t="n">
+        <v>377.0035662999133</v>
       </c>
     </row>
     <row r="48">
@@ -1464,7 +1750,13 @@
         <v>275.643371582031</v>
       </c>
       <c r="D48" t="n">
-        <v>2.464783858802312</v>
+        <v>26.0653285980225</v>
+      </c>
+      <c r="E48" t="n">
+        <v>14.58634080557986</v>
+      </c>
+      <c r="F48" t="n">
+        <v>380.1977661401833</v>
       </c>
     </row>
     <row r="49">
@@ -1478,7 +1770,13 @@
         <v>278.143493652344</v>
       </c>
       <c r="D49" t="n">
-        <v>2.488114277560308</v>
+        <v>26.3068962097168</v>
+      </c>
+      <c r="E49" t="n">
+        <v>14.58348372886924</v>
+      </c>
+      <c r="F49" t="n">
+        <v>383.6461928314569</v>
       </c>
     </row>
     <row r="50">
@@ -1492,7 +1790,13 @@
         <v>279.571136474609</v>
       </c>
       <c r="D50" t="n">
-        <v>2.502035533511501</v>
+        <v>26.4480037689209</v>
+      </c>
+      <c r="E50" t="n">
+        <v>14.58013074151407</v>
+      </c>
+      <c r="F50" t="n">
+        <v>385.6153528029236</v>
       </c>
     </row>
     <row r="51">
@@ -1506,7 +1810,13 @@
         <v>282.085083007813</v>
       </c>
       <c r="D51" t="n">
-        <v>2.525608764131603</v>
+        <v>26.6915073394775</v>
+      </c>
+      <c r="E51" t="n">
+        <v>14.57702899801324</v>
+      </c>
+      <c r="F51" t="n">
+        <v>389.0828764882468</v>
       </c>
     </row>
     <row r="52">
@@ -1520,7 +1830,13 @@
         <v>285.369323730469</v>
       </c>
       <c r="D52" t="n">
-        <v>2.555985604904581</v>
+        <v>27.0074043273926</v>
+      </c>
+      <c r="E52" t="n">
+        <v>14.57425742313779</v>
+      </c>
+      <c r="F52" t="n">
+        <v>393.6128629981854</v>
       </c>
     </row>
     <row r="53">
@@ -1534,7 +1850,13 @@
         <v>287.2958984375</v>
       </c>
       <c r="D53" t="n">
-        <v>2.574085625381959</v>
+        <v>27.1941947937012</v>
+      </c>
+      <c r="E53" t="n">
+        <v>14.57186731798897</v>
+      </c>
+      <c r="F53" t="n">
+        <v>396.2701983533602</v>
       </c>
     </row>
     <row r="54">
@@ -1548,7 +1870,13 @@
         <v>289.521026611328</v>
       </c>
       <c r="D54" t="n">
-        <v>2.594933623117107</v>
+        <v>27.4096298217773</v>
+      </c>
+      <c r="E54" t="n">
+        <v>14.56930752458248</v>
+      </c>
+      <c r="F54" t="n">
+        <v>399.3393260084404</v>
       </c>
     </row>
     <row r="55">
@@ -1562,7 +1890,13 @@
         <v>291.842895507813</v>
       </c>
       <c r="D55" t="n">
-        <v>2.616417529443304</v>
+        <v>27.6330032348633</v>
+      </c>
+      <c r="E55" t="n">
+        <v>14.5674330612709</v>
+      </c>
+      <c r="F55" t="n">
+        <v>402.5419249057533</v>
       </c>
     </row>
     <row r="56">
@@ -1576,7 +1910,13 @@
         <v>293.530792236328</v>
       </c>
       <c r="D56" t="n">
-        <v>2.632625479626545</v>
+        <v>27.7985000610352</v>
+      </c>
+      <c r="E56" t="n">
+        <v>14.5644562819909</v>
+      </c>
+      <c r="F56" t="n">
+        <v>404.8700388438685</v>
       </c>
     </row>
     <row r="57">
@@ -1590,7 +1930,13 @@
         <v>297.908874511719</v>
       </c>
       <c r="D57" t="n">
-        <v>2.673100231777812</v>
+        <v>28.2195014953613</v>
+      </c>
+      <c r="E57" t="n">
+        <v>14.56116380362676</v>
+      </c>
+      <c r="F57" t="n">
+        <v>410.9087837306461</v>
       </c>
     </row>
     <row r="58">
@@ -1604,7 +1950,13 @@
         <v>299.413238525391</v>
       </c>
       <c r="D58" t="n">
-        <v>2.687838791358059</v>
+        <v>28.3685474395752</v>
+      </c>
+      <c r="E58" t="n">
+        <v>14.55780423920731</v>
+      </c>
+      <c r="F58" t="n">
+        <v>412.9837601760015</v>
       </c>
     </row>
     <row r="59">
@@ -1618,7 +1970,13 @@
         <v>300.931701660156</v>
       </c>
       <c r="D59" t="n">
-        <v>2.702266727444346</v>
+        <v>28.516622543335</v>
+      </c>
+      <c r="E59" t="n">
+        <v>14.55565880084855</v>
+      </c>
+      <c r="F59" t="n">
+        <v>415.0782278933704</v>
       </c>
     </row>
     <row r="60">
@@ -1632,7 +1990,13 @@
         <v>305.438354492188</v>
       </c>
       <c r="D60" t="n">
-        <v>2.744155783227515</v>
+        <v>28.9511737823486</v>
+      </c>
+      <c r="E60" t="n">
+        <v>14.55189014303269</v>
+      </c>
+      <c r="F60" t="n">
+        <v>421.2943003925851</v>
       </c>
     </row>
     <row r="61">
@@ -1646,7 +2010,13 @@
         <v>311.019348144531</v>
       </c>
       <c r="D61" t="n">
-        <v>2.795767658288523</v>
+        <v>29.4879264831543</v>
+      </c>
+      <c r="E61" t="n">
+        <v>14.54806229163862</v>
+      </c>
+      <c r="F61" t="n">
+        <v>428.992191328189</v>
       </c>
     </row>
     <row r="62">
@@ -1660,7 +2030,13 @@
         <v>314.949493408203</v>
       </c>
       <c r="D62" t="n">
-        <v>2.832452688078302</v>
+        <v>29.8677005767822</v>
+      </c>
+      <c r="E62" t="n">
+        <v>14.54457776299835</v>
+      </c>
+      <c r="F62" t="n">
+        <v>434.4130936409593</v>
       </c>
     </row>
     <row r="63">
@@ -1674,7 +2050,13 @@
         <v>319.441650390625</v>
       </c>
       <c r="D63" t="n">
-        <v>2.87425276022562</v>
+        <v>30.3010902404785</v>
+      </c>
+      <c r="E63" t="n">
+        <v>14.54103404077986</v>
+      </c>
+      <c r="F63" t="n">
+        <v>440.6091846595403</v>
       </c>
     </row>
     <row r="64">
@@ -1688,7 +2070,13 @@
         <v>324.903778076172</v>
       </c>
       <c r="D64" t="n">
-        <v>2.924694771994889</v>
+        <v>30.8260345458984</v>
+      </c>
+      <c r="E64" t="n">
+        <v>14.53781391012262</v>
+      </c>
+      <c r="F64" t="n">
+        <v>448.1431538152822</v>
       </c>
     </row>
     <row r="65">
@@ -1702,7 +2090,13 @@
         <v>330.965637207031</v>
       </c>
       <c r="D65" t="n">
-        <v>2.981602999829278</v>
+        <v>31.413501739502</v>
+      </c>
+      <c r="E65" t="n">
+        <v>14.53210501835269</v>
+      </c>
+      <c r="F65" t="n">
+        <v>456.504306272648</v>
       </c>
     </row>
     <row r="66">
@@ -1716,7 +2110,13 @@
         <v>334.724304199219</v>
       </c>
       <c r="D66" t="n">
-        <v>3.017519424248857</v>
+        <v>31.7810802459717</v>
+      </c>
+      <c r="E66" t="n">
+        <v>14.52715511979724</v>
+      </c>
+      <c r="F66" t="n">
+        <v>461.6886826079548</v>
       </c>
     </row>
     <row r="67">
@@ -1730,7 +2130,13 @@
         <v>340.157104492188</v>
       </c>
       <c r="D67" t="n">
-        <v>3.070654542574794</v>
+        <v>32.3188018798828</v>
+      </c>
+      <c r="E67" t="n">
+        <v>14.51731451626483</v>
+      </c>
+      <c r="F67" t="n">
+        <v>469.1822116791095</v>
       </c>
     </row>
     <row r="68">
@@ -1744,7 +2150,13 @@
         <v>344.504364013672</v>
       </c>
       <c r="D68" t="n">
-        <v>3.112956473613432</v>
+        <v>32.747932434082</v>
+      </c>
+      <c r="E68" t="n">
+        <v>14.51018103237807</v>
+      </c>
+      <c r="F68" t="n">
+        <v>475.1784280546153</v>
       </c>
     </row>
     <row r="69">
@@ -1758,7 +2170,13 @@
         <v>351.243713378906</v>
       </c>
       <c r="D69" t="n">
-        <v>3.177031966982347</v>
+        <v>33.4052772521973</v>
+      </c>
+      <c r="E69" t="n">
+        <v>14.50292126885779</v>
+      </c>
+      <c r="F69" t="n">
+        <v>484.4741059529837</v>
       </c>
     </row>
     <row r="70">
@@ -1772,7 +2190,13 @@
         <v>355.826080322266</v>
       </c>
       <c r="D70" t="n">
-        <v>3.220634080732454</v>
+        <v>33.852409362793</v>
+      </c>
+      <c r="E70" t="n">
+        <v>14.49807002626621</v>
+      </c>
+      <c r="F70" t="n">
+        <v>490.7946014996027</v>
       </c>
     </row>
     <row r="71">
@@ -1786,7 +2210,13 @@
         <v>359.819763183594</v>
       </c>
       <c r="D71" t="n">
-        <v>3.258884469607418</v>
+        <v>34.243408203125</v>
+      </c>
+      <c r="E71" t="n">
+        <v>14.49339110275793</v>
+      </c>
+      <c r="F71" t="n">
+        <v>496.3031077792798</v>
       </c>
     </row>
     <row r="72">
@@ -1800,7 +2230,13 @@
         <v>363.846252441406</v>
       </c>
       <c r="D72" t="n">
-        <v>3.296580207894308</v>
+        <v>34.6330528259277</v>
+      </c>
+      <c r="E72" t="n">
+        <v>14.49069187558924</v>
+      </c>
+      <c r="F72" t="n">
+        <v>501.8568972115235</v>
       </c>
     </row>
     <row r="73">
@@ -1814,7 +2250,13 @@
         <v>365.107574462891</v>
       </c>
       <c r="D73" t="n">
-        <v>3.309988764874409</v>
+        <v>34.7635154724121</v>
+      </c>
+      <c r="E73" t="n">
+        <v>14.48635627483504</v>
+      </c>
+      <c r="F73" t="n">
+        <v>503.5966704991019</v>
       </c>
     </row>
     <row r="74">
@@ -1828,7 +2270,13 @@
         <v>367.021209716797</v>
       </c>
       <c r="D74" t="n">
-        <v>3.330237883660089</v>
+        <v>34.9609489440918</v>
+      </c>
+      <c r="E74" t="n">
+        <v>14.48004623939255</v>
+      </c>
+      <c r="F74" t="n">
+        <v>506.2361572834915</v>
       </c>
     </row>
     <row r="75">
@@ -1842,7 +2290,13 @@
         <v>369.067016601563</v>
       </c>
       <c r="D75" t="n">
-        <v>3.35190737264883</v>
+        <v>35.1721267700195</v>
+      </c>
+      <c r="E75" t="n">
+        <v>14.47333500303076</v>
+      </c>
+      <c r="F75" t="n">
+        <v>509.0579735115584</v>
       </c>
     </row>
     <row r="76">
@@ -1856,7 +2310,13 @@
         <v>370.980682373047</v>
       </c>
       <c r="D76" t="n">
-        <v>3.372380587200904</v>
+        <v>35.3707237243652</v>
+      </c>
+      <c r="E76" t="n">
+        <v>14.46669611437573</v>
+      </c>
+      <c r="F76" t="n">
+        <v>511.6975114659313</v>
       </c>
     </row>
     <row r="77">
@@ -1870,7 +2330,13 @@
         <v>372.316345214844</v>
       </c>
       <c r="D77" t="n">
-        <v>3.387959360848281</v>
+        <v>35.5160903930664</v>
+      </c>
+      <c r="E77" t="n">
+        <v>14.45935611067145</v>
+      </c>
+      <c r="F77" t="n">
+        <v>513.5397986521442</v>
       </c>
     </row>
     <row r="78">
@@ -1884,7 +2350,13 @@
         <v>376.524047851563</v>
       </c>
       <c r="D78" t="n">
-        <v>3.433023005708274</v>
+        <v>35.9529647827148</v>
+      </c>
+      <c r="E78" t="n">
+        <v>14.44508125042097</v>
+      </c>
+      <c r="F78" t="n">
+        <v>519.3434974798389</v>
       </c>
     </row>
     <row r="79">
@@ -1898,7 +2370,13 @@
         <v>376.761016845703</v>
       </c>
       <c r="D79" t="n">
-        <v>3.451694049626145</v>
+        <v>36.0619430541992</v>
+      </c>
+      <c r="E79" t="n">
+        <v>14.41049246952455</v>
+      </c>
+      <c r="F79" t="n">
+        <v>519.6703588189607</v>
       </c>
     </row>
     <row r="80">
@@ -1912,7 +2390,13 @@
         <v>377.486328125</v>
       </c>
       <c r="D80" t="n">
-        <v>3.479615970788079</v>
+        <v>36.2423439025879</v>
+      </c>
+      <c r="E80" t="n">
+        <v>14.366366945464</v>
+      </c>
+      <c r="F80" t="n">
+        <v>520.6708114682775</v>
       </c>
     </row>
     <row r="81">
@@ -1926,7 +2410,13 @@
         <v>378.548461914063</v>
       </c>
       <c r="D81" t="n">
-        <v>3.511338746255631</v>
+        <v>36.4583587646484</v>
+      </c>
+      <c r="E81" t="n">
+        <v>14.32142981167503</v>
+      </c>
+      <c r="F81" t="n">
+        <v>522.1358260967794</v>
       </c>
     </row>
     <row r="82">
@@ -1940,7 +2430,13 @@
         <v>379.081420898438</v>
       </c>
       <c r="D82" t="n">
-        <v>3.541824659381934</v>
+        <v>36.6420516967773</v>
+      </c>
+      <c r="E82" t="n">
+        <v>14.26969593968883</v>
+      </c>
+      <c r="F82" t="n">
+        <v>522.8709363193713</v>
       </c>
     </row>
     <row r="83">
@@ -1954,7 +2450,13 @@
         <v>379.066192626953</v>
       </c>
       <c r="D83" t="n">
-        <v>3.574109966431296</v>
+        <v>36.8079376220703</v>
+      </c>
+      <c r="E83" t="n">
+        <v>14.20481451626483</v>
+      </c>
+      <c r="F83" t="n">
+        <v>522.8499266477544</v>
       </c>
     </row>
     <row r="84">
@@ -1968,7 +2470,13 @@
         <v>380.686889648438</v>
       </c>
       <c r="D84" t="n">
-        <v>3.626965666257204</v>
+        <v>37.1582870483398</v>
+      </c>
+      <c r="E84" t="n">
+        <v>14.13104353279904</v>
+      </c>
+      <c r="F84" t="n">
+        <v>525.0853718843323</v>
       </c>
     </row>
     <row r="85">
@@ -1982,7 +2490,13 @@
         <v>379.720855712891</v>
       </c>
       <c r="D85" t="n">
-        <v>3.656983005464261</v>
+        <v>37.2643623352051</v>
+      </c>
+      <c r="E85" t="n">
+        <v>14.055061340332</v>
+      </c>
+      <c r="F85" t="n">
+        <v>523.7528984296652</v>
       </c>
     </row>
     <row r="86">
@@ -1996,7 +2510,13 @@
         <v>379.304504394531</v>
       </c>
       <c r="D86" t="n">
-        <v>3.695230493141001</v>
+        <v>37.4381828308105</v>
+      </c>
+      <c r="E86" t="n">
+        <v>13.97446599499931</v>
+      </c>
+      <c r="F86" t="n">
+        <v>523.1786128837283</v>
       </c>
     </row>
     <row r="87">
@@ -2010,7 +2530,13 @@
         <v>378.912719726563</v>
       </c>
       <c r="D87" t="n">
-        <v>3.736746232928531</v>
+        <v>37.6284561157227</v>
+      </c>
+      <c r="E87" t="n">
+        <v>13.8894416546</v>
+      </c>
+      <c r="F87" t="n">
+        <v>522.6382457720069</v>
       </c>
     </row>
     <row r="88">
@@ -2024,7 +2550,13 @@
         <v>378.127136230469</v>
       </c>
       <c r="D88" t="n">
-        <v>3.77767499940423</v>
+        <v>37.7947273254395</v>
+      </c>
+      <c r="E88" t="n">
+        <v>13.79966735839848</v>
+      </c>
+      <c r="F88" t="n">
+        <v>521.5546649924387</v>
       </c>
     </row>
     <row r="89">
@@ -2038,7 +2570,13 @@
         <v>377.123931884766</v>
       </c>
       <c r="D89" t="n">
-        <v>3.820033004507237</v>
+        <v>37.9555778503418</v>
+      </c>
+      <c r="E89" t="n">
+        <v>13.70473006675984</v>
+      </c>
+      <c r="F89" t="n">
+        <v>520.1709489668229</v>
       </c>
     </row>
     <row r="90">
@@ -2052,7 +2590,13 @@
         <v>377.225494384766</v>
       </c>
       <c r="D90" t="n">
-        <v>3.877420551270465</v>
+        <v>38.2447624206543</v>
+      </c>
+      <c r="E90" t="n">
+        <v>13.60476526720771</v>
+      </c>
+      <c r="F90" t="n">
+        <v>520.3110154331283</v>
       </c>
     </row>
     <row r="91">
@@ -2066,7 +2610,13 @@
         <v>375.451385498047</v>
       </c>
       <c r="D91" t="n">
-        <v>3.919122222233048</v>
+        <v>38.3593521118164</v>
+      </c>
+      <c r="E91" t="n">
+        <v>13.50033201020339</v>
+      </c>
+      <c r="F91" t="n">
+        <v>517.863989205818</v>
       </c>
     </row>
     <row r="92">
@@ -2080,7 +2630,13 @@
         <v>374.047088623047</v>
       </c>
       <c r="D92" t="n">
-        <v>3.968491344844729</v>
+        <v>38.527946472168</v>
+      </c>
+      <c r="E92" t="n">
+        <v>13.39098173996498</v>
+      </c>
+      <c r="F92" t="n">
+        <v>515.9270276871498</v>
       </c>
     </row>
     <row r="93">
@@ -2094,7 +2650,13 @@
         <v>372.489227294922</v>
       </c>
       <c r="D93" t="n">
-        <v>4.02000129984077</v>
+        <v>38.696346282959</v>
+      </c>
+      <c r="E93" t="n">
+        <v>13.27717748181574</v>
+      </c>
+      <c r="F93" t="n">
+        <v>513.7782574966474</v>
       </c>
     </row>
     <row r="94">
@@ -2108,7 +2670,13 @@
         <v>368.912078857422</v>
       </c>
       <c r="D94" t="n">
-        <v>4.129822687084873</v>
+        <v>39.0325698852539</v>
+      </c>
+      <c r="E94" t="n">
+        <v>13.03640168288658</v>
+      </c>
+      <c r="F94" t="n">
+        <v>508.844259739512</v>
       </c>
     </row>
     <row r="95">
@@ -2122,7 +2690,13 @@
         <v>367.298828125</v>
       </c>
       <c r="D95" t="n">
-        <v>4.193214518040764</v>
+        <v>39.2449073791504</v>
+      </c>
+      <c r="E95" t="n">
+        <v>12.90916705953664</v>
+      </c>
+      <c r="F95" t="n">
+        <v>506.6190655934946</v>
       </c>
     </row>
     <row r="96">
@@ -2136,7 +2710,13 @@
         <v>364.508422851563</v>
       </c>
       <c r="D96" t="n">
-        <v>4.24684924467518</v>
+        <v>39.3447875976563</v>
+      </c>
+      <c r="E96" t="n">
+        <v>12.77857287176724</v>
+      </c>
+      <c r="F96" t="n">
+        <v>502.770235440855</v>
       </c>
     </row>
     <row r="97">
@@ -2150,7 +2730,13 @@
         <v>362.156219482422</v>
       </c>
       <c r="D97" t="n">
-        <v>4.309749089176441</v>
+        <v>39.5069923400879</v>
+      </c>
+      <c r="E97" t="n">
+        <v>12.64398509058459</v>
+      </c>
+      <c r="F97" t="n">
+        <v>499.5258221219111</v>
       </c>
     </row>
     <row r="98">
@@ -2164,7 +2750,13 @@
         <v>359.672729492188</v>
       </c>
       <c r="D98" t="n">
-        <v>4.375513587229493</v>
+        <v>39.6705551147461</v>
+      </c>
+      <c r="E98" t="n">
+        <v>12.50550500277815</v>
+      </c>
+      <c r="F98" t="n">
+        <v>496.1003254504438</v>
       </c>
     </row>
     <row r="99">
@@ -2178,7 +2770,13 @@
         <v>353.253692626953</v>
       </c>
       <c r="D99" t="n">
-        <v>4.502054189254141</v>
+        <v>39.8794097900391</v>
+      </c>
+      <c r="E99" t="n">
+        <v>12.2179965315194</v>
+      </c>
+      <c r="F99" t="n">
+        <v>487.2464904937383</v>
       </c>
     </row>
     <row r="100">
@@ -2192,7 +2790,13 @@
         <v>350.814025878906</v>
       </c>
       <c r="D100" t="n">
-        <v>4.582032961499581</v>
+        <v>40.0929107666016</v>
+      </c>
+      <c r="E100" t="n">
+        <v>12.06900234880119</v>
+      </c>
+      <c r="F100" t="n">
+        <v>483.8814342123911</v>
       </c>
     </row>
     <row r="101">
@@ -2206,7 +2810,13 @@
         <v>347.708404541016</v>
       </c>
       <c r="D101" t="n">
-        <v>4.657304599762701</v>
+        <v>40.241569519043</v>
+      </c>
+      <c r="E101" t="n">
+        <v>11.91796927616515</v>
+      </c>
+      <c r="F101" t="n">
+        <v>479.5977891526182</v>
       </c>
     </row>
     <row r="102">
@@ -2220,7 +2830,13 @@
         <v>340.938659667969</v>
       </c>
       <c r="D102" t="n">
-        <v>4.812127377023158</v>
+        <v>40.5048179626465</v>
+      </c>
+      <c r="E102" t="n">
+        <v>11.60998245765423</v>
+      </c>
+      <c r="F102" t="n">
+        <v>470.260225996804</v>
       </c>
     </row>
     <row r="103">
@@ -2234,7 +2850,13 @@
         <v>334.824249267578</v>
       </c>
       <c r="D103" t="n">
-        <v>4.996669451831938</v>
+        <v>40.9023971557617</v>
+      </c>
+      <c r="E103" t="n">
+        <v>11.29094090955011</v>
+      </c>
+      <c r="F103" t="n">
+        <v>461.8265493446559</v>
       </c>
     </row>
     <row r="104">
@@ -2248,7 +2870,13 @@
         <v>330.161346435547</v>
       </c>
       <c r="D104" t="n">
-        <v>5.071218719088743</v>
+        <v>40.9184608459473</v>
+      </c>
+      <c r="E104" t="n">
+        <v>11.12932797135978</v>
+      </c>
+      <c r="F104" t="n">
+        <v>455.3949708377913</v>
       </c>
     </row>
     <row r="105">
@@ -2262,7 +2890,13 @@
         <v>322.205871582031</v>
       </c>
       <c r="D105" t="n">
-        <v>5.251491578928394</v>
+        <v>41.1346740722656</v>
+      </c>
+      <c r="E105" t="n">
+        <v>10.80406978212554</v>
+      </c>
+      <c r="F105" t="n">
+        <v>444.4218891417478</v>
       </c>
     </row>
     <row r="106">
@@ -2276,7 +2910,13 @@
         <v>313.792694091797</v>
       </c>
       <c r="D106" t="n">
-        <v>5.440608686070274</v>
+        <v>41.3185577392578</v>
+      </c>
+      <c r="E106" t="n">
+        <v>10.47513567168137</v>
+      </c>
+      <c r="F106" t="n">
+        <v>432.8174980769256</v>
       </c>
     </row>
     <row r="107">
@@ -2290,7 +2930,13 @@
         <v>309.897094726563</v>
       </c>
       <c r="D107" t="n">
-        <v>5.5471071562589</v>
+        <v>41.4612159729004</v>
+      </c>
+      <c r="E107" t="n">
+        <v>10.30949691246295</v>
+      </c>
+      <c r="F107" t="n">
+        <v>427.4442780595763</v>
       </c>
     </row>
     <row r="108">
@@ -2304,7 +2950,13 @@
         <v>301.61083984375</v>
       </c>
       <c r="D108" t="n">
-        <v>5.765845550847113</v>
+        <v>41.7018165588379</v>
+      </c>
+      <c r="E108" t="n">
+        <v>9.975943072088828</v>
+      </c>
+      <c r="F108" t="n">
+        <v>416.0149479936581</v>
       </c>
     </row>
     <row r="109">
@@ -2318,7 +2970,13 @@
         <v>288.678405761719</v>
       </c>
       <c r="D109" t="n">
-        <v>6.118015379281994</v>
+        <v>42.0254554748535</v>
+      </c>
+      <c r="E109" t="n">
+        <v>9.474664885422277</v>
+      </c>
+      <c r="F109" t="n">
+        <v>398.1771072814718</v>
       </c>
     </row>
     <row r="110">
@@ -2332,7 +2990,13 @@
         <v>284.594085693359</v>
       </c>
       <c r="D110" t="n">
-        <v>6.247676316397262</v>
+        <v>42.1669502258301</v>
+      </c>
+      <c r="E110" t="n">
+        <v>9.309270792994001</v>
+      </c>
+      <c r="F110" t="n">
+        <v>392.5435581669519</v>
       </c>
     </row>
     <row r="111">
@@ -2346,7 +3010,13 @@
         <v>275.199035644531</v>
       </c>
       <c r="D111" t="n">
-        <v>6.490599574313995</v>
+        <v>42.2635383605957</v>
+      </c>
+      <c r="E111" t="n">
+        <v>8.981379147233628</v>
+      </c>
+      <c r="F111" t="n">
+        <v>379.5848621201628</v>
       </c>
     </row>
     <row r="112">
@@ -2360,7 +3030,13 @@
         <v>261.626617431641</v>
       </c>
       <c r="D112" t="n">
-        <v>6.895334000261188</v>
+        <v>42.4735565185547</v>
+      </c>
+      <c r="E112" t="n">
+        <v>8.496211479450098</v>
+      </c>
+      <c r="F112" t="n">
+        <v>360.864318466017</v>
       </c>
     </row>
     <row r="113">
@@ -2374,7 +3050,13 @@
         <v>248.822113037109</v>
       </c>
       <c r="D113" t="n">
-        <v>7.343314319136231</v>
+        <v>42.7455139160156</v>
+      </c>
+      <c r="E113" t="n">
+        <v>8.028980781292097</v>
+      </c>
+      <c r="F113" t="n">
+        <v>343.2029097181431</v>
       </c>
     </row>
     <row r="114">
@@ -2388,7 +3070,13 @@
         <v>236.920104980469</v>
       </c>
       <c r="D114" t="n">
-        <v>7.842254133048042</v>
+        <v>43.1043815612793</v>
+      </c>
+      <c r="E114" t="n">
+        <v>7.581279360014815</v>
+      </c>
+      <c r="F114" t="n">
+        <v>326.7863582567299</v>
       </c>
     </row>
     <row r="115">
@@ -2402,7 +3090,13 @@
         <v>232.191375732422</v>
       </c>
       <c r="D115" t="n">
-        <v>7.991333556434467</v>
+        <v>43.0757331848145</v>
+      </c>
+      <c r="E115" t="n">
+        <v>7.434904821987808</v>
+      </c>
+      <c r="F115" t="n">
+        <v>320.2639763664376</v>
       </c>
     </row>
     <row r="116">
@@ -2416,7 +3110,13 @@
         <v>211.544281005859</v>
       </c>
       <c r="D116" t="n">
-        <v>8.910987145187617</v>
+        <v>43.4173736572266</v>
+      </c>
+      <c r="E116" t="n">
+        <v>6.720471217714511</v>
+      </c>
+      <c r="F116" t="n">
+        <v>291.7852100121476</v>
       </c>
     </row>
     <row r="117">
@@ -2430,7 +3130,13 @@
         <v>199.954040527344</v>
       </c>
       <c r="D117" t="n">
-        <v>9.468573837678244</v>
+        <v>43.511833190918</v>
+      </c>
+      <c r="E117" t="n">
+        <v>6.338475326011918</v>
+      </c>
+      <c r="F117" t="n">
+        <v>275.7986810701801</v>
       </c>
     </row>
     <row r="118">
@@ -2444,7 +3150,13 @@
         <v>189.837738037109</v>
       </c>
       <c r="D118" t="n">
-        <v>10.07063404716544</v>
+        <v>43.7239799499512</v>
+      </c>
+      <c r="E118" t="n">
+        <v>5.988593923634497</v>
+      </c>
+      <c r="F118" t="n">
+        <v>261.8451606453943</v>
       </c>
     </row>
     <row r="119">
@@ -2458,7 +3170,13 @@
         <v>169.973846435547</v>
       </c>
       <c r="D119" t="n">
-        <v>11.3382370753364</v>
+        <v>43.8999290466309</v>
+      </c>
+      <c r="E119" t="n">
+        <v>5.340479817883725</v>
+      </c>
+      <c r="F119" t="n">
+        <v>234.4466850800598</v>
       </c>
     </row>
     <row r="120">
@@ -2472,7 +3190,13 @@
         <v>156.961639404297</v>
       </c>
       <c r="D120" t="n">
-        <v>12.39931577022053</v>
+        <v>44.1159477233887</v>
+      </c>
+      <c r="E120" t="n">
+        <v>4.907495235574662</v>
+      </c>
+      <c r="F120" t="n">
+        <v>216.4988032653909</v>
       </c>
     </row>
     <row r="121">
@@ -2486,7 +3210,13 @@
         <v>142.223281860352</v>
       </c>
       <c r="D121" t="n">
-        <v>13.7946906684212</v>
+        <v>44.2936363220215</v>
+      </c>
+      <c r="E121" t="n">
+        <v>4.428853988647463</v>
+      </c>
+      <c r="F121" t="n">
+        <v>196.170047896485</v>
       </c>
     </row>
     <row r="122">
@@ -2500,7 +3230,13 @@
         <v>122.023277282715</v>
       </c>
       <c r="D122" t="n">
-        <v>16.21066197106116</v>
+        <v>44.4755897521973</v>
+      </c>
+      <c r="E122" t="n">
+        <v>3.784277356904124</v>
+      </c>
+      <c r="F122" t="n">
+        <v>168.3079672341973</v>
       </c>
     </row>
     <row r="123">
@@ -2514,7 +3250,13 @@
         <v>108.010604858398</v>
       </c>
       <c r="D123" t="n">
-        <v>18.50600904828583</v>
+        <v>44.7084465026855</v>
+      </c>
+      <c r="E123" t="n">
+        <v>3.332259408358869</v>
+      </c>
+      <c r="F123" t="n">
+        <v>148.9801414916829</v>
       </c>
     </row>
     <row r="124">
@@ -2528,7 +3270,13 @@
         <v>91.4707946777344</v>
       </c>
       <c r="D124" t="n">
-        <v>22.04456525479457</v>
+        <v>44.9047203063965</v>
+      </c>
+      <c r="E124" t="n">
+        <v>2.809651473472855</v>
+      </c>
+      <c r="F124" t="n">
+        <v>126.1666135747534</v>
       </c>
     </row>
     <row r="125">
@@ -2542,7 +3290,13 @@
         <v>71.2166290283203</v>
       </c>
       <c r="D125" t="n">
-        <v>28.60408517516864</v>
+        <v>45.1340942382813</v>
+      </c>
+      <c r="E125" t="n">
+        <v>2.176399724236855</v>
+      </c>
+      <c r="F125" t="n">
+        <v>98.22983025387566</v>
       </c>
     </row>
     <row r="126">
@@ -2556,7 +3310,13 @@
         <v>44.9565620422363</v>
       </c>
       <c r="D126" t="n">
-        <v>45.67176198786254</v>
+        <v>45.3127517700195</v>
+      </c>
+      <c r="E126" t="n">
+        <v>1.368468054409684</v>
+      </c>
+      <c r="F126" t="n">
+        <v>62.00905325466757</v>
       </c>
     </row>
     <row r="127">
@@ -2570,7 +3330,13 @@
         <v>33.6293067932129</v>
       </c>
       <c r="D127" t="n">
-        <v>61.27870622826146</v>
+        <v>45.3955993652344</v>
+      </c>
+      <c r="E127" t="n">
+        <v>1.021800616691853</v>
+      </c>
+      <c r="F127" t="n">
+        <v>46.38525142649278</v>
       </c>
     </row>
     <row r="128">
@@ -2584,7 +3350,13 @@
         <v>18.5522975921631</v>
       </c>
       <c r="D128" t="n">
-        <v>112.1181246178379</v>
+        <v>45.607551574707</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.5610775947570801</v>
+      </c>
+      <c r="F128" t="n">
+        <v>25.58937534029609</v>
       </c>
     </row>
     <row r="129">
@@ -2598,7 +3370,13 @@
         <v>0.7237284183502199</v>
       </c>
       <c r="D129" t="n">
-        <v>2878.393151180554</v>
+        <v>45.6418113708496</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.021871307800556</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.9982461050667685</v>
       </c>
     </row>
   </sheetData>
@@ -2612,7 +3390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D129"/>
+  <dimension ref="A1:F129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2638,7 +3416,17 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Resistance_Ohm</t>
+          <t>Voltage_V_1000</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Current_A_1000</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Power_W_1000</t>
         </is>
       </c>
     </row>
@@ -2653,7 +3441,13 @@
         <v>4.89502096176147</v>
       </c>
       <c r="D2" t="n">
-        <v>0.04275776955472047</v>
+        <v>0.457493364810944</v>
+      </c>
+      <c r="E2" t="n">
+        <v>14.75814424712083</v>
+      </c>
+      <c r="F2" t="n">
+        <v>6.751753069980584</v>
       </c>
     </row>
     <row r="3">
@@ -2667,7 +3461,13 @@
         <v>159.766387939453</v>
       </c>
       <c r="D3" t="n">
-        <v>1.395659084181444</v>
+        <v>14.9324951171875</v>
+      </c>
+      <c r="E3" t="n">
+        <v>14.75757598876952</v>
+      </c>
+      <c r="F3" t="n">
+        <v>220.3674313938243</v>
       </c>
     </row>
     <row r="4">
@@ -2681,7 +3481,13 @@
         <v>161.268920898438</v>
       </c>
       <c r="D4" t="n">
-        <v>1.408910771855008</v>
+        <v>15.0736036300659</v>
+      </c>
+      <c r="E4" t="n">
+        <v>14.75691565151876</v>
+      </c>
+      <c r="F4" t="n">
+        <v>222.4398973333095</v>
       </c>
     </row>
     <row r="5">
@@ -2695,7 +3501,13 @@
         <v>163.951553344727</v>
       </c>
       <c r="D5" t="n">
-        <v>1.432369035035532</v>
+        <v>15.3244619369507</v>
+      </c>
+      <c r="E5" t="n">
+        <v>14.75680384142648</v>
+      </c>
+      <c r="F5" t="n">
+        <v>226.140078778988</v>
       </c>
     </row>
     <row r="6">
@@ -2709,7 +3521,13 @@
         <v>165.742111206055</v>
       </c>
       <c r="D6" t="n">
-        <v>1.448170269135494</v>
+        <v>15.4926691055298</v>
+      </c>
+      <c r="E6" t="n">
+        <v>14.75599880876207</v>
+      </c>
+      <c r="F6" t="n">
+        <v>228.6098068657427</v>
       </c>
     </row>
     <row r="7">
@@ -2723,7 +3541,13 @@
         <v>166.749282836914</v>
       </c>
       <c r="D7" t="n">
-        <v>1.457029185711245</v>
+        <v>15.5871286392212</v>
+      </c>
+      <c r="E7" t="n">
+        <v>14.75570152545793</v>
+      </c>
+      <c r="F7" t="n">
+        <v>229.9990178392653</v>
       </c>
     </row>
     <row r="8">
@@ -2737,7 +3561,13 @@
         <v>168.193298339844</v>
       </c>
       <c r="D8" t="n">
-        <v>1.469670301300096</v>
+        <v>15.7222356796265</v>
+      </c>
+      <c r="E8" t="n">
+        <v>14.75558313830152</v>
+      </c>
+      <c r="F8" t="n">
+        <v>231.9907556906993</v>
       </c>
     </row>
     <row r="9">
@@ -2751,7 +3581,13 @@
         <v>169.837036132813</v>
       </c>
       <c r="D9" t="n">
-        <v>1.483859448350981</v>
+        <v>15.8749580383301</v>
+      </c>
+      <c r="E9" t="n">
+        <v>14.756447364544</v>
+      </c>
+      <c r="F9" t="n">
+        <v>234.2579827069628</v>
       </c>
     </row>
     <row r="10">
@@ -2765,7 +3601,13 @@
         <v>170.057312011719</v>
       </c>
       <c r="D10" t="n">
-        <v>1.485770706981293</v>
+        <v>15.8954763412476</v>
+      </c>
+      <c r="E10" t="n">
+        <v>14.75651313518662</v>
+      </c>
+      <c r="F10" t="n">
+        <v>234.5618054196684</v>
       </c>
     </row>
     <row r="11">
@@ -2779,7 +3621,13 @@
         <v>172.127563476563</v>
       </c>
       <c r="D11" t="n">
-        <v>1.504012985327322</v>
+        <v>16.0898132324219</v>
+      </c>
+      <c r="E11" t="n">
+        <v>14.755754141972</v>
+      </c>
+      <c r="F11" t="n">
+        <v>237.4173282478654</v>
       </c>
     </row>
     <row r="12">
@@ -2793,7 +3641,13 @@
         <v>173.9169921875</v>
       </c>
       <c r="D12" t="n">
-        <v>1.519643232191115</v>
+        <v>16.2570533752441</v>
+      </c>
+      <c r="E12" t="n">
+        <v>14.75578045022897</v>
+      </c>
+      <c r="F12" t="n">
+        <v>239.8855103727558</v>
       </c>
     </row>
     <row r="13">
@@ -2807,7 +3661,13 @@
         <v>174.843719482422</v>
       </c>
       <c r="D13" t="n">
-        <v>1.527866231178464</v>
+        <v>16.3443508148193</v>
+      </c>
+      <c r="E13" t="n">
+        <v>14.75517404490511</v>
+      </c>
+      <c r="F13" t="n">
+        <v>241.1637409236453</v>
       </c>
     </row>
     <row r="14">
@@ -2821,7 +3681,13 @@
         <v>176.045913696289</v>
       </c>
       <c r="D14" t="n">
-        <v>1.538531284232302</v>
+        <v>16.4575862884521</v>
+      </c>
+      <c r="E14" t="n">
+        <v>14.75440847462621</v>
+      </c>
+      <c r="F14" t="n">
+        <v>242.8219506062297</v>
       </c>
     </row>
     <row r="15">
@@ -2835,7 +3701,13 @@
         <v>177.206726074219</v>
       </c>
       <c r="D15" t="n">
-        <v>1.548834079634001</v>
+        <v>16.5669498443604</v>
+      </c>
+      <c r="E15" t="n">
+        <v>14.75365605847586</v>
+      </c>
+      <c r="F15" t="n">
+        <v>244.4230799417136</v>
       </c>
     </row>
     <row r="16">
@@ -2849,7 +3721,13 @@
         <v>177.840209960938</v>
       </c>
       <c r="D16" t="n">
-        <v>1.554552999411878</v>
+        <v>16.6271476745605</v>
+      </c>
+      <c r="E16" t="n">
+        <v>14.75279183223324</v>
+      </c>
+      <c r="F16" t="n">
+        <v>245.2968484065921</v>
       </c>
     </row>
     <row r="17">
@@ -2863,7 +3741,13 @@
         <v>180.220306396484</v>
       </c>
       <c r="D17" t="n">
-        <v>1.575661258935397</v>
+        <v>16.8512954711914</v>
+      </c>
+      <c r="E17" t="n">
+        <v>14.75137250176786</v>
+      </c>
+      <c r="F17" t="n">
+        <v>248.5797366328981</v>
       </c>
     </row>
     <row r="18">
@@ -2877,7 +3761,13 @@
         <v>181.103286743164</v>
       </c>
       <c r="D18" t="n">
-        <v>1.58354263867502</v>
+        <v>16.934720993042</v>
+      </c>
+      <c r="E18" t="n">
+        <v>14.75062008561766</v>
+      </c>
+      <c r="F18" t="n">
+        <v>249.7976356242963</v>
       </c>
     </row>
     <row r="19">
@@ -2891,7 +3781,13 @@
         <v>182.199005126953</v>
       </c>
       <c r="D19" t="n">
-        <v>1.593437262459832</v>
+        <v>17.0388584136963</v>
+      </c>
+      <c r="E19" t="n">
+        <v>14.7491678698309</v>
+      </c>
+      <c r="F19" t="n">
+        <v>251.3089830538873</v>
       </c>
     </row>
     <row r="20">
@@ -2905,7 +3801,13 @@
         <v>183.294082641602</v>
       </c>
       <c r="D20" t="n">
-        <v>1.603229269097582</v>
+        <v>17.1424160003662</v>
+      </c>
+      <c r="E20" t="n">
+        <v>14.74817867936759</v>
+      </c>
+      <c r="F20" t="n">
+        <v>252.8194141694506</v>
       </c>
     </row>
     <row r="21">
@@ -2919,7 +3821,13 @@
         <v>184.360168457031</v>
       </c>
       <c r="D21" t="n">
-        <v>1.612803795429767</v>
+        <v>17.2434558868408</v>
+      </c>
+      <c r="E21" t="n">
+        <v>14.74703690101366</v>
+      </c>
+      <c r="F21" t="n">
+        <v>254.2898802642424</v>
       </c>
     </row>
     <row r="22">
@@ -2933,7 +3841,13 @@
         <v>185.169555664063</v>
       </c>
       <c r="D22" t="n">
-        <v>1.619989126357704</v>
+        <v>17.3197193145752</v>
+      </c>
+      <c r="E22" t="n">
+        <v>14.74656072156179</v>
+      </c>
+      <c r="F22" t="n">
+        <v>255.4062925527898</v>
       </c>
     </row>
     <row r="23">
@@ -2947,7 +3861,13 @@
         <v>188.199478149414</v>
       </c>
       <c r="D23" t="n">
-        <v>1.646927281599911</v>
+        <v>17.6054210662842</v>
+      </c>
+      <c r="E23" t="n">
+        <v>14.74463364173628</v>
+      </c>
+      <c r="F23" t="n">
+        <v>259.5854837308666</v>
       </c>
     </row>
     <row r="24">
@@ -2961,7 +3881,13 @@
         <v>188.304473876953</v>
       </c>
       <c r="D24" t="n">
-        <v>1.647964010906145</v>
+        <v>17.615873336792</v>
+      </c>
+      <c r="E24" t="n">
+        <v>14.74410616118331</v>
+      </c>
+      <c r="F24" t="n">
+        <v>259.7303065996197</v>
       </c>
     </row>
     <row r="25">
@@ -2975,7 +3901,13 @@
         <v>189.366836547852</v>
       </c>
       <c r="D25" t="n">
-        <v>1.65749880932476</v>
+        <v>17.7165260314941</v>
+      </c>
+      <c r="E25" t="n">
+        <v>14.74304988466455</v>
+      </c>
+      <c r="F25" t="n">
+        <v>261.1956270652757</v>
       </c>
     </row>
     <row r="26">
@@ -2989,7 +3921,13 @@
         <v>190.47380065918</v>
       </c>
       <c r="D26" t="n">
-        <v>1.667584935723539</v>
+        <v>17.8222122192383</v>
+      </c>
+      <c r="E26" t="n">
+        <v>14.74129512392248</v>
+      </c>
+      <c r="F26" t="n">
+        <v>262.7224900849693</v>
       </c>
     </row>
     <row r="27">
@@ -3003,7 +3941,13 @@
         <v>191.403228759766</v>
       </c>
       <c r="D27" t="n">
-        <v>1.67592925833081</v>
+        <v>17.9102840423584</v>
+      </c>
+      <c r="E27" t="n">
+        <v>14.74038354281724</v>
+      </c>
+      <c r="F27" t="n">
+        <v>264.004456145162</v>
       </c>
     </row>
     <row r="28">
@@ -3017,7 +3961,13 @@
         <v>192.330673217773</v>
       </c>
       <c r="D28" t="n">
-        <v>1.684290997213146</v>
+        <v>17.9983558654785</v>
+      </c>
+      <c r="E28" t="n">
+        <v>14.73932858171131</v>
+      </c>
+      <c r="F28" t="n">
+        <v>265.2836810318587</v>
       </c>
     </row>
     <row r="29">
@@ -3031,7 +3981,13 @@
         <v>194.97297668457</v>
       </c>
       <c r="D29" t="n">
-        <v>1.707667552128774</v>
+        <v>18.2468910217285</v>
+      </c>
+      <c r="E29" t="n">
+        <v>14.73830519051393</v>
+      </c>
+      <c r="F29" t="n">
+        <v>268.9282486562832</v>
       </c>
     </row>
     <row r="30">
@@ -3045,7 +4001,13 @@
         <v>195.422119140625</v>
       </c>
       <c r="D30" t="n">
-        <v>1.712030637743005</v>
+        <v>18.2912178039551</v>
+      </c>
+      <c r="E30" t="n">
+        <v>14.73645703545931</v>
+      </c>
+      <c r="F30" t="n">
+        <v>269.5477452942127</v>
       </c>
     </row>
     <row r="31">
@@ -3059,7 +4021,13 @@
         <v>196.520889282227</v>
       </c>
       <c r="D31" t="n">
-        <v>1.722188808092859</v>
+        <v>18.3969039916992</v>
+      </c>
+      <c r="E31" t="n">
+        <v>14.73418005581559</v>
+      </c>
+      <c r="F31" t="n">
+        <v>271.0632958832485</v>
       </c>
     </row>
     <row r="32">
@@ -3073,7 +4041,13 @@
         <v>197.812973022461</v>
       </c>
       <c r="D32" t="n">
-        <v>1.734095809763768</v>
+        <v>18.5209789276123</v>
+      </c>
+      <c r="E32" t="n">
+        <v>14.73169918718014</v>
+      </c>
+      <c r="F32" t="n">
+        <v>272.8454902136866</v>
       </c>
     </row>
     <row r="33">
@@ -3087,7 +4061,13 @@
         <v>198.354904174805</v>
       </c>
       <c r="D33" t="n">
-        <v>1.739602601192853</v>
+        <v>18.575756072998</v>
+      </c>
+      <c r="E33" t="n">
+        <v>14.72849747230262</v>
+      </c>
+      <c r="F33" t="n">
+        <v>273.5929763672611</v>
       </c>
     </row>
     <row r="34">
@@ -3101,7 +4081,13 @@
         <v>199.181488037109</v>
       </c>
       <c r="D34" t="n">
-        <v>1.748015390860971</v>
+        <v>18.6593761444092</v>
+      </c>
+      <c r="E34" t="n">
+        <v>14.72359492860993</v>
+      </c>
+      <c r="F34" t="n">
+        <v>274.7330959708485</v>
       </c>
     </row>
     <row r="35">
@@ -3115,7 +4101,13 @@
         <v>201.574508666992</v>
       </c>
       <c r="D35" t="n">
-        <v>1.770135263125638</v>
+        <v>18.8895244598389</v>
+      </c>
+      <c r="E35" t="n">
+        <v>14.71894099794579</v>
+      </c>
+      <c r="F35" t="n">
+        <v>278.0337960036226</v>
       </c>
     </row>
     <row r="36">
@@ -3129,7 +4121,13 @@
         <v>202.264419555664</v>
       </c>
       <c r="D36" t="n">
-        <v>1.777281987081917</v>
+        <v>18.959981918335</v>
+      </c>
+      <c r="E36" t="n">
+        <v>14.71443439352097</v>
+      </c>
+      <c r="F36" t="n">
+        <v>278.9854100396842</v>
       </c>
     </row>
     <row r="37">
@@ -3143,7 +4141,13 @@
         <v>203.486465454102</v>
       </c>
       <c r="D37" t="n">
-        <v>1.788897803866385</v>
+        <v>19.079216003418</v>
+      </c>
+      <c r="E37" t="n">
+        <v>14.71082358524717</v>
+      </c>
+      <c r="F37" t="n">
+        <v>280.6709807711068</v>
       </c>
     </row>
     <row r="38">
@@ -3157,7 +4161,13 @@
         <v>204.522399902344</v>
       </c>
       <c r="D38" t="n">
-        <v>1.798919787993169</v>
+        <v>19.181224822998</v>
+      </c>
+      <c r="E38" t="n">
+        <v>14.70708255110111</v>
+      </c>
+      <c r="F38" t="n">
+        <v>282.0998569030613</v>
       </c>
     </row>
     <row r="39">
@@ -3171,7 +4181,13 @@
         <v>204.901794433594</v>
       </c>
       <c r="D39" t="n">
-        <v>1.803025693137157</v>
+        <v>19.2209053039551</v>
+      </c>
+      <c r="E39" t="n">
+        <v>14.70394660686621</v>
+      </c>
+      <c r="F39" t="n">
+        <v>282.6231653249873</v>
       </c>
     </row>
     <row r="40">
@@ -3185,7 +4201,13 @@
         <v>206.401245117188</v>
       </c>
       <c r="D40" t="n">
-        <v>1.816958539546641</v>
+        <v>19.3654975891113</v>
+      </c>
+      <c r="E40" t="n">
+        <v>14.70095798887062</v>
+      </c>
+      <c r="F40" t="n">
+        <v>284.6913664911006</v>
       </c>
     </row>
     <row r="41">
@@ -3199,7 +4221,13 @@
         <v>209.193099975586</v>
       </c>
       <c r="D41" t="n">
-        <v>1.843123915170473</v>
+        <v>19.6359062194824</v>
+      </c>
+      <c r="E41" t="n">
+        <v>14.69462164517104</v>
+      </c>
+      <c r="F41" t="n">
+        <v>288.5422125553546</v>
       </c>
     </row>
     <row r="42">
@@ -3213,7 +4241,13 @@
         <v>214.098190307617</v>
       </c>
       <c r="D42" t="n">
-        <v>1.888608274764737</v>
+        <v>20.1083965301514</v>
+      </c>
+      <c r="E42" t="n">
+        <v>14.68579785577186</v>
+      </c>
+      <c r="F42" t="n">
+        <v>295.3078466455078</v>
       </c>
     </row>
     <row r="43">
@@ -3227,7 +4261,13 @@
         <v>218.155319213867</v>
       </c>
       <c r="D43" t="n">
-        <v>1.926448253553346</v>
+        <v>20.5003643035889</v>
+      </c>
+      <c r="E43" t="n">
+        <v>14.67797772637724</v>
+      </c>
+      <c r="F43" t="n">
+        <v>300.9038906306969</v>
       </c>
     </row>
     <row r="44">
@@ -3241,7 +4281,13 @@
         <v>224.547912597656</v>
       </c>
       <c r="D44" t="n">
-        <v>1.984336961523656</v>
+        <v>21.108736038208</v>
+      </c>
+      <c r="E44" t="n">
+        <v>14.67265819681104</v>
+      </c>
+      <c r="F44" t="n">
+        <v>309.7212688553332</v>
       </c>
     </row>
     <row r="45">
@@ -3255,7 +4301,13 @@
         <v>230.240951538086</v>
       </c>
       <c r="D45" t="n">
-        <v>2.036325993658011</v>
+        <v>21.6528434753418</v>
+      </c>
+      <c r="E45" t="n">
+        <v>14.66660598228717</v>
+      </c>
+      <c r="F45" t="n">
+        <v>317.5737236489758</v>
       </c>
     </row>
     <row r="46">
@@ -3269,7 +4321,13 @@
         <v>234.068771362305</v>
       </c>
       <c r="D46" t="n">
-        <v>2.071099120606278</v>
+        <v>22.0177116394043</v>
+      </c>
+      <c r="E46" t="n">
+        <v>14.66335296630855</v>
+      </c>
+      <c r="F46" t="n">
+        <v>322.8534772789854</v>
       </c>
     </row>
     <row r="47">
@@ -3283,7 +4341,13 @@
         <v>239.185958862305</v>
       </c>
       <c r="D47" t="n">
-        <v>2.118279728157445</v>
+        <v>22.5091705322266</v>
+      </c>
+      <c r="E47" t="n">
+        <v>14.65676669416759</v>
+      </c>
+      <c r="F47" t="n">
+        <v>329.9116609700774</v>
       </c>
     </row>
     <row r="48">
@@ -3297,7 +4361,13 @@
         <v>244.394165039063</v>
       </c>
       <c r="D48" t="n">
-        <v>2.166950795740997</v>
+        <v>23.012825012207</v>
+      </c>
+      <c r="E48" t="n">
+        <v>14.64815337082442</v>
+      </c>
+      <c r="F48" t="n">
+        <v>337.0953902747524</v>
       </c>
     </row>
     <row r="49">
@@ -3311,7 +4381,13 @@
         <v>249.312042236328</v>
       </c>
       <c r="D49" t="n">
-        <v>2.22339145325379</v>
+        <v>23.5439643859863</v>
+      </c>
+      <c r="E49" t="n">
+        <v>14.60581023117586</v>
+      </c>
+      <c r="F49" t="n">
+        <v>343.8786759112788</v>
       </c>
     </row>
     <row r="50">
@@ -3325,7 +4401,13 @@
         <v>253.678771972656</v>
       </c>
       <c r="D50" t="n">
-        <v>2.266671125948536</v>
+        <v>23.9792900085449</v>
+      </c>
+      <c r="E50" t="n">
+        <v>14.59183133881669</v>
+      </c>
+      <c r="F50" t="n">
+        <v>349.9017554292594</v>
       </c>
     </row>
     <row r="51">
@@ -3339,7 +4421,13 @@
         <v>259.663726806641</v>
       </c>
       <c r="D51" t="n">
-        <v>2.322317216648762</v>
+        <v>24.5564975738525</v>
+      </c>
+      <c r="E51" t="n">
+        <v>14.5850148694269</v>
+      </c>
+      <c r="F51" t="n">
+        <v>358.1568822556842</v>
       </c>
     </row>
     <row r="52">
@@ -3353,7 +4441,13 @@
         <v>264.299255371094</v>
       </c>
       <c r="D52" t="n">
-        <v>2.365686982870804</v>
+        <v>25.0049858093262</v>
+      </c>
+      <c r="E52" t="n">
+        <v>14.57912050444511</v>
+      </c>
+      <c r="F52" t="n">
+        <v>364.5507013261065</v>
       </c>
     </row>
     <row r="53">
@@ -3367,7 +4461,13 @@
         <v>269.917816162109</v>
       </c>
       <c r="D53" t="n">
-        <v>2.418718097813831</v>
+        <v>25.5510292053223</v>
+      </c>
+      <c r="E53" t="n">
+        <v>14.57085839633283</v>
+      </c>
+      <c r="F53" t="n">
+        <v>372.3004284313158</v>
       </c>
     </row>
     <row r="54">
@@ -3381,7 +4481,13 @@
         <v>274.980041503906</v>
       </c>
       <c r="D54" t="n">
-        <v>2.466034772397851</v>
+        <v>26.0405521392822</v>
+      </c>
+      <c r="E54" t="n">
+        <v>14.56508373392041</v>
+      </c>
+      <c r="F54" t="n">
+        <v>379.2828223861656</v>
       </c>
     </row>
     <row r="55">
@@ -3395,7 +4501,13 @@
         <v>278.722595214844</v>
       </c>
       <c r="D55" t="n">
-        <v>2.50128431912838</v>
+        <v>26.4038715362549</v>
+      </c>
+      <c r="E55" t="n">
+        <v>14.56017329775048</v>
+      </c>
+      <c r="F55" t="n">
+        <v>384.4449452994126</v>
       </c>
     </row>
     <row r="56">
@@ -3409,7 +4521,13 @@
         <v>284.701995849609</v>
       </c>
       <c r="D56" t="n">
-        <v>2.557094908608294</v>
+        <v>26.9816608428955</v>
+      </c>
+      <c r="E56" t="n">
+        <v>14.55404873552</v>
+      </c>
+      <c r="F56" t="n">
+        <v>392.6924068727728</v>
       </c>
     </row>
     <row r="57">
@@ -3423,7 +4541,13 @@
         <v>289.659637451172</v>
       </c>
       <c r="D57" t="n">
-        <v>2.602968308486537</v>
+        <v>27.4586029052734</v>
+      </c>
+      <c r="E57" t="n">
+        <v>14.55028665476827</v>
+      </c>
+      <c r="F57" t="n">
+        <v>399.5305434111809</v>
       </c>
     </row>
     <row r="58">
@@ -3437,7 +4561,13 @@
         <v>294.73291015625</v>
       </c>
       <c r="D58" t="n">
-        <v>2.649747746182008</v>
+        <v>27.9458026885986</v>
+      </c>
+      <c r="E58" t="n">
+        <v>14.54702048466124</v>
+      </c>
+      <c r="F58" t="n">
+        <v>406.5281641713451</v>
       </c>
     </row>
     <row r="59">
@@ -3451,7 +4581,13 @@
         <v>299.495452880859</v>
       </c>
       <c r="D59" t="n">
-        <v>2.694109208528059</v>
+        <v>28.405517578125</v>
+      </c>
+      <c r="E59" t="n">
+        <v>14.54284931051324</v>
+      </c>
+      <c r="F59" t="n">
+        <v>413.097161725807</v>
       </c>
     </row>
     <row r="60">
@@ -3465,7 +4601,13 @@
         <v>304.486694335938</v>
       </c>
       <c r="D60" t="n">
-        <v>2.740746363876308</v>
+        <v>28.8880729675293</v>
+      </c>
+      <c r="E60" t="n">
+        <v>14.53823615764745</v>
+      </c>
+      <c r="F60" t="n">
+        <v>419.9816269412923</v>
       </c>
     </row>
     <row r="61">
@@ -3479,7 +4621,13 @@
         <v>310.302612304688</v>
       </c>
       <c r="D61" t="n">
-        <v>2.794505023694426</v>
+        <v>29.4472789764404</v>
+      </c>
+      <c r="E61" t="n">
+        <v>14.53457273285959</v>
+      </c>
+      <c r="F61" t="n">
+        <v>428.00361806788</v>
       </c>
     </row>
     <row r="62">
@@ -3493,7 +4641,13 @@
         <v>314.287384033203</v>
       </c>
       <c r="D62" t="n">
-        <v>2.831213324821264</v>
+        <v>29.829761505127</v>
+      </c>
+      <c r="E62" t="n">
+        <v>14.53246149523503</v>
+      </c>
+      <c r="F62" t="n">
+        <v>433.4998604853024</v>
       </c>
     </row>
     <row r="63">
@@ -3507,7 +4661,13 @@
         <v>321.474243164063</v>
       </c>
       <c r="D63" t="n">
-        <v>2.897865755659771</v>
+        <v>30.5219459533691</v>
+      </c>
+      <c r="E63" t="n">
+        <v>14.52766944622165</v>
+      </c>
+      <c r="F63" t="n">
+        <v>443.412741665989</v>
       </c>
     </row>
     <row r="64">
@@ -3521,7 +4681,13 @@
         <v>325.348022460938</v>
       </c>
       <c r="D64" t="n">
-        <v>2.934472685208091</v>
+        <v>30.8986225128174</v>
+      </c>
+      <c r="E64" t="n">
+        <v>14.52349169500938</v>
+      </c>
+      <c r="F64" t="n">
+        <v>448.7558874521334</v>
       </c>
     </row>
     <row r="65">
@@ -3535,7 +4701,13 @@
         <v>329.666442871094</v>
       </c>
       <c r="D65" t="n">
-        <v>2.977217548526239</v>
+        <v>31.3287200927734</v>
+      </c>
+      <c r="E65" t="n">
+        <v>14.51423250395683</v>
+      </c>
+      <c r="F65" t="n">
+        <v>454.7123274778971</v>
       </c>
     </row>
     <row r="66">
@@ -3549,7 +4721,13 @@
         <v>334.346649169922</v>
       </c>
       <c r="D66" t="n">
-        <v>3.023357050472723</v>
+        <v>31.7938556671143</v>
+      </c>
+      <c r="E66" t="n">
+        <v>14.50493385051862</v>
+      </c>
+      <c r="F66" t="n">
+        <v>461.1677733044295</v>
       </c>
     </row>
     <row r="67">
@@ -3563,7 +4741,13 @@
         <v>339.63818359375</v>
       </c>
       <c r="D67" t="n">
-        <v>3.074977157737436</v>
+        <v>32.3168640136719</v>
+      </c>
+      <c r="E67" t="n">
+        <v>14.49603771341255</v>
+      </c>
+      <c r="F67" t="n">
+        <v>468.4664795214129</v>
       </c>
     </row>
     <row r="68">
@@ -3577,7 +4761,13 @@
         <v>344.239929199219</v>
       </c>
       <c r="D68" t="n">
-        <v>3.11825810410788</v>
+        <v>32.7632255554199</v>
+      </c>
+      <c r="E68" t="n">
+        <v>14.49227563266096</v>
+      </c>
+      <c r="F68" t="n">
+        <v>474.8136953641869</v>
       </c>
     </row>
     <row r="69">
@@ -3591,7 +4781,13 @@
         <v>349.851928710938</v>
       </c>
       <c r="D69" t="n">
-        <v>3.171288612943978</v>
+        <v>33.3088798522949</v>
+      </c>
+      <c r="E69" t="n">
+        <v>14.48725996346304</v>
+      </c>
+      <c r="F69" t="n">
+        <v>482.5544015119524</v>
       </c>
     </row>
     <row r="70">
@@ -3605,7 +4801,13 @@
         <v>355.616149902344</v>
       </c>
       <c r="D70" t="n">
-        <v>3.225558021086779</v>
+        <v>33.8682823181152</v>
+      </c>
+      <c r="E70" t="n">
+        <v>14.48272573536842</v>
+      </c>
+      <c r="F70" t="n">
+        <v>490.5050439412901</v>
       </c>
     </row>
     <row r="71">
@@ -3619,7 +4821,13 @@
         <v>360.649719238281</v>
       </c>
       <c r="D71" t="n">
-        <v>3.272701934677392</v>
+        <v>34.3554801940918</v>
+      </c>
+      <c r="E71" t="n">
+        <v>14.47943325700428</v>
+      </c>
+      <c r="F71" t="n">
+        <v>497.4478824826845</v>
       </c>
     </row>
     <row r="72">
@@ -3633,7 +4841,13 @@
         <v>361.337005615234</v>
       </c>
       <c r="D72" t="n">
-        <v>3.279667928247624</v>
+        <v>34.4247779846191</v>
+      </c>
+      <c r="E72" t="n">
+        <v>14.47782319167559</v>
+      </c>
+      <c r="F72" t="n">
+        <v>498.3958490740015</v>
       </c>
     </row>
     <row r="73">
@@ -3647,7 +4861,13 @@
         <v>363.448852539063</v>
       </c>
       <c r="D73" t="n">
-        <v>3.300590337270269</v>
+        <v>34.635181427002</v>
+      </c>
+      <c r="E73" t="n">
+        <v>14.47397560908883</v>
+      </c>
+      <c r="F73" t="n">
+        <v>501.3087711907934</v>
       </c>
     </row>
     <row r="74">
@@ -3661,7 +4881,13 @@
         <v>366.22705078125</v>
       </c>
       <c r="D74" t="n">
-        <v>3.32748899129329</v>
+        <v>34.9086875915527</v>
+      </c>
+      <c r="E74" t="n">
+        <v>14.47034506962221</v>
+      </c>
+      <c r="F74" t="n">
+        <v>505.1407553774065</v>
       </c>
     </row>
     <row r="75">
@@ -3675,7 +4901,13 @@
         <v>368.92333984375</v>
       </c>
       <c r="D75" t="n">
-        <v>3.354504831636167</v>
+        <v>35.1789016723633</v>
+      </c>
+      <c r="E75" t="n">
+        <v>14.46491372996359</v>
+      </c>
+      <c r="F75" t="n">
+        <v>508.8597778056069</v>
       </c>
     </row>
     <row r="76">
@@ -3689,7 +4921,13 @@
         <v>370.101287841797</v>
       </c>
       <c r="D76" t="n">
-        <v>3.366017375626331</v>
+        <v>35.2954292297363</v>
+      </c>
+      <c r="E76" t="n">
+        <v>14.46319053912979</v>
+      </c>
+      <c r="F76" t="n">
+        <v>510.4845181100472</v>
       </c>
     </row>
     <row r="77">
@@ -3703,7 +4941,13 @@
         <v>372.516876220703</v>
       </c>
       <c r="D77" t="n">
-        <v>3.390381237359885</v>
+        <v>35.5383491516113</v>
+      </c>
+      <c r="E77" t="n">
+        <v>14.45808279103241</v>
+      </c>
+      <c r="F77" t="n">
+        <v>513.8163942906127</v>
       </c>
     </row>
     <row r="78">
@@ -3717,7 +4961,13 @@
         <v>374.221740722656</v>
       </c>
       <c r="D78" t="n">
-        <v>3.411762895406282</v>
+        <v>35.7317199707031</v>
+      </c>
+      <c r="E78" t="n">
+        <v>14.44564950877228</v>
+      </c>
+      <c r="F78" t="n">
+        <v>516.1679030423758</v>
       </c>
     </row>
     <row r="79">
@@ -3731,7 +4981,13 @@
         <v>375.074920654297</v>
       </c>
       <c r="D79" t="n">
-        <v>3.425833643448044</v>
+        <v>35.846118927002</v>
+      </c>
+      <c r="E79" t="n">
+        <v>14.43237699311352</v>
+      </c>
+      <c r="F79" t="n">
+        <v>517.3447020944748</v>
       </c>
     </row>
     <row r="80">
@@ -3745,7 +5001,13 @@
         <v>377.437530517578</v>
       </c>
       <c r="D80" t="n">
-        <v>3.470815784070806</v>
+        <v>36.1941452026367</v>
+      </c>
+      <c r="E80" t="n">
+        <v>14.38363831618731</v>
+      </c>
+      <c r="F80" t="n">
+        <v>520.6034937582924</v>
       </c>
     </row>
     <row r="81">
@@ -3759,7 +5021,13 @@
         <v>377.893432617188</v>
       </c>
       <c r="D81" t="n">
-        <v>3.483668943788965</v>
+        <v>36.2829933166504</v>
+      </c>
+      <c r="E81" t="n">
+        <v>14.36574738601159</v>
+      </c>
+      <c r="F81" t="n">
+        <v>521.2323163953464</v>
       </c>
     </row>
     <row r="82">
@@ -3773,7 +5041,13 @@
         <v>379.004821777344</v>
       </c>
       <c r="D82" t="n">
-        <v>3.525569412309013</v>
+        <v>36.5541763305664</v>
+      </c>
+      <c r="E82" t="n">
+        <v>14.30110931396483</v>
+      </c>
+      <c r="F82" t="n">
+        <v>522.7652715853758</v>
       </c>
     </row>
     <row r="83">
@@ -3787,7 +5061,13 @@
         <v>380.399536132813</v>
       </c>
       <c r="D83" t="n">
-        <v>3.56712859795429</v>
+        <v>36.8365859985352</v>
+      </c>
+      <c r="E83" t="n">
+        <v>14.2436928584658</v>
+      </c>
+      <c r="F83" t="n">
+        <v>524.689016917597</v>
       </c>
     </row>
     <row r="84">
@@ -3801,7 +5081,13 @@
         <v>380.041381835938</v>
       </c>
       <c r="D84" t="n">
-        <v>3.579538724350897</v>
+        <v>36.8832321166992</v>
+      </c>
+      <c r="E84" t="n">
+        <v>14.21228474584124</v>
+      </c>
+      <c r="F84" t="n">
+        <v>524.1949971894859</v>
       </c>
     </row>
     <row r="85">
@@ -3815,7 +5101,13 @@
         <v>380.239959716797</v>
       </c>
       <c r="D85" t="n">
-        <v>3.614526288169069</v>
+        <v>37.0727310180664</v>
+      </c>
+      <c r="E85" t="n">
+        <v>14.14702711434193</v>
+      </c>
+      <c r="F85" t="n">
+        <v>524.4689309152905</v>
       </c>
     </row>
     <row r="86">
@@ -3829,7 +5121,13 @@
         <v>379.970642089844</v>
       </c>
       <c r="D86" t="n">
-        <v>3.667574567313661</v>
+        <v>37.3305587768555</v>
+      </c>
+      <c r="E86" t="n">
+        <v>14.03936714961614</v>
+      </c>
+      <c r="F86" t="n">
+        <v>524.0974205685994</v>
       </c>
     </row>
     <row r="87">
@@ -3843,7 +5141,13 @@
         <v>380.283630371094</v>
       </c>
       <c r="D87" t="n">
-        <v>3.690557841126548</v>
+        <v>37.4627647399902</v>
+      </c>
+      <c r="E87" t="n">
+        <v>14.00134645659352</v>
+      </c>
+      <c r="F87" t="n">
+        <v>524.5291483464583</v>
       </c>
     </row>
     <row r="88">
@@ -3857,7 +5161,13 @@
         <v>380.029693603516</v>
       </c>
       <c r="D88" t="n">
-        <v>3.731208269130787</v>
+        <v>37.6559410095215</v>
+      </c>
+      <c r="E88" t="n">
+        <v>13.92021705364359</v>
+      </c>
+      <c r="F88" t="n">
+        <v>524.1788722117381</v>
       </c>
     </row>
     <row r="89">
@@ -3871,7 +5181,13 @@
         <v>380.693603515625</v>
       </c>
       <c r="D89" t="n">
-        <v>3.808723570700413</v>
+        <v>38.078296661377</v>
+      </c>
+      <c r="E89" t="n">
+        <v>13.78986621725148</v>
+      </c>
+      <c r="F89" t="n">
+        <v>525.0946167412025</v>
       </c>
     </row>
     <row r="90">
@@ -3885,7 +5201,13 @@
         <v>378.621307373047</v>
       </c>
       <c r="D90" t="n">
-        <v>3.839348088552833</v>
+        <v>38.126880645752</v>
+      </c>
+      <c r="E90" t="n">
+        <v>13.69732560782597</v>
+      </c>
+      <c r="F90" t="n">
+        <v>522.2362986155835</v>
       </c>
     </row>
     <row r="91">
@@ -3899,7 +5221,13 @@
         <v>377.096801757813</v>
       </c>
       <c r="D91" t="n">
-        <v>3.909271215929609</v>
+        <v>38.3949699401855</v>
+      </c>
+      <c r="E91" t="n">
+        <v>13.54691867170662</v>
+      </c>
+      <c r="F91" t="n">
+        <v>520.1335351823134</v>
       </c>
     </row>
     <row r="92">
@@ -3913,7 +5241,13 @@
         <v>377.051361083984</v>
       </c>
       <c r="D92" t="n">
-        <v>3.938849313209834</v>
+        <v>38.5376243591309</v>
+      </c>
+      <c r="E92" t="n">
+        <v>13.49514533733499</v>
+      </c>
+      <c r="F92" t="n">
+        <v>520.0708416820928</v>
       </c>
     </row>
     <row r="93">
@@ -3927,7 +5261,13 @@
         <v>374.394683837891</v>
       </c>
       <c r="D93" t="n">
-        <v>4.008069167336254</v>
+        <v>38.7375755310059</v>
+      </c>
+      <c r="E93" t="n">
+        <v>13.33089236555429</v>
+      </c>
+      <c r="F93" t="n">
+        <v>516.4064499063693</v>
       </c>
     </row>
     <row r="94">
@@ -3941,7 +5281,13 @@
         <v>373.046295166016</v>
       </c>
       <c r="D94" t="n">
-        <v>4.063503533536898</v>
+        <v>38.9342384338379</v>
+      </c>
+      <c r="E94" t="n">
+        <v>13.21578716409618</v>
+      </c>
+      <c r="F94" t="n">
+        <v>514.5466085377751</v>
       </c>
     </row>
     <row r="95">
@@ -3955,7 +5301,13 @@
         <v>370.088562011719</v>
       </c>
       <c r="D95" t="n">
-        <v>4.144914658600086</v>
+        <v>39.1661262512207</v>
+      </c>
+      <c r="E95" t="n">
+        <v>13.03337886415679</v>
+      </c>
+      <c r="F95" t="n">
+        <v>510.4669620735563</v>
       </c>
     </row>
     <row r="96">
@@ -3969,7 +5321,13 @@
         <v>367.375335693359</v>
       </c>
       <c r="D96" t="n">
-        <v>4.237913300565073</v>
+        <v>39.457633972168</v>
+      </c>
+      <c r="E96" t="n">
+        <v>12.84224543078192</v>
+      </c>
+      <c r="F96" t="n">
+        <v>506.7246195885398</v>
       </c>
     </row>
     <row r="97">
@@ -3983,7 +5341,13 @@
         <v>366.058502197266</v>
       </c>
       <c r="D97" t="n">
-        <v>4.266522689615688</v>
+        <v>39.5195770263672</v>
+      </c>
+      <c r="E97" t="n">
+        <v>12.77615645836139</v>
+      </c>
+      <c r="F97" t="n">
+        <v>504.9082992571319</v>
       </c>
     </row>
     <row r="98">
@@ -3997,7 +5361,13 @@
         <v>358.806976318359</v>
       </c>
       <c r="D98" t="n">
-        <v>4.417845185756308</v>
+        <v>39.8139877319336</v>
+      </c>
+      <c r="E98" t="n">
+        <v>12.43045938426051</v>
+      </c>
+      <c r="F98" t="n">
+        <v>494.9061574272469</v>
       </c>
     </row>
     <row r="99">
@@ -4011,7 +5381,13 @@
         <v>357.852020263672</v>
       </c>
       <c r="D99" t="n">
-        <v>4.458106393487294</v>
+        <v>39.9417381286621</v>
+      </c>
+      <c r="E99" t="n">
+        <v>12.35772494612069</v>
+      </c>
+      <c r="F99" t="n">
+        <v>493.5890136639876</v>
       </c>
     </row>
     <row r="100">
@@ -4025,7 +5401,13 @@
         <v>353.298431396484</v>
       </c>
       <c r="D100" t="n">
-        <v>4.562693948655639</v>
+        <v>40.1496276855469</v>
+      </c>
+      <c r="E100" t="n">
+        <v>12.13730253022292</v>
+      </c>
+      <c r="F100" t="n">
+        <v>487.3081776952968</v>
       </c>
     </row>
     <row r="101">
@@ -4039,7 +5421,13 @@
         <v>351.273010253906</v>
       </c>
       <c r="D101" t="n">
-        <v>4.6514696701145</v>
+        <v>40.4219703674316</v>
+      </c>
+      <c r="E101" t="n">
+        <v>11.9864141530004</v>
+      </c>
+      <c r="F101" t="n">
+        <v>484.5144777043449</v>
       </c>
     </row>
     <row r="102">
@@ -4053,7 +5441,13 @@
         <v>345.208648681641</v>
       </c>
       <c r="D102" t="n">
-        <v>4.753967490105619</v>
+        <v>40.5106239318848</v>
+      </c>
+      <c r="E102" t="n">
+        <v>11.75370315025593</v>
+      </c>
+      <c r="F102" t="n">
+        <v>476.1498481270277</v>
       </c>
     </row>
     <row r="103">
@@ -4067,7 +5461,13 @@
         <v>340.159332275391</v>
       </c>
       <c r="D103" t="n">
-        <v>4.88697642933223</v>
+        <v>40.7719345092773</v>
+      </c>
+      <c r="E103" t="n">
+        <v>11.5075552052465</v>
+      </c>
+      <c r="F103" t="n">
+        <v>469.1852871902032</v>
       </c>
     </row>
     <row r="104">
@@ -4081,7 +5481,13 @@
         <v>329.959167480469</v>
       </c>
       <c r="D104" t="n">
-        <v>5.103605638079334</v>
+        <v>41.0363426208496</v>
+      </c>
+      <c r="E104" t="n">
+        <v>11.09056143925108</v>
+      </c>
+      <c r="F104" t="n">
+        <v>455.11607907869</v>
       </c>
     </row>
     <row r="105">
@@ -4095,7 +5501,13 @@
         <v>328.409820556641</v>
       </c>
       <c r="D105" t="n">
-        <v>5.157378947832003</v>
+        <v>41.1549987792969</v>
+      </c>
+      <c r="E105" t="n">
+        <v>11.00665980371935</v>
+      </c>
+      <c r="F105" t="n">
+        <v>452.9790707862062</v>
       </c>
     </row>
     <row r="106">
@@ -4109,7 +5521,13 @@
         <v>318.290313720703</v>
       </c>
       <c r="D106" t="n">
-        <v>5.408449142404351</v>
+        <v>41.4904441833496</v>
+      </c>
+      <c r="E106" t="n">
+        <v>10.58125857649178</v>
+      </c>
+      <c r="F106" t="n">
+        <v>439.0211183575215</v>
       </c>
     </row>
     <row r="107">
@@ -4123,7 +5541,13 @@
         <v>311.1689453125</v>
       </c>
       <c r="D107" t="n">
-        <v>5.557392624113168</v>
+        <v>41.5847091674805</v>
+      </c>
+      <c r="E107" t="n">
+        <v>10.32106662618703</v>
+      </c>
+      <c r="F107" t="n">
+        <v>429.198553948177</v>
       </c>
     </row>
     <row r="108">
@@ -4137,7 +5561,13 @@
         <v>305.047668457031</v>
       </c>
       <c r="D108" t="n">
-        <v>5.73124954003021</v>
+        <v>41.8127288818359</v>
+      </c>
+      <c r="E108" t="n">
+        <v>10.06285437222185</v>
+      </c>
+      <c r="F108" t="n">
+        <v>420.7554016431092</v>
       </c>
     </row>
     <row r="109">
@@ -4151,7 +5581,13 @@
         <v>292.088012695313</v>
       </c>
       <c r="D109" t="n">
-        <v>6.08196309143911</v>
+        <v>42.1481742858887</v>
+      </c>
+      <c r="E109" t="n">
+        <v>9.558659257559945</v>
+      </c>
+      <c r="F109" t="n">
+        <v>402.8800363270601</v>
       </c>
     </row>
     <row r="110">
@@ -4165,7 +5601,13 @@
         <v>286.949432373047</v>
       </c>
       <c r="D110" t="n">
-        <v>6.188716283144377</v>
+        <v>42.1408195495605</v>
+      </c>
+      <c r="E110" t="n">
+        <v>9.392136540906179</v>
+      </c>
+      <c r="F110" t="n">
+        <v>395.7923311551606</v>
       </c>
     </row>
     <row r="111">
@@ -4179,7 +5621,13 @@
         <v>278.182647705078</v>
       </c>
       <c r="D111" t="n">
-        <v>6.442352894734859</v>
+        <v>42.3338012695313</v>
+      </c>
+      <c r="E111" t="n">
+        <v>9.063683871565201</v>
+      </c>
+      <c r="F111" t="n">
+        <v>383.7001917886973</v>
       </c>
     </row>
     <row r="112">
@@ -4193,7 +5641,13 @@
         <v>267.451171875</v>
       </c>
       <c r="D112" t="n">
-        <v>6.785804692232865</v>
+        <v>42.6013069152832</v>
+      </c>
+      <c r="E112" t="n">
+        <v>8.659315438106137</v>
+      </c>
+      <c r="F112" t="n">
+        <v>368.8981546550096</v>
       </c>
     </row>
     <row r="113">
@@ -4207,7 +5661,13 @@
         <v>254.302429199219</v>
       </c>
       <c r="D113" t="n">
-        <v>7.22220236484249</v>
+        <v>42.8558464050293</v>
+      </c>
+      <c r="E113" t="n">
+        <v>8.184693435142787</v>
+      </c>
+      <c r="F113" t="n">
+        <v>350.7619647287309</v>
       </c>
     </row>
     <row r="114">
@@ -4221,7 +5681,13 @@
         <v>241.135375976563</v>
       </c>
       <c r="D114" t="n">
-        <v>7.68690569455401</v>
+        <v>43.053279876709</v>
+      </c>
+      <c r="E114" t="n">
+        <v>7.72532364417767</v>
+      </c>
+      <c r="F114" t="n">
+        <v>332.6005209909387</v>
       </c>
     </row>
     <row r="115">
@@ -4235,7 +5701,13 @@
         <v>228.336364746094</v>
       </c>
       <c r="D115" t="n">
-        <v>8.201575300690624</v>
+        <v>43.2749099731445</v>
+      </c>
+      <c r="E115" t="n">
+        <v>7.27781295776367</v>
+      </c>
+      <c r="F115" t="n">
+        <v>314.9467005486073</v>
       </c>
     </row>
     <row r="116">
@@ -4249,7 +5721,13 @@
         <v>213.399841308594</v>
       </c>
       <c r="D116" t="n">
-        <v>8.832164680432074</v>
+        <v>43.4140815734863</v>
+      </c>
+      <c r="E116" t="n">
+        <v>6.77993379790207</v>
+      </c>
+      <c r="F116" t="n">
+        <v>294.3445989649572</v>
       </c>
     </row>
     <row r="117">
@@ -4263,7 +5741,13 @@
         <v>203.575439453125</v>
       </c>
       <c r="D117" t="n">
-        <v>9.326221171310365</v>
+        <v>43.5728073120117</v>
+      </c>
+      <c r="E117" t="n">
+        <v>6.444241753939931</v>
+      </c>
+      <c r="F117" t="n">
+        <v>280.7937042164449</v>
       </c>
     </row>
     <row r="118">
@@ -4277,7 +5761,13 @@
         <v>181.746734619141</v>
       </c>
       <c r="D118" t="n">
-        <v>10.58481293002551</v>
+        <v>43.8606338500977</v>
+      </c>
+      <c r="E118" t="n">
+        <v>5.715493169324152</v>
+      </c>
+      <c r="F118" t="n">
+        <v>250.6851531724611</v>
       </c>
     </row>
     <row r="119">
@@ -4291,7 +5781,13 @@
         <v>171.664123535156</v>
       </c>
       <c r="D119" t="n">
-        <v>11.30136673392936</v>
+        <v>44.0458755493164</v>
+      </c>
+      <c r="E119" t="n">
+        <v>5.375715453049228</v>
+      </c>
+      <c r="F119" t="n">
+        <v>236.7780938335433</v>
       </c>
     </row>
     <row r="120">
@@ -4305,7 +5801,13 @@
         <v>152.089263916016</v>
       </c>
       <c r="D120" t="n">
-        <v>12.87076277284604</v>
+        <v>44.2436981201172</v>
+      </c>
+      <c r="E120" t="n">
+        <v>4.741427651767077</v>
+      </c>
+      <c r="F120" t="n">
+        <v>209.7782936831587</v>
       </c>
     </row>
     <row r="121">
@@ -4319,7 +5821,13 @@
         <v>144.136611938477</v>
       </c>
       <c r="D121" t="n">
-        <v>13.66790452252637</v>
+        <v>44.3851928710938</v>
+      </c>
+      <c r="E121" t="n">
+        <v>4.479176422645311</v>
+      </c>
+      <c r="F121" t="n">
+        <v>198.8091094227681</v>
       </c>
     </row>
     <row r="122">
@@ -4333,7 +5841,13 @@
         <v>120.83521270752</v>
       </c>
       <c r="D122" t="n">
-        <v>16.47951634613962</v>
+        <v>44.6240501403809</v>
+      </c>
+      <c r="E122" t="n">
+        <v>3.734964831122042</v>
+      </c>
+      <c r="F122" t="n">
+        <v>166.6692578965493</v>
       </c>
     </row>
     <row r="123">
@@ -4347,7 +5861,13 @@
         <v>102.481857299805</v>
       </c>
       <c r="D123" t="n">
-        <v>19.59196182878806</v>
+        <v>44.8087120056152</v>
+      </c>
+      <c r="E123" t="n">
+        <v>3.154616191469393</v>
+      </c>
+      <c r="F123" t="n">
+        <v>141.3542884118027</v>
       </c>
     </row>
     <row r="124">
@@ -4361,7 +5881,13 @@
         <v>87.25816345214839</v>
       </c>
       <c r="D124" t="n">
-        <v>23.18040329382411</v>
+        <v>44.9742088317871</v>
+      </c>
+      <c r="E124" t="n">
+        <v>2.676113556171283</v>
+      </c>
+      <c r="F124" t="n">
+        <v>120.3560899328237</v>
       </c>
     </row>
     <row r="125">
@@ -4375,7 +5901,13 @@
         <v>62.7133750915527</v>
       </c>
       <c r="D125" t="n">
-        <v>32.59486598961119</v>
+        <v>45.212100982666</v>
+      </c>
+      <c r="E125" t="n">
+        <v>1.913231323505269</v>
+      </c>
+      <c r="F125" t="n">
+        <v>86.50120780151994</v>
       </c>
     </row>
     <row r="126">
@@ -4389,7 +5921,13 @@
         <v>40.5491104125977</v>
       </c>
       <c r="D126" t="n">
-        <v>50.95231942567233</v>
+        <v>45.4540557861328</v>
+      </c>
+      <c r="E126" t="n">
+        <v>1.230468996639909</v>
+      </c>
+      <c r="F126" t="n">
+        <v>55.92980641637728</v>
       </c>
     </row>
     <row r="127">
@@ -4403,7 +5941,13 @@
         <v>31.1986122131348</v>
       </c>
       <c r="D127" t="n">
-        <v>66.54900364473082</v>
+        <v>45.5657386779785</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.9444062463168442</v>
+      </c>
+      <c r="F127" t="n">
+        <v>43.03256822552392</v>
       </c>
     </row>
     <row r="128">
@@ -4417,7 +5961,13 @@
         <v>15.9161682128906</v>
       </c>
       <c r="D128" t="n">
-        <v>131.2808259253742</v>
+        <v>45.7109146118164</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.4802646308109683</v>
+      </c>
+      <c r="F128" t="n">
+        <v>21.9533355300757</v>
       </c>
     </row>
     <row r="129">
@@ -4431,7 +5981,13 @@
         <v>0.825087428092957</v>
       </c>
       <c r="D129" t="n">
-        <v>2530.320983701522</v>
+        <v>45.6917495727539</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.02490715733889876</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1.138051595698141</v>
       </c>
     </row>
   </sheetData>
@@ -4445,7 +6001,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D129"/>
+  <dimension ref="A1:F129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4471,7 +6027,17 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Resistance_Ohm</t>
+          <t>Voltage_V_1000</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Current_A_1000</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Power_W_1000</t>
         </is>
       </c>
     </row>
@@ -4486,7 +6052,13 @@
         <v>3.99277400970459</v>
       </c>
       <c r="D2" t="n">
-        <v>0.05309501871040873</v>
+        <v>0.460430681705475</v>
+      </c>
+      <c r="E2" t="n">
+        <v>11.96113717967066</v>
+      </c>
+      <c r="F2" t="n">
+        <v>5.507274545608467</v>
       </c>
     </row>
     <row r="3">
@@ -4500,7 +6072,13 @@
         <v>118.492248535156</v>
       </c>
       <c r="D3" t="n">
-        <v>1.575911227056415</v>
+        <v>13.6650381088257</v>
+      </c>
+      <c r="E3" t="n">
+        <v>11.96027295342807</v>
+      </c>
+      <c r="F3" t="n">
+        <v>163.4375857005519</v>
       </c>
     </row>
     <row r="4">
@@ -4514,7 +6092,13 @@
         <v>119.90544128418</v>
       </c>
       <c r="D4" t="n">
-        <v>1.594752206789958</v>
+        <v>13.8282127380371</v>
+      </c>
+      <c r="E4" t="n">
+        <v>11.96010063434469</v>
+      </c>
+      <c r="F4" t="n">
+        <v>165.3868159400509</v>
       </c>
     </row>
     <row r="5">
@@ -4528,7 +6112,13 @@
         <v>121.07396697998</v>
       </c>
       <c r="D5" t="n">
-        <v>1.610418054344468</v>
+        <v>13.9635133743286</v>
+      </c>
+      <c r="E5" t="n">
+        <v>11.95963892443426</v>
+      </c>
+      <c r="F5" t="n">
+        <v>166.9985780734787</v>
       </c>
     </row>
     <row r="6">
@@ -4542,7 +6132,13 @@
         <v>121.978057861328</v>
       </c>
       <c r="D6" t="n">
-        <v>1.622502368352543</v>
+        <v>14.0680379867554</v>
+      </c>
+      <c r="E6" t="n">
+        <v>11.95942188131399</v>
+      </c>
+      <c r="F6" t="n">
+        <v>168.2456013259589</v>
       </c>
     </row>
     <row r="7">
@@ -4556,7 +6152,13 @@
         <v>124.410530090332</v>
       </c>
       <c r="D7" t="n">
-        <v>1.655110344546899</v>
+        <v>14.3496742248535</v>
+      </c>
+      <c r="E7" t="n">
+        <v>11.95851030020879</v>
+      </c>
+      <c r="F7" t="n">
+        <v>171.6007270225511</v>
       </c>
     </row>
     <row r="8">
@@ -4570,7 +6172,13 @@
         <v>125.088851928711</v>
       </c>
       <c r="D8" t="n">
-        <v>1.664125388635803</v>
+        <v>14.4278736114502</v>
+      </c>
+      <c r="E8" t="n">
+        <v>11.95854318553004</v>
+      </c>
+      <c r="F8" t="n">
+        <v>172.5363496578965</v>
       </c>
     </row>
     <row r="9">
@@ -4584,7 +6192,13 @@
         <v>126.222183227539</v>
       </c>
       <c r="D9" t="n">
-        <v>1.679187912180385</v>
+        <v>14.5585289001465</v>
+      </c>
+      <c r="E9" t="n">
+        <v>11.95859580204404</v>
+      </c>
+      <c r="F9" t="n">
+        <v>174.0995625892288</v>
       </c>
     </row>
     <row r="10">
@@ -4598,7 +6212,13 @@
         <v>127.288780212402</v>
       </c>
       <c r="D10" t="n">
-        <v>1.693620239980651</v>
+        <v>14.6826038360596</v>
+      </c>
+      <c r="E10" t="n">
+        <v>11.95773815286571</v>
+      </c>
+      <c r="F10" t="n">
+        <v>175.5707320738624</v>
       </c>
     </row>
     <row r="11">
@@ -4612,7 +6232,13 @@
         <v>128.199981689453</v>
       </c>
       <c r="D11" t="n">
-        <v>1.705744018222131</v>
+        <v>14.787709236145</v>
+      </c>
+      <c r="E11" t="n">
+        <v>11.95773815286571</v>
+      </c>
+      <c r="F11" t="n">
+        <v>176.8275549265358</v>
       </c>
     </row>
     <row r="12">
@@ -4626,7 +6252,13 @@
         <v>128.83967590332</v>
       </c>
       <c r="D12" t="n">
-        <v>1.714469308627279</v>
+        <v>14.8624248504639</v>
+      </c>
+      <c r="E12" t="n">
+        <v>11.95699231377963</v>
+      </c>
+      <c r="F12" t="n">
+        <v>177.7098997011242</v>
       </c>
     </row>
     <row r="13">
@@ -4640,7 +6272,13 @@
         <v>130.670547485352</v>
       </c>
       <c r="D13" t="n">
-        <v>1.738961206128337</v>
+        <v>15.0741834640503</v>
+      </c>
+      <c r="E13" t="n">
+        <v>11.95655033506196</v>
+      </c>
+      <c r="F13" t="n">
+        <v>180.2352333478761</v>
       </c>
     </row>
     <row r="14">
@@ -4654,7 +6292,13 @@
         <v>131.35173034668</v>
       </c>
       <c r="D14" t="n">
-        <v>1.748117135846106</v>
+        <v>15.1531581878662</v>
+      </c>
+      <c r="E14" t="n">
+        <v>11.95623989762931</v>
+      </c>
+      <c r="F14" t="n">
+        <v>181.1747945008541</v>
       </c>
     </row>
     <row r="15">
@@ -4668,7 +6312,13 @@
         <v>132.26318359375</v>
       </c>
       <c r="D15" t="n">
-        <v>1.760282196976783</v>
+        <v>15.2584571838379</v>
+      </c>
+      <c r="E15" t="n">
+        <v>11.95612151047279</v>
+      </c>
+      <c r="F15" t="n">
+        <v>182.4319681523124</v>
       </c>
     </row>
     <row r="16">
@@ -4682,7 +6332,13 @@
         <v>133.15168762207</v>
       </c>
       <c r="D16" t="n">
-        <v>1.772171971489332</v>
+        <v>15.3612394332886</v>
+      </c>
+      <c r="E16" t="n">
+        <v>11.95590315193966</v>
+      </c>
+      <c r="F16" t="n">
+        <v>183.6574909581549</v>
       </c>
     </row>
     <row r="17">
@@ -4696,7 +6352,13 @@
         <v>133.759979248047</v>
       </c>
       <c r="D17" t="n">
-        <v>1.780332719289188</v>
+        <v>15.4316968917847</v>
+      </c>
+      <c r="E17" t="n">
+        <v>11.95568610881937</v>
+      </c>
+      <c r="F17" t="n">
+        <v>184.4965241646213</v>
       </c>
     </row>
     <row r="18">
@@ -4710,7 +6372,13 @@
         <v>134.55403137207</v>
       </c>
       <c r="D18" t="n">
-        <v>1.790978648605027</v>
+        <v>15.5236396789551</v>
+      </c>
+      <c r="E18" t="n">
+        <v>11.95542828790073</v>
+      </c>
+      <c r="F18" t="n">
+        <v>185.591760948958</v>
       </c>
     </row>
     <row r="19">
@@ -4724,7 +6392,13 @@
         <v>135.81559753418</v>
       </c>
       <c r="D19" t="n">
-        <v>1.807862709077492</v>
+        <v>15.6695871353149</v>
+      </c>
+      <c r="E19" t="n">
+        <v>11.95512442753233</v>
+      </c>
+      <c r="F19" t="n">
+        <v>187.3318639307495</v>
       </c>
     </row>
     <row r="20">
@@ -4738,7 +6412,13 @@
         <v>136.530944824219</v>
       </c>
       <c r="D20" t="n">
-        <v>1.817278304790024</v>
+        <v>15.7516574859619</v>
+      </c>
+      <c r="E20" t="n">
+        <v>11.95547432735048</v>
+      </c>
+      <c r="F20" t="n">
+        <v>188.3185366866356</v>
       </c>
     </row>
     <row r="21">
@@ -4752,7 +6432,13 @@
         <v>137.280517578125</v>
       </c>
       <c r="D21" t="n">
-        <v>1.827220897521892</v>
+        <v>15.837986946106</v>
+      </c>
+      <c r="E21" t="n">
+        <v>11.9555874528556</v>
+      </c>
+      <c r="F21" t="n">
+        <v>189.3524380113557</v>
       </c>
     </row>
     <row r="22">
@@ -4766,7 +6452,13 @@
         <v>138.007232666016</v>
       </c>
       <c r="D22" t="n">
-        <v>1.836976745260736</v>
+        <v>15.9221878051758</v>
+      </c>
+      <c r="E22" t="n">
+        <v>11.95531647780846</v>
+      </c>
+      <c r="F22" t="n">
+        <v>190.3547942299791</v>
       </c>
     </row>
     <row r="23">
@@ -4780,7 +6472,13 @@
         <v>138.572555541992</v>
       </c>
       <c r="D23" t="n">
-        <v>1.844503636793948</v>
+        <v>15.987419128418</v>
+      </c>
+      <c r="E23" t="n">
+        <v>11.95530990074421</v>
+      </c>
+      <c r="F23" t="n">
+        <v>191.1345501933231</v>
       </c>
     </row>
     <row r="24">
@@ -4794,7 +6492,13 @@
         <v>139.754364013672</v>
       </c>
       <c r="D24" t="n">
-        <v>1.860260995896829</v>
+        <v>16.1238822937012</v>
+      </c>
+      <c r="E24" t="n">
+        <v>11.95522439890894</v>
+      </c>
+      <c r="F24" t="n">
+        <v>192.7646310027924</v>
       </c>
     </row>
     <row r="25">
@@ -4808,7 +6512,13 @@
         <v>140.562042236328</v>
       </c>
       <c r="D25" t="n">
-        <v>1.871082492948978</v>
+        <v>16.2173728942871</v>
+      </c>
+      <c r="E25" t="n">
+        <v>11.95499946331156</v>
+      </c>
+      <c r="F25" t="n">
+        <v>193.8786842475257</v>
       </c>
     </row>
     <row r="26">
@@ -4822,7 +6532,13 @@
         <v>141.396560668945</v>
       </c>
       <c r="D26" t="n">
-        <v>1.882172375783497</v>
+        <v>16.3135738372803</v>
+      </c>
+      <c r="E26" t="n">
+        <v>11.95505865688982</v>
+      </c>
+      <c r="F26" t="n">
+        <v>195.0297321281892</v>
       </c>
     </row>
     <row r="27">
@@ -4836,7 +6552,13 @@
         <v>142.192932128906</v>
       </c>
       <c r="D27" t="n">
-        <v>1.892921394924568</v>
+        <v>16.4060974121094</v>
+      </c>
+      <c r="E27" t="n">
+        <v>11.95459036991515</v>
+      </c>
+      <c r="F27" t="n">
+        <v>196.1281741306928</v>
       </c>
     </row>
     <row r="28">
@@ -4850,7 +6572,13 @@
         <v>142.859329223633</v>
       </c>
       <c r="D28" t="n">
-        <v>1.901916570732123</v>
+        <v>16.4835224151611</v>
+      </c>
+      <c r="E28" t="n">
+        <v>11.95420100771148</v>
+      </c>
+      <c r="F28" t="n">
+        <v>197.0473402659536</v>
       </c>
     </row>
     <row r="29">
@@ -4864,7 +6592,13 @@
         <v>143.496490478516</v>
       </c>
       <c r="D29" t="n">
-        <v>1.910407763221223</v>
+        <v>16.5570774078369</v>
+      </c>
+      <c r="E29" t="n">
+        <v>11.95417469945447</v>
+      </c>
+      <c r="F29" t="n">
+        <v>197.926195845673</v>
       </c>
     </row>
     <row r="30">
@@ -4878,7 +6612,13 @@
         <v>144.777908325195</v>
       </c>
       <c r="D30" t="n">
-        <v>1.927563518784163</v>
+        <v>16.7053470611572</v>
+      </c>
+      <c r="E30" t="n">
+        <v>11.95387741615032</v>
+      </c>
+      <c r="F30" t="n">
+        <v>199.6936709633202</v>
       </c>
     </row>
     <row r="31">
@@ -4892,7 +6632,13 @@
         <v>145.297210693359</v>
       </c>
       <c r="D31" t="n">
-        <v>1.93467583983505</v>
+        <v>16.7661266326904</v>
+      </c>
+      <c r="E31" t="n">
+        <v>11.95326443376213</v>
+      </c>
+      <c r="F31" t="n">
+        <v>200.4099451704901</v>
       </c>
     </row>
     <row r="32">
@@ -4906,7 +6652,13 @@
         <v>146.091171264648</v>
       </c>
       <c r="D32" t="n">
-        <v>1.945278155820434</v>
+        <v>16.8578758239746</v>
+      </c>
+      <c r="E32" t="n">
+        <v>11.95317103944975</v>
+      </c>
+      <c r="F32" t="n">
+        <v>201.5050730857733</v>
       </c>
     </row>
     <row r="33">
@@ -4920,7 +6672,13 @@
         <v>146.992156982422</v>
       </c>
       <c r="D33" t="n">
-        <v>1.957493227594105</v>
+        <v>16.9627876281738</v>
+      </c>
+      <c r="E33" t="n">
+        <v>11.95250544054755</v>
+      </c>
+      <c r="F33" t="n">
+        <v>202.7478114126</v>
       </c>
     </row>
     <row r="34">
@@ -4934,7 +6692,13 @@
         <v>147.525085449219</v>
       </c>
       <c r="D34" t="n">
-        <v>1.964468625100223</v>
+        <v>17.0237598419189</v>
+      </c>
+      <c r="E34" t="n">
+        <v>11.95287507155846</v>
+      </c>
+      <c r="F34" t="n">
+        <v>203.4828746386703</v>
       </c>
     </row>
     <row r="35">
@@ -4948,7 +6712,13 @@
         <v>148.960510253906</v>
       </c>
       <c r="D35" t="n">
-        <v>1.983594372471599</v>
+        <v>17.1894512176514</v>
+      </c>
+      <c r="E35" t="n">
+        <v>11.95284087082436</v>
+      </c>
+      <c r="F35" t="n">
+        <v>205.4627750613852</v>
       </c>
     </row>
     <row r="36">
@@ -4962,7 +6732,13 @@
         <v>150.366119384766</v>
       </c>
       <c r="D36" t="n">
-        <v>2.002402230548322</v>
+        <v>17.3520450592041</v>
+      </c>
+      <c r="E36" t="n">
+        <v>11.95257121119005</v>
+      </c>
+      <c r="F36" t="n">
+        <v>207.4015542299156</v>
       </c>
     </row>
     <row r="37">
@@ -4976,7 +6752,13 @@
         <v>153.58740234375</v>
       </c>
       <c r="D37" t="n">
-        <v>2.046083497141494</v>
+        <v>17.7271728515625</v>
+      </c>
+      <c r="E37" t="n">
+        <v>11.95028107741783</v>
+      </c>
+      <c r="F37" t="n">
+        <v>211.8446982841425</v>
       </c>
     </row>
     <row r="38">
@@ -4990,7 +6772,13 @@
         <v>158.410385131836</v>
       </c>
       <c r="D38" t="n">
-        <v>2.110696390899379</v>
+        <v>18.2854099273682</v>
+      </c>
+      <c r="E38" t="n">
+        <v>11.94925768622037</v>
+      </c>
+      <c r="F38" t="n">
+        <v>218.4970751202948</v>
       </c>
     </row>
     <row r="39">
@@ -5004,7 +6792,13 @@
         <v>163.803863525391</v>
       </c>
       <c r="D39" t="n">
-        <v>2.18361655607416</v>
+        <v>18.9125576019287</v>
+      </c>
+      <c r="E39" t="n">
+        <v>11.94636772418844</v>
+      </c>
+      <c r="F39" t="n">
+        <v>225.9363677175358</v>
       </c>
     </row>
     <row r="40">
@@ -5018,7 +6812,13 @@
         <v>168.366546630859</v>
       </c>
       <c r="D40" t="n">
-        <v>2.245978731822347</v>
+        <v>19.4460201263428</v>
+      </c>
+      <c r="E40" t="n">
+        <v>11.94227547481142</v>
+      </c>
+      <c r="F40" t="n">
+        <v>232.2297292375129</v>
       </c>
     </row>
     <row r="41">
@@ -5032,7 +6832,13 @@
         <v>170.683334350586</v>
       </c>
       <c r="D41" t="n">
-        <v>2.278520763724881</v>
+        <v>19.7206878662109</v>
+      </c>
+      <c r="E41" t="n">
+        <v>11.93798591350687</v>
+      </c>
+      <c r="F41" t="n">
+        <v>235.4252939514915</v>
       </c>
     </row>
     <row r="42">
@@ -5046,7 +6852,13 @@
         <v>174.713073730469</v>
       </c>
       <c r="D42" t="n">
-        <v>2.33422228258048</v>
+        <v>20.1945323944092</v>
+      </c>
+      <c r="E42" t="n">
+        <v>11.93310836265828</v>
+      </c>
+      <c r="F42" t="n">
+        <v>240.9835433956979</v>
       </c>
     </row>
     <row r="43">
@@ -5060,7 +6872,13 @@
         <v>178.452819824219</v>
       </c>
       <c r="D43" t="n">
-        <v>2.386191977764309</v>
+        <v>20.6354713439941</v>
+      </c>
+      <c r="E43" t="n">
+        <v>11.9280926934604</v>
+      </c>
+      <c r="F43" t="n">
+        <v>246.1418149644075</v>
       </c>
     </row>
     <row r="44">
@@ -5074,7 +6892,13 @@
         <v>183.397338867188</v>
       </c>
       <c r="D44" t="n">
-        <v>2.453746693292781</v>
+        <v>21.2134532928467</v>
+      </c>
+      <c r="E44" t="n">
+        <v>11.92459501069167</v>
+      </c>
+      <c r="F44" t="n">
+        <v>252.9618392954205</v>
       </c>
     </row>
     <row r="45">
@@ -5088,7 +6912,13 @@
         <v>188.126846313477</v>
       </c>
       <c r="D45" t="n">
-        <v>2.517551252220377</v>
+        <v>21.762788772583</v>
+      </c>
+      <c r="E45" t="n">
+        <v>11.92334799930967</v>
+      </c>
+      <c r="F45" t="n">
+        <v>259.4853039709765</v>
       </c>
     </row>
     <row r="46">
@@ -5102,7 +6932,13 @@
         <v>191.870559692383</v>
       </c>
       <c r="D46" t="n">
-        <v>2.568125275210987</v>
+        <v>22.1979198455811</v>
+      </c>
+      <c r="E46" t="n">
+        <v>11.92224568334119</v>
+      </c>
+      <c r="F46" t="n">
+        <v>264.6490540581329</v>
       </c>
     </row>
     <row r="47">
@@ -5116,7 +6952,13 @@
         <v>195.893020629883</v>
       </c>
       <c r="D47" t="n">
-        <v>2.622806593566184</v>
+        <v>22.6669254302979</v>
+      </c>
+      <c r="E47" t="n">
+        <v>11.92033175764413</v>
+      </c>
+      <c r="F47" t="n">
+        <v>270.1972710549313</v>
       </c>
     </row>
     <row r="48">
@@ -5130,7 +6972,13 @@
         <v>200.355407714844</v>
       </c>
       <c r="D48" t="n">
-        <v>2.68288615860272</v>
+        <v>23.1847095489502</v>
+      </c>
+      <c r="E48" t="n">
+        <v>11.9195924956223</v>
+      </c>
+      <c r="F48" t="n">
+        <v>276.3522899528496</v>
       </c>
     </row>
     <row r="49">
@@ -5144,7 +6992,13 @@
         <v>204.788269042969</v>
       </c>
       <c r="D49" t="n">
-        <v>2.742913211145665</v>
+        <v>23.7005577087402</v>
+      </c>
+      <c r="E49" t="n">
+        <v>11.91814027983567</v>
+      </c>
+      <c r="F49" t="n">
+        <v>282.4665714831063</v>
       </c>
     </row>
     <row r="50">
@@ -5158,7 +7012,13 @@
         <v>209.938751220703</v>
       </c>
       <c r="D50" t="n">
-        <v>2.812324876792187</v>
+        <v>24.2984771728516</v>
+      </c>
+      <c r="E50" t="n">
+        <v>11.91723659120757</v>
+      </c>
+      <c r="F50" t="n">
+        <v>289.570701274929</v>
       </c>
     </row>
     <row r="51">
@@ -5172,7 +7032,13 @@
         <v>214.11506652832</v>
       </c>
       <c r="D51" t="n">
-        <v>2.869157135897464</v>
+        <v>24.7856769561768</v>
+      </c>
+      <c r="E51" t="n">
+        <v>11.91539501321727</v>
+      </c>
+      <c r="F51" t="n">
+        <v>295.3311316028432</v>
       </c>
     </row>
     <row r="52">
@@ -5186,7 +7052,13 @@
         <v>217.697677612305</v>
       </c>
       <c r="D52" t="n">
-        <v>2.917991579780919</v>
+        <v>25.2039680480957</v>
+      </c>
+      <c r="E52" t="n">
+        <v>11.91370602311759</v>
+      </c>
+      <c r="F52" t="n">
+        <v>300.2726659410609</v>
       </c>
     </row>
     <row r="53">
@@ -5200,7 +7072,13 @@
         <v>221.323364257813</v>
       </c>
       <c r="D53" t="n">
-        <v>2.967011050569294</v>
+        <v>25.6255512237549</v>
+      </c>
+      <c r="E53" t="n">
+        <v>11.9128602126549</v>
+      </c>
+      <c r="F53" t="n">
+        <v>305.2736096008197</v>
       </c>
     </row>
     <row r="54">
@@ -5214,7 +7092,13 @@
         <v>226.153244018555</v>
       </c>
       <c r="D54" t="n">
-        <v>3.032787249149101</v>
+        <v>26.189208984375</v>
+      </c>
+      <c r="E54" t="n">
+        <v>11.91084105392982</v>
+      </c>
+      <c r="F54" t="n">
+        <v>311.9355055410414</v>
       </c>
     </row>
     <row r="55">
@@ -5228,7 +7112,13 @@
         <v>229.415390014648</v>
       </c>
       <c r="D55" t="n">
-        <v>3.077536330174142</v>
+        <v>26.5713043212891</v>
+      </c>
+      <c r="E55" t="n">
+        <v>11.90890081997575</v>
+      </c>
+      <c r="F55" t="n">
+        <v>316.435027819625</v>
       </c>
     </row>
     <row r="56">
@@ -5242,7 +7132,13 @@
         <v>235.237976074219</v>
       </c>
       <c r="D56" t="n">
-        <v>3.156046778563799</v>
+        <v>27.2474231719971</v>
+      </c>
+      <c r="E56" t="n">
+        <v>11.90814182676119</v>
+      </c>
+      <c r="F56" t="n">
+        <v>324.4661795459207</v>
       </c>
     </row>
     <row r="57">
@@ -5256,7 +7152,13 @@
         <v>238.278594970703</v>
       </c>
       <c r="D57" t="n">
-        <v>3.197401100708726</v>
+        <v>27.6020336151123</v>
+      </c>
+      <c r="E57" t="n">
+        <v>11.90709870437097</v>
+      </c>
+      <c r="F57" t="n">
+        <v>328.6601386965075</v>
       </c>
     </row>
     <row r="58">
@@ -5270,7 +7172,13 @@
         <v>242.910736083984</v>
       </c>
       <c r="D58" t="n">
-        <v>3.26036018845917</v>
+        <v>28.1420764923096</v>
+      </c>
+      <c r="E58" t="n">
+        <v>11.90563464986868</v>
+      </c>
+      <c r="F58" t="n">
+        <v>335.0492810060959</v>
       </c>
     </row>
     <row r="59">
@@ -5284,7 +7192,13 @@
         <v>246.772842407227</v>
       </c>
       <c r="D59" t="n">
-        <v>3.312620051322075</v>
+        <v>28.5913391113281</v>
+      </c>
+      <c r="E59" t="n">
+        <v>11.9048756566541</v>
+      </c>
+      <c r="F59" t="n">
+        <v>340.3763369775921</v>
       </c>
     </row>
     <row r="60">
@@ -5298,7 +7212,13 @@
         <v>250.728302001953</v>
       </c>
       <c r="D60" t="n">
-        <v>3.366362824258064</v>
+        <v>29.0524082183838</v>
+      </c>
+      <c r="E60" t="n">
+        <v>11.90373387830011</v>
+      </c>
+      <c r="F60" t="n">
+        <v>345.8321359553798</v>
       </c>
     </row>
     <row r="61">
@@ -5312,7 +7232,13 @@
         <v>255.431671142578</v>
       </c>
       <c r="D61" t="n">
-        <v>3.430204782796383</v>
+        <v>29.6003875732422</v>
+      </c>
+      <c r="E61" t="n">
+        <v>11.90253159095501</v>
+      </c>
+      <c r="F61" t="n">
+        <v>352.3195481950273</v>
       </c>
     </row>
     <row r="62">
@@ -5326,7 +7252,13 @@
         <v>259.047485351563</v>
       </c>
       <c r="D62" t="n">
-        <v>3.479536791686017</v>
+        <v>30.0227451324463</v>
+      </c>
+      <c r="E62" t="n">
+        <v>11.901205654802</v>
+      </c>
+      <c r="F62" t="n">
+        <v>357.3068641429492</v>
       </c>
     </row>
     <row r="63">
@@ -5340,7 +7272,13 @@
         <v>263.796813964844</v>
       </c>
       <c r="D63" t="n">
-        <v>3.54401772682595</v>
+        <v>30.5761432647705</v>
+      </c>
+      <c r="E63" t="n">
+        <v>11.90005072231951</v>
+      </c>
+      <c r="F63" t="n">
+        <v>363.8576557436769</v>
       </c>
     </row>
     <row r="64">
@@ -5354,7 +7292,13 @@
         <v>267.775848388672</v>
       </c>
       <c r="D64" t="n">
-        <v>3.599598361735162</v>
+        <v>31.0465049743652</v>
+      </c>
+      <c r="E64" t="n">
+        <v>11.89653988542228</v>
+      </c>
+      <c r="F64" t="n">
+        <v>369.3459847304967</v>
       </c>
     </row>
     <row r="65">
@@ -5368,7 +7312,13 @@
         <v>272.595703125</v>
       </c>
       <c r="D65" t="n">
-        <v>3.666093812366193</v>
+        <v>31.612678527832</v>
+      </c>
+      <c r="E65" t="n">
+        <v>11.89377488761113</v>
+      </c>
+      <c r="F65" t="n">
+        <v>375.9940820044519</v>
       </c>
     </row>
     <row r="66">
@@ -5382,7 +7332,13 @@
         <v>275.891845703125</v>
       </c>
       <c r="D66" t="n">
-        <v>3.71312614336457</v>
+        <v>32.0065803527832</v>
+      </c>
+      <c r="E66" t="n">
+        <v>11.88944454850822</v>
+      </c>
+      <c r="F66" t="n">
+        <v>380.5404622917886</v>
       </c>
     </row>
     <row r="67">
@@ -5396,7 +7352,13 @@
         <v>281.087707519531</v>
       </c>
       <c r="D67" t="n">
-        <v>3.785387007498302</v>
+        <v>32.6194076538086</v>
+      </c>
+      <c r="E67" t="n">
+        <v>11.88578243913321</v>
+      </c>
+      <c r="F67" t="n">
+        <v>387.7071826665658</v>
       </c>
     </row>
     <row r="68">
@@ -5410,7 +7372,13 @@
         <v>284.360992431641</v>
       </c>
       <c r="D68" t="n">
-        <v>3.832144476273516</v>
+        <v>33.0107917785645</v>
+      </c>
+      <c r="E68" t="n">
+        <v>11.88163099617793</v>
+      </c>
+      <c r="F68" t="n">
+        <v>392.2220468045676</v>
       </c>
     </row>
     <row r="69">
@@ -5424,7 +7392,13 @@
         <v>288.424713134766</v>
       </c>
       <c r="D69" t="n">
-        <v>3.890542361519847</v>
+        <v>33.4981880187988</v>
+      </c>
+      <c r="E69" t="n">
+        <v>11.87608126936288</v>
+      </c>
+      <c r="F69" t="n">
+        <v>397.8272032876526</v>
       </c>
     </row>
     <row r="70">
@@ -5438,7 +7412,13 @@
         <v>293.249908447266</v>
       </c>
       <c r="D70" t="n">
-        <v>3.959532156354946</v>
+        <v>34.0753936767578</v>
+      </c>
+      <c r="E70" t="n">
+        <v>11.87022636676657</v>
+      </c>
+      <c r="F70" t="n">
+        <v>404.4826364798012</v>
       </c>
     </row>
     <row r="71">
@@ -5452,7 +7432,13 @@
         <v>297.057678222656</v>
       </c>
       <c r="D71" t="n">
-        <v>4.015721753307923</v>
+        <v>34.5383987426758</v>
+      </c>
+      <c r="E71" t="n">
+        <v>11.86316523058661</v>
+      </c>
+      <c r="F71" t="n">
+        <v>409.7347310842478</v>
       </c>
     </row>
     <row r="72">
@@ -5466,7 +7452,13 @@
         <v>297.998870849609</v>
       </c>
       <c r="D72" t="n">
-        <v>4.029104501528019</v>
+        <v>34.6506652832031</v>
+      </c>
+      <c r="E72" t="n">
+        <v>11.86219445590316</v>
+      </c>
+      <c r="F72" t="n">
+        <v>411.0329296157678</v>
       </c>
     </row>
     <row r="73">
@@ -5480,7 +7472,13 @@
         <v>299.626678466797</v>
       </c>
       <c r="D73" t="n">
-        <v>4.053146178945427</v>
+        <v>34.8486824035645</v>
+      </c>
+      <c r="E73" t="n">
+        <v>11.85921899203596</v>
+      </c>
+      <c r="F73" t="n">
+        <v>413.2781562077815</v>
       </c>
     </row>
     <row r="74">
@@ -5494,7 +7492,13 @@
         <v>300.829742431641</v>
       </c>
       <c r="D74" t="n">
-        <v>4.071587101034612</v>
+        <v>34.9979209899902</v>
+      </c>
+      <c r="E74" t="n">
+        <v>11.8560633166083</v>
+      </c>
+      <c r="F74" t="n">
+        <v>414.9375672069785</v>
       </c>
     </row>
     <row r="75">
@@ -5508,7 +7512,13 @@
         <v>303.7802734375</v>
       </c>
       <c r="D75" t="n">
-        <v>4.122275777951993</v>
+        <v>35.3873710632324</v>
+      </c>
+      <c r="E75" t="n">
+        <v>11.84058748442552</v>
+      </c>
+      <c r="F75" t="n">
+        <v>419.0072629180313</v>
       </c>
     </row>
     <row r="76">
@@ -5522,7 +7532,13 @@
         <v>304.324737548828</v>
       </c>
       <c r="D76" t="n">
-        <v>4.133603449009819</v>
+        <v>35.467700958252</v>
+      </c>
+      <c r="E76" t="n">
+        <v>11.83494436329808</v>
+      </c>
+      <c r="F76" t="n">
+        <v>419.7582675350066</v>
       </c>
     </row>
     <row r="77">
@@ -5536,7 +7552,13 @@
         <v>306.160217285156</v>
       </c>
       <c r="D77" t="n">
-        <v>4.167239540213203</v>
+        <v>35.7189445495605</v>
+      </c>
+      <c r="E77" t="n">
+        <v>11.82257685168036</v>
+      </c>
+      <c r="F77" t="n">
+        <v>422.2899669980883</v>
       </c>
     </row>
     <row r="78">
@@ -5550,7 +7572,13 @@
         <v>307.221801757813</v>
       </c>
       <c r="D78" t="n">
-        <v>4.198650123155438</v>
+        <v>35.915412902832</v>
+      </c>
+      <c r="E78" t="n">
+        <v>11.79867316936625</v>
+      </c>
+      <c r="F78" t="n">
+        <v>423.7542185833543</v>
       </c>
     </row>
     <row r="79">
@@ -5564,7 +7592,13 @@
         <v>309.079467773438</v>
       </c>
       <c r="D79" t="n">
-        <v>4.245474011851726</v>
+        <v>36.2241477966309</v>
+      </c>
+      <c r="E79" t="n">
+        <v>11.76884881381331</v>
+      </c>
+      <c r="F79" t="n">
+        <v>426.3165188277777</v>
       </c>
     </row>
     <row r="80">
@@ -5578,7 +7612,13 @@
         <v>309.344787597656</v>
       </c>
       <c r="D80" t="n">
-        <v>4.256987521442088</v>
+        <v>36.2887992858887</v>
+      </c>
+      <c r="E80" t="n">
+        <v>11.75796640330348</v>
+      </c>
+      <c r="F80" t="n">
+        <v>426.6824828197025</v>
       </c>
     </row>
     <row r="81">
@@ -5592,7 +7632,13 @@
         <v>310.398712158203</v>
       </c>
       <c r="D81" t="n">
-        <v>4.298020543861436</v>
+        <v>36.525333404541</v>
+      </c>
+      <c r="E81" t="n">
+        <v>11.72162154625201</v>
+      </c>
+      <c r="F81" t="n">
+        <v>428.1361350187062</v>
       </c>
     </row>
     <row r="82">
@@ -5606,7 +7652,13 @@
         <v>311.947082519531</v>
       </c>
       <c r="D82" t="n">
-        <v>4.338738061885032</v>
+        <v>36.7893562316895</v>
+      </c>
+      <c r="E82" t="n">
+        <v>11.69555269438646</v>
+      </c>
+      <c r="F82" t="n">
+        <v>430.2718544002793</v>
       </c>
     </row>
     <row r="83">
@@ -5620,7 +7672,13 @@
         <v>312.213592529297</v>
       </c>
       <c r="D83" t="n">
-        <v>4.375362059669054</v>
+        <v>36.9600791931152</v>
+      </c>
+      <c r="E83" t="n">
+        <v>11.65147452518858</v>
+      </c>
+      <c r="F83" t="n">
+        <v>430.6394211675342</v>
       </c>
     </row>
     <row r="84">
@@ -5634,7 +7692,13 @@
         <v>312.615234375</v>
       </c>
       <c r="D84" t="n">
-        <v>4.418160433671443</v>
+        <v>37.1642875671387</v>
+      </c>
+      <c r="E84" t="n">
+        <v>11.60235964018723</v>
+      </c>
+      <c r="F84" t="n">
+        <v>431.1934301252821</v>
       </c>
     </row>
     <row r="85">
@@ -5648,7 +7712,13 @@
         <v>313.427612304688</v>
       </c>
       <c r="D85" t="n">
-        <v>4.456516849256091</v>
+        <v>37.3737258911133</v>
+      </c>
+      <c r="E85" t="n">
+        <v>11.5673223035089</v>
+      </c>
+      <c r="F85" t="n">
+        <v>432.3139330655029</v>
       </c>
     </row>
     <row r="86">
@@ -5662,7 +7732,13 @@
         <v>313.533721923828</v>
       </c>
       <c r="D86" t="n">
-        <v>4.487461597781023</v>
+        <v>37.5096054077148</v>
+      </c>
+      <c r="E86" t="n">
+        <v>11.52932134167902</v>
+      </c>
+      <c r="F86" t="n">
+        <v>432.4602941451251</v>
       </c>
     </row>
     <row r="87">
@@ -5676,7 +7752,13 @@
         <v>314.750061035156</v>
       </c>
       <c r="D87" t="n">
-        <v>4.537033739878684</v>
+        <v>37.789306640625</v>
+      </c>
+      <c r="E87" t="n">
+        <v>11.48838306295461</v>
+      </c>
+      <c r="F87" t="n">
+        <v>434.1380303709543</v>
       </c>
     </row>
     <row r="88">
@@ -5690,7 +7772,13 @@
         <v>314.144165039063</v>
       </c>
       <c r="D88" t="n">
-        <v>4.580497975244612</v>
+        <v>37.9333190917969</v>
+      </c>
+      <c r="E88" t="n">
+        <v>11.42273606925175</v>
+      </c>
+      <c r="F88" t="n">
+        <v>433.3022922163046</v>
       </c>
     </row>
     <row r="89">
@@ -5704,7 +7792,13 @@
         <v>315.244567871094</v>
       </c>
       <c r="D89" t="n">
-        <v>4.654339442482225</v>
+        <v>38.3047676086426</v>
+      </c>
+      <c r="E89" t="n">
+        <v>11.35159196524785</v>
+      </c>
+      <c r="F89" t="n">
+        <v>434.8200922169534</v>
       </c>
     </row>
     <row r="90">
@@ -5718,7 +7812,13 @@
         <v>314.001312255859</v>
       </c>
       <c r="D90" t="n">
-        <v>4.700435725144634</v>
+        <v>38.4180030822754</v>
+      </c>
+      <c r="E90" t="n">
+        <v>11.27349721974339</v>
+      </c>
+      <c r="F90" t="n">
+        <v>433.1052509361248</v>
       </c>
     </row>
     <row r="91">
@@ -5732,7 +7832,13 @@
         <v>313.778747558594</v>
       </c>
       <c r="D91" t="n">
-        <v>4.744240076082101</v>
+        <v>38.5829200744629</v>
+      </c>
+      <c r="E91" t="n">
+        <v>11.21735408388335</v>
+      </c>
+      <c r="F91" t="n">
+        <v>432.7982760654214</v>
       </c>
     </row>
     <row r="92">
@@ -5746,7 +7852,13 @@
         <v>313.295135498047</v>
       </c>
       <c r="D92" t="n">
-        <v>4.786956238818749</v>
+        <v>38.7263488769531</v>
+      </c>
+      <c r="E92" t="n">
+        <v>11.15858406856142</v>
+      </c>
+      <c r="F92" t="n">
+        <v>432.1312196119203</v>
       </c>
     </row>
     <row r="93">
@@ -5760,7 +7872,13 @@
         <v>311.687286376953</v>
       </c>
       <c r="D93" t="n">
-        <v>4.872204538365491</v>
+        <v>38.9692726135254</v>
+      </c>
+      <c r="E93" t="n">
+        <v>11.0321150154903</v>
+      </c>
+      <c r="F93" t="n">
+        <v>429.9134975424086</v>
       </c>
     </row>
     <row r="94">
@@ -5774,7 +7892,13 @@
         <v>311.508972167969</v>
       </c>
       <c r="D94" t="n">
-        <v>4.93031060528348</v>
+        <v>39.1897430419922</v>
+      </c>
+      <c r="E94" t="n">
+        <v>10.96377537168305</v>
+      </c>
+      <c r="F94" t="n">
+        <v>429.6675395863812</v>
       </c>
     </row>
     <row r="95">
@@ -5788,7 +7912,13 @@
         <v>310.553192138672</v>
       </c>
       <c r="D95" t="n">
-        <v>4.978809086888051</v>
+        <v>39.3215599060059</v>
+      </c>
+      <c r="E95" t="n">
+        <v>10.89349549392174</v>
+      </c>
+      <c r="F95" t="n">
+        <v>428.349235650049</v>
       </c>
     </row>
     <row r="96">
@@ -5802,7 +7932,13 @@
         <v>309.274353027344</v>
       </c>
       <c r="D96" t="n">
-        <v>5.061506977434209</v>
+        <v>39.5650634765625</v>
+      </c>
+      <c r="E96" t="n">
+        <v>10.7818682440396</v>
+      </c>
+      <c r="F96" t="n">
+        <v>426.5853014713603</v>
       </c>
     </row>
     <row r="97">
@@ -5816,7 +7952,13 @@
         <v>307.249450683594</v>
       </c>
       <c r="D97" t="n">
-        <v>5.139879106938113</v>
+        <v>39.7394638061523</v>
+      </c>
+      <c r="E97" t="n">
+        <v>10.66426901981749</v>
+      </c>
+      <c r="F97" t="n">
+        <v>423.7923327321084</v>
       </c>
     </row>
     <row r="98">
@@ -5830,7 +7972,13 @@
         <v>305.457489013672</v>
       </c>
       <c r="D98" t="n">
-        <v>5.231305275068176</v>
+        <v>39.9742584228516</v>
+      </c>
+      <c r="E98" t="n">
+        <v>10.53979939427869</v>
+      </c>
+      <c r="F98" t="n">
+        <v>421.3206647119111</v>
       </c>
     </row>
     <row r="99">
@@ -5844,7 +7992,13 @@
         <v>302.306182861328</v>
       </c>
       <c r="D99" t="n">
-        <v>5.353985046418448</v>
+        <v>40.2311172485352</v>
+      </c>
+      <c r="E99" t="n">
+        <v>10.36446604235419</v>
+      </c>
+      <c r="F99" t="n">
+        <v>416.9740485684131</v>
       </c>
     </row>
     <row r="100">
@@ -5858,7 +8012,13 @@
         <v>302.622650146484</v>
       </c>
       <c r="D100" t="n">
-        <v>5.407475978210634</v>
+        <v>40.4527473449707</v>
+      </c>
+      <c r="E100" t="n">
+        <v>10.3184726320464</v>
+      </c>
+      <c r="F100" t="n">
+        <v>417.4105663701679</v>
       </c>
     </row>
     <row r="101">
@@ -5872,7 +8032,13 @@
         <v>296.861267089844</v>
       </c>
       <c r="D101" t="n">
-        <v>5.55783045353624</v>
+        <v>40.6190185546875</v>
+      </c>
+      <c r="E101" t="n">
+        <v>10.08059402991985</v>
+      </c>
+      <c r="F101" t="n">
+        <v>409.4638359435864</v>
       </c>
     </row>
     <row r="102">
@@ -5886,7 +8052,13 @@
         <v>296.448486328125</v>
       </c>
       <c r="D102" t="n">
-        <v>5.604678285275636</v>
+        <v>40.7614822387695</v>
+      </c>
+      <c r="E102" t="n">
+        <v>10.03139364308324</v>
+      </c>
+      <c r="F102" t="n">
+        <v>408.8944738126428</v>
       </c>
     </row>
     <row r="103">
@@ -5900,7 +8072,13 @@
         <v>290.667877197266</v>
       </c>
       <c r="D103" t="n">
-        <v>5.786387343112771</v>
+        <v>41.0111808776855</v>
+      </c>
+      <c r="E103" t="n">
+        <v>9.775900347479462</v>
+      </c>
+      <c r="F103" t="n">
+        <v>400.9212173927087</v>
       </c>
     </row>
     <row r="104">
@@ -5914,7 +8092,13 @@
         <v>285.758941650391</v>
       </c>
       <c r="D104" t="n">
-        <v>5.945890101908298</v>
+        <v>41.2200355529785</v>
+      </c>
+      <c r="E104" t="n">
+        <v>9.562104323814664</v>
+      </c>
+      <c r="F104" t="n">
+        <v>394.1502801889299</v>
       </c>
     </row>
     <row r="105">
@@ -5928,7 +8112,13 @@
         <v>280.675598144531</v>
       </c>
       <c r="D105" t="n">
-        <v>6.118678268568694</v>
+        <v>41.4410858154297</v>
+      </c>
+      <c r="E105" t="n">
+        <v>9.341906185807849</v>
+      </c>
+      <c r="F105" t="n">
+        <v>387.1387359257566</v>
       </c>
     </row>
     <row r="106">
@@ -5942,7 +8132,13 @@
         <v>275.964569091797</v>
       </c>
       <c r="D106" t="n">
-        <v>6.320476493529052</v>
+        <v>41.7639503479004</v>
+      </c>
+      <c r="E106" t="n">
+        <v>9.114099042168979</v>
+      </c>
+      <c r="F106" t="n">
+        <v>380.6407798629918</v>
       </c>
     </row>
     <row r="107">
@@ -5956,7 +8152,13 @@
         <v>269.461975097656</v>
       </c>
       <c r="D107" t="n">
-        <v>6.498946817778302</v>
+        <v>41.8475685119629</v>
+      </c>
+      <c r="E107" t="n">
+        <v>8.88155970080145</v>
+      </c>
+      <c r="F107" t="n">
+        <v>371.6716780723773</v>
       </c>
     </row>
     <row r="108">
@@ -5970,7 +8172,13 @@
         <v>267.090118408203</v>
       </c>
       <c r="D108" t="n">
-        <v>6.617942579278805</v>
+        <v>42.0426826477051</v>
+      </c>
+      <c r="E108" t="n">
+        <v>8.762527991985449</v>
+      </c>
+      <c r="F108" t="n">
+        <v>368.4001835586768</v>
       </c>
     </row>
     <row r="109">
@@ -5984,7 +8192,13 @@
         <v>257.791168212891</v>
       </c>
       <c r="D109" t="n">
-        <v>6.943050038806586</v>
+        <v>42.3067016601563</v>
+      </c>
+      <c r="E109" t="n">
+        <v>8.404673872322871</v>
+      </c>
+      <c r="F109" t="n">
+        <v>355.5740300672743</v>
       </c>
     </row>
     <row r="110">
@@ -5998,7 +8212,13 @@
         <v>247.852600097656</v>
       </c>
       <c r="D110" t="n">
-        <v>7.288485855490188</v>
+        <v>42.5025901794434</v>
+      </c>
+      <c r="E110" t="n">
+        <v>8.043407571726828</v>
+      </c>
+      <c r="F110" t="n">
+        <v>341.8656556673374</v>
       </c>
     </row>
     <row r="111">
@@ -6012,7 +8232,13 @@
         <v>242.988342285156</v>
       </c>
       <c r="D111" t="n">
-        <v>7.478062987309799</v>
+        <v>42.6272468566895</v>
+      </c>
+      <c r="E111" t="n">
+        <v>7.862490949959586</v>
+      </c>
+      <c r="F111" t="n">
+        <v>335.1563426324144</v>
       </c>
     </row>
     <row r="112">
@@ -6026,7 +8252,13 @@
         <v>234.718322753906</v>
       </c>
       <c r="D112" t="n">
-        <v>7.812008790340016</v>
+        <v>42.8208084106445</v>
+      </c>
+      <c r="E112" t="n">
+        <v>7.560562923036773</v>
+      </c>
+      <c r="F112" t="n">
+        <v>323.74941640398</v>
       </c>
     </row>
     <row r="113">
@@ -6040,7 +8272,13 @@
         <v>222.926712036133</v>
       </c>
       <c r="D113" t="n">
-        <v>8.324420572242389</v>
+        <v>43.0782508850098</v>
+      </c>
+      <c r="E113" t="n">
+        <v>7.137827379950166</v>
+      </c>
+      <c r="F113" t="n">
+        <v>307.4851186473854</v>
       </c>
     </row>
     <row r="114">
@@ -6054,7 +8292,13 @@
         <v>220.224090576172</v>
       </c>
       <c r="D114" t="n">
-        <v>8.50787689386982</v>
+        <v>43.2855567932129</v>
+      </c>
+      <c r="E114" t="n">
+        <v>7.017522351495145</v>
+      </c>
+      <c r="F114" t="n">
+        <v>303.757362293284</v>
       </c>
     </row>
     <row r="115">
@@ -6068,7 +8312,13 @@
         <v>209.872589111328</v>
       </c>
       <c r="D115" t="n">
-        <v>8.985810339210371</v>
+        <v>43.4266662597656</v>
+      </c>
+      <c r="E115" t="n">
+        <v>6.665937489476704</v>
+      </c>
+      <c r="F115" t="n">
+        <v>289.4794426639646</v>
       </c>
     </row>
     <row r="116">
@@ -6082,7 +8332,13 @@
         <v>200.027755737305</v>
       </c>
       <c r="D116" t="n">
-        <v>9.559552342114701</v>
+        <v>43.7284317016602</v>
+      </c>
+      <c r="E116" t="n">
+        <v>6.309404044315738</v>
+      </c>
+      <c r="F116" t="n">
+        <v>275.9003438300394</v>
       </c>
     </row>
     <row r="117">
@@ -6096,7 +8352,13 @@
         <v>179.869812011719</v>
       </c>
       <c r="D117" t="n">
-        <v>10.7160443536049</v>
+        <v>43.9032211303711</v>
+      </c>
+      <c r="E117" t="n">
+        <v>5.650981376911035</v>
+      </c>
+      <c r="F117" t="n">
+        <v>248.0962849941341</v>
       </c>
     </row>
     <row r="118">
@@ -6110,7 +8372,13 @@
         <v>172.754272460938</v>
       </c>
       <c r="D118" t="n">
-        <v>11.27164260547244</v>
+        <v>44.1273651123047</v>
+      </c>
+      <c r="E118" t="n">
+        <v>5.399863473300276</v>
+      </c>
+      <c r="F118" t="n">
+        <v>238.2817470429191</v>
       </c>
     </row>
     <row r="119">
@@ -6124,7 +8392,13 @@
         <v>163.883850097656</v>
       </c>
       <c r="D119" t="n">
-        <v>11.95010856251639</v>
+        <v>44.254150390625</v>
+      </c>
+      <c r="E119" t="n">
+        <v>5.107920745323449</v>
+      </c>
+      <c r="F119" t="n">
+        <v>226.0466928469372</v>
       </c>
     </row>
     <row r="120">
@@ -6138,7 +8412,13 @@
         <v>146.463485717773</v>
       </c>
       <c r="D120" t="n">
-        <v>13.50925028996084</v>
+        <v>44.4815902709961</v>
+      </c>
+      <c r="E120" t="n">
+        <v>4.541622688030373</v>
+      </c>
+      <c r="F120" t="n">
+        <v>202.018599574427</v>
       </c>
     </row>
     <row r="121">
@@ -6152,7 +8432,13 @@
         <v>133.123809814453</v>
       </c>
       <c r="D121" t="n">
-        <v>15.00180448581116</v>
+        <v>44.6888961791992</v>
+      </c>
+      <c r="E121" t="n">
+        <v>4.108829498291021</v>
+      </c>
+      <c r="F121" t="n">
+        <v>183.6190548671586</v>
       </c>
     </row>
     <row r="122">
@@ -6166,7 +8452,13 @@
         <v>112.106811523438</v>
       </c>
       <c r="D122" t="n">
-        <v>17.95633912454208</v>
+        <v>44.8667793273926</v>
+      </c>
+      <c r="E122" t="n">
+        <v>3.446427049307986</v>
+      </c>
+      <c r="F122" t="n">
+        <v>154.6300818892582</v>
       </c>
     </row>
     <row r="123">
@@ -6180,7 +8472,13 @@
         <v>96.7523574829102</v>
       </c>
       <c r="D123" t="n">
-        <v>21.02629929026007</v>
+        <v>45.103702545166</v>
+      </c>
+      <c r="E123" t="n">
+        <v>2.958770949265048</v>
+      </c>
+      <c r="F123" t="n">
+        <v>133.4515247949292</v>
       </c>
     </row>
     <row r="124">
@@ -6194,7 +8492,13 @@
         <v>84.2080993652344</v>
       </c>
       <c r="D124" t="n">
-        <v>24.41675031880678</v>
+        <v>45.344108581543</v>
+      </c>
+      <c r="E124" t="n">
+        <v>2.56150377207789</v>
+      </c>
+      <c r="F124" t="n">
+        <v>116.1491051731318</v>
       </c>
     </row>
     <row r="125">
@@ -6208,7 +8512,13 @@
         <v>60.7718124389648</v>
       </c>
       <c r="D125" t="n">
-        <v>34.06411371003734</v>
+        <v>45.4987678527832</v>
+      </c>
+      <c r="E125" t="n">
+        <v>1.842317745603366</v>
+      </c>
+      <c r="F125" t="n">
+        <v>83.82318741827044</v>
       </c>
     </row>
     <row r="126">
@@ -6222,7 +8532,13 @@
         <v>49.0203323364258</v>
       </c>
       <c r="D126" t="n">
-        <v>42.5603229588089</v>
+        <v>45.6762657165527</v>
+      </c>
+      <c r="E126" t="n">
+        <v>1.480292945072566</v>
+      </c>
+      <c r="F126" t="n">
+        <v>67.61425389747286</v>
       </c>
     </row>
     <row r="127">
@@ -6236,7 +8552,13 @@
         <v>40.0013313293457</v>
       </c>
       <c r="D127" t="n">
-        <v>52.40369547134138</v>
+        <v>45.7844696044922</v>
+      </c>
+      <c r="E127" t="n">
+        <v>1.205086625855545</v>
+      </c>
+      <c r="F127" t="n">
+        <v>55.17425199226326</v>
       </c>
     </row>
     <row r="128">
@@ -6250,7 +8572,13 @@
         <v>21.0832195281982</v>
       </c>
       <c r="D128" t="n">
-        <v>100.2860749148245</v>
+        <v>45.9820976257324</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.6324266154190594</v>
+      </c>
+      <c r="F128" t="n">
+        <v>29.08030237131071</v>
       </c>
     </row>
     <row r="129">
@@ -6264,7 +8592,13 @@
         <v>0.844382643699646</v>
       </c>
       <c r="D129" t="n">
-        <v>2523.539862608086</v>
+        <v>46.1609497070313</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.02523054079762814</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1.164665724840514</v>
       </c>
     </row>
   </sheetData>

--- a/pvstand/datos_procesados_analisis_integrado_py/iv600/iv_curves/iv_curves_report.xlsx
+++ b/pvstand/datos_procesados_analisis_integrado_py/iv600/iv_curves/iv_curves_report.xlsx
@@ -429,125 +429,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>time</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>module</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>module_category</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>irradiance</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>area</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2025-10-27</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>09:00:00</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>IV600_sample_1</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>IV600</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>725</v>
-      </c>
-      <c r="F2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2025-10-27</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>IV600_sample_2</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>IV600</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>725</v>
-      </c>
-      <c r="F3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2025-10-27</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>11:00:00</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>IV600_sample_3</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>IV600</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>725</v>
-      </c>
-      <c r="F4" t="inlineStr"/>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -641,7 +530,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -686,7 +575,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -731,7 +620,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -830,13 +719,13 @@
         <v>4.88571166992188</v>
       </c>
       <c r="D2" t="n">
-        <v>0.456586539745331</v>
+        <v>0.4865857022395359</v>
       </c>
       <c r="E2" t="n">
-        <v>14.75933206492455</v>
+        <v>14.59213650637658</v>
       </c>
       <c r="F2" t="n">
-        <v>6.738912356476212</v>
+        <v>7.100324989130416</v>
       </c>
     </row>
     <row r="3">
@@ -850,13 +739,13 @@
         <v>169.91487121582</v>
       </c>
       <c r="D3" t="n">
-        <v>15.8813457489014</v>
+        <v>16.92479979380969</v>
       </c>
       <c r="E3" t="n">
-        <v>14.75727212840111</v>
+        <v>14.59009990507156</v>
       </c>
       <c r="F3" t="n">
-        <v>234.365340981764</v>
+        <v>246.9345198650179</v>
       </c>
     </row>
     <row r="4">
@@ -870,13 +759,13 @@
         <v>171.619338989258</v>
       </c>
       <c r="D4" t="n">
-        <v>16.0425853729248</v>
+        <v>17.09663336500525</v>
       </c>
       <c r="E4" t="n">
-        <v>14.75549763646621</v>
+        <v>14.58834551480312</v>
       </c>
       <c r="F4" t="n">
-        <v>236.7163305529993</v>
+        <v>249.4115946686076</v>
       </c>
     </row>
     <row r="5">
@@ -890,13 +779,13 @@
         <v>175.939483642578</v>
       </c>
       <c r="D5" t="n">
-        <v>16.4486827850342</v>
+        <v>17.52941264614465</v>
       </c>
       <c r="E5" t="n">
-        <v>14.753470585264</v>
+        <v>14.58634142629031</v>
       </c>
       <c r="F5" t="n">
-        <v>242.6751576353404</v>
+        <v>255.6899978589969</v>
       </c>
     </row>
     <row r="6">
@@ -910,13 +799,13 @@
         <v>177.495071411133</v>
       </c>
       <c r="D6" t="n">
-        <v>16.5961780548096</v>
+        <v>17.68659881606701</v>
       </c>
       <c r="E6" t="n">
-        <v>14.75163689975076</v>
+        <v>14.58452851299577</v>
       </c>
       <c r="F6" t="n">
-        <v>244.8207925881631</v>
+        <v>257.9507047308466</v>
       </c>
     </row>
     <row r="7">
@@ -930,13 +819,13 @@
         <v>179.878128051758</v>
       </c>
       <c r="D7" t="n">
-        <v>16.8210983276367</v>
+        <v>17.92629705369471</v>
       </c>
       <c r="E7" t="n">
-        <v>14.74979532176055</v>
+        <v>14.58270779663123</v>
       </c>
       <c r="F7" t="n">
-        <v>248.10775741985</v>
+        <v>261.4139518096413</v>
       </c>
     </row>
     <row r="8">
@@ -950,13 +839,13 @@
         <v>182.370681762695</v>
       </c>
       <c r="D8" t="n">
-        <v>17.0566673278809</v>
+        <v>18.17734367340807</v>
       </c>
       <c r="E8" t="n">
-        <v>14.74764988340179</v>
+        <v>14.58058666206638</v>
       </c>
       <c r="F8" t="n">
-        <v>251.5457579292459</v>
+        <v>265.0363347162905</v>
       </c>
     </row>
     <row r="9">
@@ -970,13 +859,13 @@
         <v>184.31266784668</v>
       </c>
       <c r="D9" t="n">
-        <v>17.2417144775391</v>
+        <v>18.37454899907116</v>
       </c>
       <c r="E9" t="n">
-        <v>14.74472703604869</v>
+        <v>14.57769692509345</v>
       </c>
       <c r="F9" t="n">
-        <v>254.2243736048029</v>
+        <v>267.8586064437386</v>
       </c>
     </row>
     <row r="10">
@@ -990,13 +879,13 @@
         <v>186.906234741211</v>
       </c>
       <c r="D10" t="n">
-        <v>17.4873466491699</v>
+        <v>18.63631997197864</v>
       </c>
       <c r="E10" t="n">
-        <v>14.74218565842207</v>
+        <v>14.57518433651026</v>
       </c>
       <c r="F10" t="n">
-        <v>257.8017109752478</v>
+        <v>271.6277989457763</v>
       </c>
     </row>
     <row r="11">
@@ -1010,13 +899,13 @@
         <v>190.529541015625</v>
       </c>
       <c r="D11" t="n">
-        <v>17.8295669555664</v>
+        <v>19.00102522194385</v>
       </c>
       <c r="E11" t="n">
-        <v>14.7395258936389</v>
+        <v>14.57255470187502</v>
       </c>
       <c r="F11" t="n">
-        <v>262.7993638139394</v>
+        <v>276.8934794384837</v>
       </c>
     </row>
     <row r="12">
@@ -1030,13 +919,13 @@
         <v>192.103622436523</v>
       </c>
       <c r="D12" t="n">
-        <v>17.9809341430664</v>
+        <v>19.16233770668506</v>
       </c>
       <c r="E12" t="n">
-        <v>14.73619263747641</v>
+        <v>14.569259205255</v>
       </c>
       <c r="F12" t="n">
-        <v>264.9705093340033</v>
+        <v>279.1810650273263</v>
       </c>
     </row>
     <row r="13">
@@ -1050,13 +939,13 @@
         <v>194.385238647461</v>
       </c>
       <c r="D13" t="n">
-        <v>18.1988868713379</v>
+        <v>19.39461061030627</v>
       </c>
       <c r="E13" t="n">
-        <v>14.73263576112938</v>
+        <v>14.56574262164784</v>
       </c>
       <c r="F13" t="n">
-        <v>268.1175715334207</v>
+        <v>282.4969063968014</v>
       </c>
     </row>
     <row r="14">
@@ -1070,13 +959,13 @@
         <v>196.729400634766</v>
       </c>
       <c r="D14" t="n">
-        <v>18.4238090515137</v>
+        <v>19.63431088060144</v>
       </c>
       <c r="E14" t="n">
-        <v>14.72827385211807</v>
+        <v>14.56143012488704</v>
       </c>
       <c r="F14" t="n">
-        <v>271.3509051098255</v>
+        <v>285.9036459381873</v>
       </c>
     </row>
     <row r="15">
@@ -1090,13 +979,13 @@
         <v>198.362258911133</v>
       </c>
       <c r="D15" t="n">
-        <v>18.5817565917969</v>
+        <v>19.8026360678673</v>
       </c>
       <c r="E15" t="n">
-        <v>14.7242868357691</v>
+        <v>14.55748827395766</v>
       </c>
       <c r="F15" t="n">
-        <v>273.6031139700609</v>
+        <v>288.2766423514292</v>
       </c>
     </row>
     <row r="16">
@@ -1110,13 +999,13 @@
         <v>201.704940795898</v>
       </c>
       <c r="D16" t="n">
-        <v>18.8999767303467</v>
+        <v>20.14176426395776</v>
       </c>
       <c r="E16" t="n">
-        <v>14.72032086602579</v>
+        <v>14.55356723121534</v>
       </c>
       <c r="F16" t="n">
-        <v>278.2137218311245</v>
+        <v>293.1345203707999</v>
       </c>
     </row>
     <row r="17">
@@ -1130,13 +1019,13 @@
         <v>204.744720458984</v>
       </c>
       <c r="D17" t="n">
-        <v>19.190710067749</v>
+        <v>20.45159969016907</v>
       </c>
       <c r="E17" t="n">
-        <v>14.71579321499531</v>
+        <v>14.54909086998169</v>
       </c>
       <c r="F17" t="n">
-        <v>282.4065210059229</v>
+        <v>297.5521823287592</v>
       </c>
     </row>
     <row r="18">
@@ -1150,13 +1039,13 @@
         <v>206.101013183594</v>
       </c>
       <c r="D18" t="n">
-        <v>19.3258171081543</v>
+        <v>20.5955836853385</v>
       </c>
       <c r="E18" t="n">
-        <v>14.70971469221448</v>
+        <v>14.54308120546674</v>
       </c>
       <c r="F18" t="n">
-        <v>284.2772558548673</v>
+        <v>299.5232460098638</v>
       </c>
     </row>
     <row r="19">
@@ -1170,13 +1059,13 @@
         <v>208.43180847168</v>
       </c>
       <c r="D19" t="n">
-        <v>19.555383682251</v>
+        <v>20.8402335007489</v>
       </c>
       <c r="E19" t="n">
-        <v>14.70143285290952</v>
+        <v>14.53489318387265</v>
       </c>
       <c r="F19" t="n">
-        <v>287.4921601174956</v>
+        <v>302.9105678603497</v>
       </c>
     </row>
     <row r="20">
@@ -1190,13 +1079,13 @@
         <v>210.690826416016</v>
       </c>
       <c r="D20" t="n">
-        <v>19.777982711792</v>
+        <v>21.07745798215271</v>
       </c>
       <c r="E20" t="n">
-        <v>14.69351275213835</v>
+        <v>14.52706280299303</v>
       </c>
       <c r="F20" t="n">
-        <v>290.6080411872875</v>
+        <v>306.1935558341791</v>
       </c>
     </row>
     <row r="21">
@@ -1210,13 +1099,13 @@
         <v>212.253860473633</v>
       </c>
       <c r="D21" t="n">
-        <v>19.9341888427734</v>
+        <v>21.24392734408374</v>
       </c>
       <c r="E21" t="n">
-        <v>14.6865239636651</v>
+        <v>14.52015318438921</v>
       </c>
       <c r="F21" t="n">
-        <v>292.7639421356171</v>
+        <v>308.4650792741306</v>
       </c>
     </row>
     <row r="22">
@@ -1230,13 +1119,13 @@
         <v>215.840469360352</v>
       </c>
       <c r="D22" t="n">
-        <v>20.2785396575928</v>
+        <v>21.61090308353307</v>
       </c>
       <c r="E22" t="n">
-        <v>14.68108604694235</v>
+        <v>14.51477686906683</v>
       </c>
       <c r="F22" t="n">
-        <v>297.7109856194526</v>
+        <v>313.6774361965108</v>
       </c>
     </row>
     <row r="23">
@@ -1250,13 +1139,13 @@
         <v>218.157653808594</v>
       </c>
       <c r="D23" t="n">
-        <v>20.502685546875</v>
+        <v>21.84977605819702</v>
       </c>
       <c r="E23" t="n">
-        <v>14.67647289407669</v>
+        <v>14.51021597457348</v>
       </c>
       <c r="F23" t="n">
-        <v>300.9071086844889</v>
+        <v>317.0449696005036</v>
       </c>
     </row>
     <row r="24">
@@ -1270,13 +1159,13 @@
         <v>219.967376708984</v>
       </c>
       <c r="D24" t="n">
-        <v>20.6778621673584</v>
+        <v>22.03646233007312</v>
       </c>
       <c r="E24" t="n">
-        <v>14.67285550873848</v>
+        <v>14.50663956742855</v>
       </c>
       <c r="F24" t="n">
-        <v>303.4032838112597</v>
+        <v>319.6750163635875</v>
       </c>
     </row>
     <row r="25">
@@ -1290,13 +1179,13 @@
         <v>222.430541992188</v>
       </c>
       <c r="D25" t="n">
-        <v>20.9149780273438</v>
+        <v>22.28915744304662</v>
       </c>
       <c r="E25" t="n">
-        <v>14.66894873257338</v>
+        <v>14.5027770477122</v>
       </c>
       <c r="F25" t="n">
-        <v>306.8007404260049</v>
+        <v>323.2546809778601</v>
       </c>
     </row>
     <row r="26">
@@ -1310,13 +1199,13 @@
         <v>224.788375854492</v>
       </c>
       <c r="D26" t="n">
-        <v>21.1410598754883</v>
+        <v>22.53009357511999</v>
       </c>
       <c r="E26" t="n">
-        <v>14.66591275971517</v>
+        <v>14.49977546673402</v>
       </c>
       <c r="F26" t="n">
-        <v>310.0529397818263</v>
+        <v>326.6812980837467</v>
       </c>
     </row>
     <row r="27">
@@ -1330,13 +1219,13 @@
         <v>226.468551635742</v>
       </c>
       <c r="D27" t="n">
-        <v>21.3032665252686</v>
+        <v>22.70295770868664</v>
       </c>
       <c r="E27" t="n">
-        <v>14.66302937474745</v>
+        <v>14.49692474511164</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3704228380875</v>
+        <v>329.1230693942824</v>
       </c>
     </row>
     <row r="28">
@@ -1350,13 +1239,13 @@
         <v>229.86750793457</v>
       </c>
       <c r="D28" t="n">
-        <v>21.6278743743896</v>
+        <v>23.04889330789441</v>
       </c>
       <c r="E28" t="n">
-        <v>14.65972242684193</v>
+        <v>14.49365525872536</v>
       </c>
       <c r="F28" t="n">
-        <v>317.0586350111591</v>
+        <v>334.0627136997637</v>
       </c>
     </row>
     <row r="29">
@@ -1370,13 +1259,13 @@
         <v>232.060684204102</v>
       </c>
       <c r="D29" t="n">
-        <v>21.838472366333</v>
+        <v>23.27332824602722</v>
       </c>
       <c r="E29" t="n">
-        <v>14.65687192719559</v>
+        <v>14.49083704989533</v>
       </c>
       <c r="F29" t="n">
-        <v>320.0836925589428</v>
+        <v>337.2500072219067</v>
       </c>
     </row>
     <row r="30">
@@ -1390,13 +1279,13 @@
         <v>234.034759521484</v>
       </c>
       <c r="D30" t="n">
-        <v>22.028938293457</v>
+        <v>23.47630837976929</v>
       </c>
       <c r="E30" t="n">
-        <v>14.65375045250207</v>
+        <v>14.48775093565732</v>
       </c>
       <c r="F30" t="n">
-        <v>322.8065644858857</v>
+        <v>340.1189086947823</v>
       </c>
     </row>
     <row r="31">
@@ -1410,13 +1299,13 @@
         <v>236.35270690918</v>
       </c>
       <c r="D31" t="n">
-        <v>22.25172996521</v>
+        <v>23.71373816058044</v>
       </c>
       <c r="E31" t="n">
-        <v>14.65071447964372</v>
+        <v>14.48474935467901</v>
       </c>
       <c r="F31" t="n">
-        <v>326.0037423984243</v>
+        <v>343.4875535184945</v>
       </c>
     </row>
     <row r="32">
@@ -1430,13 +1319,13 @@
         <v>238.622406005859</v>
       </c>
       <c r="D32" t="n">
-        <v>22.4696846008301</v>
+        <v>23.94601309686901</v>
       </c>
       <c r="E32" t="n">
-        <v>14.64792975063986</v>
+        <v>14.4819961714334</v>
       </c>
       <c r="F32" t="n">
-        <v>329.1343615519936</v>
+        <v>346.786069989951</v>
       </c>
     </row>
     <row r="33">
@@ -1450,13 +1339,13 @@
         <v>240.322525024414</v>
       </c>
       <c r="D33" t="n">
-        <v>22.635181427002</v>
+        <v>24.12238358169799</v>
       </c>
       <c r="E33" t="n">
-        <v>14.64443075245821</v>
+        <v>14.47853681034052</v>
       </c>
       <c r="F33" t="n">
-        <v>331.4793469770589</v>
+        <v>349.256818640768</v>
       </c>
     </row>
     <row r="34">
@@ -1470,13 +1359,13 @@
         <v>244.135360717773</v>
       </c>
       <c r="D34" t="n">
-        <v>22.9981136322021</v>
+        <v>24.50916156694288</v>
       </c>
       <c r="E34" t="n">
-        <v>14.64200250033669</v>
+        <v>14.47613606576256</v>
       </c>
       <c r="F34" t="n">
-        <v>336.7384373057305</v>
+        <v>354.7979577008235</v>
       </c>
     </row>
     <row r="35">
@@ -1490,13 +1379,13 @@
         <v>245.977005004883</v>
       </c>
       <c r="D35" t="n">
-        <v>23.1748371124268</v>
+        <v>24.69749633207922</v>
       </c>
       <c r="E35" t="n">
-        <v>14.63995703335462</v>
+        <v>14.47411377008615</v>
       </c>
       <c r="F35" t="n">
-        <v>339.2786195809205</v>
+        <v>357.4743717468</v>
       </c>
     </row>
     <row r="36">
@@ -1510,13 +1399,13 @@
         <v>248.117263793945</v>
       </c>
       <c r="D36" t="n">
-        <v>23.3800144195557</v>
+        <v>24.91615442946557</v>
       </c>
       <c r="E36" t="n">
-        <v>14.63774582435352</v>
+        <v>14.47192760993701</v>
       </c>
       <c r="F36" t="n">
-        <v>342.2307084431765</v>
+        <v>360.5847832212372</v>
       </c>
     </row>
     <row r="37">
@@ -1530,13 +1419,13 @@
         <v>250.407318115234</v>
       </c>
       <c r="D37" t="n">
-        <v>23.5997104644775</v>
+        <v>25.15028519108887</v>
       </c>
       <c r="E37" t="n">
-        <v>14.63532414929614</v>
+        <v>14.46953336791739</v>
       </c>
       <c r="F37" t="n">
-        <v>345.3894124771643</v>
+        <v>363.9128907850991</v>
       </c>
     </row>
     <row r="38">
@@ -1550,13 +1439,13 @@
         <v>252.556289672852</v>
       </c>
       <c r="D38" t="n">
-        <v>23.808177947998</v>
+        <v>25.37244963973756</v>
       </c>
       <c r="E38" t="n">
-        <v>14.63167387863683</v>
+        <v>14.4659244479804</v>
       </c>
       <c r="F38" t="n">
-        <v>348.3534953796597</v>
+        <v>367.0359395486309</v>
       </c>
     </row>
     <row r="39">
@@ -1570,13 +1459,13 @@
         <v>254.183822631836</v>
       </c>
       <c r="D39" t="n">
-        <v>23.9707717895508</v>
+        <v>25.54572640478613</v>
       </c>
       <c r="E39" t="n">
-        <v>14.626078112372</v>
+        <v>14.46039207125529</v>
       </c>
       <c r="F39" t="n">
-        <v>350.5983806078132</v>
+        <v>369.4012195582261</v>
       </c>
     </row>
     <row r="40">
@@ -1590,13 +1479,13 @@
         <v>256.900329589844</v>
       </c>
       <c r="D40" t="n">
-        <v>24.2367286682129</v>
+        <v>25.82915748149158</v>
       </c>
       <c r="E40" t="n">
-        <v>14.62017717032593</v>
+        <v>14.45455797581833</v>
       </c>
       <c r="F40" t="n">
-        <v>354.3452671583902</v>
+        <v>373.3490542827618</v>
       </c>
     </row>
     <row r="41">
@@ -1610,13 +1499,13 @@
         <v>259.653015136719</v>
       </c>
       <c r="D41" t="n">
-        <v>24.5057830810547</v>
+        <v>26.11588961005212</v>
       </c>
       <c r="E41" t="n">
-        <v>14.61459455818966</v>
+        <v>14.44903860421016</v>
       </c>
       <c r="F41" t="n">
-        <v>358.1420840605582</v>
+        <v>377.3494971589342</v>
       </c>
     </row>
     <row r="42">
@@ -1630,13 +1519,13 @@
         <v>261.801696777344</v>
       </c>
       <c r="D42" t="n">
-        <v>24.7167682647705</v>
+        <v>26.34073717966675</v>
       </c>
       <c r="E42" t="n">
-        <v>14.60974989266235</v>
+        <v>14.44424881965953</v>
       </c>
       <c r="F42" t="n">
-        <v>361.1058025031909</v>
+        <v>380.4721619163634</v>
       </c>
     </row>
     <row r="43">
@@ -1650,13 +1539,13 @@
         <v>264.124938964844</v>
       </c>
       <c r="D43" t="n">
-        <v>24.9432373046875</v>
+        <v>26.58208594322204</v>
       </c>
       <c r="E43" t="n">
-        <v>14.60557214145007</v>
+        <v>14.44011839453521</v>
       </c>
       <c r="F43" t="n">
-        <v>364.3102518949219</v>
+        <v>383.8484681938364</v>
       </c>
     </row>
     <row r="44">
@@ -1670,13 +1559,13 @@
         <v>266.106292724609</v>
       </c>
       <c r="D44" t="n">
-        <v>25.1381568908691</v>
+        <v>26.78981235533949</v>
       </c>
       <c r="E44" t="n">
-        <v>14.60103791335531</v>
+        <v>14.43563553074308</v>
       </c>
       <c r="F44" t="n">
-        <v>367.0431818354538</v>
+        <v>386.7279670986787</v>
       </c>
     </row>
     <row r="45">
@@ -1690,13 +1579,13 @@
         <v>269.162902832031</v>
       </c>
       <c r="D45" t="n">
-        <v>25.4346961975098</v>
+        <v>27.10583522111181</v>
       </c>
       <c r="E45" t="n">
-        <v>14.59656419425172</v>
+        <v>14.43121249048872</v>
       </c>
       <c r="F45" t="n">
-        <v>371.259175808242</v>
+        <v>391.1700678080377</v>
       </c>
     </row>
     <row r="46">
@@ -1710,13 +1599,13 @@
         <v>272.001831054688</v>
       </c>
       <c r="D46" t="n">
-        <v>25.708589553833</v>
+        <v>27.39772422686218</v>
       </c>
       <c r="E46" t="n">
-        <v>14.59336905643862</v>
+        <v>14.42805354759615</v>
       </c>
       <c r="F46" t="n">
-        <v>375.1749352795877</v>
+        <v>395.29583222744</v>
       </c>
     </row>
     <row r="47">
@@ -1730,13 +1619,13 @@
         <v>273.327575683594</v>
       </c>
       <c r="D47" t="n">
-        <v>25.8406009674072</v>
+        <v>27.53840920284388</v>
       </c>
       <c r="E47" t="n">
-        <v>14.58958198284276</v>
+        <v>14.42430937444337</v>
       </c>
       <c r="F47" t="n">
-        <v>377.0035662999133</v>
+        <v>397.2225340218384</v>
       </c>
     </row>
     <row r="48">
@@ -1750,13 +1639,13 @@
         <v>275.643371582031</v>
       </c>
       <c r="D48" t="n">
-        <v>26.0653285980225</v>
+        <v>27.77790214106444</v>
       </c>
       <c r="E48" t="n">
-        <v>14.58634080557986</v>
+        <v>14.42110491364165</v>
       </c>
       <c r="F48" t="n">
-        <v>380.1977661401833</v>
+        <v>400.5880410571614</v>
       </c>
     </row>
     <row r="49">
@@ -1770,13 +1659,13 @@
         <v>278.143493652344</v>
       </c>
       <c r="D49" t="n">
-        <v>26.3068962097168</v>
+        <v>28.03534149974585</v>
       </c>
       <c r="E49" t="n">
-        <v>14.58348372886924</v>
+        <v>14.41828020225315</v>
       </c>
       <c r="F49" t="n">
-        <v>383.6461928314569</v>
+        <v>404.2214093091916</v>
       </c>
     </row>
     <row r="50">
@@ -1790,13 +1679,13 @@
         <v>279.571136474609</v>
       </c>
       <c r="D50" t="n">
-        <v>26.4480037689209</v>
+        <v>28.18572026655078</v>
       </c>
       <c r="E50" t="n">
-        <v>14.58013074151407</v>
+        <v>14.41496519795786</v>
       </c>
       <c r="F50" t="n">
-        <v>385.6153528029236</v>
+        <v>406.2961767217049</v>
       </c>
     </row>
     <row r="51">
@@ -1810,13 +1699,13 @@
         <v>282.085083007813</v>
       </c>
       <c r="D51" t="n">
-        <v>26.6915073394775</v>
+        <v>28.44522278264161</v>
       </c>
       <c r="E51" t="n">
-        <v>14.57702899801324</v>
+        <v>14.41189859139513</v>
       </c>
       <c r="F51" t="n">
-        <v>389.0828764882468</v>
+        <v>409.9496661530731</v>
       </c>
     </row>
     <row r="52">
@@ -1830,13 +1719,13 @@
         <v>285.369323730469</v>
       </c>
       <c r="D52" t="n">
-        <v>27.0074043273926</v>
+        <v>28.78187518984081</v>
       </c>
       <c r="E52" t="n">
-        <v>14.57425742313779</v>
+        <v>14.40915841326631</v>
       </c>
       <c r="F52" t="n">
-        <v>393.6128629981854</v>
+        <v>414.7225990412757</v>
       </c>
     </row>
     <row r="53">
@@ -1850,13 +1739,13 @@
         <v>287.2958984375</v>
       </c>
       <c r="D53" t="n">
-        <v>27.1941947937012</v>
+        <v>28.9809383735061</v>
       </c>
       <c r="E53" t="n">
-        <v>14.57186731798897</v>
+        <v>14.40679538352737</v>
       </c>
       <c r="F53" t="n">
-        <v>396.2701983533602</v>
+        <v>417.5224491697189</v>
       </c>
     </row>
     <row r="54">
@@ -1870,13 +1759,13 @@
         <v>289.521026611328</v>
       </c>
       <c r="D54" t="n">
-        <v>27.4096298217773</v>
+        <v>29.21052815616126</v>
       </c>
       <c r="E54" t="n">
-        <v>14.56930752458248</v>
+        <v>14.40426458778057</v>
       </c>
       <c r="F54" t="n">
-        <v>399.3393260084404</v>
+        <v>420.756176310161</v>
       </c>
     </row>
     <row r="55">
@@ -1890,13 +1779,13 @@
         <v>291.842895507813</v>
       </c>
       <c r="D55" t="n">
-        <v>27.6330032348633</v>
+        <v>29.44857790052892</v>
       </c>
       <c r="E55" t="n">
-        <v>14.5674330612709</v>
+        <v>14.40241135862369</v>
       </c>
       <c r="F55" t="n">
-        <v>402.5419249057533</v>
+        <v>424.1305328498923</v>
       </c>
     </row>
     <row r="56">
@@ -1910,13 +1799,13 @@
         <v>293.530792236328</v>
       </c>
       <c r="D56" t="n">
-        <v>27.7985000610352</v>
+        <v>29.6249483853579</v>
       </c>
       <c r="E56" t="n">
-        <v>14.5644562819909</v>
+        <v>14.39946830067147</v>
       </c>
       <c r="F56" t="n">
-        <v>404.8700388438685</v>
+        <v>426.5835051839895</v>
       </c>
     </row>
     <row r="57">
@@ -1930,13 +1819,13 @@
         <v>297.908874511719</v>
       </c>
       <c r="D57" t="n">
-        <v>28.2195014953613</v>
+        <v>30.07361092954871</v>
       </c>
       <c r="E57" t="n">
-        <v>14.56116380362676</v>
+        <v>14.3962131199138</v>
       </c>
       <c r="F57" t="n">
-        <v>410.9087837306461</v>
+        <v>432.9461122271522</v>
       </c>
     </row>
     <row r="58">
@@ -1950,13 +1839,13 @@
         <v>299.413238525391</v>
       </c>
       <c r="D58" t="n">
-        <v>28.3685474395752</v>
+        <v>30.23244965806604</v>
       </c>
       <c r="E58" t="n">
-        <v>14.55780423920731</v>
+        <v>14.39289161306004</v>
       </c>
       <c r="F58" t="n">
-        <v>412.9837601760015</v>
+        <v>435.1323711258386</v>
       </c>
     </row>
     <row r="59">
@@ -1970,13 +1859,13 @@
         <v>300.931701660156</v>
       </c>
       <c r="D59" t="n">
-        <v>28.516622543335</v>
+        <v>30.39025375887756</v>
       </c>
       <c r="E59" t="n">
-        <v>14.55565880084855</v>
+        <v>14.39077047849519</v>
       </c>
       <c r="F59" t="n">
-        <v>415.0782278933704</v>
+        <v>437.3391666272326</v>
       </c>
     </row>
     <row r="60">
@@ -1990,13 +1879,13 @@
         <v>305.438354492188</v>
       </c>
       <c r="D60" t="n">
-        <v>28.9511737823486</v>
+        <v>30.85335637226697</v>
       </c>
       <c r="E60" t="n">
-        <v>14.55189014303269</v>
+        <v>14.38704451250615</v>
       </c>
       <c r="F60" t="n">
-        <v>421.2943003925851</v>
+        <v>443.8886114880202</v>
       </c>
     </row>
     <row r="61">
@@ -2010,13 +1899,13 @@
         <v>311.019348144531</v>
       </c>
       <c r="D61" t="n">
-        <v>29.4879264831543</v>
+        <v>31.4253754028678</v>
       </c>
       <c r="E61" t="n">
-        <v>14.54806229163862</v>
+        <v>14.38326002349115</v>
       </c>
       <c r="F61" t="n">
-        <v>428.992191328189</v>
+        <v>451.9993457552706</v>
       </c>
     </row>
     <row r="62">
@@ -2030,13 +1919,13 @@
         <v>314.949493408203</v>
       </c>
       <c r="D62" t="n">
-        <v>29.8677005767822</v>
+        <v>31.8301018412411</v>
       </c>
       <c r="E62" t="n">
-        <v>14.54457776299835</v>
+        <v>14.37981496802688</v>
       </c>
       <c r="F62" t="n">
-        <v>434.4130936409593</v>
+        <v>457.7109748904986</v>
       </c>
     </row>
     <row r="63">
@@ -2050,13 +1939,13 @@
         <v>319.441650390625</v>
       </c>
       <c r="D63" t="n">
-        <v>30.3010902404785</v>
+        <v>32.29196656018494</v>
       </c>
       <c r="E63" t="n">
-        <v>14.54103404077986</v>
+        <v>14.37631138953665</v>
       </c>
       <c r="F63" t="n">
-        <v>440.6091846595403</v>
+        <v>464.2393666497235</v>
       </c>
     </row>
     <row r="64">
@@ -2070,13 +1959,13 @@
         <v>324.903778076172</v>
       </c>
       <c r="D64" t="n">
-        <v>30.8260345458984</v>
+        <v>32.85140134692188</v>
       </c>
       <c r="E64" t="n">
-        <v>14.53781391012262</v>
+        <v>14.37312773692201</v>
       </c>
       <c r="F64" t="n">
-        <v>448.1431538152822</v>
+        <v>472.1773878962</v>
       </c>
     </row>
     <row r="65">
@@ -2090,13 +1979,13 @@
         <v>330.965637207031</v>
       </c>
       <c r="D65" t="n">
-        <v>31.413501739502</v>
+        <v>33.47746697098022</v>
       </c>
       <c r="E65" t="n">
-        <v>14.53210501835269</v>
+        <v>14.36748351619166</v>
       </c>
       <c r="F65" t="n">
-        <v>456.504306272648</v>
+        <v>480.9869548694091</v>
       </c>
     </row>
     <row r="66">
@@ -2110,13 +1999,13 @@
         <v>334.724304199219</v>
       </c>
       <c r="D66" t="n">
-        <v>31.7810802459717</v>
+        <v>33.86919653400781</v>
       </c>
       <c r="E66" t="n">
-        <v>14.52715511979724</v>
+        <v>14.36258969070579</v>
       </c>
       <c r="F66" t="n">
-        <v>461.6886826079548</v>
+        <v>486.4493729718288</v>
       </c>
     </row>
     <row r="67">
@@ -2130,13 +2019,13 @@
         <v>340.157104492188</v>
       </c>
       <c r="D67" t="n">
-        <v>32.3188018798828</v>
+        <v>34.44224815964697</v>
       </c>
       <c r="E67" t="n">
-        <v>14.51731451626483</v>
+        <v>14.35286056276026</v>
       </c>
       <c r="F67" t="n">
-        <v>469.1822116791095</v>
+        <v>494.3447853033994</v>
       </c>
     </row>
     <row r="68">
@@ -2150,13 +2039,13 @@
         <v>344.504364013672</v>
       </c>
       <c r="D68" t="n">
-        <v>32.747932434082</v>
+        <v>34.89957393229005</v>
       </c>
       <c r="E68" t="n">
-        <v>14.51018103237807</v>
+        <v>14.34580788787066</v>
       </c>
       <c r="F68" t="n">
-        <v>475.1784280546153</v>
+        <v>500.6625830011719</v>
       </c>
     </row>
     <row r="69">
@@ -2170,13 +2059,13 @@
         <v>351.243713378906</v>
       </c>
       <c r="D69" t="n">
-        <v>33.4052772521973</v>
+        <v>35.60010835915808</v>
       </c>
       <c r="E69" t="n">
-        <v>14.50292126885779</v>
+        <v>14.33863036385901</v>
       </c>
       <c r="F69" t="n">
-        <v>484.4741059529837</v>
+        <v>510.4567946752951</v>
       </c>
     </row>
     <row r="70">
@@ -2190,13 +2079,13 @@
         <v>355.826080322266</v>
       </c>
       <c r="D70" t="n">
-        <v>33.852409362793</v>
+        <v>36.07661844670776</v>
       </c>
       <c r="E70" t="n">
-        <v>14.49807002626621</v>
+        <v>14.33383407674991</v>
       </c>
       <c r="F70" t="n">
-        <v>490.7946014996027</v>
+        <v>517.1162628653241</v>
       </c>
     </row>
     <row r="71">
@@ -2210,13 +2099,13 @@
         <v>359.819763183594</v>
       </c>
       <c r="D71" t="n">
-        <v>34.243408203125</v>
+        <v>36.49330713272094</v>
       </c>
       <c r="E71" t="n">
-        <v>14.49339110275793</v>
+        <v>14.329208156672</v>
       </c>
       <c r="F71" t="n">
-        <v>496.3031077792798</v>
+        <v>522.9201942301214</v>
       </c>
     </row>
     <row r="72">
@@ -2230,13 +2119,13 @@
         <v>363.846252441406</v>
       </c>
       <c r="D72" t="n">
-        <v>34.6330528259277</v>
+        <v>36.90855262488123</v>
       </c>
       <c r="E72" t="n">
-        <v>14.49069187558924</v>
+        <v>14.32653950668608</v>
       </c>
       <c r="F72" t="n">
-        <v>501.8568972115235</v>
+        <v>528.7718373149632</v>
       </c>
     </row>
     <row r="73">
@@ -2250,13 +2139,13 @@
         <v>365.107574462891</v>
       </c>
       <c r="D73" t="n">
-        <v>34.7635154724121</v>
+        <v>37.04758707493543</v>
       </c>
       <c r="E73" t="n">
-        <v>14.48635627483504</v>
+        <v>14.32225302015917</v>
       </c>
       <c r="F73" t="n">
-        <v>503.5966704991019</v>
+        <v>530.6049158736038</v>
       </c>
     </row>
     <row r="74">
@@ -2270,13 +2159,13 @@
         <v>367.021209716797</v>
       </c>
       <c r="D74" t="n">
-        <v>34.9609489440918</v>
+        <v>37.25799254268408</v>
       </c>
       <c r="E74" t="n">
-        <v>14.48004623939255</v>
+        <v>14.31601446558694</v>
       </c>
       <c r="F74" t="n">
-        <v>506.2361572834915</v>
+        <v>533.3859601997955</v>
       </c>
     </row>
     <row r="75">
@@ -2290,13 +2179,13 @@
         <v>369.067016601563</v>
       </c>
       <c r="D75" t="n">
-        <v>35.1721267700195</v>
+        <v>37.48304541170594</v>
       </c>
       <c r="E75" t="n">
-        <v>14.47333500303076</v>
+        <v>14.30937925494955</v>
       </c>
       <c r="F75" t="n">
-        <v>509.0579735115584</v>
+        <v>536.3591124265969</v>
       </c>
     </row>
     <row r="76">
@@ -2310,13 +2199,13 @@
         <v>370.980682373047</v>
       </c>
       <c r="D76" t="n">
-        <v>35.3707237243652</v>
+        <v>37.69469080656763</v>
       </c>
       <c r="E76" t="n">
-        <v>14.46669611437573</v>
+        <v>14.30281557245506</v>
       </c>
       <c r="F76" t="n">
-        <v>511.6975114659313</v>
+        <v>539.1402106670541</v>
       </c>
     </row>
     <row r="77">
@@ -2330,13 +2219,13 @@
         <v>372.316345214844</v>
       </c>
       <c r="D77" t="n">
-        <v>35.5160903930664</v>
+        <v>37.84960851967334</v>
       </c>
       <c r="E77" t="n">
-        <v>14.45935611067145</v>
+        <v>14.29555871723025</v>
       </c>
       <c r="F77" t="n">
-        <v>513.5397986521442</v>
+        <v>541.0813010171686</v>
       </c>
     </row>
     <row r="78">
@@ -2350,13 +2239,13 @@
         <v>376.524047851563</v>
       </c>
       <c r="D78" t="n">
-        <v>35.9529647827148</v>
+        <v>38.31518692195411</v>
       </c>
       <c r="E78" t="n">
-        <v>14.44508125042097</v>
+        <v>14.28144556438104</v>
       </c>
       <c r="F78" t="n">
-        <v>519.3434974798389</v>
+        <v>547.1962563149721</v>
       </c>
     </row>
     <row r="79">
@@ -2370,13 +2259,13 @@
         <v>376.761016845703</v>
       </c>
       <c r="D79" t="n">
-        <v>36.0619430541992</v>
+        <v>38.43132540643213</v>
       </c>
       <c r="E79" t="n">
-        <v>14.41049246952455</v>
+        <v>14.24724860951822</v>
       </c>
       <c r="F79" t="n">
-        <v>519.6703588189607</v>
+        <v>547.5406474587325</v>
       </c>
     </row>
     <row r="80">
@@ -2390,13 +2279,13 @@
         <v>377.486328125</v>
       </c>
       <c r="D80" t="n">
-        <v>36.2423439025879</v>
+        <v>38.62357915431262</v>
       </c>
       <c r="E80" t="n">
-        <v>14.366366945464</v>
+        <v>14.20362294490991</v>
       </c>
       <c r="F80" t="n">
-        <v>520.6708114682775</v>
+        <v>548.594755090739</v>
       </c>
     </row>
     <row r="81">
@@ -2410,13 +2299,13 @@
         <v>378.548461914063</v>
       </c>
       <c r="D81" t="n">
-        <v>36.4583587646484</v>
+        <v>38.85378686785694</v>
       </c>
       <c r="E81" t="n">
-        <v>14.32142981167503</v>
+        <v>14.15919486458965</v>
       </c>
       <c r="F81" t="n">
-        <v>522.1358260967794</v>
+        <v>550.1383394892208</v>
       </c>
     </row>
     <row r="82">
@@ -2430,13 +2319,13 @@
         <v>379.081420898438</v>
       </c>
       <c r="D82" t="n">
-        <v>36.6420516967773</v>
+        <v>39.04954899966712</v>
       </c>
       <c r="E82" t="n">
-        <v>14.26969593968883</v>
+        <v>14.10804704037204</v>
       </c>
       <c r="F82" t="n">
-        <v>522.8709363193713</v>
+        <v>550.9128741926168</v>
       </c>
     </row>
     <row r="83">
@@ -2450,13 +2339,13 @@
         <v>379.066192626953</v>
       </c>
       <c r="D83" t="n">
-        <v>36.8079376220703</v>
+        <v>39.22633414864539</v>
       </c>
       <c r="E83" t="n">
-        <v>14.20481451626483</v>
+        <v>14.04390060182276</v>
       </c>
       <c r="F83" t="n">
-        <v>522.8499266477544</v>
+        <v>550.8907377574618</v>
       </c>
     </row>
     <row r="84">
@@ -2470,13 +2359,13 @@
         <v>380.686889648438</v>
       </c>
       <c r="D84" t="n">
-        <v>37.1582870483398</v>
+        <v>39.59970262706275</v>
       </c>
       <c r="E84" t="n">
-        <v>14.13104353279904</v>
+        <v>13.97096530527905</v>
       </c>
       <c r="F84" t="n">
-        <v>525.0853718843323</v>
+        <v>553.2460715020612</v>
       </c>
     </row>
     <row r="85">
@@ -2490,13 +2379,13 @@
         <v>379.720855712891</v>
       </c>
       <c r="D85" t="n">
-        <v>37.2643623352051</v>
+        <v>39.71274739176037</v>
       </c>
       <c r="E85" t="n">
-        <v>14.055061340332</v>
+        <v>13.89584384858605</v>
       </c>
       <c r="F85" t="n">
-        <v>523.7528984296652</v>
+        <v>551.8421365542451</v>
       </c>
     </row>
     <row r="86">
@@ -2510,13 +2399,13 @@
         <v>379.304504394531</v>
       </c>
       <c r="D86" t="n">
-        <v>37.4381828308105</v>
+        <v>39.89798843711609</v>
       </c>
       <c r="E86" t="n">
-        <v>13.97446599499931</v>
+        <v>13.81616149739971</v>
       </c>
       <c r="F86" t="n">
-        <v>523.1786128837283</v>
+        <v>551.2370516685821</v>
       </c>
     </row>
     <row r="87">
@@ -2530,13 +2419,13 @@
         <v>378.912719726563</v>
       </c>
       <c r="D87" t="n">
-        <v>37.6284561157227</v>
+        <v>40.10076327145104</v>
       </c>
       <c r="E87" t="n">
-        <v>13.8894416546</v>
+        <v>13.73210032335648</v>
       </c>
       <c r="F87" t="n">
-        <v>522.6382457720069</v>
+        <v>550.6677042867346</v>
       </c>
     </row>
     <row r="88">
@@ -2550,13 +2439,13 @@
         <v>378.127136230469</v>
       </c>
       <c r="D88" t="n">
-        <v>37.7947273254395</v>
+        <v>40.27795901924377</v>
       </c>
       <c r="E88" t="n">
-        <v>13.79966735839848</v>
+        <v>13.64334300160412</v>
       </c>
       <c r="F88" t="n">
-        <v>521.5546649924387</v>
+        <v>549.5260103040972</v>
       </c>
     </row>
     <row r="89">
@@ -2570,13 +2459,13 @@
         <v>377.123931884766</v>
       </c>
       <c r="D89" t="n">
-        <v>37.9555778503418</v>
+        <v>40.44937792629003</v>
       </c>
       <c r="E89" t="n">
-        <v>13.70473006675984</v>
+        <v>13.54948117147232</v>
       </c>
       <c r="F89" t="n">
-        <v>520.1709489668229</v>
+        <v>548.068084610035</v>
       </c>
     </row>
     <row r="90">
@@ -2590,13 +2479,13 @@
         <v>377.225494384766</v>
       </c>
       <c r="D90" t="n">
-        <v>38.2447624206543</v>
+        <v>40.75756282657385</v>
       </c>
       <c r="E90" t="n">
-        <v>13.60476526720771</v>
+        <v>13.45064878566512</v>
       </c>
       <c r="F90" t="n">
-        <v>520.3110154331283</v>
+        <v>548.2156629399254</v>
       </c>
     </row>
     <row r="91">
@@ -2610,13 +2499,13 @@
         <v>375.451385498047</v>
       </c>
       <c r="D91" t="n">
-        <v>38.3593521118164</v>
+        <v>40.87968141853808</v>
       </c>
       <c r="E91" t="n">
-        <v>13.50033201020339</v>
+        <v>13.34739856165031</v>
       </c>
       <c r="F91" t="n">
-        <v>517.863989205818</v>
+        <v>545.637400966518</v>
       </c>
     </row>
     <row r="92">
@@ -2630,13 +2519,13 @@
         <v>374.047088623047</v>
       </c>
       <c r="D92" t="n">
-        <v>38.527946472168</v>
+        <v>41.05935295522216</v>
       </c>
       <c r="E92" t="n">
-        <v>13.39098173996498</v>
+        <v>13.23928702494194</v>
       </c>
       <c r="F92" t="n">
-        <v>515.9270276871498</v>
+        <v>543.5965588325842</v>
       </c>
     </row>
     <row r="93">
@@ -2650,13 +2539,13 @@
         <v>372.489227294922</v>
       </c>
       <c r="D93" t="n">
-        <v>38.696346282959</v>
+        <v>41.23881715983154</v>
       </c>
       <c r="E93" t="n">
-        <v>13.27717748181574</v>
+        <v>13.12677195565455</v>
       </c>
       <c r="F93" t="n">
-        <v>513.7782574966474</v>
+        <v>541.3325485780421</v>
       </c>
     </row>
     <row r="94">
@@ -2670,13 +2559,13 @@
         <v>368.912078857422</v>
       </c>
       <c r="D94" t="n">
-        <v>39.0325698852539</v>
+        <v>41.59713170349597</v>
       </c>
       <c r="E94" t="n">
-        <v>13.03640168288658</v>
+        <v>12.88872369507263</v>
       </c>
       <c r="F94" t="n">
-        <v>508.844259739512</v>
+        <v>536.1339370339055</v>
       </c>
     </row>
     <row r="95">
@@ -2690,13 +2579,13 @@
         <v>367.298828125</v>
       </c>
       <c r="D95" t="n">
-        <v>39.2449073791504</v>
+        <v>41.82342043429614</v>
       </c>
       <c r="E95" t="n">
-        <v>12.90916705953664</v>
+        <v>12.76293040144032</v>
       </c>
       <c r="F95" t="n">
-        <v>506.6190655934946</v>
+        <v>533.7894041530986</v>
       </c>
     </row>
     <row r="96">
@@ -2710,13 +2599,13 @@
         <v>364.508422851563</v>
       </c>
       <c r="D96" t="n">
-        <v>39.3447875976563</v>
+        <v>41.92986309528356</v>
       </c>
       <c r="E96" t="n">
-        <v>12.77857287176724</v>
+        <v>12.63381560095425</v>
       </c>
       <c r="F96" t="n">
-        <v>502.770235440855</v>
+        <v>529.7341585190694</v>
       </c>
     </row>
     <row r="97">
@@ -2730,13 +2619,13 @@
         <v>362.156219482422</v>
       </c>
       <c r="D97" t="n">
-        <v>39.5069923400879</v>
+        <v>42.10272519618273</v>
       </c>
       <c r="E97" t="n">
-        <v>12.64398509058459</v>
+        <v>12.50075244698031</v>
       </c>
       <c r="F97" t="n">
-        <v>499.5258221219111</v>
+        <v>526.315745020721</v>
       </c>
     </row>
     <row r="98">
@@ -2750,13 +2639,13 @@
         <v>359.672729492188</v>
       </c>
       <c r="D98" t="n">
-        <v>39.6705551147461</v>
+        <v>42.27703455626965</v>
       </c>
       <c r="E98" t="n">
-        <v>12.50550500277815</v>
+        <v>12.36384107891856</v>
       </c>
       <c r="F98" t="n">
-        <v>496.1003254504438</v>
+        <v>522.7065365416661</v>
       </c>
     </row>
     <row r="99">
@@ -2770,13 +2659,13 @@
         <v>353.253692626953</v>
       </c>
       <c r="D99" t="n">
-        <v>39.8794097900391</v>
+        <v>42.49961163640026</v>
       </c>
       <c r="E99" t="n">
-        <v>12.2179965315194</v>
+        <v>12.07958953956078</v>
       </c>
       <c r="F99" t="n">
-        <v>487.2464904937383</v>
+        <v>513.3778641584561</v>
       </c>
     </row>
     <row r="100">
@@ -2790,13 +2679,13 @@
         <v>350.814025878906</v>
       </c>
       <c r="D100" t="n">
-        <v>40.0929107666016</v>
+        <v>42.72714029431346</v>
       </c>
       <c r="E100" t="n">
-        <v>12.06900234880119</v>
+        <v>11.93228318156867</v>
       </c>
       <c r="F100" t="n">
-        <v>483.8814342123911</v>
+        <v>509.8323375303617</v>
       </c>
     </row>
     <row r="101">
@@ -2810,13 +2699,13 @@
         <v>347.708404541016</v>
       </c>
       <c r="D101" t="n">
-        <v>40.241569519043</v>
+        <v>42.88556639134887</v>
       </c>
       <c r="E101" t="n">
-        <v>11.91796927616515</v>
+        <v>11.78296103045859</v>
       </c>
       <c r="F101" t="n">
-        <v>479.5977891526182</v>
+        <v>505.3189575584082</v>
       </c>
     </row>
     <row r="102">
@@ -2830,13 +2719,13 @@
         <v>340.938659667969</v>
       </c>
       <c r="D102" t="n">
-        <v>40.5048179626465</v>
+        <v>43.16611108034851</v>
       </c>
       <c r="E102" t="n">
-        <v>11.60998245765423</v>
+        <v>11.47846312512612</v>
       </c>
       <c r="F102" t="n">
-        <v>470.260225996804</v>
+        <v>495.4806142908784</v>
       </c>
     </row>
     <row r="103">
@@ -2850,13 +2739,13 @@
         <v>334.824249267578</v>
       </c>
       <c r="D103" t="n">
-        <v>40.9023971557617</v>
+        <v>43.58981246888635</v>
       </c>
       <c r="E103" t="n">
-        <v>11.29094090955011</v>
+        <v>11.16303571955911</v>
       </c>
       <c r="F103" t="n">
-        <v>461.8265493446559</v>
+        <v>486.5946335990616</v>
       </c>
     </row>
     <row r="104">
@@ -2870,13 +2759,13 @@
         <v>330.161346435547</v>
       </c>
       <c r="D104" t="n">
-        <v>40.9184608459473</v>
+        <v>43.60693159371618</v>
       </c>
       <c r="E104" t="n">
-        <v>11.12932797135978</v>
+        <v>11.00325355293422</v>
       </c>
       <c r="F104" t="n">
-        <v>455.3949708377913</v>
+        <v>479.8181249911171</v>
       </c>
     </row>
     <row r="105">
@@ -2890,13 +2779,13 @@
         <v>322.205871582031</v>
       </c>
       <c r="D105" t="n">
-        <v>41.1346740722656</v>
+        <v>43.83735070466992</v>
       </c>
       <c r="E105" t="n">
-        <v>10.80406978212554</v>
+        <v>10.6816799291249</v>
       </c>
       <c r="F105" t="n">
-        <v>444.4218891417478</v>
+        <v>468.2565491680822</v>
       </c>
     </row>
     <row r="106">
@@ -2910,13 +2799,13 @@
         <v>313.792694091797</v>
       </c>
       <c r="D106" t="n">
-        <v>41.3185577392578</v>
+        <v>44.03331610321997</v>
       </c>
       <c r="E106" t="n">
-        <v>10.47513567168137</v>
+        <v>10.3564720254006</v>
       </c>
       <c r="F106" t="n">
-        <v>432.8174980769256</v>
+        <v>456.0298064086194</v>
       </c>
     </row>
     <row r="107">
@@ -2930,13 +2819,13 @@
         <v>309.897094726563</v>
       </c>
       <c r="D107" t="n">
-        <v>41.4612159729004</v>
+        <v>44.18534742861987</v>
       </c>
       <c r="E107" t="n">
-        <v>10.30949691246295</v>
+        <v>10.19270964275146</v>
       </c>
       <c r="F107" t="n">
-        <v>427.4442780595763</v>
+        <v>450.3684168040171</v>
       </c>
     </row>
     <row r="108">
@@ -2950,13 +2839,13 @@
         <v>301.61083984375</v>
       </c>
       <c r="D108" t="n">
-        <v>41.7018165588379</v>
+        <v>44.44175622493029</v>
       </c>
       <c r="E108" t="n">
-        <v>9.975943072088828</v>
+        <v>9.862934341975322</v>
       </c>
       <c r="F108" t="n">
-        <v>416.0149479936581</v>
+        <v>438.3261236885605</v>
       </c>
     </row>
     <row r="109">
@@ -2970,13 +2859,13 @@
         <v>288.678405761719</v>
       </c>
       <c r="D109" t="n">
-        <v>42.0254554748535</v>
+        <v>44.78665922909973</v>
       </c>
       <c r="E109" t="n">
-        <v>9.474664885422277</v>
+        <v>9.367334697267102</v>
       </c>
       <c r="F109" t="n">
-        <v>398.1771072814718</v>
+        <v>419.5316269714238</v>
       </c>
     </row>
     <row r="110">
@@ -2990,13 +2879,13 @@
         <v>284.594085693359</v>
       </c>
       <c r="D110" t="n">
-        <v>42.1669502258301</v>
+        <v>44.93745062738659</v>
       </c>
       <c r="E110" t="n">
-        <v>9.309270792994001</v>
+        <v>9.203814209792116</v>
       </c>
       <c r="F110" t="n">
-        <v>392.5435581669519</v>
+        <v>413.5959466361723</v>
       </c>
     </row>
     <row r="111">
@@ -3010,13 +2899,13 @@
         <v>275.199035644531</v>
       </c>
       <c r="D111" t="n">
-        <v>42.2635383605957</v>
+        <v>45.04038490444422</v>
       </c>
       <c r="E111" t="n">
-        <v>8.981379147233628</v>
+        <v>8.879636961581372</v>
       </c>
       <c r="F111" t="n">
-        <v>379.5848621201628</v>
+        <v>399.9422665613545</v>
       </c>
     </row>
     <row r="112">
@@ -3030,13 +2919,13 @@
         <v>261.626617431641</v>
       </c>
       <c r="D112" t="n">
-        <v>42.4735565185547</v>
+        <v>45.26420191168786</v>
       </c>
       <c r="E112" t="n">
-        <v>8.496211479450098</v>
+        <v>8.399965333784452</v>
       </c>
       <c r="F112" t="n">
-        <v>360.864318466017</v>
+        <v>380.217726919598</v>
       </c>
     </row>
     <row r="113">
@@ -3050,13 +2939,13 @@
         <v>248.822113037109</v>
       </c>
       <c r="D113" t="n">
-        <v>42.7455139160156</v>
+        <v>45.55402776002881</v>
       </c>
       <c r="E113" t="n">
-        <v>8.028980781292097</v>
+        <v>7.938027483379022</v>
       </c>
       <c r="F113" t="n">
-        <v>343.2029097181431</v>
+        <v>361.6091243377196</v>
       </c>
     </row>
     <row r="114">
@@ -3070,13 +2959,13 @@
         <v>236.920104980469</v>
       </c>
       <c r="D114" t="n">
-        <v>43.1043815612793</v>
+        <v>45.93647413104772</v>
       </c>
       <c r="E114" t="n">
-        <v>7.581279360014815</v>
+        <v>7.495397679764647</v>
       </c>
       <c r="F114" t="n">
-        <v>326.7863582567299</v>
+        <v>344.3121416184238</v>
       </c>
     </row>
     <row r="115">
@@ -3090,13 +2979,13 @@
         <v>232.191375732422</v>
       </c>
       <c r="D115" t="n">
-        <v>43.0757331848145</v>
+        <v>45.90594346672302</v>
       </c>
       <c r="E115" t="n">
-        <v>7.434904821987808</v>
+        <v>7.350681290801227</v>
       </c>
       <c r="F115" t="n">
-        <v>320.2639763664376</v>
+        <v>337.4399597774197</v>
       </c>
     </row>
     <row r="116">
@@ -3110,13 +2999,13 @@
         <v>211.544281005859</v>
       </c>
       <c r="D116" t="n">
-        <v>43.4173736572266</v>
+        <v>46.27003078579907</v>
       </c>
       <c r="E116" t="n">
-        <v>6.720471217714511</v>
+        <v>6.644340879701339</v>
       </c>
       <c r="F116" t="n">
-        <v>291.7852100121476</v>
+        <v>307.4338570551242</v>
       </c>
     </row>
     <row r="117">
@@ -3130,13 +3019,13 @@
         <v>199.954040527344</v>
       </c>
       <c r="D117" t="n">
-        <v>43.511833190918</v>
+        <v>46.37069660604003</v>
       </c>
       <c r="E117" t="n">
-        <v>6.338475326011918</v>
+        <v>6.266672285209439</v>
       </c>
       <c r="F117" t="n">
-        <v>275.7986810701801</v>
+        <v>290.5899592669264</v>
       </c>
     </row>
     <row r="118">
@@ -3150,13 +3039,13 @@
         <v>189.837738037109</v>
       </c>
       <c r="D118" t="n">
-        <v>43.7239799499512</v>
+        <v>46.59678207010034</v>
       </c>
       <c r="E118" t="n">
-        <v>5.988593923634497</v>
+        <v>5.920754383093325</v>
       </c>
       <c r="F118" t="n">
-        <v>261.8451606453943</v>
+        <v>275.888101679591</v>
       </c>
     </row>
     <row r="119">
@@ -3170,13 +3059,13 @@
         <v>169.973846435547</v>
       </c>
       <c r="D119" t="n">
-        <v>43.8999290466309</v>
+        <v>46.78429157227282</v>
       </c>
       <c r="E119" t="n">
-        <v>5.340479817883725</v>
+        <v>5.27998219494676</v>
       </c>
       <c r="F119" t="n">
-        <v>234.4466850800598</v>
+        <v>247.0202265047983</v>
       </c>
     </row>
     <row r="120">
@@ -3190,13 +3079,13 @@
         <v>156.961639404297</v>
       </c>
       <c r="D120" t="n">
-        <v>44.1159477233887</v>
+        <v>47.01450335115197</v>
       </c>
       <c r="E120" t="n">
-        <v>4.907495235574662</v>
+        <v>4.851902516109168</v>
       </c>
       <c r="F120" t="n">
-        <v>216.4988032653909</v>
+        <v>228.1097871030772</v>
       </c>
     </row>
     <row r="121">
@@ -3210,13 +3099,13 @@
         <v>142.223281860352</v>
       </c>
       <c r="D121" t="n">
-        <v>44.2936363220215</v>
+        <v>47.20386664599182</v>
       </c>
       <c r="E121" t="n">
-        <v>4.428853988647463</v>
+        <v>4.378683377057316</v>
       </c>
       <c r="F121" t="n">
-        <v>196.170047896485</v>
+        <v>206.6907862156346</v>
       </c>
     </row>
     <row r="122">
@@ -3230,13 +3119,13 @@
         <v>122.023277282715</v>
       </c>
       <c r="D122" t="n">
-        <v>44.4755897521973</v>
+        <v>47.39777498513464</v>
       </c>
       <c r="E122" t="n">
-        <v>3.784277356904124</v>
+        <v>3.741408589970445</v>
       </c>
       <c r="F122" t="n">
-        <v>168.3079672341973</v>
+        <v>177.334442474869</v>
       </c>
     </row>
     <row r="123">
@@ -3250,13 +3139,13 @@
         <v>108.010604858398</v>
       </c>
       <c r="D123" t="n">
-        <v>44.7084465026855</v>
+        <v>47.64593115180725</v>
       </c>
       <c r="E123" t="n">
-        <v>3.332259408358869</v>
+        <v>3.294511157248554</v>
       </c>
       <c r="F123" t="n">
-        <v>148.9801414916829</v>
+        <v>156.9700517771255</v>
       </c>
     </row>
     <row r="124">
@@ -3270,13 +3159,13 @@
         <v>91.4707946777344</v>
       </c>
       <c r="D124" t="n">
-        <v>44.9047203063965</v>
+        <v>47.85510075777771</v>
       </c>
       <c r="E124" t="n">
-        <v>2.809651473472855</v>
+        <v>2.777823390374921</v>
       </c>
       <c r="F124" t="n">
-        <v>126.1666135747534</v>
+        <v>132.9330182337035</v>
       </c>
     </row>
     <row r="125">
@@ -3290,13 +3179,13 @@
         <v>71.2166290283203</v>
       </c>
       <c r="D125" t="n">
-        <v>45.1340942382813</v>
+        <v>48.09954527378088</v>
       </c>
       <c r="E125" t="n">
-        <v>2.176399724236855</v>
+        <v>2.151745196110735</v>
       </c>
       <c r="F125" t="n">
-        <v>98.22983025387566</v>
+        <v>103.4979654779688</v>
       </c>
     </row>
     <row r="126">
@@ -3310,13 +3199,13 @@
         <v>44.9565620422363</v>
       </c>
       <c r="D126" t="n">
-        <v>45.3127517700195</v>
+        <v>48.28994116365907</v>
       </c>
       <c r="E126" t="n">
-        <v>1.368468054409684</v>
+        <v>1.352965877230825</v>
       </c>
       <c r="F126" t="n">
-        <v>62.00905325466757</v>
+        <v>65.3346426079149</v>
       </c>
     </row>
     <row r="127">
@@ -3330,13 +3219,13 @@
         <v>33.6293067932129</v>
       </c>
       <c r="D127" t="n">
-        <v>45.3955993652344</v>
+        <v>48.37823210477832</v>
       </c>
       <c r="E127" t="n">
-        <v>1.021800616691853</v>
+        <v>1.01022553158089</v>
       </c>
       <c r="F127" t="n">
-        <v>46.38525142649278</v>
+        <v>48.87292524499336</v>
       </c>
     </row>
     <row r="128">
@@ -3350,13 +3239,13 @@
         <v>18.5522975921631</v>
       </c>
       <c r="D128" t="n">
-        <v>45.607551574707</v>
+        <v>48.60411023676392</v>
       </c>
       <c r="E128" t="n">
-        <v>0.5610775947570801</v>
+        <v>0.5547216376289725</v>
       </c>
       <c r="F128" t="n">
-        <v>25.58937534029609</v>
+        <v>26.96175162603679</v>
       </c>
     </row>
     <row r="129">
@@ -3370,13 +3259,13 @@
         <v>0.7237284183502199</v>
       </c>
       <c r="D129" t="n">
-        <v>45.6418113708496</v>
+        <v>48.64062100857495</v>
       </c>
       <c r="E129" t="n">
-        <v>0.021871307800556</v>
+        <v>0.02162354689187783</v>
       </c>
       <c r="F129" t="n">
-        <v>0.9982461050667685</v>
+        <v>1.051782749228978</v>
       </c>
     </row>
   </sheetData>
@@ -3441,13 +3330,13 @@
         <v>4.89502096176147</v>
       </c>
       <c r="D2" t="n">
-        <v>0.457493364810944</v>
+        <v>0.487552108545788</v>
       </c>
       <c r="E2" t="n">
-        <v>14.75814424712083</v>
+        <v>14.59096214432141</v>
       </c>
       <c r="F2" t="n">
-        <v>6.751753069980584</v>
+        <v>7.113854359175678</v>
       </c>
     </row>
     <row r="3">
@@ -3461,13 +3350,13 @@
         <v>159.766387939453</v>
       </c>
       <c r="D3" t="n">
-        <v>14.9324951171875</v>
+        <v>15.91360671043396</v>
       </c>
       <c r="E3" t="n">
-        <v>14.75757598876952</v>
+        <v>14.59040032327174</v>
       </c>
       <c r="F3" t="n">
-        <v>220.3674313938243</v>
+        <v>232.1858924923349</v>
       </c>
     </row>
     <row r="4">
@@ -3481,13 +3370,13 @@
         <v>161.268920898438</v>
       </c>
       <c r="D4" t="n">
-        <v>15.0736036300659</v>
+        <v>16.06398649357257</v>
       </c>
       <c r="E4" t="n">
-        <v>14.75691565151876</v>
+        <v>14.5897474664039</v>
       </c>
       <c r="F4" t="n">
-        <v>222.4398973333095</v>
+        <v>234.3695062449469</v>
       </c>
     </row>
     <row r="5">
@@ -3501,13 +3390,13 @@
         <v>163.951553344727</v>
       </c>
       <c r="D5" t="n">
-        <v>15.3244619369507</v>
+        <v>16.33132697515191</v>
       </c>
       <c r="E5" t="n">
-        <v>14.75680384142648</v>
+        <v>14.58963692291032</v>
       </c>
       <c r="F5" t="n">
-        <v>226.140078778988</v>
+        <v>238.2681310367977</v>
       </c>
     </row>
     <row r="6">
@@ -3521,13 +3410,13 @@
         <v>165.742111206055</v>
       </c>
       <c r="D6" t="n">
-        <v>15.4926691055298</v>
+        <v>16.51058588035406</v>
       </c>
       <c r="E6" t="n">
-        <v>14.75599880876207</v>
+        <v>14.58884100975656</v>
       </c>
       <c r="F6" t="n">
-        <v>228.6098068657427</v>
+        <v>240.870312386417</v>
       </c>
     </row>
     <row r="7">
@@ -3541,13 +3430,13 @@
         <v>166.749282836914</v>
       </c>
       <c r="D7" t="n">
-        <v>15.5871286392212</v>
+        <v>16.61125170059503</v>
       </c>
       <c r="E7" t="n">
-        <v>14.75570152545793</v>
+        <v>14.58854709411485</v>
       </c>
       <c r="F7" t="n">
-        <v>229.9990178392653</v>
+        <v>242.334027726326</v>
       </c>
     </row>
     <row r="8">
@@ -3561,13 +3450,13 @@
         <v>168.193298339844</v>
       </c>
       <c r="D8" t="n">
-        <v>15.7222356796265</v>
+        <v>16.75523569576446</v>
       </c>
       <c r="E8" t="n">
-        <v>14.75558313830152</v>
+        <v>14.58843004806295</v>
       </c>
       <c r="F8" t="n">
-        <v>231.9907556906993</v>
+        <v>244.4325838864671</v>
       </c>
     </row>
     <row r="9">
@@ -3581,13 +3470,13 @@
         <v>169.837036132813</v>
       </c>
       <c r="D9" t="n">
-        <v>15.8749580383301</v>
+        <v>16.91799239069226</v>
       </c>
       <c r="E9" t="n">
-        <v>14.756447364544</v>
+        <v>14.58928448424252</v>
       </c>
       <c r="F9" t="n">
-        <v>234.2579827069628</v>
+        <v>246.8214038900596</v>
       </c>
     </row>
     <row r="10">
@@ -3601,13 +3490,13 @@
         <v>170.057312011719</v>
       </c>
       <c r="D10" t="n">
-        <v>15.8954763412476</v>
+        <v>16.93985881023113</v>
       </c>
       <c r="E10" t="n">
-        <v>14.75651313518662</v>
+        <v>14.58934950982708</v>
       </c>
       <c r="F10" t="n">
-        <v>234.5618054196684</v>
+        <v>247.1415208295856</v>
       </c>
     </row>
     <row r="11">
@@ -3621,13 +3510,13 @@
         <v>172.127563476563</v>
       </c>
       <c r="D11" t="n">
-        <v>16.0898132324219</v>
+        <v>17.14696424245837</v>
       </c>
       <c r="E11" t="n">
-        <v>14.755754141972</v>
+        <v>14.58859911458248</v>
       </c>
       <c r="F11" t="n">
-        <v>237.4173282478654</v>
+        <v>250.1501873653056</v>
       </c>
     </row>
     <row r="12">
@@ -3641,13 +3530,13 @@
         <v>173.9169921875</v>
       </c>
       <c r="D12" t="n">
-        <v>16.2570533752441</v>
+        <v>17.32519258528944</v>
       </c>
       <c r="E12" t="n">
-        <v>14.75578045022897</v>
+        <v>14.58862512481622</v>
       </c>
       <c r="F12" t="n">
-        <v>239.8855103727558</v>
+        <v>252.7507398420331</v>
       </c>
     </row>
     <row r="13">
@@ -3661,13 +3550,13 @@
         <v>174.843719482422</v>
       </c>
       <c r="D13" t="n">
-        <v>16.3443508148193</v>
+        <v>17.41822573944922</v>
       </c>
       <c r="E13" t="n">
-        <v>14.75517404490511</v>
+        <v>14.58802558892766</v>
       </c>
       <c r="F13" t="n">
-        <v>241.1637409236453</v>
+        <v>254.0975228008037</v>
       </c>
     </row>
     <row r="14">
@@ -3681,13 +3570,13 @@
         <v>176.045913696289</v>
       </c>
       <c r="D14" t="n">
-        <v>16.4575862884521</v>
+        <v>17.53890113756055</v>
       </c>
       <c r="E14" t="n">
-        <v>14.75440847462621</v>
+        <v>14.58726869112458</v>
       </c>
       <c r="F14" t="n">
-        <v>242.8219506062297</v>
+        <v>255.8446634406664</v>
       </c>
     </row>
     <row r="15">
@@ -3701,13 +3590,13 @@
         <v>177.206726074219</v>
       </c>
       <c r="D15" t="n">
-        <v>16.5669498443604</v>
+        <v>17.65545022085314</v>
       </c>
       <c r="E15" t="n">
-        <v>14.75365605847586</v>
+        <v>14.58652479843844</v>
       </c>
       <c r="F15" t="n">
-        <v>244.4230799417136</v>
+        <v>257.5316624740698</v>
       </c>
     </row>
     <row r="16">
@@ -3721,13 +3610,13 @@
         <v>177.840209960938</v>
       </c>
       <c r="D16" t="n">
-        <v>16.6271476745605</v>
+        <v>17.71960323661561</v>
       </c>
       <c r="E16" t="n">
-        <v>14.75279183223324</v>
+        <v>14.58567036225872</v>
       </c>
       <c r="F16" t="n">
-        <v>245.2968484065921</v>
+        <v>258.4522917592881</v>
       </c>
     </row>
     <row r="17">
@@ -3741,13 +3630,13 @@
         <v>180.220306396484</v>
       </c>
       <c r="D17" t="n">
-        <v>16.8512954711914</v>
+        <v>17.95847824394702</v>
       </c>
       <c r="E17" t="n">
-        <v>14.75137250176786</v>
+        <v>14.58426711014627</v>
       </c>
       <c r="F17" t="n">
-        <v>248.5797366328981</v>
+        <v>261.9112436014739</v>
       </c>
     </row>
     <row r="18">
@@ -3761,13 +3650,13 @@
         <v>181.103286743164</v>
       </c>
       <c r="D18" t="n">
-        <v>16.934720993042</v>
+        <v>18.04738508328796</v>
       </c>
       <c r="E18" t="n">
-        <v>14.75062008561766</v>
+        <v>14.58352321746027</v>
       </c>
       <c r="F18" t="n">
-        <v>249.7976356242963</v>
+        <v>263.194459376576</v>
       </c>
     </row>
     <row r="19">
@@ -3781,13 +3670,13 @@
         <v>182.199005126953</v>
       </c>
       <c r="D19" t="n">
-        <v>17.0388584136963</v>
+        <v>18.15836465790869</v>
       </c>
       <c r="E19" t="n">
-        <v>14.7491678698309</v>
+        <v>14.58208745255547</v>
       </c>
       <c r="F19" t="n">
-        <v>251.3089830538873</v>
+        <v>264.786861437017</v>
       </c>
     </row>
     <row r="20">
@@ -3801,13 +3690,13 @@
         <v>183.294082641602</v>
       </c>
       <c r="D20" t="n">
-        <v>17.1424160003662</v>
+        <v>18.26872630164026</v>
       </c>
       <c r="E20" t="n">
-        <v>14.74817867936759</v>
+        <v>14.58110946776538</v>
       </c>
       <c r="F20" t="n">
-        <v>252.8194141694506</v>
+        <v>266.3782980408611</v>
       </c>
     </row>
     <row r="21">
@@ -3821,13 +3710,13 @@
         <v>184.360168457031</v>
       </c>
       <c r="D21" t="n">
-        <v>17.2434558868408</v>
+        <v>18.37640482440588</v>
       </c>
       <c r="E21" t="n">
-        <v>14.74703690101366</v>
+        <v>14.57998062361936</v>
       </c>
       <c r="F21" t="n">
-        <v>254.2898802642424</v>
+        <v>267.9276262716231</v>
       </c>
     </row>
     <row r="22">
@@ -3841,13 +3730,13 @@
         <v>185.169555664063</v>
       </c>
       <c r="D22" t="n">
-        <v>17.3197193145752</v>
+        <v>18.45767899766565</v>
       </c>
       <c r="E22" t="n">
-        <v>14.74656072156179</v>
+        <v>14.57950983838785</v>
       </c>
       <c r="F22" t="n">
-        <v>255.4062925527898</v>
+        <v>269.1039125402711</v>
       </c>
     </row>
     <row r="23">
@@ -3861,13 +3750,13 @@
         <v>188.199478149414</v>
       </c>
       <c r="D23" t="n">
-        <v>17.6054210662842</v>
+        <v>18.7621522472799</v>
       </c>
       <c r="E23" t="n">
-        <v>14.74463364173628</v>
+        <v>14.57760458876348</v>
       </c>
       <c r="F23" t="n">
-        <v>259.5854837308666</v>
+        <v>273.5072366950266</v>
       </c>
     </row>
     <row r="24">
@@ -3881,13 +3770,13 @@
         <v>188.304473876953</v>
       </c>
       <c r="D24" t="n">
-        <v>17.615873336792</v>
+        <v>18.77329126462341</v>
       </c>
       <c r="E24" t="n">
-        <v>14.74410616118331</v>
+        <v>14.57708308357616</v>
       </c>
       <c r="F24" t="n">
-        <v>259.7303065996197</v>
+        <v>273.6598265165899</v>
       </c>
     </row>
     <row r="25">
@@ -3901,13 +3790,13 @@
         <v>189.366836547852</v>
       </c>
       <c r="D25" t="n">
-        <v>17.7165260314941</v>
+        <v>18.88055715590711</v>
       </c>
       <c r="E25" t="n">
-        <v>14.74304988466455</v>
+        <v>14.57603877268984</v>
       </c>
       <c r="F25" t="n">
-        <v>261.1956270652757</v>
+        <v>275.2037331544886</v>
       </c>
     </row>
     <row r="26">
@@ -3921,13 +3810,13 @@
         <v>190.47380065918</v>
       </c>
       <c r="D26" t="n">
-        <v>17.8222122192383</v>
+        <v>18.99318725645544</v>
       </c>
       <c r="E26" t="n">
-        <v>14.74129512392248</v>
+        <v>14.5743038900968</v>
       </c>
       <c r="F26" t="n">
-        <v>262.7224900849693</v>
+        <v>276.8124829170955</v>
       </c>
     </row>
     <row r="27">
@@ -3941,13 +3830,13 @@
         <v>191.403228759766</v>
       </c>
       <c r="D27" t="n">
-        <v>17.9102840423584</v>
+        <v>19.08704567357898</v>
       </c>
       <c r="E27" t="n">
-        <v>14.74038354281724</v>
+        <v>14.57340263549627</v>
       </c>
       <c r="F27" t="n">
-        <v>264.004456145162</v>
+        <v>278.1632017231735</v>
       </c>
     </row>
     <row r="28">
@@ -3961,13 +3850,13 @@
         <v>192.330673217773</v>
       </c>
       <c r="D28" t="n">
-        <v>17.9983558654785</v>
+        <v>19.18090409070252</v>
       </c>
       <c r="E28" t="n">
-        <v>14.73932858171131</v>
+        <v>14.57235962512161</v>
       </c>
       <c r="F28" t="n">
-        <v>265.2836810318587</v>
+        <v>279.5110323446834</v>
       </c>
     </row>
     <row r="29">
@@ -3981,13 +3870,13 @@
         <v>194.97297668457</v>
       </c>
       <c r="D29" t="n">
-        <v>18.2468910217285</v>
+        <v>19.44576878339051</v>
       </c>
       <c r="E29" t="n">
-        <v>14.73830519051393</v>
+        <v>14.57134782702764</v>
       </c>
       <c r="F29" t="n">
-        <v>268.9282486562832</v>
+        <v>283.3510607067391</v>
       </c>
     </row>
     <row r="30">
@@ -4001,13 +3890,13 @@
         <v>195.422119140625</v>
       </c>
       <c r="D30" t="n">
-        <v>18.2912178039551</v>
+        <v>19.49300797373058</v>
       </c>
       <c r="E30" t="n">
-        <v>14.73645703545931</v>
+        <v>14.5695206081045</v>
       </c>
       <c r="F30" t="n">
-        <v>269.5477452942127</v>
+        <v>284.0037813872131</v>
       </c>
     </row>
     <row r="31">
@@ -4021,13 +3910,13 @@
         <v>196.520889282227</v>
       </c>
       <c r="D31" t="n">
-        <v>18.3969039916992</v>
+        <v>19.60563807427881</v>
       </c>
       <c r="E31" t="n">
-        <v>14.73418005581559</v>
+        <v>14.5672694223708</v>
       </c>
       <c r="F31" t="n">
-        <v>271.0632958832485</v>
+        <v>285.6006120255105</v>
       </c>
     </row>
     <row r="32">
@@ -4041,13 +3930,13 @@
         <v>197.812973022461</v>
       </c>
       <c r="D32" t="n">
-        <v>18.5209789276123</v>
+        <v>19.73786512121558</v>
       </c>
       <c r="E32" t="n">
-        <v>14.73169918718014</v>
+        <v>14.56481665732536</v>
       </c>
       <c r="F32" t="n">
-        <v>272.8454902136866</v>
+        <v>287.478386697522</v>
       </c>
     </row>
     <row r="33">
@@ -4061,13 +3950,13 @@
         <v>198.354904174805</v>
       </c>
       <c r="D33" t="n">
-        <v>18.575756072998</v>
+        <v>19.7962412962317</v>
       </c>
       <c r="E33" t="n">
-        <v>14.72849747230262</v>
+        <v>14.56165121187419</v>
       </c>
       <c r="F33" t="n">
-        <v>273.5929763672611</v>
+        <v>288.2659610618262</v>
       </c>
     </row>
     <row r="34">
@@ -4081,13 +3970,13 @@
         <v>199.181488037109</v>
       </c>
       <c r="D34" t="n">
-        <v>18.6593761444092</v>
+        <v>19.88535546764734</v>
       </c>
       <c r="E34" t="n">
-        <v>14.72359492860993</v>
+        <v>14.55680420480927</v>
       </c>
       <c r="F34" t="n">
-        <v>274.7330959708485</v>
+        <v>289.4672260855758</v>
       </c>
     </row>
     <row r="35">
@@ -4101,13 +3990,13 @@
         <v>201.574508666992</v>
       </c>
       <c r="D35" t="n">
-        <v>18.8895244598389</v>
+        <v>20.13062524661425</v>
       </c>
       <c r="E35" t="n">
-        <v>14.71894099794579</v>
+        <v>14.55220299445344</v>
       </c>
       <c r="F35" t="n">
-        <v>278.0337960036226</v>
+        <v>292.9449449939999</v>
       </c>
     </row>
     <row r="36">
@@ -4121,13 +4010,13 @@
         <v>202.264419555664</v>
       </c>
       <c r="D36" t="n">
-        <v>18.959981918335</v>
+        <v>20.2057119803131</v>
       </c>
       <c r="E36" t="n">
-        <v>14.71443439352097</v>
+        <v>14.54774744140686</v>
       </c>
       <c r="F36" t="n">
-        <v>278.9854100396842</v>
+        <v>293.947594763404</v>
       </c>
     </row>
     <row r="37">
@@ -4141,13 +4030,13 @@
         <v>203.486465454102</v>
       </c>
       <c r="D37" t="n">
-        <v>19.079216003418</v>
+        <v>20.33278011739257</v>
       </c>
       <c r="E37" t="n">
-        <v>14.71082358524717</v>
+        <v>14.54417753682054</v>
       </c>
       <c r="F37" t="n">
-        <v>280.6709807711068</v>
+        <v>295.7235638444924</v>
       </c>
     </row>
     <row r="38">
@@ -4161,13 +4050,13 @@
         <v>204.522399902344</v>
       </c>
       <c r="D38" t="n">
-        <v>19.181224822998</v>
+        <v>20.44149123519654</v>
       </c>
       <c r="E38" t="n">
-        <v>14.70708255110111</v>
+        <v>14.54047888157691</v>
       </c>
       <c r="F38" t="n">
-        <v>282.0998569030613</v>
+        <v>297.2290716133149</v>
       </c>
     </row>
     <row r="39">
@@ -4181,13 +4070,13 @@
         <v>204.901794433594</v>
       </c>
       <c r="D39" t="n">
-        <v>19.2209053039551</v>
+        <v>20.48377884775402</v>
       </c>
       <c r="E39" t="n">
-        <v>14.70394660686621</v>
+        <v>14.5373784617103</v>
       </c>
       <c r="F39" t="n">
-        <v>282.6231653249873</v>
+        <v>297.7804454357764</v>
       </c>
     </row>
     <row r="40">
@@ -4201,13 +4090,13 @@
         <v>206.401245117188</v>
       </c>
       <c r="D40" t="n">
-        <v>19.3654975891113</v>
+        <v>20.63787129789588</v>
       </c>
       <c r="E40" t="n">
-        <v>14.70095798887062</v>
+        <v>14.53442369915295</v>
       </c>
       <c r="F40" t="n">
-        <v>284.6913664911006</v>
+        <v>299.9595656922062</v>
       </c>
     </row>
     <row r="41">
@@ -4221,13 +4110,13 @@
         <v>209.193099975586</v>
       </c>
       <c r="D41" t="n">
-        <v>19.6359062194824</v>
+        <v>20.92604662030933</v>
       </c>
       <c r="E41" t="n">
-        <v>14.69462164517104</v>
+        <v>14.52815913434683</v>
       </c>
       <c r="F41" t="n">
-        <v>288.5422125553546</v>
+        <v>304.0169353526147</v>
       </c>
     </row>
     <row r="42">
@@ -4241,13 +4130,13 @@
         <v>214.098190307617</v>
       </c>
       <c r="D42" t="n">
-        <v>20.1083965301514</v>
+        <v>21.4295810209215</v>
       </c>
       <c r="E42" t="n">
-        <v>14.68579785577186</v>
+        <v>14.51943530193695</v>
       </c>
       <c r="F42" t="n">
-        <v>295.3078466455078</v>
+        <v>311.1454151808857</v>
       </c>
     </row>
     <row r="43">
@@ -4261,13 +4150,13 @@
         <v>218.155319213867</v>
       </c>
       <c r="D43" t="n">
-        <v>20.5003643035889</v>
+        <v>21.84730230197314</v>
       </c>
       <c r="E43" t="n">
-        <v>14.67797772637724</v>
+        <v>14.51170375994562</v>
       </c>
       <c r="F43" t="n">
-        <v>300.9038906306969</v>
+        <v>317.0415789602122</v>
       </c>
     </row>
     <row r="44">
@@ -4281,13 +4170,13 @@
         <v>224.547912597656</v>
       </c>
       <c r="D44" t="n">
-        <v>21.108736038208</v>
+        <v>22.49564596071838</v>
       </c>
       <c r="E44" t="n">
-        <v>14.67265819681104</v>
+        <v>14.50644449067529</v>
       </c>
       <c r="F44" t="n">
-        <v>309.7212688553332</v>
+        <v>326.331839411045</v>
       </c>
     </row>
     <row r="45">
@@ -4301,13 +4190,13 @@
         <v>230.240951538086</v>
       </c>
       <c r="D45" t="n">
-        <v>21.6528434753418</v>
+        <v>23.07550295680762</v>
       </c>
       <c r="E45" t="n">
-        <v>14.66660598228717</v>
+        <v>14.50046083639408</v>
       </c>
       <c r="F45" t="n">
-        <v>317.5737236489758</v>
+        <v>334.6054269052846</v>
       </c>
     </row>
     <row r="46">
@@ -4321,13 +4210,13 @@
         <v>234.068771362305</v>
       </c>
       <c r="D46" t="n">
-        <v>22.0177116394043</v>
+        <v>23.46434409946204</v>
       </c>
       <c r="E46" t="n">
-        <v>14.66335296630855</v>
+        <v>14.49724467098709</v>
       </c>
       <c r="F46" t="n">
-        <v>322.8534772789854</v>
+        <v>340.1683374541333</v>
       </c>
     </row>
     <row r="47">
@@ -4341,13 +4230,13 @@
         <v>239.185958862305</v>
       </c>
       <c r="D47" t="n">
-        <v>22.5091705322266</v>
+        <v>23.9880933773518</v>
       </c>
       <c r="E47" t="n">
-        <v>14.65676669416759</v>
+        <v>14.49073300896022</v>
       </c>
       <c r="F47" t="n">
-        <v>329.9116609700774</v>
+        <v>347.6050565252119</v>
       </c>
     </row>
     <row r="48">
@@ -4361,13 +4250,13 @@
         <v>244.394165039063</v>
       </c>
       <c r="D48" t="n">
-        <v>23.012825012207</v>
+        <v>24.52483953058716</v>
       </c>
       <c r="E48" t="n">
-        <v>14.64815337082442</v>
+        <v>14.48221725842054</v>
       </c>
       <c r="F48" t="n">
-        <v>337.0953902747524</v>
+        <v>355.1740543098638</v>
       </c>
     </row>
     <row r="49">
@@ -4381,13 +4270,13 @@
         <v>249.312042236328</v>
       </c>
       <c r="D49" t="n">
-        <v>23.5439643859863</v>
+        <v>25.09087642103431</v>
       </c>
       <c r="E49" t="n">
-        <v>14.60581023117586</v>
+        <v>14.44035378715082</v>
       </c>
       <c r="F49" t="n">
-        <v>343.8786759112788</v>
+        <v>362.321132349416</v>
       </c>
     </row>
     <row r="50">
@@ -4401,13 +4290,13 @@
         <v>253.678771972656</v>
       </c>
       <c r="D50" t="n">
-        <v>23.9792900085449</v>
+        <v>25.55480429738758</v>
       </c>
       <c r="E50" t="n">
-        <v>14.59183133881669</v>
+        <v>14.42653324943166</v>
       </c>
       <c r="F50" t="n">
-        <v>349.9017554292594</v>
+        <v>368.6672338789809</v>
       </c>
     </row>
     <row r="51">
@@ -4421,13 +4310,13 @@
         <v>259.663726806641</v>
       </c>
       <c r="D51" t="n">
-        <v>24.5564975738525</v>
+        <v>26.16993620350953</v>
       </c>
       <c r="E51" t="n">
-        <v>14.5850148694269</v>
+        <v>14.41979399785917</v>
       </c>
       <c r="F51" t="n">
-        <v>358.1568822556842</v>
+        <v>377.3650889917241</v>
       </c>
     </row>
     <row r="52">
@@ -4441,13 +4330,13 @@
         <v>264.299255371094</v>
       </c>
       <c r="D52" t="n">
-        <v>25.0049858093262</v>
+        <v>26.64789151757958</v>
       </c>
       <c r="E52" t="n">
-        <v>14.57912050444511</v>
+        <v>14.41396640498069</v>
       </c>
       <c r="F52" t="n">
-        <v>364.5507013261065</v>
+        <v>384.101813097962</v>
       </c>
     </row>
     <row r="53">
@@ -4461,13 +4350,13 @@
         <v>269.917816162109</v>
       </c>
       <c r="D53" t="n">
-        <v>25.5510292053223</v>
+        <v>27.22981167107824</v>
       </c>
       <c r="E53" t="n">
-        <v>14.57085839633283</v>
+        <v>14.40579789106187</v>
       </c>
       <c r="F53" t="n">
-        <v>372.3004284313158</v>
+        <v>392.2671635452308</v>
       </c>
     </row>
     <row r="54">
@@ -4481,13 +4370,13 @@
         <v>274.980041503906</v>
       </c>
       <c r="D54" t="n">
-        <v>26.0405521392822</v>
+        <v>27.75149779155848</v>
       </c>
       <c r="E54" t="n">
-        <v>14.56508373392041</v>
+        <v>14.4000886447471</v>
       </c>
       <c r="F54" t="n">
-        <v>379.2828223861656</v>
+        <v>399.6240282229454</v>
       </c>
     </row>
     <row r="55">
@@ -4501,13 +4390,13 @@
         <v>278.722595214844</v>
       </c>
       <c r="D55" t="n">
-        <v>26.4038715362549</v>
+        <v>28.1386884082854</v>
       </c>
       <c r="E55" t="n">
-        <v>14.56017329775048</v>
+        <v>14.3952338346119</v>
       </c>
       <c r="F55" t="n">
-        <v>384.4449452994126</v>
+        <v>405.0629994365517</v>
       </c>
     </row>
     <row r="56">
@@ -4521,13 +4410,13 @@
         <v>284.701995849609</v>
       </c>
       <c r="D56" t="n">
-        <v>26.9816608428955</v>
+        <v>28.75444027796387</v>
       </c>
       <c r="E56" t="n">
-        <v>14.55404873552</v>
+        <v>14.38917865218794</v>
       </c>
       <c r="F56" t="n">
-        <v>392.6924068727728</v>
+        <v>413.7527782032907</v>
       </c>
     </row>
     <row r="57">
@@ -4541,13 +4430,13 @@
         <v>289.659637451172</v>
       </c>
       <c r="D57" t="n">
-        <v>27.4586029052734</v>
+        <v>29.26271892428394</v>
       </c>
       <c r="E57" t="n">
-        <v>14.55028665476827</v>
+        <v>14.38545918875723</v>
       </c>
       <c r="F57" t="n">
-        <v>399.5305434111809</v>
+        <v>420.9576488373604</v>
       </c>
     </row>
     <row r="58">
@@ -4561,13 +4450,13 @@
         <v>294.73291015625</v>
       </c>
       <c r="D58" t="n">
-        <v>27.9458026885986</v>
+        <v>29.78192925587293</v>
       </c>
       <c r="E58" t="n">
-        <v>14.54702048466124</v>
+        <v>14.38223001823344</v>
       </c>
       <c r="F58" t="n">
-        <v>406.5281641713451</v>
+        <v>428.3305569447203</v>
       </c>
     </row>
     <row r="59">
@@ -4581,13 +4470,13 @@
         <v>299.495452880859</v>
       </c>
       <c r="D59" t="n">
-        <v>28.405517578125</v>
+        <v>30.27184885025024</v>
       </c>
       <c r="E59" t="n">
-        <v>14.54284931051324</v>
+        <v>14.37810609566759</v>
       </c>
       <c r="F59" t="n">
-        <v>413.097161725807</v>
+        <v>435.2518544809109</v>
       </c>
     </row>
     <row r="60">
@@ -4601,13 +4490,13 @@
         <v>304.486694335938</v>
       </c>
       <c r="D60" t="n">
-        <v>28.8880729675293</v>
+        <v>30.786109636724</v>
       </c>
       <c r="E60" t="n">
-        <v>14.53823615764745</v>
+        <v>14.3735452011741</v>
       </c>
       <c r="F60" t="n">
-        <v>419.9816269412923</v>
+        <v>442.5055384317539</v>
       </c>
     </row>
     <row r="61">
@@ -4621,13 +4510,13 @@
         <v>310.302612304688</v>
       </c>
       <c r="D61" t="n">
-        <v>29.4472789764404</v>
+        <v>31.38205722793933</v>
       </c>
       <c r="E61" t="n">
-        <v>14.53457273285959</v>
+        <v>14.36992327612016</v>
       </c>
       <c r="F61" t="n">
-        <v>428.00361806788</v>
+        <v>450.9577546123004</v>
       </c>
     </row>
     <row r="62">
@@ -4641,13 +4530,13 @@
         <v>314.287384033203</v>
       </c>
       <c r="D62" t="n">
-        <v>29.829761505127</v>
+        <v>31.78967005401855</v>
       </c>
       <c r="E62" t="n">
-        <v>14.53246149523503</v>
+        <v>14.36783595485933</v>
       </c>
       <c r="F62" t="n">
-        <v>433.4998604853024</v>
+        <v>456.7487643952425</v>
       </c>
     </row>
     <row r="63">
@@ -4661,13 +4550,13 @@
         <v>321.474243164063</v>
       </c>
       <c r="D63" t="n">
-        <v>30.5219459533691</v>
+        <v>32.52733318358656</v>
       </c>
       <c r="E63" t="n">
-        <v>14.52766944622165</v>
+        <v>14.36309819077617</v>
       </c>
       <c r="F63" t="n">
-        <v>443.412741665989</v>
+        <v>467.1932803999459</v>
       </c>
     </row>
     <row r="64">
@@ -4681,13 +4570,13 @@
         <v>325.348022460938</v>
       </c>
       <c r="D64" t="n">
-        <v>30.8986225128174</v>
+        <v>32.92875857010485</v>
       </c>
       <c r="E64" t="n">
-        <v>14.52349169500938</v>
+        <v>14.35896776565185</v>
       </c>
       <c r="F64" t="n">
-        <v>448.7558874521334</v>
+        <v>472.8229828710678</v>
       </c>
     </row>
     <row r="65">
@@ -4701,13 +4590,13 @@
         <v>329.666442871094</v>
       </c>
       <c r="D65" t="n">
-        <v>31.3287200927734</v>
+        <v>33.3871149051189</v>
       </c>
       <c r="E65" t="n">
-        <v>14.51423250395683</v>
+        <v>14.34981346387294</v>
       </c>
       <c r="F65" t="n">
-        <v>454.7123274778971</v>
+        <v>479.0988709853482</v>
       </c>
     </row>
     <row r="66">
@@ -4721,13 +4610,13 @@
         <v>334.346649169922</v>
       </c>
       <c r="D66" t="n">
-        <v>31.7938556671143</v>
+        <v>33.88281134024267</v>
       </c>
       <c r="E66" t="n">
-        <v>14.50493385051862</v>
+        <v>14.34062014674322</v>
       </c>
       <c r="F66" t="n">
-        <v>461.1677733044295</v>
+        <v>485.9005269341835</v>
       </c>
     </row>
     <row r="67">
@@ -4741,13 +4630,13 @@
         <v>339.63818359375</v>
       </c>
       <c r="D67" t="n">
-        <v>32.3168640136719</v>
+        <v>34.44018296957019</v>
       </c>
       <c r="E67" t="n">
-        <v>14.49603771341255</v>
+        <v>14.3318247861903</v>
       </c>
       <c r="F67" t="n">
-        <v>468.4664795214129</v>
+        <v>493.590667924215</v>
       </c>
     </row>
     <row r="68">
@@ -4761,13 +4650,13 @@
         <v>344.239929199219</v>
       </c>
       <c r="D68" t="n">
-        <v>32.7632255554199</v>
+        <v>34.91587185949085</v>
       </c>
       <c r="E68" t="n">
-        <v>14.49227563266096</v>
+        <v>14.32810532275973</v>
       </c>
       <c r="F68" t="n">
-        <v>474.8136953641869</v>
+        <v>500.2782894387674</v>
       </c>
     </row>
     <row r="69">
@@ -4781,13 +4670,13 @@
         <v>349.851928710938</v>
       </c>
       <c r="D69" t="n">
-        <v>33.3088798522949</v>
+        <v>35.49737734884021</v>
       </c>
       <c r="E69" t="n">
-        <v>14.48725996346304</v>
+        <v>14.32314647168943</v>
       </c>
       <c r="F69" t="n">
-        <v>482.5544015119524</v>
+        <v>508.434135128269</v>
       </c>
     </row>
     <row r="70">
@@ -4801,13 +4690,13 @@
         <v>355.616149902344</v>
       </c>
       <c r="D70" t="n">
-        <v>33.8682823181152</v>
+        <v>36.09353430479761</v>
       </c>
       <c r="E70" t="n">
-        <v>14.48272573536842</v>
+        <v>14.31866360789745</v>
       </c>
       <c r="F70" t="n">
-        <v>490.5050439412901</v>
+        <v>516.8111761305036</v>
       </c>
     </row>
     <row r="71">
@@ -4821,13 +4710,13 @@
         <v>360.649719238281</v>
       </c>
       <c r="D71" t="n">
-        <v>34.3554801940918</v>
+        <v>36.61274260371923</v>
       </c>
       <c r="E71" t="n">
-        <v>14.47943325700428</v>
+        <v>14.31540842713978</v>
       </c>
       <c r="F71" t="n">
-        <v>497.4478824826845</v>
+        <v>524.1263640099818</v>
       </c>
     </row>
     <row r="72">
@@ -4841,13 +4730,13 @@
         <v>361.337005615234</v>
       </c>
       <c r="D72" t="n">
-        <v>34.4247779846191</v>
+        <v>36.68659347563977</v>
       </c>
       <c r="E72" t="n">
-        <v>14.47782319167559</v>
+        <v>14.31381660083239</v>
       </c>
       <c r="F72" t="n">
-        <v>498.3958490740015</v>
+        <v>525.1251707196017</v>
       </c>
     </row>
     <row r="73">
@@ -4861,13 +4750,13 @@
         <v>363.448852539063</v>
       </c>
       <c r="D73" t="n">
-        <v>34.635181427002</v>
+        <v>36.910821081698</v>
       </c>
       <c r="E73" t="n">
-        <v>14.47397560908883</v>
+        <v>14.31001260414212</v>
       </c>
       <c r="F73" t="n">
-        <v>501.3087711907934</v>
+        <v>528.1943149083329</v>
       </c>
     </row>
     <row r="74">
@@ -4881,13 +4770,13 @@
         <v>366.22705078125</v>
       </c>
       <c r="D74" t="n">
-        <v>34.9086875915527</v>
+        <v>37.20229745596643</v>
       </c>
       <c r="E74" t="n">
-        <v>14.47034506962221</v>
+        <v>14.30642319188039</v>
       </c>
       <c r="F74" t="n">
-        <v>505.1407553774065</v>
+        <v>532.2318111152712</v>
       </c>
     </row>
     <row r="75">
@@ -4901,13 +4790,13 @@
         <v>368.92333984375</v>
       </c>
       <c r="D75" t="n">
-        <v>35.1789016723633</v>
+        <v>37.49026544630529</v>
       </c>
       <c r="E75" t="n">
-        <v>14.46491372996359</v>
+        <v>14.30105337911634</v>
       </c>
       <c r="F75" t="n">
-        <v>508.8597778056069</v>
+        <v>536.150287344853</v>
       </c>
     </row>
     <row r="76">
@@ -4921,13 +4810,13 @@
         <v>370.101287841797</v>
       </c>
       <c r="D76" t="n">
-        <v>35.2954292297363</v>
+        <v>37.61444922834632</v>
       </c>
       <c r="E76" t="n">
-        <v>14.46319053912979</v>
+        <v>14.29934970880371</v>
       </c>
       <c r="F76" t="n">
-        <v>510.4845181100472</v>
+        <v>537.862163620166</v>
       </c>
     </row>
     <row r="77">
@@ -4941,13 +4830,13 @@
         <v>372.516876220703</v>
       </c>
       <c r="D77" t="n">
-        <v>35.5383491516113</v>
+        <v>37.87332974821326</v>
       </c>
       <c r="E77" t="n">
-        <v>14.45808279103241</v>
+        <v>14.29429982191525</v>
       </c>
       <c r="F77" t="n">
-        <v>513.8163942906127</v>
+        <v>541.3727306752223</v>
       </c>
     </row>
     <row r="78">
@@ -4961,13 +4850,13 @@
         <v>374.221740722656</v>
       </c>
       <c r="D78" t="n">
-        <v>35.7317199707031</v>
+        <v>38.07940563440319</v>
       </c>
       <c r="E78" t="n">
-        <v>14.44564950877228</v>
+        <v>14.28200738543072</v>
       </c>
       <c r="F78" t="n">
-        <v>516.1679030423758</v>
+        <v>543.8503525033584</v>
       </c>
     </row>
     <row r="79">
@@ -4981,13 +4870,13 @@
         <v>375.074920654297</v>
       </c>
       <c r="D79" t="n">
-        <v>35.846118927002</v>
+        <v>38.20132095962768</v>
       </c>
       <c r="E79" t="n">
-        <v>14.43237699311352</v>
+        <v>14.2688852224884</v>
       </c>
       <c r="F79" t="n">
-        <v>517.3447020944748</v>
+        <v>545.0902641203679</v>
       </c>
     </row>
     <row r="80">
@@ -5001,13 +4890,13 @@
         <v>377.437530517578</v>
       </c>
       <c r="D80" t="n">
-        <v>36.1941452026367</v>
+        <v>38.57221364915369</v>
       </c>
       <c r="E80" t="n">
-        <v>14.38363831618731</v>
+        <v>14.22069866338675</v>
       </c>
       <c r="F80" t="n">
-        <v>520.6034937582924</v>
+        <v>548.5238270843881</v>
       </c>
     </row>
     <row r="81">
@@ -5021,13 +4910,13 @@
         <v>377.893432617188</v>
       </c>
       <c r="D81" t="n">
-        <v>36.2829933166504</v>
+        <v>38.66689936190844</v>
       </c>
       <c r="E81" t="n">
-        <v>14.36574738601159</v>
+        <v>14.20301040390443</v>
       </c>
       <c r="F81" t="n">
-        <v>521.2323163953464</v>
+        <v>549.186373923911</v>
       </c>
     </row>
     <row r="82">
@@ -5041,13 +4930,13 @@
         <v>379.004821777344</v>
       </c>
       <c r="D82" t="n">
-        <v>36.5541763305664</v>
+        <v>38.95589994728564</v>
       </c>
       <c r="E82" t="n">
-        <v>14.30110931396483</v>
+        <v>14.13910456001757</v>
       </c>
       <c r="F82" t="n">
-        <v>522.7652715853758</v>
+        <v>550.8015425842547</v>
       </c>
     </row>
     <row r="83">
@@ -5061,13 +4950,13 @@
         <v>380.399536132813</v>
       </c>
       <c r="D83" t="n">
-        <v>36.8365859985352</v>
+        <v>39.25686481297021</v>
       </c>
       <c r="E83" t="n">
-        <v>14.2436928584658</v>
+        <v>14.08233852530349</v>
       </c>
       <c r="F83" t="n">
-        <v>524.689016917597</v>
+        <v>552.8284597383213</v>
       </c>
     </row>
     <row r="84">
@@ -5081,13 +4970,13 @@
         <v>380.041381835938</v>
       </c>
       <c r="D84" t="n">
-        <v>36.8832321166992</v>
+        <v>39.3065757268667</v>
       </c>
       <c r="E84" t="n">
-        <v>14.21228474584124</v>
+        <v>14.05128620770476</v>
       </c>
       <c r="F84" t="n">
-        <v>524.1949971894859</v>
+        <v>552.3079453830247</v>
       </c>
     </row>
     <row r="85">
@@ -5101,13 +4990,13 @@
         <v>380.239959716797</v>
       </c>
       <c r="D85" t="n">
-        <v>37.0727310180664</v>
+        <v>39.50852529823779</v>
       </c>
       <c r="E85" t="n">
-        <v>14.14702711434193</v>
+        <v>13.98676782281228</v>
       </c>
       <c r="F85" t="n">
-        <v>524.4689309152905</v>
+        <v>552.5965703681571</v>
       </c>
     </row>
     <row r="86">
@@ -5121,13 +5010,13 @@
         <v>379.970642089844</v>
       </c>
       <c r="D86" t="n">
-        <v>37.3305587768555</v>
+        <v>39.78329314649108</v>
       </c>
       <c r="E86" t="n">
-        <v>14.03936714961614</v>
+        <v>13.88032744362439</v>
       </c>
       <c r="F86" t="n">
-        <v>524.0974205685994</v>
+        <v>552.2051356589944</v>
       </c>
     </row>
     <row r="87">
@@ -5141,13 +5030,13 @@
         <v>380.283630371094</v>
       </c>
       <c r="D87" t="n">
-        <v>37.4627647399902</v>
+        <v>39.92418545454736</v>
       </c>
       <c r="E87" t="n">
-        <v>14.00134645659352</v>
+        <v>13.84273745376492</v>
       </c>
       <c r="F87" t="n">
-        <v>524.5291483464583</v>
+        <v>552.6600173027194</v>
       </c>
     </row>
     <row r="88">
@@ -5161,13 +5050,13 @@
         <v>380.029693603516</v>
       </c>
       <c r="D88" t="n">
-        <v>37.6559410095215</v>
+        <v>40.13005400866272</v>
       </c>
       <c r="E88" t="n">
-        <v>13.92021705364359</v>
+        <v>13.76252709483278</v>
       </c>
       <c r="F88" t="n">
-        <v>524.1788722117381</v>
+        <v>552.2909556113235</v>
       </c>
     </row>
     <row r="89">
@@ -5181,13 +5070,13 @@
         <v>380.693603515625</v>
       </c>
       <c r="D89" t="n">
-        <v>38.078296661377</v>
+        <v>40.58015974670653</v>
       </c>
       <c r="E89" t="n">
-        <v>13.78986621725148</v>
+        <v>13.63365288900918</v>
       </c>
       <c r="F89" t="n">
-        <v>525.0946167412025</v>
+        <v>553.2558121671394</v>
       </c>
     </row>
     <row r="90">
@@ -5201,13 +5090,13 @@
         <v>378.621307373047</v>
       </c>
       <c r="D90" t="n">
-        <v>38.126880645752</v>
+        <v>40.63193585067992</v>
       </c>
       <c r="E90" t="n">
-        <v>13.69732560782597</v>
+        <v>13.54216059117482</v>
       </c>
       <c r="F90" t="n">
-        <v>522.2362986155835</v>
+        <v>550.244200420221</v>
       </c>
     </row>
     <row r="91">
@@ -5221,13 +5110,13 @@
         <v>377.096801757813</v>
       </c>
       <c r="D91" t="n">
-        <v>38.3949699401855</v>
+        <v>40.91763944953674</v>
       </c>
       <c r="E91" t="n">
-        <v>13.54691867170662</v>
+        <v>13.39345748362869</v>
       </c>
       <c r="F91" t="n">
-        <v>520.1335351823134</v>
+        <v>548.0286642978185</v>
       </c>
     </row>
     <row r="92">
@@ -5241,13 +5130,13 @@
         <v>377.051361083984</v>
       </c>
       <c r="D92" t="n">
-        <v>38.5376243591309</v>
+        <v>41.06966670960193</v>
       </c>
       <c r="E92" t="n">
-        <v>13.49514533733499</v>
+        <v>13.34227064406049</v>
       </c>
       <c r="F92" t="n">
-        <v>520.0708416820928</v>
+        <v>547.9626085008704</v>
       </c>
     </row>
     <row r="93">
@@ -5261,13 +5150,13 @@
         <v>374.394683837891</v>
       </c>
       <c r="D93" t="n">
-        <v>38.7375755310059</v>
+        <v>41.28275529831652</v>
       </c>
       <c r="E93" t="n">
-        <v>13.33089236555429</v>
+        <v>13.17987835047575</v>
       </c>
       <c r="F93" t="n">
-        <v>516.4064499063693</v>
+        <v>544.1016928042699</v>
       </c>
     </row>
     <row r="94">
@@ -5281,13 +5170,13 @@
         <v>373.046295166016</v>
       </c>
       <c r="D94" t="n">
-        <v>38.9342384338379</v>
+        <v>41.49233956843615</v>
       </c>
       <c r="E94" t="n">
-        <v>13.21578716409618</v>
+        <v>13.0660770751279</v>
       </c>
       <c r="F94" t="n">
-        <v>514.5466085377751</v>
+        <v>542.1421068285661</v>
       </c>
     </row>
     <row r="95">
@@ -5301,13 +5190,13 @@
         <v>370.088562011719</v>
       </c>
       <c r="D95" t="n">
-        <v>39.1661262512207</v>
+        <v>41.73946314007043</v>
       </c>
       <c r="E95" t="n">
-        <v>13.03337886415679</v>
+        <v>12.88573511921126</v>
       </c>
       <c r="F95" t="n">
-        <v>510.4669620735563</v>
+        <v>537.8436660410296</v>
       </c>
     </row>
     <row r="96">
@@ -5321,13 +5210,13 @@
         <v>367.375335693359</v>
       </c>
       <c r="D96" t="n">
-        <v>39.457633972168</v>
+        <v>42.0501238292456</v>
       </c>
       <c r="E96" t="n">
-        <v>12.84224543078192</v>
+        <v>12.69676686926134</v>
       </c>
       <c r="F96" t="n">
-        <v>506.7246195885398</v>
+        <v>533.9006190835023</v>
       </c>
     </row>
     <row r="97">
@@ -5341,13 +5230,13 @@
         <v>366.058502197266</v>
       </c>
       <c r="D97" t="n">
-        <v>39.5195770263672</v>
+        <v>42.11613673567773</v>
       </c>
       <c r="E97" t="n">
-        <v>12.77615645836139</v>
+        <v>12.63142656098152</v>
       </c>
       <c r="F97" t="n">
-        <v>504.9082992571319</v>
+        <v>531.9868882089692</v>
       </c>
     </row>
     <row r="98">
@@ -5361,13 +5250,13 @@
         <v>358.806976318359</v>
       </c>
       <c r="D98" t="n">
-        <v>39.8139877319336</v>
+        <v>42.4298911446333</v>
       </c>
       <c r="E98" t="n">
-        <v>12.43045938426051</v>
+        <v>12.28964558654819</v>
       </c>
       <c r="F98" t="n">
-        <v>494.9061574272469</v>
+        <v>521.4483244433626</v>
       </c>
     </row>
     <row r="99">
@@ -5381,13 +5270,13 @@
         <v>357.852020263672</v>
       </c>
       <c r="D99" t="n">
-        <v>39.9417381286621</v>
+        <v>42.56603514164685</v>
       </c>
       <c r="E99" t="n">
-        <v>12.35772494612069</v>
+        <v>12.21773509321542</v>
       </c>
       <c r="F99" t="n">
-        <v>493.5890136639876</v>
+        <v>520.0605413291394</v>
       </c>
     </row>
     <row r="100">
@@ -5401,13 +5290,13 @@
         <v>353.298431396484</v>
       </c>
       <c r="D100" t="n">
-        <v>40.1496276855469</v>
+        <v>42.78758369207385</v>
       </c>
       <c r="E100" t="n">
-        <v>12.13730253022292</v>
+        <v>11.99980964999774</v>
       </c>
       <c r="F100" t="n">
-        <v>487.3081776952968</v>
+        <v>513.4428596882339</v>
       </c>
     </row>
     <row r="101">
@@ -5421,13 +5310,13 @@
         <v>351.273010253906</v>
       </c>
       <c r="D101" t="n">
-        <v>40.4219703674316</v>
+        <v>43.07782013922925</v>
       </c>
       <c r="E101" t="n">
-        <v>11.9864141530004</v>
+        <v>11.85063055517344</v>
       </c>
       <c r="F101" t="n">
-        <v>484.5144777043449</v>
+        <v>510.499331592216</v>
       </c>
     </row>
     <row r="102">
@@ -5441,13 +5330,13 @@
         <v>345.208648681641</v>
       </c>
       <c r="D102" t="n">
-        <v>40.5106239318848</v>
+        <v>43.17229851990942</v>
       </c>
       <c r="E102" t="n">
-        <v>11.75370315025593</v>
+        <v>11.62055573175694</v>
       </c>
       <c r="F102" t="n">
-        <v>476.1498481270277</v>
+        <v>501.686101018655</v>
       </c>
     </row>
     <row r="103">
@@ -5461,13 +5350,13 @@
         <v>340.159332275391</v>
       </c>
       <c r="D103" t="n">
-        <v>40.7719345092773</v>
+        <v>43.45077801883216</v>
       </c>
       <c r="E103" t="n">
-        <v>11.5075552052465</v>
+        <v>11.37719618143706</v>
       </c>
       <c r="F103" t="n">
-        <v>469.1852871902032</v>
+        <v>494.3480257563267</v>
       </c>
     </row>
     <row r="104">
@@ -5481,13 +5370,13 @@
         <v>329.959167480469</v>
       </c>
       <c r="D104" t="n">
-        <v>41.0363426208496</v>
+        <v>43.73255856961011</v>
       </c>
       <c r="E104" t="n">
-        <v>11.09056143925108</v>
+        <v>10.96492617294706</v>
       </c>
       <c r="F104" t="n">
-        <v>455.11607907869</v>
+        <v>479.5242760698582</v>
       </c>
     </row>
     <row r="105">
@@ -5501,13 +5390,13 @@
         <v>328.409820556641</v>
       </c>
       <c r="D105" t="n">
-        <v>41.1549987792969</v>
+        <v>43.85901080846789</v>
       </c>
       <c r="E105" t="n">
-        <v>11.00665980371935</v>
+        <v>10.88197498563034</v>
       </c>
       <c r="F105" t="n">
-        <v>452.9790707862062</v>
+        <v>477.2726585122385</v>
       </c>
     </row>
     <row r="106">
@@ -5521,13 +5410,13 @@
         <v>318.290313720703</v>
       </c>
       <c r="D106" t="n">
-        <v>41.4904441833496</v>
+        <v>44.21649602383374</v>
       </c>
       <c r="E106" t="n">
-        <v>10.58125857649178</v>
+        <v>10.46139275667996</v>
       </c>
       <c r="F106" t="n">
-        <v>439.0211183575215</v>
+        <v>462.5661312295026</v>
       </c>
     </row>
     <row r="107">
@@ -5541,13 +5430,13 @@
         <v>311.1689453125</v>
       </c>
       <c r="D107" t="n">
-        <v>41.5847091674805</v>
+        <v>44.31695451200012</v>
       </c>
       <c r="E107" t="n">
-        <v>10.32106662618703</v>
+        <v>10.20414829331226</v>
       </c>
       <c r="F107" t="n">
-        <v>429.198553948177</v>
+        <v>452.2167757484231</v>
       </c>
     </row>
     <row r="108">
@@ -5561,13 +5450,13 @@
         <v>305.047668457031</v>
       </c>
       <c r="D108" t="n">
-        <v>41.8127288818359</v>
+        <v>44.55995583415027</v>
       </c>
       <c r="E108" t="n">
-        <v>10.06285437222185</v>
+        <v>9.948861100036524</v>
       </c>
       <c r="F108" t="n">
-        <v>420.7554016431092</v>
+        <v>443.3208112177232</v>
       </c>
     </row>
     <row r="109">
@@ -5581,13 +5470,13 @@
         <v>292.088012695313</v>
       </c>
       <c r="D109" t="n">
-        <v>42.1481742858887</v>
+        <v>44.91744104951623</v>
       </c>
       <c r="E109" t="n">
-        <v>9.558659257559945</v>
+        <v>9.450377570657899</v>
       </c>
       <c r="F109" t="n">
-        <v>402.8800363270601</v>
+        <v>424.4867774256966</v>
       </c>
     </row>
     <row r="110">
@@ -5601,13 +5490,13 @@
         <v>286.949432373047</v>
       </c>
       <c r="D110" t="n">
-        <v>42.1408195495605</v>
+        <v>44.90960308402772</v>
       </c>
       <c r="E110" t="n">
-        <v>9.392136540906179</v>
+        <v>9.285741244153726</v>
       </c>
       <c r="F110" t="n">
-        <v>395.7923311551606</v>
+        <v>417.0189536159295</v>
       </c>
     </row>
     <row r="111">
@@ -5621,13 +5510,13 @@
         <v>278.182647705078</v>
       </c>
       <c r="D111" t="n">
-        <v>42.3338012695313</v>
+        <v>45.11526430606848</v>
       </c>
       <c r="E111" t="n">
-        <v>9.063683871565201</v>
+        <v>8.961009327707627</v>
       </c>
       <c r="F111" t="n">
-        <v>383.7001917886973</v>
+        <v>404.2783042686746</v>
       </c>
     </row>
     <row r="112">
@@ -5641,13 +5530,13 @@
         <v>267.451171875</v>
       </c>
       <c r="D112" t="n">
-        <v>42.6013069152832</v>
+        <v>45.40034590870142</v>
       </c>
       <c r="E112" t="n">
-        <v>8.659315438106137</v>
+        <v>8.561221630408841</v>
       </c>
       <c r="F112" t="n">
-        <v>368.8981546550096</v>
+        <v>388.6824234216181</v>
       </c>
     </row>
     <row r="113">
@@ -5661,13 +5550,13 @@
         <v>254.302429199219</v>
       </c>
       <c r="D113" t="n">
-        <v>42.8558464050293</v>
+        <v>45.67160943835974</v>
       </c>
       <c r="E113" t="n">
-        <v>8.184693435142787</v>
+        <v>8.09197620482281</v>
       </c>
       <c r="F113" t="n">
-        <v>350.7619647287309</v>
+        <v>369.5735768111679</v>
       </c>
     </row>
     <row r="114">
@@ -5681,13 +5570,13 @@
         <v>241.135375976563</v>
       </c>
       <c r="D114" t="n">
-        <v>43.053279876709</v>
+        <v>45.8820149061084</v>
       </c>
       <c r="E114" t="n">
-        <v>7.72532364417767</v>
+        <v>7.63781021227097</v>
       </c>
       <c r="F114" t="n">
-        <v>332.6005209909387</v>
+        <v>350.4381220094435</v>
       </c>
     </row>
     <row r="115">
@@ -5701,13 +5590,13 @@
         <v>228.336364746094</v>
       </c>
       <c r="D115" t="n">
-        <v>43.2749099731445</v>
+        <v>46.11820679247376</v>
       </c>
       <c r="E115" t="n">
-        <v>7.27781295776367</v>
+        <v>7.195368982851504</v>
       </c>
       <c r="F115" t="n">
-        <v>314.9467005486073</v>
+        <v>331.8375146992972</v>
       </c>
     </row>
     <row r="116">
@@ -5721,13 +5610,13 @@
         <v>213.399841308594</v>
       </c>
       <c r="D116" t="n">
-        <v>43.4140815734863</v>
+        <v>46.26652240186927</v>
       </c>
       <c r="E116" t="n">
-        <v>6.77993379790207</v>
+        <v>6.70312986034771</v>
       </c>
       <c r="F116" t="n">
-        <v>294.3445989649572</v>
+        <v>310.1305078464162</v>
       </c>
     </row>
     <row r="117">
@@ -5741,13 +5630,13 @@
         <v>203.575439453125</v>
       </c>
       <c r="D117" t="n">
-        <v>43.5728073120117</v>
+        <v>46.43567691743372</v>
       </c>
       <c r="E117" t="n">
-        <v>6.444241753939931</v>
+        <v>6.37124057782108</v>
       </c>
       <c r="F117" t="n">
-        <v>280.7937042164449</v>
+        <v>295.8528690349434</v>
       </c>
     </row>
     <row r="118">
@@ -5761,13 +5650,13 @@
         <v>181.746734619141</v>
       </c>
       <c r="D118" t="n">
-        <v>43.8606338500977</v>
+        <v>46.7424145585299</v>
       </c>
       <c r="E118" t="n">
-        <v>5.715493169324152</v>
+        <v>5.650747348265401</v>
       </c>
       <c r="F118" t="n">
-        <v>250.6851531724611</v>
+        <v>264.1295751181349</v>
       </c>
     </row>
     <row r="119">
@@ -5781,13 +5670,13 @@
         <v>171.664123535156</v>
       </c>
       <c r="D119" t="n">
-        <v>44.0458755493164</v>
+        <v>46.93982721626757</v>
       </c>
       <c r="E119" t="n">
-        <v>5.375715453049228</v>
+        <v>5.314818676432655</v>
       </c>
       <c r="F119" t="n">
-        <v>236.7780938335433</v>
+        <v>249.4766703575407</v>
       </c>
     </row>
     <row r="120">
@@ -5801,13 +5690,13 @@
         <v>152.089263916016</v>
       </c>
       <c r="D120" t="n">
-        <v>44.2436981201172</v>
+        <v>47.15064734816553</v>
       </c>
       <c r="E120" t="n">
-        <v>4.741427651767077</v>
+        <v>4.687716166649403</v>
       </c>
       <c r="F120" t="n">
-        <v>209.7782936831587</v>
+        <v>221.0288518419803</v>
       </c>
     </row>
     <row r="121">
@@ -5821,13 +5710,13 @@
         <v>144.136611938477</v>
       </c>
       <c r="D121" t="n">
-        <v>44.3851928710938</v>
+        <v>47.30143874645238</v>
       </c>
       <c r="E121" t="n">
-        <v>4.479176422645311</v>
+        <v>4.428435752232532</v>
       </c>
       <c r="F121" t="n">
-        <v>198.8091094227681</v>
+        <v>209.4713824768269</v>
       </c>
     </row>
     <row r="122">
@@ -5841,13 +5730,13 @@
         <v>120.83521270752</v>
       </c>
       <c r="D122" t="n">
-        <v>44.6240501403809</v>
+        <v>47.55598968476062</v>
       </c>
       <c r="E122" t="n">
-        <v>3.734964831122042</v>
+        <v>3.692654682644487</v>
       </c>
       <c r="F122" t="n">
-        <v>166.6692578965493</v>
+        <v>175.6078479972242</v>
       </c>
     </row>
     <row r="123">
@@ -5861,13 +5750,13 @@
         <v>102.481857299805</v>
       </c>
       <c r="D123" t="n">
-        <v>44.8087120056152</v>
+        <v>47.75278441160913</v>
       </c>
       <c r="E123" t="n">
-        <v>3.154616191469393</v>
+        <v>3.118880304925404</v>
       </c>
       <c r="F123" t="n">
-        <v>141.3542884118027</v>
+        <v>148.9352188067166</v>
       </c>
     </row>
     <row r="124">
@@ -5881,13 +5770,13 @@
         <v>87.25816345214839</v>
       </c>
       <c r="D124" t="n">
-        <v>44.9742088317871</v>
+        <v>47.92915489643811</v>
       </c>
       <c r="E124" t="n">
-        <v>2.676113556171283</v>
+        <v>2.64579820729278</v>
       </c>
       <c r="F124" t="n">
-        <v>120.3560899328237</v>
+        <v>126.8108721020539</v>
       </c>
     </row>
     <row r="125">
@@ -5901,13 +5790,13 @@
         <v>62.7133750915527</v>
       </c>
       <c r="D125" t="n">
-        <v>45.212100982666</v>
+        <v>48.18267730504273</v>
       </c>
       <c r="E125" t="n">
-        <v>1.913231323505269</v>
+        <v>1.891557999918686</v>
       </c>
       <c r="F125" t="n">
-        <v>86.50120780151994</v>
+        <v>91.14032871385407</v>
       </c>
     </row>
     <row r="126">
@@ -5921,13 +5810,13 @@
         <v>40.5491104125977</v>
       </c>
       <c r="D126" t="n">
-        <v>45.4540557861328</v>
+        <v>48.44052929520605</v>
       </c>
       <c r="E126" t="n">
-        <v>1.230468996639909</v>
+        <v>1.216530090037347</v>
       </c>
       <c r="F126" t="n">
-        <v>55.92980641637728</v>
+        <v>58.92936146495379</v>
       </c>
     </row>
     <row r="127">
@@ -5941,13 +5830,13 @@
         <v>31.1986122131348</v>
       </c>
       <c r="D127" t="n">
-        <v>45.5657386779785</v>
+        <v>48.55955010205506</v>
       </c>
       <c r="E127" t="n">
-        <v>0.9444062463168442</v>
+        <v>0.9337078943077862</v>
       </c>
       <c r="F127" t="n">
-        <v>43.03256822552392</v>
+        <v>45.34043527432327</v>
       </c>
     </row>
     <row r="128">
@@ -5961,13 +5850,13 @@
         <v>15.9161682128906</v>
       </c>
       <c r="D128" t="n">
-        <v>45.7109146118164</v>
+        <v>48.7142645484209</v>
       </c>
       <c r="E128" t="n">
-        <v>0.4802646308109683</v>
+        <v>0.4748241330400628</v>
       </c>
       <c r="F128" t="n">
-        <v>21.9533355300757</v>
+        <v>23.13070843088822</v>
       </c>
     </row>
     <row r="129">
@@ -5981,13 +5870,13 @@
         <v>0.825087428092957</v>
       </c>
       <c r="D129" t="n">
-        <v>45.6917495727539</v>
+        <v>48.69384030640124</v>
       </c>
       <c r="E129" t="n">
-        <v>0.02490715733889876</v>
+        <v>0.02462500594716905</v>
       </c>
       <c r="F129" t="n">
-        <v>1.138051595698141</v>
+        <v>1.19908610713563</v>
       </c>
     </row>
   </sheetData>
@@ -6052,13 +5941,13 @@
         <v>3.99277400970459</v>
       </c>
       <c r="D2" t="n">
-        <v>0.460430681705475</v>
+        <v>0.4906824163394051</v>
       </c>
       <c r="E2" t="n">
-        <v>11.96113717967066</v>
+        <v>11.82563992255721</v>
       </c>
       <c r="F2" t="n">
-        <v>5.507274545608467</v>
+        <v>5.802633571960105</v>
       </c>
     </row>
     <row r="3">
@@ -6072,13 +5961,13 @@
         <v>118.492248535156</v>
       </c>
       <c r="D3" t="n">
-        <v>13.6650381088257</v>
+        <v>14.56287381581964</v>
       </c>
       <c r="E3" t="n">
-        <v>11.96027295342807</v>
+        <v>11.82478548637752</v>
       </c>
       <c r="F3" t="n">
-        <v>163.4375857005519</v>
+        <v>172.2028589372512</v>
       </c>
     </row>
     <row r="4">
@@ -6092,13 +5981,13 @@
         <v>119.90544128418</v>
       </c>
       <c r="D4" t="n">
-        <v>13.8282127380371</v>
+        <v>14.73676952809094</v>
       </c>
       <c r="E4" t="n">
-        <v>11.96010063434469</v>
+        <v>11.82461511934626</v>
       </c>
       <c r="F4" t="n">
-        <v>165.3868159400509</v>
+        <v>174.2566277721854</v>
       </c>
     </row>
     <row r="5">
@@ -6112,13 +6001,13 @@
         <v>121.07396697998</v>
       </c>
       <c r="D5" t="n">
-        <v>13.9635133743286</v>
+        <v>14.88095983900129</v>
       </c>
       <c r="E5" t="n">
-        <v>11.95963892443426</v>
+        <v>11.82415863974341</v>
       </c>
       <c r="F5" t="n">
-        <v>166.9985780734787</v>
+        <v>175.9548298480017</v>
       </c>
     </row>
     <row r="6">
@@ -6132,13 +6021,13 @@
         <v>121.978057861328</v>
       </c>
       <c r="D6" t="n">
-        <v>14.0680379867554</v>
+        <v>14.99235204510394</v>
       </c>
       <c r="E6" t="n">
-        <v>11.95942188131399</v>
+        <v>11.82394405531473</v>
       </c>
       <c r="F6" t="n">
-        <v>168.2456013259589</v>
+        <v>177.2687318388923</v>
       </c>
     </row>
     <row r="7">
@@ -6152,13 +6041,13 @@
         <v>124.410530090332</v>
       </c>
       <c r="D7" t="n">
-        <v>14.3496742248535</v>
+        <v>15.29249266415833</v>
       </c>
       <c r="E7" t="n">
-        <v>11.95851030020879</v>
+        <v>11.82304280071424</v>
       </c>
       <c r="F7" t="n">
-        <v>171.6007270225511</v>
+        <v>180.8037952979524</v>
       </c>
     </row>
     <row r="8">
@@ -6172,13 +6061,13 @@
         <v>125.088851928711</v>
       </c>
       <c r="D8" t="n">
-        <v>14.4278736114502</v>
+        <v>15.37582999482751</v>
       </c>
       <c r="E8" t="n">
-        <v>11.95854318553004</v>
+        <v>11.82307531350646</v>
       </c>
       <c r="F8" t="n">
-        <v>172.5363496578965</v>
+        <v>181.7895960365173</v>
       </c>
     </row>
     <row r="9">
@@ -6192,13 +6081,13 @@
         <v>126.222183227539</v>
       </c>
       <c r="D9" t="n">
-        <v>14.5585289001465</v>
+        <v>15.51506974428894</v>
       </c>
       <c r="E9" t="n">
-        <v>11.95859580204404</v>
+        <v>11.82312733397401</v>
       </c>
       <c r="F9" t="n">
-        <v>174.0995625892288</v>
+        <v>183.4366451822157</v>
       </c>
     </row>
     <row r="10">
@@ -6212,13 +6101,13 @@
         <v>127.288780212402</v>
       </c>
       <c r="D10" t="n">
-        <v>14.6826038360596</v>
+        <v>15.6472967912257</v>
       </c>
       <c r="E10" t="n">
-        <v>11.95773815286571</v>
+        <v>11.82227940035278</v>
       </c>
       <c r="F10" t="n">
-        <v>175.5707320738624</v>
+        <v>184.9867145261138</v>
       </c>
     </row>
     <row r="11">
@@ -6232,13 +6121,13 @@
         <v>128.199981689453</v>
       </c>
       <c r="D11" t="n">
-        <v>14.787709236145</v>
+        <v>15.75930794455109</v>
       </c>
       <c r="E11" t="n">
-        <v>11.95773815286571</v>
+        <v>11.82227940035278</v>
       </c>
       <c r="F11" t="n">
-        <v>176.8275549265358</v>
+        <v>186.3109416766823</v>
       </c>
     </row>
     <row r="12">
@@ -6252,13 +6141,13 @@
         <v>128.83967590332</v>
       </c>
       <c r="D12" t="n">
-        <v>14.8624248504639</v>
+        <v>15.83893260821703</v>
       </c>
       <c r="E12" t="n">
-        <v>11.95699231377963</v>
+        <v>11.82154201022509</v>
       </c>
       <c r="F12" t="n">
-        <v>177.7098997011242</v>
+        <v>187.2406072251618</v>
       </c>
     </row>
     <row r="13">
@@ -6272,13 +6161,13 @@
         <v>130.670547485352</v>
       </c>
       <c r="D13" t="n">
-        <v>15.0741834640503</v>
+        <v>16.06460442446173</v>
       </c>
       <c r="E13" t="n">
-        <v>11.95655033506196</v>
+        <v>11.82110503829759</v>
       </c>
       <c r="F13" t="n">
-        <v>180.2352333478761</v>
+        <v>189.9013763002623</v>
       </c>
     </row>
     <row r="14">
@@ -6292,13 +6181,13 @@
         <v>131.35173034668</v>
       </c>
       <c r="D14" t="n">
-        <v>15.1531581878662</v>
+        <v>16.14876803442835</v>
       </c>
       <c r="E14" t="n">
-        <v>11.95623989762931</v>
+        <v>11.82079811753898</v>
       </c>
       <c r="F14" t="n">
-        <v>181.1747945008541</v>
+        <v>190.8913267819443</v>
       </c>
     </row>
     <row r="15">
@@ -6312,13 +6201,13 @@
         <v>132.26318359375</v>
       </c>
       <c r="D15" t="n">
-        <v>15.2584571838379</v>
+        <v>16.26098550349475</v>
       </c>
       <c r="E15" t="n">
-        <v>11.95612151047279</v>
+        <v>11.82068107148696</v>
       </c>
       <c r="F15" t="n">
-        <v>182.4319681523124</v>
+        <v>192.2159235448843</v>
       </c>
     </row>
     <row r="16">
@@ -6332,13 +6221,13 @@
         <v>133.15168762207</v>
       </c>
       <c r="D16" t="n">
-        <v>15.3612394332886</v>
+        <v>16.37052086792889</v>
       </c>
       <c r="E16" t="n">
-        <v>11.95590315193966</v>
+        <v>11.82046518654659</v>
       </c>
       <c r="F16" t="n">
-        <v>183.6574909581549</v>
+        <v>193.507172004988</v>
       </c>
     </row>
     <row r="17">
@@ -6352,13 +6241,13 @@
         <v>133.759979248047</v>
       </c>
       <c r="D17" t="n">
-        <v>15.4316968917847</v>
+        <v>16.44560760162774</v>
       </c>
       <c r="E17" t="n">
-        <v>11.95568610881937</v>
+        <v>11.8202506021179</v>
       </c>
       <c r="F17" t="n">
-        <v>184.4965241646213</v>
+        <v>194.391203155335</v>
       </c>
     </row>
     <row r="18">
@@ -6372,13 +6261,13 @@
         <v>134.55403137207</v>
       </c>
       <c r="D18" t="n">
-        <v>15.5236396789551</v>
+        <v>16.54359131723644</v>
       </c>
       <c r="E18" t="n">
-        <v>11.95542828790073</v>
+        <v>11.81999570182685</v>
       </c>
       <c r="F18" t="n">
-        <v>185.591760948958</v>
+        <v>195.5451782625148</v>
       </c>
     </row>
     <row r="19">
@@ -6392,13 +6281,13 @@
         <v>135.81559753418</v>
       </c>
       <c r="D19" t="n">
-        <v>15.6695871353149</v>
+        <v>16.69912797756489</v>
       </c>
       <c r="E19" t="n">
-        <v>11.95512442753233</v>
+        <v>11.81969528362669</v>
       </c>
       <c r="F19" t="n">
-        <v>187.3318639307495</v>
+        <v>197.3786041971022</v>
       </c>
     </row>
     <row r="20">
@@ -6412,13 +6301,13 @@
         <v>136.530944824219</v>
       </c>
       <c r="D20" t="n">
-        <v>15.7516574859619</v>
+        <v>16.78659060671924</v>
       </c>
       <c r="E20" t="n">
-        <v>11.95547432735048</v>
+        <v>11.82004121973597</v>
       </c>
       <c r="F20" t="n">
-        <v>188.3185366866356</v>
+        <v>198.418192910254</v>
       </c>
     </row>
     <row r="21">
@@ -6432,13 +6321,13 @@
         <v>137.280517578125</v>
       </c>
       <c r="D21" t="n">
-        <v>15.837986946106</v>
+        <v>16.87859218217437</v>
       </c>
       <c r="E21" t="n">
-        <v>11.9555874528556</v>
+        <v>11.82015306374122</v>
       </c>
       <c r="F21" t="n">
-        <v>189.3524380113557</v>
+        <v>199.507543093767</v>
       </c>
     </row>
     <row r="22">
@@ -6452,13 +6341,13 @@
         <v>138.007232666016</v>
       </c>
       <c r="D22" t="n">
-        <v>15.9221878051758</v>
+        <v>16.96832530081274</v>
       </c>
       <c r="E22" t="n">
-        <v>11.95531647780846</v>
+        <v>11.81988515833328</v>
       </c>
       <c r="F22" t="n">
-        <v>190.3547942299791</v>
+        <v>200.5636563848476</v>
       </c>
     </row>
     <row r="23">
@@ -6472,13 +6361,13 @@
         <v>138.572555541992</v>
       </c>
       <c r="D23" t="n">
-        <v>15.987419128418</v>
+        <v>17.03784252583984</v>
       </c>
       <c r="E23" t="n">
-        <v>11.95530990074421</v>
+        <v>11.81987865577484</v>
       </c>
       <c r="F23" t="n">
-        <v>191.1345501933231</v>
+        <v>201.3852312116272</v>
       </c>
     </row>
     <row r="24">
@@ -6492,13 +6381,13 @@
         <v>139.754364013672</v>
       </c>
       <c r="D24" t="n">
-        <v>16.1238822937012</v>
+        <v>17.18327174752954</v>
       </c>
       <c r="E24" t="n">
-        <v>11.95522439890894</v>
+        <v>11.81979412251505</v>
       </c>
       <c r="F24" t="n">
-        <v>192.7646310027924</v>
+        <v>203.1027344070285</v>
       </c>
     </row>
     <row r="25">
@@ -6512,13 +6401,13 @@
         <v>140.562042236328</v>
       </c>
       <c r="D25" t="n">
-        <v>16.2173728942871</v>
+        <v>17.28290497273206</v>
       </c>
       <c r="E25" t="n">
-        <v>11.95499946331156</v>
+        <v>11.81957173501623</v>
       </c>
       <c r="F25" t="n">
-        <v>193.8786842475257</v>
+        <v>204.2765351146753</v>
       </c>
     </row>
     <row r="26">
@@ -6532,13 +6421,13 @@
         <v>141.396560668945</v>
       </c>
       <c r="D26" t="n">
-        <v>16.3135738372803</v>
+        <v>17.38542661830785</v>
       </c>
       <c r="E26" t="n">
-        <v>11.95505865688982</v>
+        <v>11.81963025804224</v>
       </c>
       <c r="F26" t="n">
-        <v>195.0297321281892</v>
+        <v>205.4893145067245</v>
       </c>
     </row>
     <row r="27">
@@ -6552,13 +6441,13 @@
         <v>142.192932128906</v>
       </c>
       <c r="D27" t="n">
-        <v>16.4060974121094</v>
+        <v>17.4840292811394</v>
       </c>
       <c r="E27" t="n">
-        <v>11.95459036991515</v>
+        <v>11.81916727588095</v>
       </c>
       <c r="F27" t="n">
-        <v>196.1281741306928</v>
+        <v>206.6466667301871</v>
       </c>
     </row>
     <row r="28">
@@ -6572,13 +6461,13 @@
         <v>142.859329223633</v>
       </c>
       <c r="D28" t="n">
-        <v>16.4835224151611</v>
+        <v>17.56654134884473</v>
       </c>
       <c r="E28" t="n">
-        <v>11.95420100771148</v>
+        <v>11.818782324421</v>
       </c>
       <c r="F28" t="n">
-        <v>197.0473402659536</v>
+        <v>207.6151283949367</v>
       </c>
     </row>
     <row r="29">
@@ -6592,13 +6481,13 @@
         <v>143.496490478516</v>
       </c>
       <c r="D29" t="n">
-        <v>16.5570774078369</v>
+        <v>17.64492913439868</v>
       </c>
       <c r="E29" t="n">
-        <v>11.95417469945447</v>
+        <v>11.81875631418721</v>
       </c>
       <c r="F29" t="n">
-        <v>197.926195845673</v>
+        <v>208.5411176205603</v>
       </c>
     </row>
     <row r="30">
@@ -6612,13 +6501,13 @@
         <v>144.777908325195</v>
       </c>
       <c r="D30" t="n">
-        <v>16.7053470611572</v>
+        <v>17.8029405672848</v>
       </c>
       <c r="E30" t="n">
-        <v>11.95387741615032</v>
+        <v>11.81846239854549</v>
       </c>
       <c r="F30" t="n">
-        <v>199.6936709633202</v>
+        <v>210.4033836779955</v>
       </c>
     </row>
     <row r="31">
@@ -6632,13 +6521,13 @@
         <v>145.297210693359</v>
       </c>
       <c r="D31" t="n">
-        <v>16.7661266326904</v>
+        <v>17.86771354660389</v>
       </c>
       <c r="E31" t="n">
-        <v>11.95326443376213</v>
+        <v>11.81785636009841</v>
       </c>
       <c r="F31" t="n">
-        <v>200.4099451704901</v>
+        <v>211.1580721771493</v>
       </c>
     </row>
     <row r="32">
@@ -6652,13 +6541,13 @@
         <v>146.091171264648</v>
       </c>
       <c r="D32" t="n">
-        <v>16.8578758239746</v>
+        <v>17.96549094647168</v>
       </c>
       <c r="E32" t="n">
-        <v>11.95317103944975</v>
+        <v>11.81776402376849</v>
       </c>
       <c r="F32" t="n">
-        <v>201.5050730857733</v>
+        <v>212.3119325765515</v>
       </c>
     </row>
     <row r="33">
@@ -6672,13 +6561,13 @@
         <v>146.992156982422</v>
       </c>
       <c r="D33" t="n">
-        <v>16.9627876281738</v>
+        <v>18.07729578405615</v>
       </c>
       <c r="E33" t="n">
-        <v>11.95250544054755</v>
+        <v>11.81710596485384</v>
       </c>
       <c r="F33" t="n">
-        <v>202.7478114126</v>
+        <v>213.6213198381973</v>
       </c>
     </row>
     <row r="34">
@@ -6692,13 +6581,13 @@
         <v>147.525085449219</v>
       </c>
       <c r="D34" t="n">
-        <v>17.0237598419189</v>
+        <v>18.14227406278248</v>
       </c>
       <c r="E34" t="n">
-        <v>11.95287507155846</v>
+        <v>11.81747140863846</v>
       </c>
       <c r="F34" t="n">
-        <v>203.4828746386703</v>
+        <v>214.395805024615</v>
       </c>
     </row>
     <row r="35">
@@ -6712,13 +6601,13 @@
         <v>148.960510253906</v>
       </c>
       <c r="D35" t="n">
-        <v>17.1894512176514</v>
+        <v>18.31885187968615</v>
       </c>
       <c r="E35" t="n">
-        <v>11.95284087082436</v>
+        <v>11.81743759533455</v>
       </c>
       <c r="F35" t="n">
-        <v>205.4627750613852</v>
+        <v>216.4818889063681</v>
       </c>
     </row>
     <row r="36">
@@ -6732,13 +6621,13 @@
         <v>150.366119384766</v>
       </c>
       <c r="D36" t="n">
-        <v>17.3520450592041</v>
+        <v>18.49212864473462</v>
       </c>
       <c r="E36" t="n">
-        <v>11.95257121119005</v>
+        <v>11.81717099043829</v>
       </c>
       <c r="F36" t="n">
-        <v>207.4015542299156</v>
+        <v>218.5246461720109</v>
       </c>
     </row>
     <row r="37">
@@ -6752,13 +6641,13 @@
         <v>153.58740234375</v>
       </c>
       <c r="D37" t="n">
-        <v>17.7271728515625</v>
+        <v>18.89190350532532</v>
       </c>
       <c r="E37" t="n">
-        <v>11.95028107741783</v>
+        <v>11.81490679958771</v>
       </c>
       <c r="F37" t="n">
-        <v>211.8446982841425</v>
+        <v>223.206079182223</v>
       </c>
     </row>
     <row r="38">
@@ -6772,13 +6661,13 @@
         <v>158.410385131836</v>
       </c>
       <c r="D38" t="n">
-        <v>18.2854099273682</v>
+        <v>19.48681850150231</v>
       </c>
       <c r="E38" t="n">
-        <v>11.94925768622037</v>
+        <v>11.81389500149366</v>
       </c>
       <c r="F38" t="n">
-        <v>218.4970751202948</v>
+        <v>230.2152276899123</v>
       </c>
     </row>
     <row r="39">
@@ -6792,13 +6681,13 @@
         <v>163.803863525391</v>
       </c>
       <c r="D39" t="n">
-        <v>18.9125576019287</v>
+        <v>20.15517173811792</v>
       </c>
       <c r="E39" t="n">
-        <v>11.94636772418844</v>
+        <v>11.81103777731287</v>
       </c>
       <c r="F39" t="n">
-        <v>225.9363677175358</v>
+        <v>238.0534948071395</v>
       </c>
     </row>
     <row r="40">
@@ -6812,13 +6701,13 @@
         <v>168.366546630859</v>
       </c>
       <c r="D40" t="n">
-        <v>19.4460201263428</v>
+        <v>20.72368441745641</v>
       </c>
       <c r="E40" t="n">
-        <v>11.94227547481142</v>
+        <v>11.80699188544832</v>
       </c>
       <c r="F40" t="n">
-        <v>232.2297292375129</v>
+        <v>244.6843737534997</v>
       </c>
     </row>
     <row r="41">
@@ -6832,13 +6721,13 @@
         <v>170.683334350586</v>
       </c>
       <c r="D41" t="n">
-        <v>19.7206878662109</v>
+        <v>21.01639868617054</v>
       </c>
       <c r="E41" t="n">
-        <v>11.93798591350687</v>
+        <v>11.80275091683042</v>
       </c>
       <c r="F41" t="n">
-        <v>235.4252939514915</v>
+        <v>248.051318861673</v>
       </c>
     </row>
     <row r="42">
@@ -6852,13 +6741,13 @@
         <v>174.713073730469</v>
       </c>
       <c r="D42" t="n">
-        <v>20.1945323944092</v>
+        <v>21.52137628063562</v>
       </c>
       <c r="E42" t="n">
-        <v>11.93310836265828</v>
+        <v>11.79792861948754</v>
       </c>
       <c r="F42" t="n">
-        <v>240.9835433956979</v>
+        <v>253.9076611520712</v>
       </c>
     </row>
     <row r="43">
@@ -6872,13 +6761,13 @@
         <v>178.452819824219</v>
       </c>
       <c r="D43" t="n">
-        <v>20.6354713439941</v>
+        <v>21.99128629714246</v>
       </c>
       <c r="E43" t="n">
-        <v>11.9280926934604</v>
+        <v>11.7929697684173</v>
       </c>
       <c r="F43" t="n">
-        <v>246.1418149644075</v>
+        <v>259.3425744708106</v>
       </c>
     </row>
     <row r="44">
@@ -6892,13 +6781,13 @@
         <v>183.397338867188</v>
       </c>
       <c r="D44" t="n">
-        <v>21.2134532928467</v>
+        <v>22.60724346622827</v>
       </c>
       <c r="E44" t="n">
-        <v>11.92459501069167</v>
+        <v>11.78951170783618</v>
       </c>
       <c r="F44" t="n">
-        <v>252.9618392954205</v>
+        <v>266.5283615270011</v>
       </c>
     </row>
     <row r="45">
@@ -6912,13 +6801,13 @@
         <v>188.126846313477</v>
       </c>
       <c r="D45" t="n">
-        <v>21.762788772583</v>
+        <v>23.19267200365662</v>
       </c>
       <c r="E45" t="n">
-        <v>11.92334799930967</v>
+        <v>11.78827882275499</v>
       </c>
       <c r="F45" t="n">
-        <v>259.4853039709765</v>
+        <v>273.4016842238078</v>
       </c>
     </row>
     <row r="46">
@@ -6932,13 +6821,13 @@
         <v>191.870559692383</v>
       </c>
       <c r="D46" t="n">
-        <v>22.1979198455811</v>
+        <v>23.6563925479353</v>
       </c>
       <c r="E46" t="n">
-        <v>11.92224568334119</v>
+        <v>11.78718899395959</v>
       </c>
       <c r="F46" t="n">
-        <v>264.6490540581329</v>
+        <v>278.8423698778105</v>
       </c>
     </row>
     <row r="47">
@@ -6952,13 +6841,13 @@
         <v>195.893020629883</v>
       </c>
       <c r="D47" t="n">
-        <v>22.6669254302979</v>
+        <v>24.15621326521044</v>
       </c>
       <c r="E47" t="n">
-        <v>11.92033175764413</v>
+        <v>11.78529674945206</v>
       </c>
       <c r="F47" t="n">
-        <v>270.1972710549313</v>
+        <v>284.6881416735554</v>
       </c>
     </row>
     <row r="48">
@@ -6972,13 +6861,13 @@
         <v>200.355407714844</v>
       </c>
       <c r="D48" t="n">
-        <v>23.1847095489502</v>
+        <v>24.70801741853357</v>
       </c>
       <c r="E48" t="n">
-        <v>11.9195924956223</v>
+        <v>11.78456586188283</v>
       </c>
       <c r="F48" t="n">
-        <v>276.3522899528496</v>
+        <v>291.173258585257</v>
       </c>
     </row>
     <row r="49">
@@ -6992,13 +6881,13 @@
         <v>204.788269042969</v>
       </c>
       <c r="D49" t="n">
-        <v>23.7005577087402</v>
+        <v>25.25775841444727</v>
       </c>
       <c r="E49" t="n">
-        <v>11.91814027983567</v>
+        <v>11.78313009697816</v>
       </c>
       <c r="F49" t="n">
-        <v>282.4665714831063</v>
+        <v>297.6154533554769</v>
       </c>
     </row>
     <row r="50">
@@ -7012,13 +6901,13 @@
         <v>209.938751220703</v>
       </c>
       <c r="D50" t="n">
-        <v>24.2984771728516</v>
+        <v>25.89496305584912</v>
       </c>
       <c r="E50" t="n">
-        <v>11.91723659120757</v>
+        <v>11.7822366454478</v>
       </c>
       <c r="F50" t="n">
-        <v>289.570701274929</v>
+        <v>305.1005826491424</v>
       </c>
     </row>
     <row r="51">
@@ -7032,13 +6921,13 @@
         <v>214.11506652832</v>
       </c>
       <c r="D51" t="n">
-        <v>24.7856769561768</v>
+        <v>26.4141733874381</v>
       </c>
       <c r="E51" t="n">
-        <v>11.91539501321727</v>
+        <v>11.78041592908317</v>
       </c>
       <c r="F51" t="n">
-        <v>295.3311316028432</v>
+        <v>311.1699489269405</v>
       </c>
     </row>
     <row r="52">
@@ -7052,13 +6941,13 @@
         <v>217.697677612305</v>
       </c>
       <c r="D52" t="n">
-        <v>25.2039680480957</v>
+        <v>26.85994751125574</v>
       </c>
       <c r="E52" t="n">
-        <v>11.91370602311759</v>
+        <v>11.77874607207446</v>
       </c>
       <c r="F52" t="n">
-        <v>300.2726659410609</v>
+        <v>316.3765012443296</v>
       </c>
     </row>
     <row r="53">
@@ -7072,13 +6961,13 @@
         <v>221.323364257813</v>
       </c>
       <c r="D53" t="n">
-        <v>25.6255512237549</v>
+        <v>27.30923001900317</v>
       </c>
       <c r="E53" t="n">
-        <v>11.9128602126549</v>
+        <v>11.77790984305842</v>
       </c>
       <c r="F53" t="n">
-        <v>305.2736096008197</v>
+        <v>321.6456490471638</v>
       </c>
     </row>
     <row r="54">
@@ -7092,13 +6981,13 @@
         <v>226.153244018555</v>
       </c>
       <c r="D54" t="n">
-        <v>26.189208984375</v>
+        <v>27.90992185592651</v>
       </c>
       <c r="E54" t="n">
-        <v>11.91084105392982</v>
+        <v>11.77591355761577</v>
       </c>
       <c r="F54" t="n">
-        <v>311.9355055410414</v>
+        <v>328.6648271752018</v>
       </c>
     </row>
     <row r="55">
@@ -7112,13 +7001,13 @@
         <v>229.415390014648</v>
       </c>
       <c r="D55" t="n">
-        <v>26.5713043212891</v>
+        <v>28.3171220505238</v>
       </c>
       <c r="E55" t="n">
-        <v>11.90890081997575</v>
+        <v>11.77399530287446</v>
       </c>
       <c r="F55" t="n">
-        <v>316.435027819625</v>
+        <v>333.4056620137902</v>
       </c>
     </row>
     <row r="56">
@@ -7132,13 +7021,13 @@
         <v>235.237976074219</v>
       </c>
       <c r="D56" t="n">
-        <v>27.2474231719971</v>
+        <v>29.03766402259472</v>
       </c>
       <c r="E56" t="n">
-        <v>11.90814182676119</v>
+        <v>11.77324490762991</v>
       </c>
       <c r="F56" t="n">
-        <v>324.4661795459207</v>
+        <v>341.8675300834815</v>
       </c>
     </row>
     <row r="57">
@@ -7152,13 +7041,13 @@
         <v>238.278594970703</v>
       </c>
       <c r="D57" t="n">
-        <v>27.6020336151123</v>
+        <v>29.41557347998022</v>
       </c>
       <c r="E57" t="n">
-        <v>11.90709870437097</v>
+        <v>11.77221360186051</v>
       </c>
       <c r="F57" t="n">
-        <v>328.6601386965075</v>
+        <v>346.2864142275506</v>
       </c>
     </row>
     <row r="58">
@@ -7172,13 +7061,13 @@
         <v>242.910736083984</v>
       </c>
       <c r="D58" t="n">
-        <v>28.1420764923096</v>
+        <v>29.99109886184338</v>
       </c>
       <c r="E58" t="n">
-        <v>11.90563464986868</v>
+        <v>11.77076613235063</v>
       </c>
       <c r="F58" t="n">
-        <v>335.0492810060959</v>
+        <v>353.0182107549657</v>
       </c>
     </row>
     <row r="59">
@@ -7192,13 +7081,13 @@
         <v>246.772842407227</v>
       </c>
       <c r="D59" t="n">
-        <v>28.5913391113281</v>
+        <v>30.46987943887708</v>
       </c>
       <c r="E59" t="n">
-        <v>11.9048756566541</v>
+        <v>11.77001573710606</v>
       </c>
       <c r="F59" t="n">
-        <v>340.3763369775921</v>
+        <v>358.6309605033077</v>
       </c>
     </row>
     <row r="60">
@@ -7212,13 +7101,13 @@
         <v>250.728302001953</v>
       </c>
       <c r="D60" t="n">
-        <v>29.0524082183838</v>
+        <v>30.9612422271073</v>
       </c>
       <c r="E60" t="n">
-        <v>11.90373387830011</v>
+        <v>11.76888689295999</v>
       </c>
       <c r="F60" t="n">
-        <v>345.8321359553798</v>
+        <v>364.3793578363625</v>
       </c>
     </row>
     <row r="61">
@@ -7232,13 +7121,13 @@
         <v>255.431671142578</v>
       </c>
       <c r="D61" t="n">
-        <v>29.6003875732422</v>
+        <v>31.54522553801538</v>
       </c>
       <c r="E61" t="n">
-        <v>11.90253159095501</v>
+        <v>11.76769822527622</v>
       </c>
       <c r="F61" t="n">
-        <v>352.3195481950273</v>
+        <v>371.2146945796417</v>
       </c>
     </row>
     <row r="62">
@@ -7252,13 +7141,13 @@
         <v>259.047485351563</v>
       </c>
       <c r="D62" t="n">
-        <v>30.0227451324463</v>
+        <v>31.99533330872656</v>
       </c>
       <c r="E62" t="n">
-        <v>11.901205654802</v>
+        <v>11.7663873094937</v>
       </c>
       <c r="F62" t="n">
-        <v>357.3068641429492</v>
+        <v>376.4694838068212</v>
       </c>
     </row>
     <row r="63">
@@ -7272,13 +7161,13 @@
         <v>263.796813964844</v>
       </c>
       <c r="D63" t="n">
-        <v>30.5761432647705</v>
+        <v>32.58509142771362</v>
       </c>
       <c r="E63" t="n">
-        <v>11.90005072231951</v>
+        <v>11.76524546023073</v>
       </c>
       <c r="F63" t="n">
-        <v>363.8576557436769</v>
+        <v>383.3715989911109</v>
       </c>
     </row>
     <row r="64">
@@ -7292,13 +7181,13 @@
         <v>267.775848388672</v>
       </c>
       <c r="D64" t="n">
-        <v>31.0465049743652</v>
+        <v>33.08635737150904</v>
       </c>
       <c r="E64" t="n">
-        <v>11.89653988542228</v>
+        <v>11.76177439453273</v>
       </c>
       <c r="F64" t="n">
-        <v>369.3459847304967</v>
+        <v>389.1542709405742</v>
       </c>
     </row>
     <row r="65">
@@ -7312,13 +7201,13 @@
         <v>272.595703125</v>
       </c>
       <c r="D65" t="n">
-        <v>31.612678527832</v>
+        <v>33.68973029673096</v>
       </c>
       <c r="E65" t="n">
-        <v>11.89377488761113</v>
+        <v>11.75904071896241</v>
       </c>
       <c r="F65" t="n">
-        <v>375.9940820044519</v>
+        <v>396.158910370121</v>
       </c>
     </row>
     <row r="66">
@@ -7332,13 +7221,13 @@
         <v>275.891845703125</v>
       </c>
       <c r="D66" t="n">
-        <v>32.0065803527832</v>
+        <v>34.10951270252466</v>
       </c>
       <c r="E66" t="n">
-        <v>11.88944454850822</v>
+        <v>11.75475943448215</v>
       </c>
       <c r="F66" t="n">
-        <v>380.5404622917886</v>
+        <v>400.9491162455906</v>
       </c>
     </row>
     <row r="67">
@@ -7352,13 +7241,13 @@
         <v>281.087707519531</v>
       </c>
       <c r="D67" t="n">
-        <v>32.6194076538086</v>
+        <v>34.76260467231274</v>
       </c>
       <c r="E67" t="n">
-        <v>11.88578243913321</v>
+        <v>11.75113880993991</v>
       </c>
       <c r="F67" t="n">
-        <v>387.7071826665658</v>
+        <v>408.5001928994126</v>
       </c>
     </row>
     <row r="68">
@@ -7372,13 +7261,13 @@
         <v>284.360992431641</v>
       </c>
       <c r="D68" t="n">
-        <v>33.0107917785645</v>
+        <v>35.1797039571405</v>
       </c>
       <c r="E68" t="n">
-        <v>11.88163099617793</v>
+        <v>11.74703439504935</v>
       </c>
       <c r="F68" t="n">
-        <v>392.2220468045676</v>
+        <v>413.2571923921833</v>
       </c>
     </row>
     <row r="69">
@@ -7392,13 +7281,13 @@
         <v>288.424713134766</v>
       </c>
       <c r="D69" t="n">
-        <v>33.4981880187988</v>
+        <v>35.69912365347144</v>
       </c>
       <c r="E69" t="n">
-        <v>11.87608126936288</v>
+        <v>11.74154753623338</v>
       </c>
       <c r="F69" t="n">
-        <v>397.8272032876526</v>
+        <v>419.1629573791084</v>
       </c>
     </row>
     <row r="70">
@@ -7412,13 +7301,13 @@
         <v>293.249908447266</v>
       </c>
       <c r="D70" t="n">
-        <v>34.0753936767578</v>
+        <v>36.31425352692602</v>
       </c>
       <c r="E70" t="n">
-        <v>11.87022636676657</v>
+        <v>11.73575895870554</v>
       </c>
       <c r="F70" t="n">
-        <v>404.4826364798012</v>
+        <v>426.1753261573263</v>
       </c>
     </row>
     <row r="71">
@@ -7432,13 +7321,13 @@
         <v>297.057678222656</v>
       </c>
       <c r="D71" t="n">
-        <v>34.5383987426758</v>
+        <v>36.80767947256567</v>
       </c>
       <c r="E71" t="n">
-        <v>11.86316523058661</v>
+        <v>11.72877781195887</v>
       </c>
       <c r="F71" t="n">
-        <v>409.7347310842478</v>
+        <v>431.7090943075222</v>
       </c>
     </row>
     <row r="72">
@@ -7452,13 +7341,13 @@
         <v>297.998870849609</v>
       </c>
       <c r="D72" t="n">
-        <v>34.6506652832031</v>
+        <v>36.92732227563855</v>
       </c>
       <c r="E72" t="n">
-        <v>11.86219445590316</v>
+        <v>11.72781803433238</v>
       </c>
       <c r="F72" t="n">
-        <v>411.0329296157678</v>
+        <v>433.0769161438377</v>
       </c>
     </row>
     <row r="73">
@@ -7472,13 +7361,13 @@
         <v>299.626678466797</v>
       </c>
       <c r="D73" t="n">
-        <v>34.8486824035645</v>
+        <v>37.1383497396112</v>
       </c>
       <c r="E73" t="n">
-        <v>11.85921899203596</v>
+        <v>11.7248762768918</v>
       </c>
       <c r="F73" t="n">
-        <v>413.2781562077815</v>
+        <v>435.4425558248782</v>
       </c>
     </row>
     <row r="74">
@@ -7492,13 +7381,13 @@
         <v>300.829742431641</v>
       </c>
       <c r="D74" t="n">
-        <v>34.9979209899902</v>
+        <v>37.29739376753565</v>
       </c>
       <c r="E74" t="n">
-        <v>11.8560633166083</v>
+        <v>11.72175634934985</v>
       </c>
       <c r="F74" t="n">
-        <v>414.9375672069785</v>
+        <v>437.1909622088124</v>
       </c>
     </row>
     <row r="75">
@@ -7512,13 +7401,13 @@
         <v>303.7802734375</v>
       </c>
       <c r="D75" t="n">
-        <v>35.3873710632324</v>
+        <v>37.71243192762134</v>
       </c>
       <c r="E75" t="n">
-        <v>11.84058748442552</v>
+        <v>11.70645582932851</v>
       </c>
       <c r="F75" t="n">
-        <v>419.0072629180313</v>
+        <v>441.4789185772574</v>
       </c>
     </row>
     <row r="76">
@@ -7532,13 +7421,13 @@
         <v>304.324737548828</v>
       </c>
       <c r="D76" t="n">
-        <v>35.467700958252</v>
+        <v>37.79803974777465</v>
       </c>
       <c r="E76" t="n">
-        <v>11.83494436329808</v>
+        <v>11.7008766341826</v>
       </c>
       <c r="F76" t="n">
-        <v>419.7582675350066</v>
+        <v>442.2702001026415</v>
       </c>
     </row>
     <row r="77">
@@ -7552,13 +7441,13 @@
         <v>306.160217285156</v>
       </c>
       <c r="D77" t="n">
-        <v>35.7189445495605</v>
+        <v>38.06579082816834</v>
       </c>
       <c r="E77" t="n">
-        <v>11.82257685168036</v>
+        <v>11.68864922328242</v>
       </c>
       <c r="F77" t="n">
-        <v>422.2899669980883</v>
+        <v>444.9376763973008</v>
       </c>
     </row>
     <row r="78">
@@ -7572,13 +7461,13 @@
         <v>307.221801757813</v>
       </c>
       <c r="D78" t="n">
-        <v>35.915412902832</v>
+        <v>38.27516776621339</v>
       </c>
       <c r="E78" t="n">
-        <v>11.79867316936625</v>
+        <v>11.66501632486952</v>
       </c>
       <c r="F78" t="n">
-        <v>423.7542185833543</v>
+        <v>446.4804568299988</v>
       </c>
     </row>
     <row r="79">
@@ -7592,13 +7481,13 @@
         <v>309.079467773438</v>
       </c>
       <c r="D79" t="n">
-        <v>36.2241477966309</v>
+        <v>38.60418750733142</v>
       </c>
       <c r="E79" t="n">
-        <v>11.76884881381331</v>
+        <v>11.63552982334433</v>
       </c>
       <c r="F79" t="n">
-        <v>426.3165188277777</v>
+        <v>449.1801750475315</v>
       </c>
     </row>
     <row r="80">
@@ -7612,13 +7501,13 @@
         <v>309.344787597656</v>
       </c>
       <c r="D80" t="n">
-        <v>36.2887992858887</v>
+        <v>38.67308680146935</v>
       </c>
       <c r="E80" t="n">
-        <v>11.75796640330348</v>
+        <v>11.62477069014105</v>
       </c>
       <c r="F80" t="n">
-        <v>426.6824828197025</v>
+        <v>449.5657659470018</v>
       </c>
     </row>
     <row r="81">
@@ -7632,13 +7521,13 @@
         <v>310.398712158203</v>
       </c>
       <c r="D81" t="n">
-        <v>36.525333404541</v>
+        <v>38.92516195088623</v>
       </c>
       <c r="E81" t="n">
-        <v>11.72162154625201</v>
+        <v>11.58883755217338</v>
       </c>
       <c r="F81" t="n">
-        <v>428.1361350187062</v>
+        <v>451.0973785408607</v>
       </c>
     </row>
     <row r="82">
@@ -7652,13 +7541,13 @@
         <v>311.947082519531</v>
       </c>
       <c r="D82" t="n">
-        <v>36.7893562316895</v>
+        <v>39.20653190284973</v>
       </c>
       <c r="E82" t="n">
-        <v>11.69555269438646</v>
+        <v>11.56306401152036</v>
       </c>
       <c r="F82" t="n">
-        <v>430.2718544002793</v>
+        <v>453.3476380623665</v>
       </c>
     </row>
     <row r="83">
@@ -7672,13 +7561,13 @@
         <v>312.213592529297</v>
       </c>
       <c r="D83" t="n">
-        <v>36.9600791931152</v>
+        <v>39.38847189635035</v>
       </c>
       <c r="E83" t="n">
-        <v>11.65147452518858</v>
+        <v>11.51948516533293</v>
       </c>
       <c r="F83" t="n">
-        <v>430.6394211675342</v>
+        <v>453.7349176951408</v>
       </c>
     </row>
     <row r="84">
@@ -7692,13 +7581,13 @@
         <v>312.615234375</v>
       </c>
       <c r="D84" t="n">
-        <v>37.1642875671387</v>
+        <v>39.60609739869836</v>
       </c>
       <c r="E84" t="n">
-        <v>11.60235964018723</v>
+        <v>11.47092665988823</v>
       </c>
       <c r="F84" t="n">
-        <v>431.1934301252821</v>
+        <v>454.318638544859</v>
       </c>
     </row>
     <row r="85">
@@ -7712,13 +7601,13 @@
         <v>313.427612304688</v>
       </c>
       <c r="D85" t="n">
-        <v>37.3737258911133</v>
+        <v>39.82929647505286</v>
       </c>
       <c r="E85" t="n">
-        <v>11.5673223035089</v>
+        <v>11.43628623053946</v>
       </c>
       <c r="F85" t="n">
-        <v>432.3139330655029</v>
+        <v>455.4992348497209</v>
       </c>
     </row>
     <row r="86">
@@ -7732,13 +7621,13 @@
         <v>313.533721923828</v>
       </c>
       <c r="D86" t="n">
-        <v>37.5096054077148</v>
+        <v>39.97410370051856</v>
       </c>
       <c r="E86" t="n">
-        <v>11.52932134167902</v>
+        <v>11.39871574835531</v>
       </c>
       <c r="F86" t="n">
-        <v>432.4602941451251</v>
+        <v>455.6534453774894</v>
       </c>
     </row>
     <row r="87">
@@ -7752,13 +7641,13 @@
         <v>314.750061035156</v>
       </c>
       <c r="D87" t="n">
-        <v>37.789306640625</v>
+        <v>40.27218217849731</v>
       </c>
       <c r="E87" t="n">
-        <v>11.48838306295461</v>
+        <v>11.35824122356957</v>
       </c>
       <c r="F87" t="n">
-        <v>434.1380303709543</v>
+        <v>457.4211597829121</v>
       </c>
     </row>
     <row r="88">
@@ -7772,13 +7661,13 @@
         <v>314.144165039063</v>
       </c>
       <c r="D88" t="n">
-        <v>37.9333190917969</v>
+        <v>40.42565669775012</v>
       </c>
       <c r="E88" t="n">
-        <v>11.42273606925175</v>
+        <v>11.29333788721726</v>
       </c>
       <c r="F88" t="n">
-        <v>433.3022922163046</v>
+        <v>456.5406004003396</v>
       </c>
     </row>
     <row r="89">
@@ -7792,13 +7681,13 @@
         <v>315.244567871094</v>
       </c>
       <c r="D89" t="n">
-        <v>38.3047676086426</v>
+        <v>40.8215105429292</v>
       </c>
       <c r="E89" t="n">
-        <v>11.35159196524785</v>
+        <v>11.22299971251653</v>
       </c>
       <c r="F89" t="n">
-        <v>434.8200922169534</v>
+        <v>458.1398010877847</v>
       </c>
     </row>
     <row r="90">
@@ -7812,13 +7701,13 @@
         <v>314.001312255859</v>
       </c>
       <c r="D90" t="n">
-        <v>38.4180030822754</v>
+        <v>40.94218594104052</v>
       </c>
       <c r="E90" t="n">
-        <v>11.27349721974339</v>
+        <v>11.14578963405099</v>
       </c>
       <c r="F90" t="n">
-        <v>433.1052509361248</v>
+        <v>456.3329916570376</v>
       </c>
     </row>
     <row r="91">
@@ -7832,13 +7721,13 @@
         <v>313.778747558594</v>
       </c>
       <c r="D91" t="n">
-        <v>38.5829200744629</v>
+        <v>41.11793849498034</v>
       </c>
       <c r="E91" t="n">
-        <v>11.21735408388335</v>
+        <v>11.09028249465186</v>
       </c>
       <c r="F91" t="n">
-        <v>432.7982760654214</v>
+        <v>456.0095535070524</v>
       </c>
     </row>
     <row r="92">
@@ -7852,13 +7741,13 @@
         <v>313.295135498047</v>
       </c>
       <c r="D92" t="n">
-        <v>38.7263488769531</v>
+        <v>41.27079101800916</v>
       </c>
       <c r="E92" t="n">
-        <v>11.15858406856142</v>
+        <v>11.03217823340975</v>
       </c>
       <c r="F92" t="n">
-        <v>432.1312196119203</v>
+        <v>455.3067223444831</v>
       </c>
     </row>
     <row r="93">
@@ -7872,13 +7761,13 @@
         <v>311.687286376953</v>
       </c>
       <c r="D93" t="n">
-        <v>38.9692726135254</v>
+        <v>41.52967560321093</v>
       </c>
       <c r="E93" t="n">
-        <v>11.0321150154903</v>
+        <v>10.90714183758045</v>
       </c>
       <c r="F93" t="n">
-        <v>429.9134975424086</v>
+        <v>452.9700622729262</v>
       </c>
     </row>
     <row r="94">
@@ -7892,13 +7781,13 @@
         <v>311.508972167969</v>
       </c>
       <c r="D94" t="n">
-        <v>39.1897430419922</v>
+        <v>41.7646316277981</v>
       </c>
       <c r="E94" t="n">
-        <v>10.96377537168305</v>
+        <v>10.8395763538007</v>
       </c>
       <c r="F94" t="n">
-        <v>429.6675395863812</v>
+        <v>452.7109134178771</v>
       </c>
     </row>
     <row r="95">
@@ -7912,13 +7801,13 @@
         <v>310.553192138672</v>
       </c>
       <c r="D95" t="n">
-        <v>39.3215599060059</v>
+        <v>41.90510927170519</v>
       </c>
       <c r="E95" t="n">
-        <v>10.89349549392174</v>
+        <v>10.77009261527966</v>
       </c>
       <c r="F95" t="n">
-        <v>428.349235650049</v>
+        <v>451.3219079096792</v>
       </c>
     </row>
     <row r="96">
@@ -7932,13 +7821,13 @@
         <v>309.274353027344</v>
       </c>
       <c r="D96" t="n">
-        <v>39.5650634765625</v>
+        <v>42.16461178779602</v>
       </c>
       <c r="E96" t="n">
-        <v>10.7818682440396</v>
+        <v>10.65972989283759</v>
       </c>
       <c r="F96" t="n">
-        <v>426.5853014713603</v>
+        <v>449.4633726942614</v>
       </c>
     </row>
     <row r="97">
@@ -7952,13 +7841,13 @@
         <v>307.249450683594</v>
       </c>
       <c r="D97" t="n">
-        <v>39.7394638061523</v>
+        <v>42.3504707640409</v>
       </c>
       <c r="E97" t="n">
-        <v>10.66426901981749</v>
+        <v>10.54346284732737</v>
       </c>
       <c r="F97" t="n">
-        <v>423.7923327321084</v>
+        <v>446.5206150674892</v>
       </c>
     </row>
     <row r="98">
@@ -7972,13 +7861,13 @@
         <v>305.457489013672</v>
       </c>
       <c r="D98" t="n">
-        <v>39.9742584228516</v>
+        <v>42.60069212079052</v>
       </c>
       <c r="E98" t="n">
-        <v>10.53979939427869</v>
+        <v>10.42040322926538</v>
       </c>
       <c r="F98" t="n">
-        <v>421.3206647119111</v>
+        <v>443.9163897444256</v>
       </c>
     </row>
     <row r="99">
@@ -7992,13 +7881,13 @@
         <v>302.306182861328</v>
       </c>
       <c r="D99" t="n">
-        <v>40.2311172485352</v>
+        <v>42.87442737400536</v>
       </c>
       <c r="E99" t="n">
-        <v>10.36446604235419</v>
+        <v>10.24705607546815</v>
       </c>
       <c r="F99" t="n">
-        <v>416.9740485684131</v>
+        <v>439.3366615050196</v>
       </c>
     </row>
     <row r="100">
@@ -8012,13 +7901,13 @@
         <v>302.622650146484</v>
       </c>
       <c r="D100" t="n">
-        <v>40.4527473449707</v>
+        <v>43.11061926037073</v>
       </c>
       <c r="E100" t="n">
-        <v>10.3184726320464</v>
+        <v>10.2015836842615</v>
       </c>
       <c r="F100" t="n">
-        <v>417.4105663701679</v>
+        <v>439.7965900650076</v>
       </c>
     </row>
     <row r="101">
@@ -8032,13 +7921,13 @@
         <v>296.861267089844</v>
       </c>
       <c r="D101" t="n">
-        <v>40.6190185546875</v>
+        <v>43.28781500816345</v>
       </c>
       <c r="E101" t="n">
-        <v>10.08059402991985</v>
+        <v>9.966399800674663</v>
       </c>
       <c r="F101" t="n">
-        <v>409.4638359435864</v>
+        <v>431.4236708690019</v>
       </c>
     </row>
     <row r="102">
@@ -8052,13 +7941,13 @@
         <v>296.448486328125</v>
       </c>
       <c r="D102" t="n">
-        <v>40.7614822387695</v>
+        <v>43.43963900148866</v>
       </c>
       <c r="E102" t="n">
-        <v>10.03139364308324</v>
+        <v>9.917756761970189</v>
       </c>
       <c r="F102" t="n">
-        <v>408.8944738126428</v>
+        <v>430.8237734445581</v>
       </c>
     </row>
     <row r="103">
@@ -8072,13 +7961,13 @@
         <v>290.667877197266</v>
       </c>
       <c r="D103" t="n">
-        <v>41.0111808776855</v>
+        <v>43.70574362128968</v>
       </c>
       <c r="E103" t="n">
-        <v>9.775900347479462</v>
+        <v>9.665157726355671</v>
       </c>
       <c r="F103" t="n">
-        <v>400.9212173927087</v>
+        <v>422.422905647428</v>
       </c>
     </row>
     <row r="104">
@@ -8092,13 +7981,13 @@
         <v>285.758941650391</v>
       </c>
       <c r="D104" t="n">
-        <v>41.2200355529785</v>
+        <v>43.92832070142029</v>
       </c>
       <c r="E104" t="n">
-        <v>9.562104323814664</v>
+        <v>9.453783610771451</v>
       </c>
       <c r="F104" t="n">
-        <v>394.1502801889299</v>
+        <v>415.2888382957994</v>
       </c>
     </row>
     <row r="105">
@@ -8112,13 +8001,13 @@
         <v>280.675598144531</v>
       </c>
       <c r="D105" t="n">
-        <v>41.4410858154297</v>
+        <v>44.1638946568966</v>
       </c>
       <c r="E105" t="n">
-        <v>9.341906185807849</v>
+        <v>9.236079904796744</v>
       </c>
       <c r="F105" t="n">
-        <v>387.1387359257566</v>
+        <v>407.901259958123</v>
       </c>
     </row>
     <row r="106">
@@ -8132,13 +8021,13 @@
         <v>275.964569091797</v>
       </c>
       <c r="D106" t="n">
-        <v>41.7639503479004</v>
+        <v>44.50797239810229</v>
       </c>
       <c r="E106" t="n">
-        <v>9.114099042168979</v>
+        <v>9.010853388956908</v>
       </c>
       <c r="F106" t="n">
-        <v>380.6407798629918</v>
+        <v>401.0548139190406</v>
       </c>
     </row>
     <row r="107">
@@ -8152,13 +8041,13 @@
         <v>269.461975097656</v>
       </c>
       <c r="D107" t="n">
-        <v>41.8475685119629</v>
+        <v>44.59708453685046</v>
       </c>
       <c r="E107" t="n">
-        <v>8.88155970080145</v>
+        <v>8.780948282315808</v>
       </c>
       <c r="F107" t="n">
-        <v>371.6716780723773</v>
+        <v>391.60469286015</v>
       </c>
     </row>
     <row r="108">
@@ -8172,13 +8061,13 @@
         <v>267.090118408203</v>
       </c>
       <c r="D108" t="n">
-        <v>42.0426826477051</v>
+        <v>44.8050182810426</v>
       </c>
       <c r="E108" t="n">
-        <v>8.762527991985449</v>
+        <v>8.663264979576239</v>
       </c>
       <c r="F108" t="n">
-        <v>368.4001835586768</v>
+        <v>388.1577457834295</v>
       </c>
     </row>
     <row r="109">
@@ -8192,13 +8081,13 @@
         <v>257.791168212891</v>
       </c>
       <c r="D109" t="n">
-        <v>42.3067016601563</v>
+        <v>45.08638416767126</v>
       </c>
       <c r="E109" t="n">
-        <v>8.404673872322871</v>
+        <v>8.309464676112963</v>
       </c>
       <c r="F109" t="n">
-        <v>355.5740300672743</v>
+        <v>374.6437166149231</v>
       </c>
     </row>
     <row r="110">
@@ -8212,13 +8101,13 @@
         <v>247.852600097656</v>
       </c>
       <c r="D110" t="n">
-        <v>42.5025901794434</v>
+        <v>45.29514317482715</v>
       </c>
       <c r="E110" t="n">
-        <v>8.043407571726828</v>
+        <v>7.95229084532836</v>
       </c>
       <c r="F110" t="n">
-        <v>341.8656556673374</v>
+        <v>360.2001524070153</v>
       </c>
     </row>
     <row r="111">
@@ -8232,13 +8121,13 @@
         <v>242.988342285156</v>
       </c>
       <c r="D111" t="n">
-        <v>42.6272468566895</v>
+        <v>45.42799018532043</v>
       </c>
       <c r="E111" t="n">
-        <v>7.862490949959586</v>
+        <v>7.773423669667075</v>
       </c>
       <c r="F111" t="n">
-        <v>335.1563426324144</v>
+        <v>353.1310141719734</v>
       </c>
     </row>
     <row r="112">
@@ -8252,13 +8141,13 @@
         <v>234.718322753906</v>
       </c>
       <c r="D112" t="n">
-        <v>42.8208084106445</v>
+        <v>45.63426933825013</v>
       </c>
       <c r="E112" t="n">
-        <v>7.560562923036773</v>
+        <v>7.474915921174247</v>
       </c>
       <c r="F112" t="n">
-        <v>323.74941640398</v>
+        <v>341.1123264276397</v>
       </c>
     </row>
     <row r="113">
@@ -8272,13 +8161,13 @@
         <v>222.926712036133</v>
       </c>
       <c r="D113" t="n">
-        <v>43.0782508850098</v>
+        <v>45.90862658768896</v>
       </c>
       <c r="E113" t="n">
-        <v>7.137827379950166</v>
+        <v>7.056969179161668</v>
       </c>
       <c r="F113" t="n">
-        <v>307.4851186473854</v>
+        <v>323.9757628869629</v>
       </c>
     </row>
     <row r="114">
@@ -8292,13 +8181,13 @@
         <v>220.224090576172</v>
       </c>
       <c r="D114" t="n">
-        <v>43.2855567932129</v>
+        <v>46.12955314189196</v>
       </c>
       <c r="E114" t="n">
-        <v>7.017522351495145</v>
+        <v>6.938026981107114</v>
       </c>
       <c r="F114" t="n">
-        <v>303.757362293284</v>
+        <v>320.0480843248609</v>
       </c>
     </row>
     <row r="115">
@@ -8312,13 +8201,13 @@
         <v>209.872589111328</v>
       </c>
       <c r="D115" t="n">
-        <v>43.4266662597656</v>
+        <v>46.27993394136426</v>
       </c>
       <c r="E115" t="n">
-        <v>6.665937489476704</v>
+        <v>6.590424916353726</v>
       </c>
       <c r="F115" t="n">
-        <v>289.4794426639646</v>
+        <v>305.0044297743715</v>
       </c>
     </row>
     <row r="116">
@@ -8332,13 +8221,13 @@
         <v>200.027755737305</v>
       </c>
       <c r="D116" t="n">
-        <v>43.7284317016602</v>
+        <v>46.60152631580834</v>
       </c>
       <c r="E116" t="n">
-        <v>6.309404044315738</v>
+        <v>6.237930326626224</v>
       </c>
       <c r="F116" t="n">
-        <v>275.9003438300394</v>
+        <v>290.6970742724509</v>
       </c>
     </row>
     <row r="117">
@@ -8352,13 +8241,13 @@
         <v>179.869812011719</v>
       </c>
       <c r="D117" t="n">
-        <v>43.9032211303711</v>
+        <v>46.78779995620251</v>
       </c>
       <c r="E117" t="n">
-        <v>5.650981376911035</v>
+        <v>5.586966353500714</v>
       </c>
       <c r="F117" t="n">
-        <v>248.0962849941341</v>
+        <v>261.4018641096256</v>
       </c>
     </row>
     <row r="118">
@@ -8372,13 +8261,13 @@
         <v>172.754272460938</v>
       </c>
       <c r="D118" t="n">
-        <v>44.1273651123047</v>
+        <v>47.02667089819909</v>
       </c>
       <c r="E118" t="n">
-        <v>5.399863473300276</v>
+        <v>5.338693144891796</v>
       </c>
       <c r="F118" t="n">
-        <v>238.2817470429191</v>
+        <v>251.060965551298</v>
       </c>
     </row>
     <row r="119">
@@ -8392,13 +8281,13 @@
         <v>163.883850097656</v>
       </c>
       <c r="D119" t="n">
-        <v>44.254150390625</v>
+        <v>47.16178636550903</v>
       </c>
       <c r="E119" t="n">
-        <v>5.107920745323449</v>
+        <v>5.050057580630332</v>
       </c>
       <c r="F119" t="n">
-        <v>226.0466928469372</v>
+        <v>238.1697367512071</v>
       </c>
     </row>
     <row r="120">
@@ -8412,13 +8301,13 @@
         <v>146.463485717773</v>
       </c>
       <c r="D120" t="n">
-        <v>44.4815902709961</v>
+        <v>47.40416975677014</v>
       </c>
       <c r="E120" t="n">
-        <v>4.541622688030373</v>
+        <v>4.490174618517528</v>
       </c>
       <c r="F120" t="n">
-        <v>202.018599574427</v>
+        <v>212.8529998537455</v>
       </c>
     </row>
     <row r="121">
@@ -8432,13 +8321,13 @@
         <v>133.123809814453</v>
       </c>
       <c r="D121" t="n">
-        <v>44.6888961791992</v>
+        <v>47.62509631097314</v>
       </c>
       <c r="E121" t="n">
-        <v>4.108829498291021</v>
+        <v>4.062284164130693</v>
       </c>
       <c r="F121" t="n">
-        <v>183.6190548671586</v>
+        <v>193.4666745592653</v>
       </c>
     </row>
     <row r="122">
@@ -8452,13 +8341,13 @@
         <v>112.106811523438</v>
       </c>
       <c r="D122" t="n">
-        <v>44.8667793273926</v>
+        <v>47.81466693788769</v>
       </c>
       <c r="E122" t="n">
-        <v>3.446427049307986</v>
+        <v>3.407385492890044</v>
       </c>
       <c r="F122" t="n">
-        <v>154.6300818892582</v>
+        <v>162.9230024715278</v>
       </c>
     </row>
     <row r="123">
@@ -8472,13 +8361,13 @@
         <v>96.7523574829102</v>
       </c>
       <c r="D123" t="n">
-        <v>45.103702545166</v>
+        <v>48.06715675145386</v>
       </c>
       <c r="E123" t="n">
-        <v>2.958770949265048</v>
+        <v>2.925253622105405</v>
       </c>
       <c r="F123" t="n">
-        <v>133.4515247949292</v>
+        <v>140.6086243914987</v>
       </c>
     </row>
     <row r="124">
@@ -8492,13 +8381,13 @@
         <v>84.2080993652344</v>
       </c>
       <c r="D124" t="n">
-        <v>45.344108581543</v>
+        <v>48.32335821568969</v>
       </c>
       <c r="E124" t="n">
-        <v>2.56150377207789</v>
+        <v>2.53248673715982</v>
       </c>
       <c r="F124" t="n">
-        <v>116.1491051731318</v>
+        <v>122.3782637762572</v>
       </c>
     </row>
     <row r="125">
@@ -8512,13 +8401,13 @@
         <v>60.7718124389648</v>
       </c>
       <c r="D125" t="n">
-        <v>45.4987678527832</v>
+        <v>48.4881790843606</v>
       </c>
       <c r="E125" t="n">
-        <v>1.842317745603366</v>
+        <v>1.821447739891453</v>
       </c>
       <c r="F125" t="n">
-        <v>83.82318741827044</v>
+        <v>88.31868420466061</v>
       </c>
     </row>
     <row r="126">
@@ -8532,13 +8421,13 @@
         <v>49.0203323364258</v>
       </c>
       <c r="D126" t="n">
-        <v>45.6762657165527</v>
+        <v>48.67733911246057</v>
       </c>
       <c r="E126" t="n">
-        <v>1.480292945072566</v>
+        <v>1.463524001554166</v>
       </c>
       <c r="F126" t="n">
-        <v>67.61425389747286</v>
+        <v>71.2404541228774</v>
       </c>
     </row>
     <row r="127">
@@ -8552,13 +8441,13 @@
         <v>40.0013313293457</v>
       </c>
       <c r="D127" t="n">
-        <v>45.7844696044922</v>
+        <v>48.79265233397485</v>
       </c>
       <c r="E127" t="n">
-        <v>1.205086625855545</v>
+        <v>1.191435253922025</v>
       </c>
       <c r="F127" t="n">
-        <v>55.17425199226326</v>
+        <v>58.13328612305841</v>
       </c>
     </row>
     <row r="128">
@@ -8572,13 +8461,13 @@
         <v>21.0832195281982</v>
       </c>
       <c r="D128" t="n">
-        <v>45.9820976257324</v>
+        <v>49.0032651337981</v>
       </c>
       <c r="E128" t="n">
-        <v>0.6324266154190594</v>
+        <v>0.6252624076662654</v>
       </c>
       <c r="F128" t="n">
-        <v>29.08030237131071</v>
+        <v>30.63989954106695</v>
       </c>
     </row>
     <row r="129">
@@ -8592,13 +8481,13 @@
         <v>0.844382643699646</v>
       </c>
       <c r="D129" t="n">
-        <v>46.1609497070313</v>
+        <v>49.19386835575109</v>
       </c>
       <c r="E129" t="n">
-        <v>0.02523054079762814</v>
+        <v>0.02494472607765501</v>
       </c>
       <c r="F129" t="n">
-        <v>1.164665724840514</v>
+        <v>1.227127570834432</v>
       </c>
     </row>
   </sheetData>

--- a/pvstand/datos_procesados_analisis_integrado_py/iv600/iv_curves/iv_curves_report.xlsx
+++ b/pvstand/datos_procesados_analisis_integrado_py/iv600/iv_curves/iv_curves_report.xlsx
@@ -530,7 +530,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-10-28</t>
+          <t>2025-11-07</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -575,7 +575,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-10-28</t>
+          <t>2025-11-07</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -620,7 +620,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-10-28</t>
+          <t>2025-11-07</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">

--- a/pvstand/datos_procesados_analisis_integrado_py/iv600/iv_curves/iv_curves_report.xlsx
+++ b/pvstand/datos_procesados_analisis_integrado_py/iv600/iv_curves/iv_curves_report.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Metadatos" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Analisis_Parametros" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="iv600_risen_1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="iv600_risen_2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="iv600_risen_3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="iv600_risen_4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Metadatos" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Analisis_Parametros" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="iv600_risen_1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="iv600_risen_2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="iv600_risen_3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="iv600_risen_4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -430,14 +430,168 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>module_category</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>irradiance</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>area</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>module_temp_c_meas</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-11-10</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>IV600_sample_1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>IV600</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>1034</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-11-10</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>IV600_sample_2</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>IV600</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>1034</v>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-11-10</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>11:00:00</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>IV600_sample_3</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>IV600</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>1034</v>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-11-10</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>IV600_sample_4</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>IV600</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>1034</v>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -531,7 +685,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-11-07</t>
+          <t>2025-11-10</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -547,7 +701,9 @@
       <c r="E2" t="n">
         <v>1034</v>
       </c>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>0.76</v>
+      </c>
       <c r="G2" t="n">
         <v>444.007598876953</v>
       </c>
@@ -576,7 +732,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-11-07</t>
+          <t>2025-11-10</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -592,7 +748,9 @@
       <c r="E3" t="n">
         <v>1034</v>
       </c>
-      <c r="F3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>0.76</v>
+      </c>
       <c r="G3" t="n">
         <v>443.643524169922</v>
       </c>
@@ -621,7 +779,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-11-07</t>
+          <t>2025-11-10</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -637,7 +795,9 @@
       <c r="E4" t="n">
         <v>1034</v>
       </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>0.76</v>
+      </c>
       <c r="G4" t="n">
         <v>444.463897705078</v>
       </c>
@@ -666,7 +826,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-11-07</t>
+          <t>2025-11-10</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -682,7 +842,9 @@
       <c r="E5" t="n">
         <v>1034</v>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>0.76</v>
+      </c>
       <c r="G5" t="n">
         <v>446.424041748047</v>
       </c>
@@ -765,13 +927,13 @@
         <v>5.85896015167236</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4952242639185864</v>
+        <v>0.420964933739901</v>
       </c>
       <c r="E2" t="n">
-        <v>12.31189510802693</v>
+        <v>12.6657462394168</v>
       </c>
       <c r="F2" t="n">
-        <v>6.097149192315483</v>
+        <v>5.331835026442492</v>
       </c>
     </row>
     <row r="3">
@@ -785,13 +947,13 @@
         <v>221.792709350586</v>
       </c>
       <c r="D3" t="n">
-        <v>18.75024863587617</v>
+        <v>15.93863174665832</v>
       </c>
       <c r="E3" t="n">
-        <v>12.30967285009952</v>
+        <v>12.66346011248506</v>
       </c>
       <c r="F3" t="n">
-        <v>230.8094265656603</v>
+        <v>201.8382273713956</v>
       </c>
     </row>
     <row r="4">
@@ -805,13 +967,13 @@
         <v>225.364105224609</v>
       </c>
       <c r="D4" t="n">
-        <v>19.05404016605613</v>
+        <v>16.19686945973203</v>
       </c>
       <c r="E4" t="n">
-        <v>12.30846689632833</v>
+        <v>12.66221949889079</v>
       </c>
       <c r="F4" t="n">
-        <v>234.5260226252122</v>
+        <v>205.0883162940076</v>
       </c>
     </row>
     <row r="5">
@@ -825,13 +987,13 @@
         <v>228.830490112305</v>
       </c>
       <c r="D5" t="n">
-        <v>19.34957708115577</v>
+        <v>16.44809034478759</v>
       </c>
       <c r="E5" t="n">
-        <v>12.30690069903023</v>
+        <v>12.66060828815803</v>
       </c>
       <c r="F5" t="n">
-        <v>238.1333237060153</v>
+        <v>208.2428289435898</v>
       </c>
     </row>
     <row r="6">
@@ -845,13 +1007,13 @@
         <v>232.406875610352</v>
       </c>
       <c r="D6" t="n">
-        <v>19.65379417147634</v>
+        <v>16.70668980487059</v>
       </c>
       <c r="E6" t="n">
-        <v>12.3057718754852</v>
+        <v>12.65944702155813</v>
       </c>
       <c r="F6" t="n">
-        <v>241.8551075619285</v>
+        <v>211.4974544903645</v>
       </c>
     </row>
     <row r="7">
@@ -865,13 +1027,13 @@
         <v>235.995590209961</v>
       </c>
       <c r="D7" t="n">
-        <v>19.96033724001644</v>
+        <v>16.96726646061705</v>
       </c>
       <c r="E7" t="n">
-        <v>12.30388626830948</v>
+        <v>12.65750722091937</v>
       </c>
       <c r="F7" t="n">
-        <v>245.5897192782646</v>
+        <v>214.7632977445233</v>
       </c>
     </row>
     <row r="8">
@@ -885,13 +1047,13 @@
         <v>239.45231628418</v>
       </c>
       <c r="D8" t="n">
-        <v>20.25651040924787</v>
+        <v>17.21902819291687</v>
       </c>
       <c r="E8" t="n">
-        <v>12.30157417635389</v>
+        <v>12.65512867807647</v>
       </c>
       <c r="F8" t="n">
-        <v>249.1869653534473</v>
+        <v>217.9090174927894</v>
       </c>
     </row>
     <row r="9">
@@ -905,13 +1067,13 @@
         <v>242.976318359375</v>
       </c>
       <c r="D9" t="n">
-        <v>20.5592442973137</v>
+        <v>17.47636685827638</v>
       </c>
       <c r="E9" t="n">
-        <v>12.29881019201458</v>
+        <v>12.65228525519605</v>
       </c>
       <c r="F9" t="n">
-        <v>252.8542433039194</v>
+        <v>221.1159787153672</v>
       </c>
     </row>
     <row r="10">
@@ -925,13 +1087,13 @@
         <v>246.581848144531</v>
       </c>
       <c r="D10" t="n">
-        <v>20.86896446435455</v>
+        <v>17.73964420370487</v>
       </c>
       <c r="E10" t="n">
-        <v>12.29607433752235</v>
+        <v>12.64947077063113</v>
       </c>
       <c r="F10" t="n">
-        <v>256.6063384008158</v>
+        <v>224.3971108361606</v>
       </c>
     </row>
     <row r="11">
@@ -945,13 +1107,13 @@
         <v>249.821792602539</v>
       </c>
       <c r="D11" t="n">
-        <v>21.14777519706482</v>
+        <v>17.97664701268001</v>
       </c>
       <c r="E11" t="n">
-        <v>12.29339746496779</v>
+        <v>12.64671696317957</v>
       </c>
       <c r="F11" t="n">
-        <v>259.9780059973054</v>
+        <v>227.3455667163516</v>
       </c>
     </row>
     <row r="12">
@@ -965,13 +1127,13 @@
         <v>253.482574462891</v>
       </c>
       <c r="D12" t="n">
-        <v>21.46427094908953</v>
+        <v>18.24568393794251</v>
       </c>
       <c r="E12" t="n">
-        <v>12.28961445422883</v>
+        <v>12.64282522647939</v>
       </c>
       <c r="F12" t="n">
-        <v>263.7876145054146</v>
+        <v>230.6769931649893</v>
       </c>
     </row>
     <row r="13">
@@ -985,13 +1147,13 @@
         <v>257.107147216797</v>
       </c>
       <c r="D13" t="n">
-        <v>21.77758960261348</v>
+        <v>18.51202017352298</v>
       </c>
       <c r="E13" t="n">
-        <v>12.28600385223065</v>
+        <v>12.63911085364895</v>
       </c>
       <c r="F13" t="n">
-        <v>267.5595497500074</v>
+        <v>233.9754750981426</v>
       </c>
     </row>
     <row r="14">
@@ -1005,13 +1167,13 @@
         <v>260.470031738281</v>
       </c>
       <c r="D14" t="n">
-        <v>22.06846830303671</v>
+        <v>18.75928134744264</v>
       </c>
       <c r="E14" t="n">
-        <v>12.28264369661392</v>
+        <v>12.63565412517676</v>
       </c>
       <c r="F14" t="n">
-        <v>271.0591330962178</v>
+        <v>237.0357907431651</v>
       </c>
     </row>
     <row r="15">
@@ -1025,13 +1187,13 @@
         <v>263.836761474609</v>
       </c>
       <c r="D15" t="n">
-        <v>22.36040464557406</v>
+        <v>19.00744156907652</v>
       </c>
       <c r="E15" t="n">
-        <v>12.27896957560592</v>
+        <v>12.63187440776268</v>
       </c>
       <c r="F15" t="n">
-        <v>274.5627283412412</v>
+        <v>240.0996147134621</v>
       </c>
     </row>
     <row r="16">
@@ -1045,13 +1207,13 @@
         <v>267.221282958984</v>
       </c>
       <c r="D16" t="n">
-        <v>22.6578461509109</v>
+        <v>19.2602814493256</v>
       </c>
       <c r="E16" t="n">
-        <v>12.27322473487958</v>
+        <v>12.62596445692349</v>
       </c>
       <c r="F16" t="n">
-        <v>278.0848378184558</v>
+        <v>243.1796290095279</v>
       </c>
     </row>
     <row r="17">
@@ -1065,13 +1227,13 @@
         <v>270.566925048828</v>
       </c>
       <c r="D17" t="n">
-        <v>22.95274889795784</v>
+        <v>19.51096326040653</v>
       </c>
       <c r="E17" t="n">
-        <v>12.26722400328525</v>
+        <v>12.61979126076175</v>
       </c>
       <c r="F17" t="n">
-        <v>281.5665122224075</v>
+        <v>246.2242836427218</v>
       </c>
     </row>
     <row r="18">
@@ -1085,13 +1247,13 @@
         <v>274.174835205078</v>
       </c>
       <c r="D18" t="n">
-        <v>23.26987881803514</v>
+        <v>19.78053925964357</v>
       </c>
       <c r="E18" t="n">
-        <v>12.26139205077397</v>
+        <v>12.61379169449351</v>
       </c>
       <c r="F18" t="n">
-        <v>285.3211071619297</v>
+        <v>249.5076018258949</v>
       </c>
     </row>
     <row r="19">
@@ -1105,13 +1267,13 @@
         <v>277.571258544922</v>
       </c>
       <c r="D19" t="n">
-        <v>23.56985908166175</v>
+        <v>20.03553720906071</v>
       </c>
       <c r="E19" t="n">
-        <v>12.25529604066501</v>
+        <v>12.60752048145639</v>
       </c>
       <c r="F19" t="n">
-        <v>288.8556006825213</v>
+        <v>252.5984457202146</v>
       </c>
     </row>
     <row r="20">
@@ -1125,13 +1287,13 @@
         <v>280.643402099609</v>
       </c>
       <c r="D20" t="n">
-        <v>23.84570758202081</v>
+        <v>20.27002197512822</v>
       </c>
       <c r="E20" t="n">
-        <v>12.24759753668098</v>
+        <v>12.59960071792452</v>
       </c>
       <c r="F20" t="n">
-        <v>292.0526294419731</v>
+        <v>255.3941834301714</v>
       </c>
     </row>
     <row r="21">
@@ -1145,13 +1307,13 @@
         <v>283.884185791016</v>
       </c>
       <c r="D21" t="n">
-        <v>24.14611340578792</v>
+        <v>20.52538167155455</v>
       </c>
       <c r="E21" t="n">
-        <v>12.23489554955607</v>
+        <v>12.58653366819344</v>
       </c>
       <c r="F21" t="n">
-        <v>295.4251754475508</v>
+        <v>258.3434074615419</v>
       </c>
     </row>
     <row r="22">
@@ -1165,13 +1327,13 @@
         <v>286.823455810547</v>
       </c>
       <c r="D22" t="n">
-        <v>24.4308527753592</v>
+        <v>20.76742411288456</v>
       </c>
       <c r="E22" t="n">
-        <v>12.2174995076091</v>
+        <v>12.56863765373447</v>
       </c>
       <c r="F22" t="n">
-        <v>298.4839317534214</v>
+        <v>261.018228676274</v>
       </c>
     </row>
     <row r="23">
@@ -1185,13 +1347,13 @@
         <v>290.239349365234</v>
       </c>
       <c r="D23" t="n">
-        <v>24.73803209803108</v>
+        <v>21.02854161587528</v>
       </c>
       <c r="E23" t="n">
-        <v>12.20948703823401</v>
+        <v>12.5603949012609</v>
       </c>
       <c r="F23" t="n">
-        <v>302.0386822523273</v>
+        <v>264.1267868929924</v>
       </c>
     </row>
     <row r="24">
@@ -1205,13 +1367,13 @@
         <v>293.634704589844</v>
       </c>
       <c r="D24" t="n">
-        <v>25.03208581087587</v>
+        <v>21.27850170620726</v>
       </c>
       <c r="E24" t="n">
-        <v>12.20721577992752</v>
+        <v>12.55805836565027</v>
       </c>
       <c r="F24" t="n">
-        <v>305.5720729150236</v>
+        <v>267.2166663601397</v>
       </c>
     </row>
     <row r="25">
@@ -1225,13 +1387,13 @@
         <v>297.044250488281</v>
       </c>
       <c r="D25" t="n">
-        <v>25.32550535566808</v>
+        <v>21.52792272256471</v>
       </c>
       <c r="E25" t="n">
-        <v>12.20588641779453</v>
+        <v>12.55669079686504</v>
       </c>
       <c r="F25" t="n">
-        <v>309.1202418445315</v>
+        <v>270.3194691260501</v>
       </c>
     </row>
     <row r="26">
@@ -1245,13 +1407,13 @@
         <v>300.482940673828</v>
       </c>
       <c r="D26" t="n">
-        <v>25.62125296475888</v>
+        <v>21.77932270785524</v>
       </c>
       <c r="E26" t="n">
-        <v>12.20466140832036</v>
+        <v>12.55543057989564</v>
       </c>
       <c r="F26" t="n">
-        <v>312.6987172918063</v>
+        <v>273.4487743356211</v>
       </c>
     </row>
     <row r="27">
@@ -1265,13 +1427,13 @@
         <v>303.93798828125</v>
       </c>
       <c r="D27" t="n">
-        <v>25.91806030204291</v>
+        <v>22.0316235141296</v>
       </c>
       <c r="E27" t="n">
-        <v>12.20362332621791</v>
+        <v>12.55436266270094</v>
       </c>
       <c r="F27" t="n">
-        <v>316.2942452723333</v>
+        <v>276.5929916444726</v>
       </c>
     </row>
     <row r="28">
@@ -1285,13 +1447,13 @@
         <v>307.515869140625</v>
       </c>
       <c r="D28" t="n">
-        <v>26.22439267659184</v>
+        <v>22.29202106964108</v>
       </c>
       <c r="E28" t="n">
-        <v>12.20304984030111</v>
+        <v>12.55377269446043</v>
       </c>
       <c r="F28" t="n">
-        <v>320.0175708640776</v>
+        <v>279.8489654083969</v>
       </c>
     </row>
     <row r="29">
@@ -1305,13 +1467,13 @@
         <v>310.997894287109</v>
       </c>
       <c r="D29" t="n">
-        <v>26.52416433230636</v>
+        <v>22.54684169209288</v>
       </c>
       <c r="E29" t="n">
-        <v>12.20174770060088</v>
+        <v>12.55243313049675</v>
       </c>
       <c r="F29" t="n">
-        <v>323.6411611520791</v>
+        <v>283.0177226438921</v>
       </c>
     </row>
     <row r="30">
@@ -1325,13 +1487,13 @@
         <v>314.414825439453</v>
       </c>
       <c r="D30" t="n">
-        <v>26.81779457108973</v>
+        <v>22.79644180868529</v>
       </c>
       <c r="E30" t="n">
-        <v>12.20074137800325</v>
+        <v>12.55139788559377</v>
       </c>
       <c r="F30" t="n">
-        <v>327.1969758902854</v>
+        <v>286.1272115165941</v>
       </c>
     </row>
     <row r="31">
@@ -1345,13 +1507,13 @@
         <v>317.704345703125</v>
       </c>
       <c r="D31" t="n">
-        <v>27.10147629854677</v>
+        <v>23.03758520230101</v>
       </c>
       <c r="E31" t="n">
-        <v>12.1993439597883</v>
+        <v>12.54996030475462</v>
       </c>
       <c r="F31" t="n">
-        <v>330.6202311840223</v>
+        <v>289.1207798062802</v>
       </c>
     </row>
     <row r="32">
@@ -1365,13 +1527,13 @@
         <v>321.222473144531</v>
       </c>
       <c r="D32" t="n">
-        <v>27.40378671255107</v>
+        <v>23.29456389392086</v>
       </c>
       <c r="E32" t="n">
-        <v>12.19836485962343</v>
+        <v>12.54895306467319</v>
       </c>
       <c r="F32" t="n">
-        <v>334.2813888549986</v>
+        <v>292.3223889668437</v>
       </c>
     </row>
     <row r="33">
@@ -1385,13 +1547,13 @@
         <v>324.746643066406</v>
       </c>
       <c r="D33" t="n">
-        <v>27.70588434648512</v>
+        <v>23.55136171203612</v>
       </c>
       <c r="E33" t="n">
-        <v>12.19772785469691</v>
+        <v>12.54829775184915</v>
       </c>
       <c r="F33" t="n">
-        <v>337.9488372321326</v>
+        <v>295.5294992241289</v>
       </c>
     </row>
     <row r="34">
@@ -1405,13 +1567,13 @@
         <v>327.958526611328</v>
       </c>
       <c r="D34" t="n">
-        <v>27.98279048895831</v>
+        <v>23.78674552581783</v>
       </c>
       <c r="E34" t="n">
-        <v>12.19647108571783</v>
+        <v>12.54700486258792</v>
       </c>
       <c r="F34" t="n">
-        <v>341.29129509628</v>
+        <v>298.4524117775777</v>
       </c>
     </row>
     <row r="35">
@@ -1425,13 +1587,13 @@
         <v>331.767272949219</v>
       </c>
       <c r="D35" t="n">
-        <v>28.30923683838843</v>
+        <v>24.06424094732665</v>
       </c>
       <c r="E35" t="n">
-        <v>12.19583861786345</v>
+        <v>12.54635421723414</v>
       </c>
       <c r="F35" t="n">
-        <v>345.2548838758602</v>
+        <v>301.9184908940303</v>
       </c>
     </row>
     <row r="36">
@@ -1445,13 +1607,13 @@
         <v>334.997314453125</v>
       </c>
       <c r="D36" t="n">
-        <v>28.58720062297585</v>
+        <v>24.30052380882265</v>
       </c>
       <c r="E36" t="n">
-        <v>12.19483683233796</v>
+        <v>12.54532363980144</v>
       </c>
       <c r="F36" t="n">
-        <v>348.6162470905006</v>
+        <v>304.8579357983805</v>
       </c>
     </row>
     <row r="37">
@@ -1465,13 +1627,13 @@
         <v>338.501861572266</v>
       </c>
       <c r="D37" t="n">
-        <v>28.88845339486603</v>
+        <v>24.55660345272831</v>
       </c>
       <c r="E37" t="n">
-        <v>12.19391217703862</v>
+        <v>12.5443724093631</v>
       </c>
       <c r="F37" t="n">
-        <v>352.2632636274697</v>
+        <v>308.0471788200757</v>
       </c>
     </row>
     <row r="38">
@@ -1485,13 +1647,13 @@
         <v>341.986724853516</v>
       </c>
       <c r="D38" t="n">
-        <v>29.18716532238724</v>
+        <v>24.81052325419619</v>
       </c>
       <c r="E38" t="n">
-        <v>12.19336591355459</v>
+        <v>12.54381044594416</v>
       </c>
       <c r="F38" t="n">
-        <v>355.889786755279</v>
+        <v>311.2185007653265</v>
       </c>
     </row>
     <row r="39">
@@ -1505,13 +1667,13 @@
         <v>345.455596923828</v>
       </c>
       <c r="D39" t="n">
-        <v>29.48545377584691</v>
+        <v>25.0640830819244</v>
       </c>
       <c r="E39" t="n">
-        <v>12.19244216566966</v>
+        <v>12.54286014899986</v>
       </c>
       <c r="F39" t="n">
-        <v>359.4996898905397</v>
+        <v>314.3752888594911</v>
       </c>
     </row>
     <row r="40">
@@ -1525,13 +1687,13 @@
         <v>348.983032226563</v>
       </c>
       <c r="D40" t="n">
-        <v>29.78797488384249</v>
+        <v>25.32124087377932</v>
       </c>
       <c r="E40" t="n">
-        <v>12.19185053146438</v>
+        <v>12.54225151087836</v>
       </c>
       <c r="F40" t="n">
-        <v>363.1705374188227</v>
+        <v>317.5853716064735</v>
       </c>
     </row>
     <row r="41">
@@ -1545,13 +1707,13 @@
         <v>352.345367431641</v>
       </c>
       <c r="D41" t="n">
-        <v>30.07694899402854</v>
+        <v>25.56688305250547</v>
       </c>
       <c r="E41" t="n">
-        <v>12.19104928452685</v>
+        <v>12.54142723563098</v>
       </c>
       <c r="F41" t="n">
-        <v>366.6695675144023</v>
+        <v>320.6452034448843</v>
       </c>
     </row>
     <row r="42">
@@ -1565,13 +1727,13 @@
         <v>355.646362304688</v>
       </c>
       <c r="D42" t="n">
-        <v>30.36105419554711</v>
+        <v>25.80838641986085</v>
       </c>
       <c r="E42" t="n">
-        <v>12.19011555508323</v>
+        <v>12.5404666702521</v>
       </c>
       <c r="F42" t="n">
-        <v>370.1047590178638</v>
+        <v>323.6492097112518</v>
       </c>
     </row>
     <row r="43">
@@ -1585,13 +1747,13 @@
         <v>359.174621582031</v>
       </c>
       <c r="D43" t="n">
-        <v>30.66484572572706</v>
+        <v>26.06662413293456</v>
       </c>
       <c r="E43" t="n">
-        <v>12.18908654712498</v>
+        <v>12.53940808799785</v>
       </c>
       <c r="F43" t="n">
-        <v>373.7764585051225</v>
+        <v>326.8600374793194</v>
       </c>
     </row>
     <row r="44">
@@ -1605,13 +1767,13 @@
         <v>362.703338623047</v>
       </c>
       <c r="D44" t="n">
-        <v>30.96821586792468</v>
+        <v>26.32450364553833</v>
       </c>
       <c r="E44" t="n">
-        <v>12.18825807775478</v>
+        <v>12.53855580792902</v>
       </c>
       <c r="F44" t="n">
-        <v>377.4486072058868</v>
+        <v>330.0712580756132</v>
       </c>
     </row>
     <row r="45">
@@ -1625,13 +1787,13 @@
         <v>366.0263671875</v>
       </c>
       <c r="D45" t="n">
-        <v>31.2550726078034</v>
+        <v>26.56834595556645</v>
       </c>
       <c r="E45" t="n">
-        <v>12.18703760535275</v>
+        <v>12.53730025842989</v>
       </c>
       <c r="F45" t="n">
-        <v>380.9067452293308</v>
+        <v>333.0953306147779</v>
       </c>
     </row>
     <row r="46">
@@ -1645,13 +1807,13 @@
         <v>369.267181396484</v>
       </c>
       <c r="D46" t="n">
-        <v>31.53621140481238</v>
+        <v>26.80732773347477</v>
       </c>
       <c r="E46" t="n">
-        <v>12.18533529589092</v>
+        <v>12.53554902358949</v>
       </c>
       <c r="F46" t="n">
-        <v>384.2793099297382</v>
+        <v>336.044570994403</v>
       </c>
     </row>
     <row r="47">
@@ -1665,13 +1827,13 @@
         <v>372.721282958984</v>
       </c>
       <c r="D47" t="n">
-        <v>31.83513611240384</v>
+        <v>27.06142840844724</v>
       </c>
       <c r="E47" t="n">
-        <v>12.18382808053059</v>
+        <v>12.5339984899702</v>
       </c>
       <c r="F47" t="n">
-        <v>387.8738253138195</v>
+        <v>339.1879028079145</v>
       </c>
     </row>
     <row r="48">
@@ -1685,13 +1847,13 @@
         <v>376.370361328125</v>
       </c>
       <c r="D48" t="n">
-        <v>32.15099561029676</v>
+        <v>27.32992448646549</v>
       </c>
       <c r="E48" t="n">
-        <v>12.18224373494401</v>
+        <v>12.53236860935645</v>
       </c>
       <c r="F48" t="n">
-        <v>391.6712648457502</v>
+        <v>342.5086877302622</v>
       </c>
     </row>
     <row r="49">
@@ -1705,13 +1867,13 @@
         <v>379.549224853516</v>
       </c>
       <c r="D49" t="n">
-        <v>32.42832522683148</v>
+        <v>27.56566827398686</v>
       </c>
       <c r="E49" t="n">
-        <v>12.1800722922244</v>
+        <v>12.53013475809157</v>
       </c>
       <c r="F49" t="n">
-        <v>394.9793455785716</v>
+        <v>345.4015381699048</v>
       </c>
     </row>
     <row r="50">
@@ -1725,13 +1887,13 @@
         <v>383.074920654297</v>
       </c>
       <c r="D50" t="n">
-        <v>32.73402343332771</v>
+        <v>27.82552675552371</v>
       </c>
       <c r="E50" t="n">
-        <v>12.17841081641166</v>
+        <v>12.52842553048344</v>
       </c>
       <c r="F50" t="n">
-        <v>398.648385045111</v>
+        <v>348.6100398030534</v>
       </c>
     </row>
     <row r="51">
@@ -1745,13 +1907,13 @@
         <v>386.427551269531</v>
       </c>
       <c r="D51" t="n">
-        <v>33.02236128938197</v>
+        <v>28.07062808700561</v>
       </c>
       <c r="E51" t="n">
-        <v>12.17772753334948</v>
+        <v>12.52772260946281</v>
       </c>
       <c r="F51" t="n">
-        <v>402.137318289921</v>
+        <v>351.6610421474019</v>
       </c>
     </row>
     <row r="52">
@@ -1765,13 +1927,13 @@
         <v>389.941284179688</v>
       </c>
       <c r="D52" t="n">
-        <v>33.32615490564112</v>
+        <v>28.32886757334903</v>
       </c>
       <c r="E52" t="n">
-        <v>12.1764390048656</v>
+        <v>12.52639704790986</v>
       </c>
       <c r="F52" t="n">
-        <v>405.7938924752414</v>
+        <v>354.8586431414287</v>
       </c>
     </row>
     <row r="53">
@@ -1785,13 +1947,13 @@
         <v>393.405822753906</v>
       </c>
       <c r="D53" t="n">
-        <v>33.62613516926761</v>
+        <v>28.58386552276608</v>
       </c>
       <c r="E53" t="n">
-        <v>12.17503251250636</v>
+        <v>12.52495013213016</v>
       </c>
       <c r="F53" t="n">
-        <v>409.3992889557666</v>
+        <v>358.0114902561597</v>
       </c>
     </row>
     <row r="54">
@@ -1805,13 +1967,13 @@
         <v>396.533660888672</v>
       </c>
       <c r="D54" t="n">
-        <v>33.89753823502063</v>
+        <v>28.81457145120239</v>
       </c>
       <c r="E54" t="n">
-        <v>12.17357611235382</v>
+        <v>12.52345187417773</v>
       </c>
       <c r="F54" t="n">
-        <v>412.6542617254476</v>
+        <v>360.8578988441888</v>
       </c>
     </row>
     <row r="55">
@@ -1825,13 +1987,13 @@
         <v>399.988952636719</v>
       </c>
       <c r="D55" t="n">
-        <v>34.19561390841005</v>
+        <v>29.06795040542601</v>
       </c>
       <c r="E55" t="n">
-        <v>12.17261516047744</v>
+        <v>12.52246330397731</v>
       </c>
       <c r="F55" t="n">
-        <v>416.2500482833453</v>
+        <v>364.0023422737794</v>
       </c>
     </row>
     <row r="56">
@@ -1845,13 +2007,13 @@
         <v>403.588806152344</v>
       </c>
       <c r="D56" t="n">
-        <v>34.50681727770564</v>
+        <v>29.33248854557798</v>
       </c>
       <c r="E56" t="n">
-        <v>12.17139922514755</v>
+        <v>12.52121242194845</v>
       </c>
       <c r="F56" t="n">
-        <v>419.9962490761747</v>
+        <v>367.2783199435516</v>
       </c>
     </row>
     <row r="57">
@@ -1865,13 +2027,13 @@
         <v>407.010131835938</v>
       </c>
       <c r="D57" t="n">
-        <v>34.80341183491942</v>
+        <v>29.58460847834775</v>
       </c>
       <c r="E57" t="n">
-        <v>12.16997458449993</v>
+        <v>12.51974683628785</v>
       </c>
       <c r="F57" t="n">
-        <v>423.5566374848535</v>
+        <v>370.3918083996087</v>
       </c>
     </row>
     <row r="58">
@@ -1885,13 +2047,13 @@
         <v>410.206420898438</v>
       </c>
       <c r="D58" t="n">
-        <v>35.08074145145413</v>
+        <v>29.82035226586911</v>
       </c>
       <c r="E58" t="n">
-        <v>12.16858170335712</v>
+        <v>12.51831392291897</v>
       </c>
       <c r="F58" t="n">
-        <v>426.8828685663665</v>
+        <v>373.3005309561776</v>
       </c>
     </row>
     <row r="59">
@@ -1905,13 +2067,13 @@
         <v>413.624420166016</v>
       </c>
       <c r="D59" t="n">
-        <v>35.37839573686121</v>
+        <v>30.0733730196228</v>
       </c>
       <c r="E59" t="n">
-        <v>12.16674237431705</v>
+        <v>12.51642173047679</v>
       </c>
       <c r="F59" t="n">
-        <v>430.4398265470272</v>
+        <v>376.4110195715412</v>
       </c>
     </row>
     <row r="60">
@@ -1925,13 +2087,13 @@
         <v>417.155548095703</v>
       </c>
       <c r="D60" t="n">
-        <v>35.68769034376145</v>
+        <v>30.336288618042</v>
       </c>
       <c r="E60" t="n">
-        <v>12.16426513293614</v>
+        <v>12.51387329171662</v>
       </c>
       <c r="F60" t="n">
-        <v>434.1145273236394</v>
+        <v>379.6244719071229</v>
       </c>
     </row>
     <row r="61">
@@ -1945,13 +2107,13 @@
         <v>420.304626464844</v>
       </c>
       <c r="D61" t="n">
-        <v>35.96883122684952</v>
+        <v>30.57527216921994</v>
       </c>
       <c r="E61" t="n">
-        <v>12.16029519482555</v>
+        <v>12.50978925524184</v>
       </c>
       <c r="F61" t="n">
-        <v>437.3916055313496</v>
+        <v>382.4902112586025</v>
       </c>
     </row>
     <row r="62">
@@ -1965,13 +2127,13 @@
         <v>423.263793945313</v>
       </c>
       <c r="D62" t="n">
-        <v>36.23578677191729</v>
+        <v>30.80219748675533</v>
       </c>
       <c r="E62" t="n">
-        <v>12.15569278886058</v>
+        <v>12.50505457341328</v>
       </c>
       <c r="F62" t="n">
-        <v>440.4710919620848</v>
+        <v>385.1831605529288</v>
       </c>
     </row>
     <row r="63">
@@ -1985,13 +2147,13 @@
         <v>426.89697265625</v>
       </c>
       <c r="D63" t="n">
-        <v>36.56159895329472</v>
+        <v>31.07915383428952</v>
       </c>
       <c r="E63" t="n">
-        <v>12.15078095457659</v>
+        <v>12.5000015701132</v>
       </c>
       <c r="F63" t="n">
-        <v>444.2519802305609</v>
+        <v>388.4894717264087</v>
       </c>
     </row>
     <row r="64">
@@ -2005,13 +2167,13 @@
         <v>429.846984863281</v>
       </c>
       <c r="D64" t="n">
-        <v>36.83278923897748</v>
+        <v>31.30967888922123</v>
       </c>
       <c r="E64" t="n">
-        <v>12.14466588876464</v>
+        <v>12.49371075370095</v>
       </c>
       <c r="F64" t="n">
-        <v>447.3219190586672</v>
+        <v>391.1740718331869</v>
       </c>
     </row>
     <row r="65">
@@ -2025,13 +2187,13 @@
         <v>432.964935302734</v>
       </c>
       <c r="D65" t="n">
-        <v>37.1272643398046</v>
+        <v>31.55999718002316</v>
       </c>
       <c r="E65" t="n">
-        <v>12.13573420857667</v>
+        <v>12.48452237175326</v>
       </c>
       <c r="F65" t="n">
-        <v>450.5666119194355</v>
+        <v>394.0114908464689</v>
       </c>
     </row>
     <row r="66">
@@ -2045,13 +2207,13 @@
         <v>435.770233154297</v>
       </c>
       <c r="D66" t="n">
-        <v>37.42237778084283</v>
+        <v>31.81085809133916</v>
       </c>
       <c r="E66" t="n">
-        <v>12.11804234952711</v>
+        <v>12.46632203823359</v>
       </c>
       <c r="F66" t="n">
-        <v>453.4859587682557</v>
+        <v>396.5644012791826</v>
       </c>
     </row>
     <row r="67">
@@ -2065,13 +2227,13 @@
         <v>437.687042236328</v>
       </c>
       <c r="D67" t="n">
-        <v>37.68997166612147</v>
+        <v>32.03832602938842</v>
       </c>
       <c r="E67" t="n">
-        <v>12.08493079714897</v>
+        <v>12.432258840299</v>
       </c>
       <c r="F67" t="n">
-        <v>455.4806993315837</v>
+        <v>398.3087620072457</v>
       </c>
     </row>
     <row r="68">
@@ -2085,13 +2247,13 @@
         <v>439.213562011719</v>
       </c>
       <c r="D68" t="n">
-        <v>37.96560530033108</v>
+        <v>32.27262814868161</v>
       </c>
       <c r="E68" t="n">
-        <v>12.03903559034753</v>
+        <v>12.38504457816858</v>
       </c>
       <c r="F68" t="n">
-        <v>457.0692734197729</v>
+        <v>399.69793827608</v>
       </c>
     </row>
     <row r="69">
@@ -2105,13 +2267,13 @@
         <v>440.662292480469</v>
       </c>
       <c r="D69" t="n">
-        <v>38.24759313154222</v>
+        <v>32.51233164733888</v>
       </c>
       <c r="E69" t="n">
-        <v>11.98969311614451</v>
+        <v>12.33428397213702</v>
       </c>
       <c r="F69" t="n">
-        <v>458.5769040783478</v>
+        <v>401.0163311345752</v>
       </c>
     </row>
     <row r="70">
@@ -2125,13 +2287,13 @@
         <v>441.684448242188</v>
       </c>
       <c r="D70" t="n">
-        <v>38.50184862692351</v>
+        <v>32.72846129922481</v>
       </c>
       <c r="E70" t="n">
-        <v>11.93814381005913</v>
+        <v>12.28125310857242</v>
       </c>
       <c r="F70" t="n">
-        <v>459.6406058613405</v>
+        <v>401.9465170698968</v>
       </c>
     </row>
     <row r="71">
@@ -2145,13 +2307,13 @@
         <v>442.584411621094</v>
       </c>
       <c r="D71" t="n">
-        <v>38.76202858700754</v>
+        <v>32.94962703692629</v>
       </c>
       <c r="E71" t="n">
-        <v>11.88217358089395</v>
+        <v>12.22367426198965</v>
       </c>
       <c r="F71" t="n">
-        <v>460.5771520183969</v>
+        <v>402.7655079534342</v>
       </c>
     </row>
     <row r="72">
@@ -2165,13 +2327,13 @@
         <v>443.175109863281</v>
       </c>
       <c r="D72" t="n">
-        <v>39.01353045794961</v>
+        <v>33.16341597286985</v>
       </c>
       <c r="E72" t="n">
-        <v>11.82133144367936</v>
+        <v>12.16108348584494</v>
       </c>
       <c r="F72" t="n">
-        <v>461.1918743315023</v>
+        <v>403.3030703218737</v>
       </c>
     </row>
     <row r="73">
@@ -2185,13 +2347,13 @@
         <v>443.731536865234</v>
       </c>
       <c r="D73" t="n">
-        <v>39.27985183496479</v>
+        <v>33.3898022164307</v>
       </c>
       <c r="E73" t="n">
-        <v>11.75592319707686</v>
+        <v>12.09379536763377</v>
       </c>
       <c r="F73" t="n">
-        <v>461.7709213644048</v>
+        <v>403.8094353712772</v>
       </c>
     </row>
     <row r="74">
@@ -2205,13 +2367,13 @@
         <v>444.007598876953</v>
       </c>
       <c r="D74" t="n">
-        <v>39.54067013525957</v>
+        <v>33.61151057464595</v>
       </c>
       <c r="E74" t="n">
-        <v>11.68564394983957</v>
+        <v>12.02149625335488</v>
       </c>
       <c r="F74" t="n">
-        <v>462.058192738698</v>
+        <v>404.0606484427044</v>
       </c>
     </row>
     <row r="75">
@@ -2225,13 +2387,13 @@
         <v>443.876220703125</v>
       </c>
       <c r="D75" t="n">
-        <v>39.78412808511261</v>
+        <v>33.81846178280644</v>
       </c>
       <c r="E75" t="n">
-        <v>11.61069787021297</v>
+        <v>11.94439617916967</v>
       </c>
       <c r="F75" t="n">
-        <v>461.9214912260971</v>
+        <v>403.9411057039486</v>
       </c>
     </row>
     <row r="76">
@@ -2245,13 +2407,13 @@
         <v>443.687347412109</v>
       </c>
       <c r="D76" t="n">
-        <v>40.04240554103854</v>
+        <v>34.03801029858401</v>
       </c>
       <c r="E76" t="n">
-        <v>11.53089893824016</v>
+        <v>11.86230377879783</v>
       </c>
       <c r="F76" t="n">
-        <v>461.7249315377432</v>
+        <v>403.7692181876526</v>
       </c>
     </row>
     <row r="77">
@@ -2265,13 +2427,13 @@
         <v>442.942657470703</v>
       </c>
       <c r="D77" t="n">
-        <v>40.27040981676576</v>
+        <v>34.23182512515258</v>
       </c>
       <c r="E77" t="n">
-        <v>11.44636874745382</v>
+        <v>11.77534414044198</v>
       </c>
       <c r="F77" t="n">
-        <v>460.9499603737852</v>
+        <v>403.0915214040999</v>
       </c>
     </row>
     <row r="78">
@@ -2285,13 +2447,13 @@
         <v>442.073425292969</v>
       </c>
       <c r="D78" t="n">
-        <v>40.50878607788086</v>
+        <v>34.4344566484375</v>
       </c>
       <c r="E78" t="n">
-        <v>11.35668172048879</v>
+        <v>11.6830794553923</v>
       </c>
       <c r="F78" t="n">
-        <v>460.0453903698605</v>
+        <v>402.3004930269569</v>
       </c>
     </row>
     <row r="79">
@@ -2305,13 +2467,13 @@
         <v>440.880218505859</v>
       </c>
       <c r="D79" t="n">
-        <v>40.73932702581877</v>
+        <v>34.6304277709045</v>
       </c>
       <c r="E79" t="n">
-        <v>11.26193585810274</v>
+        <v>11.58561054100607</v>
       </c>
       <c r="F79" t="n">
-        <v>458.8036878670426</v>
+        <v>401.2146490221407</v>
       </c>
     </row>
     <row r="80">
@@ -2325,13 +2487,13 @@
         <v>439.453948974609</v>
       </c>
       <c r="D80" t="n">
-        <v>40.96839102973943</v>
+        <v>34.82514341845707</v>
       </c>
       <c r="E80" t="n">
-        <v>11.16273822054639</v>
+        <v>11.4835619048039</v>
       </c>
       <c r="F80" t="n">
-        <v>457.3194243819621</v>
+        <v>399.9166902895258</v>
       </c>
     </row>
     <row r="81">
@@ -2345,13 +2507,13 @@
         <v>437.738189697266</v>
       </c>
       <c r="D81" t="n">
-        <v>41.1902538885355</v>
+        <v>35.01373773916627</v>
       </c>
       <c r="E81" t="n">
-        <v>11.05926484621815</v>
+        <v>11.37711464463164</v>
       </c>
       <c r="F81" t="n">
-        <v>455.5339268362811</v>
+        <v>398.3553083955601</v>
       </c>
     </row>
     <row r="82">
@@ -2365,13 +2527,13 @@
         <v>435.916564941406</v>
       </c>
       <c r="D82" t="n">
-        <v>41.42354846091266</v>
+        <v>35.21204957757564</v>
       </c>
       <c r="E82" t="n">
-        <v>10.95121628835772</v>
+        <v>11.26596070745239</v>
       </c>
       <c r="F82" t="n">
-        <v>453.6382386267218</v>
+        <v>396.6975669698326</v>
       </c>
     </row>
     <row r="83">
@@ -2385,13 +2547,13 @@
         <v>433.615020751953</v>
       </c>
       <c r="D83" t="n">
-        <v>41.62995764558314</v>
+        <v>35.38750751669311</v>
       </c>
       <c r="E83" t="n">
-        <v>10.83938471975821</v>
+        <v>11.15091503357285</v>
       </c>
       <c r="F83" t="n">
-        <v>451.2431267877155</v>
+        <v>394.6030895685652</v>
       </c>
     </row>
     <row r="84">
@@ -2405,13 +2567,13 @@
         <v>431.303588867188</v>
       </c>
       <c r="D84" t="n">
-        <v>41.85393996076585</v>
+        <v>35.57790347937013</v>
       </c>
       <c r="E84" t="n">
-        <v>10.72390625258368</v>
+        <v>11.03211764710097</v>
       </c>
       <c r="F84" t="n">
-        <v>448.8377284405188</v>
+        <v>392.4996168216141</v>
       </c>
     </row>
     <row r="85">
@@ -2425,13 +2587,13 @@
         <v>428.392852783203</v>
       </c>
       <c r="D85" t="n">
-        <v>42.03981378257269</v>
+        <v>35.73590535202022</v>
       </c>
       <c r="E85" t="n">
-        <v>10.60443969900998</v>
+        <v>10.90921755427321</v>
       </c>
       <c r="F85" t="n">
-        <v>445.8086702149007</v>
+        <v>389.8507659841047</v>
       </c>
     </row>
     <row r="86">
@@ -2445,13 +2607,13 @@
         <v>425.267486572266</v>
       </c>
       <c r="D86" t="n">
-        <v>42.22441926827435</v>
+        <v>35.89282907672123</v>
       </c>
       <c r="E86" t="n">
-        <v>10.48104948546144</v>
+        <v>10.78228103316734</v>
       </c>
       <c r="F86" t="n">
-        <v>442.556227845655</v>
+        <v>387.0065701806486</v>
       </c>
     </row>
     <row r="87">
@@ -2465,13 +2627,13 @@
         <v>422.291412353516</v>
       </c>
       <c r="D87" t="n">
-        <v>42.44141321840284</v>
+        <v>36.07728458605956</v>
       </c>
       <c r="E87" t="n">
-        <v>10.35448967332533</v>
+        <v>10.65208381733994</v>
       </c>
       <c r="F87" t="n">
-        <v>439.4591748912856</v>
+        <v>384.2982593127325</v>
       </c>
     </row>
     <row r="88">
@@ -2485,13 +2647,13 @@
         <v>418.757873535156</v>
       </c>
       <c r="D88" t="n">
-        <v>42.61860895106795</v>
+        <v>36.22790965695193</v>
       </c>
       <c r="E88" t="n">
-        <v>10.22515771012014</v>
+        <v>10.5190347771857</v>
       </c>
       <c r="F88" t="n">
-        <v>435.7819979106075</v>
+        <v>381.0826415862189</v>
       </c>
     </row>
     <row r="89">
@@ -2505,13 +2667,13 @@
         <v>415.2958984375</v>
       </c>
       <c r="D89" t="n">
-        <v>42.82311145942205</v>
+        <v>36.40174682760615</v>
       </c>
       <c r="E89" t="n">
-        <v>10.09219699662819</v>
+        <v>10.38225269431993</v>
       </c>
       <c r="F89" t="n">
-        <v>432.1792768570534</v>
+        <v>377.9321340788658</v>
       </c>
     </row>
     <row r="90">
@@ -2525,13 +2687,13 @@
         <v>411.4052734375</v>
       </c>
       <c r="D90" t="n">
-        <v>42.9981919078588</v>
+        <v>36.55057380307004</v>
       </c>
       <c r="E90" t="n">
-        <v>9.95694143205481</v>
+        <v>10.24310980499832</v>
       </c>
       <c r="F90" t="n">
-        <v>428.1304785108032</v>
+        <v>374.3915409005413</v>
       </c>
     </row>
     <row r="91">
@@ -2545,13 +2707,13 @@
         <v>407.353912353516</v>
       </c>
       <c r="D91" t="n">
-        <v>43.17030595178608</v>
+        <v>36.69687918908694</v>
       </c>
       <c r="E91" t="n">
-        <v>9.819583388257994</v>
+        <v>10.10180400995959</v>
       </c>
       <c r="F91" t="n">
-        <v>423.9144191901738</v>
+        <v>370.7046813453211</v>
       </c>
     </row>
     <row r="92">
@@ -2565,13 +2727,13 @@
         <v>403.253967285156</v>
       </c>
       <c r="D92" t="n">
-        <v>43.35427309727665</v>
+        <v>36.8532602932739</v>
       </c>
       <c r="E92" t="n">
-        <v>9.679502193770968</v>
+        <v>9.957696799272721</v>
       </c>
       <c r="F92" t="n">
-        <v>419.647781554435</v>
+        <v>366.973592065098</v>
       </c>
     </row>
     <row r="93">
@@ -2585,13 +2747,13 @@
         <v>398.75244140625</v>
       </c>
       <c r="D93" t="n">
-        <v>43.50839262270924</v>
+        <v>36.98426945526121</v>
       </c>
       <c r="E93" t="n">
-        <v>9.537545373666916</v>
+        <v>9.811660056381674</v>
       </c>
       <c r="F93" t="n">
-        <v>414.9632687744043</v>
+        <v>362.8770793286433</v>
       </c>
     </row>
     <row r="94">
@@ -2605,13 +2767,13 @@
         <v>394.175140380859</v>
       </c>
       <c r="D94" t="n">
-        <v>43.66674688875673</v>
+        <v>37.11887835464476</v>
       </c>
       <c r="E94" t="n">
-        <v>9.393872632884658</v>
+        <v>9.663858076239464</v>
       </c>
       <c r="F94" t="n">
-        <v>410.1998585653932</v>
+        <v>358.711572368484</v>
       </c>
     </row>
     <row r="95">
@@ -2625,13 +2787,13 @@
         <v>389.692321777344</v>
       </c>
       <c r="D95" t="n">
-        <v>43.84859875001905</v>
+        <v>37.27346136340331</v>
       </c>
       <c r="E95" t="n">
-        <v>9.248523897658924</v>
+        <v>9.514331932584366</v>
       </c>
       <c r="F95" t="n">
-        <v>405.5348134184084</v>
+        <v>354.6320836877777</v>
       </c>
     </row>
     <row r="96">
@@ -2645,13 +2807,13 @@
         <v>384.8408203125</v>
       </c>
       <c r="D96" t="n">
-        <v>43.99848353483677</v>
+        <v>37.40087078799439</v>
       </c>
       <c r="E96" t="n">
-        <v>9.102269562836771</v>
+        <v>9.363874161865999</v>
       </c>
       <c r="F96" t="n">
-        <v>400.4860574901195</v>
+        <v>350.2170476029895</v>
       </c>
     </row>
     <row r="97">
@@ -2665,13 +2827,13 @@
         <v>379.962585449219</v>
       </c>
       <c r="D97" t="n">
-        <v>44.15662502081389</v>
+        <v>37.53529881387325</v>
       </c>
       <c r="E97" t="n">
-        <v>8.954704014170096</v>
+        <v>9.212067492243394</v>
       </c>
       <c r="F97" t="n">
-        <v>395.4095073260858</v>
+        <v>345.7777060149238</v>
       </c>
     </row>
     <row r="98">
@@ -2685,13 +2847,13 @@
         <v>374.849945068359</v>
       </c>
       <c r="D98" t="n">
-        <v>44.29486531198029</v>
+        <v>37.65280984725956</v>
       </c>
       <c r="E98" t="n">
-        <v>8.806642109812802</v>
+        <v>9.059750201374692</v>
       </c>
       <c r="F98" t="n">
-        <v>390.089026104972</v>
+        <v>341.1250515960328</v>
       </c>
     </row>
     <row r="99">
@@ -2705,13 +2867,13 @@
         <v>369.802642822266</v>
       </c>
       <c r="D99" t="n">
-        <v>44.45195124192237</v>
+        <v>37.78634059869384</v>
       </c>
       <c r="E99" t="n">
-        <v>8.657359733053523</v>
+        <v>8.906177361006899</v>
       </c>
       <c r="F99" t="n">
-        <v>384.8365327374772</v>
+        <v>336.531851195383</v>
       </c>
     </row>
     <row r="100">
@@ -2725,13 +2887,13 @@
         <v>364.553985595703</v>
       </c>
       <c r="D100" t="n">
-        <v>44.59273237745762</v>
+        <v>37.90601147451783</v>
       </c>
       <c r="E100" t="n">
-        <v>8.507541074368893</v>
+        <v>8.752052825654728</v>
       </c>
       <c r="F100" t="n">
-        <v>379.3745023195603</v>
+        <v>331.7554148348543</v>
       </c>
     </row>
     <row r="101">
@@ -2745,13 +2907,13 @@
         <v>359.116546630859</v>
       </c>
       <c r="D101" t="n">
-        <v>44.71551899449821</v>
+        <v>38.01038612631222</v>
       </c>
       <c r="E101" t="n">
-        <v>8.357635303899443</v>
+        <v>8.59783867487363</v>
       </c>
       <c r="F101" t="n">
-        <v>373.7160001806043</v>
+        <v>326.8071678836873</v>
       </c>
     </row>
     <row r="102">
@@ -2765,13 +2927,13 @@
         <v>353.811737060547</v>
       </c>
       <c r="D102" t="n">
-        <v>44.85841541426182</v>
+        <v>38.1318550975647</v>
       </c>
       <c r="E102" t="n">
-        <v>8.207948220306488</v>
+        <v>8.443849496158919</v>
       </c>
       <c r="F102" t="n">
-        <v>368.1955509652594</v>
+        <v>321.9796454531766</v>
       </c>
     </row>
     <row r="103">
@@ -2785,13 +2947,13 @@
         <v>348.412170410156</v>
       </c>
       <c r="D103" t="n">
-        <v>44.99560014939307</v>
+        <v>38.24846885650634</v>
       </c>
       <c r="E103" t="n">
-        <v>8.058042449837037</v>
+        <v>8.289635345377821</v>
       </c>
       <c r="F103" t="n">
-        <v>362.5764560597031</v>
+        <v>317.0658593394778</v>
       </c>
     </row>
     <row r="104">
@@ -2805,13 +2967,13 @@
         <v>342.955078125</v>
       </c>
       <c r="D104" t="n">
-        <v>45.12431540329456</v>
+        <v>38.35788314065552</v>
       </c>
       <c r="E104" t="n">
-        <v>7.90920652097498</v>
+        <v>8.136521784083291</v>
       </c>
       <c r="F104" t="n">
-        <v>356.897529642269</v>
+        <v>312.0997517652648</v>
       </c>
     </row>
     <row r="105">
@@ -2825,13 +2987,13 @@
         <v>337.252044677734</v>
       </c>
       <c r="D105" t="n">
-        <v>45.22339164505004</v>
+        <v>38.44210280957032</v>
       </c>
       <c r="E105" t="n">
-        <v>7.760643723854941</v>
+        <v>7.983689204498237</v>
       </c>
       <c r="F105" t="n">
-        <v>350.9626305415916</v>
+        <v>306.9098011989778</v>
       </c>
     </row>
     <row r="106">
@@ -2845,13 +3007,13 @@
         <v>331.736968994141</v>
       </c>
       <c r="D106" t="n">
-        <v>45.34977883465292</v>
+        <v>38.54953812478639</v>
       </c>
       <c r="E106" t="n">
-        <v>7.61245931855023</v>
+        <v>7.831245891932594</v>
       </c>
       <c r="F106" t="n">
-        <v>345.2233464840456</v>
+        <v>301.8909120756324</v>
       </c>
     </row>
     <row r="107">
@@ -2865,13 +3027,13 @@
         <v>326.303466796875</v>
       </c>
       <c r="D107" t="n">
-        <v>45.48526550137998</v>
+        <v>38.66470844223024</v>
       </c>
       <c r="E107" t="n">
-        <v>7.465471792872452</v>
+        <v>7.680033858020713</v>
       </c>
       <c r="F107" t="n">
-        <v>339.5689665918667</v>
+        <v>296.9462699468275</v>
       </c>
     </row>
     <row r="108">
@@ -2885,13 +3047,13 @@
         <v>320.606201171875</v>
       </c>
       <c r="D108" t="n">
-        <v>45.5851928634167</v>
+        <v>38.7496516051636</v>
       </c>
       <c r="E108" t="n">
-        <v>7.319044595602291</v>
+        <v>7.529398256685566</v>
       </c>
       <c r="F108" t="n">
-        <v>333.6400594664781</v>
+        <v>291.7615592430918</v>
       </c>
     </row>
     <row r="109">
@@ -2905,13 +3067,13 @@
         <v>314.879913330078</v>
       </c>
       <c r="D109" t="n">
-        <v>45.67664657206538</v>
+        <v>38.82739174676516</v>
       </c>
       <c r="E109" t="n">
-        <v>7.173928158469426</v>
+        <v>7.38011108750762</v>
       </c>
       <c r="F109" t="n">
-        <v>327.6809810277958</v>
+        <v>286.5504643293034</v>
       </c>
     </row>
     <row r="110">
@@ -2925,13 +3087,13 @@
         <v>309.328063964844</v>
       </c>
       <c r="D110" t="n">
-        <v>45.78652035934925</v>
+        <v>38.92078985940552</v>
       </c>
       <c r="E110" t="n">
-        <v>7.030528549429177</v>
+        <v>7.232590089074874</v>
       </c>
       <c r="F110" t="n">
-        <v>321.9034385654251</v>
+        <v>281.4981189961022</v>
       </c>
     </row>
     <row r="111">
@@ -2945,13 +3107,13 @@
         <v>303.815856933594</v>
       </c>
       <c r="D111" t="n">
-        <v>45.89321913421153</v>
+        <v>39.01148905563355</v>
       </c>
       <c r="E111" t="n">
-        <v>6.889190585963152</v>
+        <v>7.087189989126855</v>
       </c>
       <c r="F111" t="n">
-        <v>316.1671332189541</v>
+        <v>276.481834696018</v>
       </c>
     </row>
     <row r="112">
@@ -2965,13 +3127,13 @@
         <v>292.896850585938</v>
       </c>
       <c r="D112" t="n">
-        <v>46.10110943505768</v>
+        <v>39.18820601620487</v>
       </c>
       <c r="E112" t="n">
-        <v>6.611646541313235</v>
+        <v>6.80166916483837</v>
       </c>
       <c r="F112" t="n">
-        <v>304.804240747002</v>
+        <v>266.5452124857542</v>
       </c>
     </row>
     <row r="113">
@@ -2985,13 +3147,13 @@
         <v>276.473114013672</v>
       </c>
       <c r="D113" t="n">
-        <v>46.36573691582684</v>
+        <v>39.41315236480717</v>
       </c>
       <c r="E113" t="n">
-        <v>6.205289120802109</v>
+        <v>6.383632792245954</v>
       </c>
       <c r="F113" t="n">
-        <v>287.712802861753</v>
+        <v>251.5990918817692</v>
       </c>
     </row>
     <row r="114">
@@ -3005,13 +3167,13 @@
         <v>265.689422607422</v>
       </c>
       <c r="D114" t="n">
-        <v>46.52535951797962</v>
+        <v>39.54883941213989</v>
       </c>
       <c r="E114" t="n">
-        <v>5.942795905516962</v>
+        <v>6.113595367040577</v>
       </c>
       <c r="F114" t="n">
-        <v>276.4907160461539</v>
+        <v>241.7856014018902</v>
       </c>
     </row>
     <row r="115">
@@ -3025,13 +3187,13 @@
         <v>250.109069824219</v>
       </c>
       <c r="D115" t="n">
-        <v>46.77770833704475</v>
+        <v>39.76334829556278</v>
       </c>
       <c r="E115" t="n">
-        <v>5.564123699120908</v>
+        <v>5.724039897955598</v>
       </c>
       <c r="F115" t="n">
-        <v>260.2769555487164</v>
+        <v>227.6069921201061</v>
       </c>
     </row>
     <row r="116">
@@ -3045,13 +3207,13 @@
         <v>240.033813476563</v>
       </c>
       <c r="D116" t="n">
-        <v>46.95299739339347</v>
+        <v>39.91235259799191</v>
       </c>
       <c r="E116" t="n">
-        <v>5.320046005889458</v>
+        <v>5.472947267775841</v>
       </c>
       <c r="F116" t="n">
-        <v>249.7921062472611</v>
+        <v>218.4382011016858</v>
       </c>
     </row>
     <row r="117">
@@ -3065,13 +3227,13 @@
         <v>220.378524780273</v>
       </c>
       <c r="D117" t="n">
-        <v>47.17337913601401</v>
+        <v>40.09968789724734</v>
       </c>
       <c r="E117" t="n">
-        <v>4.861592562101796</v>
+        <v>5.001317601452944</v>
       </c>
       <c r="F117" t="n">
-        <v>229.3377491368537</v>
+        <v>200.5512748932727</v>
       </c>
     </row>
     <row r="118">
@@ -3085,13 +3247,13 @@
         <v>202.158142089844</v>
       </c>
       <c r="D118" t="n">
-        <v>47.43970051302907</v>
+        <v>40.32607414080808</v>
       </c>
       <c r="E118" t="n">
-        <v>4.434611426533078</v>
+        <v>4.562064776060891</v>
       </c>
       <c r="F118" t="n">
-        <v>210.3766379663858</v>
+        <v>183.9701623946005</v>
       </c>
     </row>
     <row r="119">
@@ -3105,13 +3267,13 @@
         <v>188.983428955078</v>
       </c>
       <c r="D119" t="n">
-        <v>47.61710902576443</v>
+        <v>40.47688008520505</v>
       </c>
       <c r="E119" t="n">
-        <v>4.130161183052182</v>
+        <v>4.248864452908069</v>
       </c>
       <c r="F119" t="n">
-        <v>196.6663353473759</v>
+        <v>171.9807769586503</v>
       </c>
     </row>
     <row r="120">
@@ -3125,13 +3287,13 @@
         <v>169.722152709961</v>
       </c>
       <c r="D120" t="n">
-        <v>47.84892248196604</v>
+        <v>40.67393290216067</v>
       </c>
       <c r="E120" t="n">
-        <v>3.691243010719006</v>
+        <v>3.797331513270191</v>
       </c>
       <c r="F120" t="n">
-        <v>176.6220006819927</v>
+        <v>154.452407178012</v>
       </c>
     </row>
     <row r="121">
@@ -3145,13 +3307,13 @@
         <v>151.712615966797</v>
       </c>
       <c r="D121" t="n">
-        <v>48.04347439291472</v>
+        <v>40.83931157656856</v>
       </c>
       <c r="E121" t="n">
-        <v>3.286196804052393</v>
+        <v>3.380644039582005</v>
       </c>
       <c r="F121" t="n">
-        <v>157.8803120055694</v>
+        <v>138.0631752619589</v>
       </c>
     </row>
     <row r="122">
@@ -3165,13 +3327,13 @@
         <v>133.0908203125</v>
       </c>
       <c r="D122" t="n">
-        <v>48.24861524147992</v>
+        <v>41.01369136773685</v>
       </c>
       <c r="E122" t="n">
-        <v>2.870579219331367</v>
+        <v>2.953081360195319</v>
       </c>
       <c r="F122" t="n">
-        <v>138.5014722737069</v>
+        <v>121.1167674908673</v>
       </c>
     </row>
     <row r="123">
@@ -3185,13 +3347,13 @@
         <v>108.346260070801</v>
       </c>
       <c r="D123" t="n">
-        <v>48.48826401085858</v>
+        <v>41.21740458551029</v>
       </c>
       <c r="E123" t="n">
-        <v>2.32532455330459</v>
+        <v>2.392155753279564</v>
       </c>
       <c r="F123" t="n">
-        <v>112.7509508515648</v>
+        <v>98.59845151447995</v>
       </c>
     </row>
     <row r="124">
@@ -3205,13 +3367,13 @@
         <v>90.46730804443359</v>
       </c>
       <c r="D124" t="n">
-        <v>48.68070063757892</v>
+        <v>41.38098516448971</v>
       </c>
       <c r="E124" t="n">
-        <v>1.933931757787843</v>
+        <v>1.989514097835384</v>
       </c>
       <c r="F124" t="n">
-        <v>94.14515295437675</v>
+        <v>82.32805336706917</v>
       </c>
     </row>
     <row r="125">
@@ -3225,13 +3387,13 @@
         <v>65.5559768676758</v>
       </c>
       <c r="D125" t="n">
-        <v>48.93559030101302</v>
+        <v>41.59765389035037</v>
       </c>
       <c r="E125" t="n">
-        <v>1.394099346659286</v>
+        <v>1.434166584623622</v>
       </c>
       <c r="F125" t="n">
-        <v>68.22107446702874</v>
+        <v>59.6579652082793</v>
       </c>
     </row>
     <row r="126">
@@ -3245,13 +3407,13 @@
         <v>43.2699127197266</v>
       </c>
       <c r="D126" t="n">
-        <v>49.1284483157158</v>
+        <v>41.76159266979982</v>
       </c>
       <c r="E126" t="n">
-        <v>0.9165565121803624</v>
+        <v>0.9428988872552052</v>
       </c>
       <c r="F126" t="n">
-        <v>45.02899923708567</v>
+        <v>39.37695925835938</v>
       </c>
     </row>
     <row r="127">
@@ -3265,13 +3427,13 @@
         <v>33.6314315795898</v>
       </c>
       <c r="D127" t="n">
-        <v>49.23662820675375</v>
+        <v>41.85355088748171</v>
       </c>
       <c r="E127" t="n">
-        <v>0.7108260391341301</v>
+        <v>0.7312555989997759</v>
       </c>
       <c r="F127" t="n">
-        <v>34.99867740852655</v>
+        <v>30.60564342449304</v>
       </c>
     </row>
     <row r="128">
@@ -3285,13 +3447,13 @@
         <v>12.2988405227661</v>
       </c>
       <c r="D128" t="n">
-        <v>49.42568121314044</v>
+        <v>42.01425522308345</v>
       </c>
       <c r="E128" t="n">
-        <v>0.2589511230760898</v>
+        <v>0.2663935311758315</v>
       </c>
       <c r="F128" t="n">
-        <v>12.79883565894351</v>
+        <v>11.19232580859982</v>
       </c>
     </row>
     <row r="129">
@@ -3305,13 +3467,13 @@
         <v>0.647852003574371</v>
       </c>
       <c r="D129" t="n">
-        <v>49.51078489694599</v>
+        <v>42.08659753186038</v>
       </c>
       <c r="E129" t="n">
-        <v>0.01361702595816245</v>
+        <v>0.01400838732042093</v>
       </c>
       <c r="F129" t="n">
-        <v>0.6741896431507108</v>
+        <v>0.5895653592249718</v>
       </c>
     </row>
   </sheetData>
@@ -3376,13 +3538,13 @@
         <v>5.85843133926392</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4948950545573608</v>
+        <v>0.420685089622736</v>
       </c>
       <c r="E2" t="n">
-        <v>12.3189738479585</v>
+        <v>12.67302842651158</v>
       </c>
       <c r="F2" t="n">
-        <v>6.096599234576122</v>
+        <v>5.331354099398506</v>
       </c>
     </row>
     <row r="3">
@@ -3396,13 +3558,13 @@
         <v>223.587478637695</v>
       </c>
       <c r="D3" t="n">
-        <v>18.89230019359591</v>
+        <v>16.05938254370119</v>
       </c>
       <c r="E3" t="n">
-        <v>12.31597847294073</v>
+        <v>12.66994696264805</v>
       </c>
       <c r="F3" t="n">
-        <v>232.6771624886612</v>
+        <v>203.47152508157</v>
       </c>
     </row>
     <row r="4">
@@ -3416,13 +3578,13 @@
         <v>227.061065673828</v>
       </c>
       <c r="D4" t="n">
-        <v>19.18974169893263</v>
+        <v>16.31222242395018</v>
       </c>
       <c r="E4" t="n">
-        <v>12.31345223118074</v>
+        <v>12.667348115209</v>
       </c>
       <c r="F4" t="n">
-        <v>236.2919677385041</v>
+        <v>206.6325999768953</v>
       </c>
     </row>
     <row r="5">
@@ -3436,13 +3598,13 @@
         <v>230.399353027344</v>
       </c>
       <c r="D5" t="n">
-        <v>19.47638774482007</v>
+        <v>16.55588563374324</v>
       </c>
       <c r="E5" t="n">
-        <v>12.31059750539885</v>
+        <v>12.66441134292339</v>
       </c>
       <c r="F5" t="n">
-        <v>239.7659703855627</v>
+        <v>209.6705458121203</v>
       </c>
     </row>
     <row r="6">
@@ -3456,13 +3618,13 @@
         <v>234.00439453125</v>
       </c>
       <c r="D6" t="n">
-        <v>19.7856844377995</v>
+        <v>16.81880300543217</v>
       </c>
       <c r="E6" t="n">
-        <v>12.30776546497758</v>
+        <v>12.66149790798906</v>
       </c>
       <c r="F6" t="n">
-        <v>243.517563624493</v>
+        <v>212.9512390681595</v>
       </c>
     </row>
     <row r="7">
@@ -3476,13 +3638,13 @@
         <v>237.518417358398</v>
       </c>
       <c r="D7" t="n">
-        <v>20.08820554579497</v>
+        <v>17.07596079728699</v>
       </c>
       <c r="E7" t="n">
-        <v>12.30445612456855</v>
+        <v>12.65809345518363</v>
       </c>
       <c r="F7" t="n">
-        <v>247.1744437595488</v>
+        <v>216.1491076091107</v>
       </c>
     </row>
     <row r="8">
@@ -3496,13 +3658,13 @@
         <v>241.030349731445</v>
       </c>
       <c r="D8" t="n">
-        <v>20.39115221393106</v>
+        <v>17.3334803361511</v>
       </c>
       <c r="E8" t="n">
-        <v>12.30088181914742</v>
+        <v>12.65441642211529</v>
       </c>
       <c r="F8" t="n">
-        <v>250.8291535398123</v>
+        <v>219.3450782182029</v>
       </c>
     </row>
     <row r="9">
@@ -3516,13 +3678,13 @@
         <v>244.475662231445</v>
       </c>
       <c r="D9" t="n">
-        <v>20.68944066739084</v>
+        <v>17.58704016387941</v>
       </c>
       <c r="E9" t="n">
-        <v>12.29683021373863</v>
+        <v>12.65024837117595</v>
       </c>
       <c r="F9" t="n">
-        <v>254.4145391041245</v>
+        <v>222.4804261869216</v>
       </c>
     </row>
     <row r="10">
@@ -3536,13 +3698,13 @@
         <v>247.878173828125</v>
       </c>
       <c r="D10" t="n">
-        <v>20.98709286671873</v>
+        <v>17.84005914436337</v>
       </c>
       <c r="E10" t="n">
-        <v>12.29114344753537</v>
+        <v>12.64439816395591</v>
       </c>
       <c r="F10" t="n">
-        <v>257.9553689715863</v>
+        <v>225.5768110898531</v>
       </c>
     </row>
     <row r="11">
@@ -3556,13 +3718,13 @@
         <v>251.213989257813</v>
       </c>
       <c r="D11" t="n">
-        <v>21.2800889374494</v>
+        <v>18.08912018698116</v>
       </c>
       <c r="E11" t="n">
-        <v>12.28504290035426</v>
+        <v>12.63812228344852</v>
       </c>
       <c r="F11" t="n">
-        <v>261.42680551992</v>
+        <v>228.612512923065</v>
       </c>
     </row>
     <row r="12">
@@ -3576,13 +3738,13 @@
         <v>254.747055053711</v>
       </c>
       <c r="D12" t="n">
-        <v>21.58769173418282</v>
+        <v>18.35059766371153</v>
       </c>
       <c r="E12" t="n">
-        <v>12.2803080118832</v>
+        <v>12.63325131148846</v>
       </c>
       <c r="F12" t="n">
-        <v>265.1035037613499</v>
+        <v>231.8277120016807</v>
       </c>
     </row>
     <row r="13">
@@ -3596,13 +3758,13 @@
         <v>258.400726318359</v>
       </c>
       <c r="D13" t="n">
-        <v>21.903764012146</v>
+        <v>18.61927461523437</v>
       </c>
       <c r="E13" t="n">
-        <v>12.27668924315524</v>
+        <v>12.6295285372116</v>
       </c>
       <c r="F13" t="n">
-        <v>268.9057040325235</v>
+        <v>235.1526600952821</v>
       </c>
     </row>
     <row r="14">
@@ -3616,13 +3778,13 @@
         <v>261.660003662109</v>
       </c>
       <c r="D14" t="n">
-        <v>22.18575184335713</v>
+        <v>18.85897811389164</v>
       </c>
       <c r="E14" t="n">
-        <v>12.27352962612646</v>
+        <v>12.62627811092474</v>
       </c>
       <c r="F14" t="n">
-        <v>272.2974825273335</v>
+        <v>238.1187025538388</v>
       </c>
     </row>
     <row r="15">
@@ -3636,13 +3798,13 @@
         <v>265.022399902344</v>
       </c>
       <c r="D15" t="n">
-        <v>22.47726471183295</v>
+        <v>19.10677836178585</v>
       </c>
       <c r="E15" t="n">
-        <v>12.27002428420161</v>
+        <v>12.62267202340426</v>
       </c>
       <c r="F15" t="n">
-        <v>275.7965838566183</v>
+        <v>241.1785966847001</v>
       </c>
     </row>
     <row r="16">
@@ -3656,13 +3818,13 @@
         <v>268.510437011719</v>
       </c>
       <c r="D16" t="n">
-        <v>22.77978790590761</v>
+        <v>19.36393792691039</v>
       </c>
       <c r="E16" t="n">
-        <v>12.26641821927558</v>
+        <v>12.6189623180441</v>
       </c>
       <c r="F16" t="n">
-        <v>279.4264054002587</v>
+        <v>244.3528030286271</v>
       </c>
     </row>
     <row r="17">
@@ -3676,13 +3838,13 @@
         <v>272.117462158203</v>
       </c>
       <c r="D17" t="n">
-        <v>23.09458767560722</v>
+        <v>19.63153318394471</v>
       </c>
       <c r="E17" t="n">
-        <v>12.26175138688638</v>
+        <v>12.61416135813786</v>
       </c>
       <c r="F17" t="n">
-        <v>283.1800924609459</v>
+        <v>247.6353272899165</v>
       </c>
     </row>
     <row r="18">
@@ -3696,13 +3858,13 @@
         <v>275.489318847656</v>
       </c>
       <c r="D18" t="n">
-        <v>23.38949042265416</v>
+        <v>19.88221499502565</v>
       </c>
       <c r="E18" t="n">
-        <v>12.25717166628203</v>
+        <v>12.60945001366058</v>
       </c>
       <c r="F18" t="n">
-        <v>286.6889992973316</v>
+        <v>250.7037961406286</v>
       </c>
     </row>
     <row r="19">
@@ -3716,13 +3878,13 @@
         <v>278.742340087891</v>
       </c>
       <c r="D19" t="n">
-        <v>23.67634716253276</v>
+        <v>20.12605730505367</v>
       </c>
       <c r="E19" t="n">
-        <v>12.25164914208987</v>
+        <v>12.60376876886396</v>
       </c>
       <c r="F19" t="n">
-        <v>290.0742984016665</v>
+        <v>253.6641725018018</v>
       </c>
     </row>
     <row r="20">
@@ -3736,13 +3898,13 @@
         <v>282.199371337891</v>
       </c>
       <c r="D20" t="n">
-        <v>23.98479690738914</v>
+        <v>20.38825472926328</v>
       </c>
       <c r="E20" t="n">
-        <v>12.24408312061194</v>
+        <v>12.59598529546359</v>
       </c>
       <c r="F20" t="n">
-        <v>293.6718469650689</v>
+        <v>256.8101567699663</v>
       </c>
     </row>
     <row r="21">
@@ -3756,13 +3918,13 @@
         <v>285.396697998047</v>
       </c>
       <c r="D21" t="n">
-        <v>24.27419240555762</v>
+        <v>20.63425510845947</v>
       </c>
       <c r="E21" t="n">
-        <v>12.23518229251447</v>
+        <v>12.58682865231369</v>
       </c>
       <c r="F21" t="n">
-        <v>296.9991690855679</v>
+        <v>259.7198334183078</v>
       </c>
     </row>
     <row r="22">
@@ -3776,13 +3938,13 @@
         <v>288.606811523438</v>
       </c>
       <c r="D22" t="n">
-        <v>24.56020219731327</v>
+        <v>20.87737747100827</v>
       </c>
       <c r="E22" t="n">
-        <v>12.22871787214881</v>
+        <v>12.58017844069168</v>
       </c>
       <c r="F22" t="n">
-        <v>300.3397835538732</v>
+        <v>262.6411339589604</v>
       </c>
     </row>
     <row r="23">
@@ -3796,13 +3958,13 @@
         <v>292.164184570313</v>
       </c>
       <c r="D23" t="n">
-        <v>24.86822846810822</v>
+        <v>21.13921492147831</v>
       </c>
       <c r="E23" t="n">
-        <v>12.22611359274826</v>
+        <v>12.57749931276422</v>
       </c>
       <c r="F23" t="n">
-        <v>304.0417861015072</v>
+        <v>265.8784611472685</v>
       </c>
     </row>
     <row r="24">
@@ -3816,13 +3978,13 @@
         <v>295.510894775391</v>
       </c>
       <c r="D24" t="n">
-        <v>25.15508520798682</v>
+        <v>21.38305723150634</v>
       </c>
       <c r="E24" t="n">
-        <v>12.22514356672768</v>
+        <v>12.57650140762334</v>
       </c>
       <c r="F24" t="n">
-        <v>307.5245281009068</v>
+        <v>268.9240493713299</v>
       </c>
     </row>
     <row r="25">
@@ -3836,13 +3998,13 @@
         <v>299.052185058594</v>
       </c>
       <c r="D25" t="n">
-        <v>25.45803187612291</v>
+        <v>21.64057677037045</v>
       </c>
       <c r="E25" t="n">
-        <v>12.22442489450286</v>
+        <v>12.57576208033464</v>
       </c>
       <c r="F25" t="n">
-        <v>311.2097986315243</v>
+        <v>272.1467447453954</v>
       </c>
     </row>
     <row r="26">
@@ -3856,13 +4018,13 @@
         <v>302.450286865234</v>
       </c>
       <c r="D26" t="n">
-        <v>25.74933405060767</v>
+        <v>21.88819791802978</v>
       </c>
       <c r="E26" t="n">
-        <v>12.22346394262648</v>
+        <v>12.57477351013421</v>
       </c>
       <c r="F26" t="n">
-        <v>314.746056314247</v>
+        <v>275.2391313642157</v>
       </c>
     </row>
     <row r="27">
@@ -3876,13 +4038,13 @@
         <v>305.866607666016</v>
       </c>
       <c r="D27" t="n">
-        <v>26.04148317321539</v>
+        <v>22.13653901316833</v>
       </c>
       <c r="E27" t="n">
-        <v>12.22285416013272</v>
+        <v>12.57414620213171</v>
       </c>
       <c r="F27" t="n">
-        <v>318.3012509397618</v>
+        <v>278.3480779607711</v>
       </c>
     </row>
     <row r="28">
@@ -3896,13 +4058,13 @@
         <v>309.704437255859</v>
       </c>
       <c r="D28" t="n">
-        <v>26.37004480687376</v>
+        <v>22.41583253010556</v>
       </c>
       <c r="E28" t="n">
-        <v>12.22201570920372</v>
+        <v>12.5732836536282</v>
       </c>
       <c r="F28" t="n">
-        <v>322.2951018820172</v>
+        <v>281.8406207332436</v>
       </c>
     </row>
     <row r="29">
@@ -3916,13 +4078,13 @@
         <v>313.045166015625</v>
       </c>
       <c r="D29" t="n">
-        <v>26.65520765050645</v>
+        <v>22.65823494517514</v>
       </c>
       <c r="E29" t="n">
-        <v>12.22168813259622</v>
+        <v>12.57294666227568</v>
       </c>
       <c r="F29" t="n">
-        <v>325.7716350140828</v>
+        <v>284.8807794269979</v>
       </c>
     </row>
     <row r="30">
@@ -3936,13 +4098,13 @@
         <v>316.451873779297</v>
       </c>
       <c r="D30" t="n">
-        <v>26.94629704492096</v>
+        <v>22.90567521932987</v>
       </c>
       <c r="E30" t="n">
-        <v>12.22122807348263</v>
+        <v>12.57247338079165</v>
       </c>
       <c r="F30" t="n">
-        <v>329.31684192179</v>
+        <v>287.9809919640837</v>
       </c>
     </row>
     <row r="31">
@@ -3956,13 +4118,13 @@
         <v>319.86474609375</v>
       </c>
       <c r="D31" t="n">
-        <v>27.23929311565163</v>
+        <v>23.15473626194765</v>
       </c>
       <c r="E31" t="n">
-        <v>12.22015823187518</v>
+        <v>12.57137279130503</v>
       </c>
       <c r="F31" t="n">
-        <v>332.8684719976911</v>
+        <v>291.0868214332926</v>
       </c>
     </row>
     <row r="32">
@@ -3976,13 +4138,13 @@
         <v>323.508056640625</v>
       </c>
       <c r="D32" t="n">
-        <v>27.55049648494723</v>
+        <v>23.41927440209963</v>
       </c>
       <c r="E32" t="n">
-        <v>12.21973991382518</v>
+        <v>12.5709424505474</v>
       </c>
       <c r="F32" t="n">
-        <v>336.6599015428101</v>
+        <v>294.4023507423723</v>
       </c>
     </row>
     <row r="33">
@@ -3996,13 +4158,13 @@
         <v>326.92626953125</v>
       </c>
       <c r="D33" t="n">
-        <v>27.84264560755495</v>
+        <v>23.66761549723819</v>
       </c>
       <c r="E33" t="n">
-        <v>12.21927985471149</v>
+        <v>12.57046916906327</v>
       </c>
       <c r="F33" t="n">
-        <v>340.2170785742676</v>
+        <v>297.5130309132768</v>
       </c>
     </row>
     <row r="34">
@@ -4016,13 +4178,13 @@
         <v>330.467529296875</v>
       </c>
       <c r="D34" t="n">
-        <v>28.14537949562078</v>
+        <v>23.9249541625977</v>
       </c>
       <c r="E34" t="n">
-        <v>12.21878349902094</v>
+        <v>12.56995854781725</v>
       </c>
       <c r="F34" t="n">
-        <v>343.9022985547736</v>
+        <v>300.7356820822808</v>
       </c>
     </row>
     <row r="35">
@@ -4036,13 +4198,13 @@
         <v>333.988739013672</v>
       </c>
       <c r="D35" t="n">
-        <v>28.44726643556355</v>
+        <v>24.18157288047789</v>
       </c>
       <c r="E35" t="n">
-        <v>12.21792780721788</v>
+        <v>12.56907826292677</v>
       </c>
       <c r="F35" t="n">
-        <v>347.5666476224078</v>
+        <v>303.9400820553942</v>
       </c>
     </row>
     <row r="36">
@@ -4056,13 +4218,13 @@
         <v>337.316162109375</v>
       </c>
       <c r="D36" t="n">
-        <v>28.73179302506446</v>
+        <v>24.42343444830322</v>
       </c>
       <c r="E36" t="n">
-        <v>12.21745413688785</v>
+        <v>12.56859097903192</v>
       </c>
       <c r="F36" t="n">
-        <v>351.0293635542794</v>
+        <v>306.9681578839212</v>
       </c>
     </row>
     <row r="37">
@@ -4076,13 +4238,13 @@
         <v>340.818725585938</v>
       </c>
       <c r="D37" t="n">
-        <v>29.03219884883168</v>
+        <v>24.67879414472964</v>
       </c>
       <c r="E37" t="n">
-        <v>12.21658483386846</v>
+        <v>12.56769669173072</v>
       </c>
       <c r="F37" t="n">
-        <v>354.6743201504905</v>
+        <v>310.1555995286221</v>
       </c>
     </row>
     <row r="38">
@@ -4096,13 +4258,13 @@
         <v>344.260040283203</v>
       </c>
       <c r="D38" t="n">
-        <v>29.32667603573801</v>
+        <v>24.92911420880128</v>
       </c>
       <c r="E38" t="n">
-        <v>12.21602949624023</v>
+        <v>12.56712539337132</v>
       </c>
       <c r="F38" t="n">
-        <v>358.255539479257</v>
+        <v>313.2873042076803</v>
       </c>
     </row>
     <row r="39">
@@ -4116,13 +4278,13 @@
         <v>347.845550537109</v>
       </c>
       <c r="D39" t="n">
-        <v>29.63449161254168</v>
+        <v>25.19077255903626</v>
       </c>
       <c r="E39" t="n">
-        <v>12.21505039607536</v>
+        <v>12.56611815328989</v>
       </c>
       <c r="F39" t="n">
-        <v>361.9868085092693</v>
+        <v>316.5502243495022</v>
       </c>
     </row>
     <row r="40">
@@ -4136,13 +4298,13 @@
         <v>351.218902587891</v>
       </c>
       <c r="D40" t="n">
-        <v>29.92346572272772</v>
+        <v>25.43641473776241</v>
       </c>
       <c r="E40" t="n">
-        <v>12.21440431700455</v>
+        <v>12.56545350552529</v>
       </c>
       <c r="F40" t="n">
-        <v>365.4973089034233</v>
+        <v>319.6200867346118</v>
       </c>
     </row>
     <row r="41">
@@ -4156,13 +4318,13 @@
         <v>354.756469726563</v>
       </c>
       <c r="D41" t="n">
-        <v>30.22789350703957</v>
+        <v>25.69519329808047</v>
       </c>
       <c r="E41" t="n">
-        <v>12.21317930753039</v>
+        <v>12.56419328855588</v>
       </c>
       <c r="F41" t="n">
-        <v>369.1786834904078</v>
+        <v>322.8393751838888</v>
       </c>
     </row>
     <row r="42">
@@ -4176,13 +4338,13 @@
         <v>358.173797607422</v>
       </c>
       <c r="D42" t="n">
-        <v>30.52067679769988</v>
+        <v>25.94407346719357</v>
       </c>
       <c r="E42" t="n">
-        <v>12.21253776553172</v>
+        <v>12.56353330826156</v>
       </c>
       <c r="F42" t="n">
-        <v>372.7349180214974</v>
+        <v>325.9492311570714</v>
       </c>
     </row>
     <row r="43">
@@ -4196,13 +4358,13 @@
         <v>361.538177490234</v>
       </c>
       <c r="D43" t="n">
-        <v>30.81007438194757</v>
+        <v>26.19007561965947</v>
       </c>
       <c r="E43" t="n">
-        <v>12.21146338685222</v>
+        <v>12.56242805130476</v>
       </c>
       <c r="F43" t="n">
-        <v>376.2360952613462</v>
+        <v>329.0109406302029</v>
       </c>
     </row>
     <row r="44">
@@ -4216,13 +4378,13 @@
         <v>364.783325195313</v>
       </c>
       <c r="D44" t="n">
-        <v>31.08888511465783</v>
+        <v>26.4270784286346</v>
       </c>
       <c r="E44" t="n">
-        <v>12.21057502812994</v>
+        <v>12.56151416062852</v>
       </c>
       <c r="F44" t="n">
-        <v>379.6131642334414</v>
+        <v>331.9641199053341</v>
       </c>
     </row>
     <row r="45">
@@ -4236,13 +4398,13 @@
         <v>368.249786376953</v>
       </c>
       <c r="D45" t="n">
-        <v>31.38675009405608</v>
+        <v>26.68027828262325</v>
       </c>
       <c r="E45" t="n">
-        <v>12.20962859488429</v>
+        <v>12.56054052633285</v>
       </c>
       <c r="F45" t="n">
-        <v>383.2205614488744</v>
+        <v>335.1187166227277</v>
       </c>
     </row>
     <row r="46">
@@ -4256,13 +4418,13 @@
         <v>371.918487548828</v>
       </c>
       <c r="D46" t="n">
-        <v>31.70239889795784</v>
+        <v>26.94859526040653</v>
       </c>
       <c r="E46" t="n">
-        <v>12.20848978978057</v>
+        <v>12.55936899129837</v>
       </c>
       <c r="F46" t="n">
-        <v>387.0384132572689</v>
+        <v>338.4573516725999</v>
       </c>
     </row>
     <row r="47">
@@ -4276,13 +4438,13 @@
         <v>375.146728515625</v>
       </c>
       <c r="D47" t="n">
-        <v>31.98120963066821</v>
+        <v>27.18559806938176</v>
       </c>
       <c r="E47" t="n">
-        <v>12.2071014457099</v>
+        <v>12.55794074539977</v>
       </c>
       <c r="F47" t="n">
-        <v>390.3978703180813</v>
+        <v>341.3951296835505</v>
       </c>
     </row>
     <row r="48">
@@ -4296,13 +4458,13 @@
         <v>378.601287841797</v>
       </c>
       <c r="D48" t="n">
-        <v>32.27928739013672</v>
+        <v>27.438978796875</v>
       </c>
       <c r="E48" t="n">
-        <v>12.20574939821629</v>
+        <v>12.55654983926327</v>
       </c>
       <c r="F48" t="n">
-        <v>393.9928926370118</v>
+        <v>344.5389048014489</v>
       </c>
     </row>
     <row r="49">
@@ -4316,13 +4478,13 @@
         <v>382.013031005859</v>
       </c>
       <c r="D49" t="n">
-        <v>32.57228346086739</v>
+        <v>27.68803983949278</v>
       </c>
       <c r="E49" t="n">
-        <v>12.20495722542305</v>
+        <v>12.55573489895644</v>
       </c>
       <c r="F49" t="n">
-        <v>397.543326374241</v>
+        <v>347.6436880964158</v>
       </c>
     </row>
     <row r="50">
@@ -4336,13 +4498,13 @@
         <v>385.577362060547</v>
       </c>
       <c r="D50" t="n">
-        <v>32.8798862576008</v>
+        <v>27.94951731622316</v>
       </c>
       <c r="E50" t="n">
-        <v>12.20358702964086</v>
+        <v>12.55432532293884</v>
       </c>
       <c r="F50" t="n">
-        <v>401.2525534693239</v>
+        <v>350.8873330069779</v>
       </c>
     </row>
     <row r="51">
@@ -4356,13 +4518,13 @@
         <v>389.121459960938</v>
       </c>
       <c r="D51" t="n">
-        <v>33.18621863214973</v>
+        <v>28.20991487173465</v>
       </c>
       <c r="E51" t="n">
-        <v>12.20207527720839</v>
+        <v>12.55277012184928</v>
       </c>
       <c r="F51" t="n">
-        <v>404.9407379153866</v>
+        <v>354.1125765418223</v>
       </c>
     </row>
     <row r="52">
@@ -4376,13 +4538,13 @@
         <v>392.520629882813</v>
       </c>
       <c r="D52" t="n">
-        <v>33.47942539687157</v>
+        <v>28.45915501458741</v>
       </c>
       <c r="E52" t="n">
-        <v>12.2008693234372</v>
+        <v>12.551529508255</v>
       </c>
       <c r="F52" t="n">
-        <v>408.4780942909948</v>
+        <v>357.2059239455972</v>
       </c>
     </row>
     <row r="53">
@@ -4396,13 +4558,13 @@
         <v>395.891571044922</v>
       </c>
       <c r="D53" t="n">
-        <v>33.77072757135633</v>
+        <v>28.70677616224674</v>
       </c>
       <c r="E53" t="n">
-        <v>12.19950275731275</v>
+        <v>12.55012366621364</v>
       </c>
       <c r="F53" t="n">
-        <v>411.9860841232193</v>
+        <v>360.2735908945104</v>
       </c>
     </row>
     <row r="54">
@@ -4416,13 +4578,13 @@
         <v>399.100524902344</v>
       </c>
       <c r="D54" t="n">
-        <v>34.04954039014579</v>
+        <v>28.94378074449159</v>
       </c>
       <c r="E54" t="n">
-        <v>12.19768248397566</v>
+        <v>12.5482510771466</v>
       </c>
       <c r="F54" t="n">
-        <v>415.3254824043032</v>
+        <v>363.1938279037615</v>
       </c>
     </row>
     <row r="55">
@@ -4436,13 +4598,13 @@
         <v>402.629974365234</v>
       </c>
       <c r="D55" t="n">
-        <v>34.35354470039611</v>
+        <v>29.20219933106999</v>
       </c>
       <c r="E55" t="n">
-        <v>12.19665801308946</v>
+        <v>12.54719716236252</v>
       </c>
       <c r="F55" t="n">
-        <v>418.9984362481131</v>
+        <v>366.4057525815461</v>
       </c>
     </row>
     <row r="56">
@@ -4456,13 +4618,13 @@
         <v>405.992401123047</v>
       </c>
       <c r="D56" t="n">
-        <v>34.64548104293346</v>
+        <v>29.45035955270386</v>
       </c>
       <c r="E56" t="n">
-        <v>12.19488220305921</v>
+        <v>12.54537031450399</v>
       </c>
       <c r="F56" t="n">
-        <v>422.4975601868944</v>
+        <v>369.46566648396</v>
       </c>
     </row>
     <row r="57">
@@ -4476,13 +4638,13 @@
         <v>409.437683105469</v>
       </c>
       <c r="D57" t="n">
-        <v>34.94609964677094</v>
+        <v>29.70590012263488</v>
       </c>
       <c r="E57" t="n">
-        <v>12.19257374076135</v>
+        <v>12.54299550563733</v>
       </c>
       <c r="F57" t="n">
-        <v>426.0828968952488</v>
+        <v>372.6009717291206</v>
       </c>
     </row>
     <row r="58">
@@ -4496,13 +4658,13 @@
         <v>412.725494384766</v>
       </c>
       <c r="D58" t="n">
-        <v>35.23782320923804</v>
+        <v>29.95387947076415</v>
       </c>
       <c r="E58" t="n">
-        <v>12.18873174808471</v>
+        <v>12.53904309182377</v>
       </c>
       <c r="F58" t="n">
-        <v>429.5043744838358</v>
+        <v>375.5929854512071</v>
       </c>
     </row>
     <row r="59">
@@ -4516,13 +4678,13 @@
         <v>416.098297119141</v>
       </c>
       <c r="D59" t="n">
-        <v>35.53992501533025</v>
+        <v>30.21068083541865</v>
       </c>
       <c r="E59" t="n">
-        <v>12.18388252539603</v>
+        <v>12.5340544996132</v>
       </c>
       <c r="F59" t="n">
-        <v>433.0142713481675</v>
+        <v>378.6623200615575</v>
       </c>
     </row>
     <row r="60">
@@ -4536,13 +4698,13 @@
         <v>419.256744384766</v>
       </c>
       <c r="D60" t="n">
-        <v>35.82360257062913</v>
+        <v>30.45182068249513</v>
       </c>
       <c r="E60" t="n">
-        <v>12.17915308141152</v>
+        <v>12.52918912861745</v>
       </c>
       <c r="F60" t="n">
-        <v>436.3011396353394</v>
+        <v>381.536620641726</v>
       </c>
     </row>
     <row r="61">
@@ -4556,13 +4718,13 @@
         <v>422.4091796875</v>
       </c>
       <c r="D61" t="n">
-        <v>36.10791846613887</v>
+        <v>30.69350315008548</v>
       </c>
       <c r="E61" t="n">
-        <v>12.17410876462143</v>
+        <v>12.52399983518586</v>
       </c>
       <c r="F61" t="n">
-        <v>439.5817266708572</v>
+        <v>384.4054283929472</v>
       </c>
     </row>
     <row r="62">
@@ -4576,13 +4738,13 @@
         <v>425.638916015625</v>
       </c>
       <c r="D62" t="n">
-        <v>36.3998568947553</v>
+        <v>30.94166514498897</v>
       </c>
       <c r="E62" t="n">
-        <v>12.16880492730571</v>
+        <v>12.51854356245557</v>
       </c>
       <c r="F62" t="n">
-        <v>442.9427579341209</v>
+        <v>387.3445830124576</v>
       </c>
     </row>
     <row r="63">
@@ -4596,13 +4758,13 @@
         <v>429.056945800781</v>
       </c>
       <c r="D63" t="n">
-        <v>36.70957706179616</v>
+        <v>31.20494249041746</v>
       </c>
       <c r="E63" t="n">
-        <v>12.1630319567322</v>
+        <v>12.5126046733008</v>
       </c>
       <c r="F63" t="n">
-        <v>446.4997589207499</v>
+        <v>390.4551092356804</v>
       </c>
     </row>
     <row r="64">
@@ -4616,13 +4778,13 @@
         <v>432.284881591797</v>
       </c>
       <c r="D64" t="n">
-        <v>37.00849968330865</v>
+        <v>31.45904139212041</v>
       </c>
       <c r="E64" t="n">
-        <v>12.15555667669676</v>
+        <v>12.50491454930554</v>
       </c>
       <c r="F64" t="n">
-        <v>449.8589154199722</v>
+        <v>393.3926244115316</v>
       </c>
     </row>
     <row r="65">
@@ -4636,13 +4798,13 @@
         <v>435.018463134766</v>
       </c>
       <c r="D65" t="n">
-        <v>37.28858501036167</v>
+        <v>31.69712766885377</v>
       </c>
       <c r="E65" t="n">
-        <v>12.14054169020175</v>
+        <v>12.48946802323742</v>
       </c>
       <c r="F65" t="n">
-        <v>452.7036208869278</v>
+        <v>395.8802624486232</v>
       </c>
     </row>
     <row r="66">
@@ -4656,13 +4818,13 @@
         <v>436.768859863281</v>
       </c>
       <c r="D66" t="n">
-        <v>37.54791802232264</v>
+        <v>31.91757345907592</v>
       </c>
       <c r="E66" t="n">
-        <v>12.10520334282396</v>
+        <v>12.45311403090072</v>
       </c>
       <c r="F66" t="n">
-        <v>454.5251827599</v>
+        <v>397.4731818755229</v>
       </c>
     </row>
     <row r="67">
@@ -4676,13 +4838,13 @@
         <v>438.504669189453</v>
       </c>
       <c r="D67" t="n">
-        <v>37.84027783892153</v>
+        <v>32.16609365444945</v>
       </c>
       <c r="E67" t="n">
-        <v>12.05941339609585</v>
+        <v>12.40600805408026</v>
       </c>
       <c r="F67" t="n">
-        <v>456.3315534826791</v>
+        <v>399.0528169453999</v>
       </c>
     </row>
     <row r="68">
@@ -4696,13 +4858,13 @@
         <v>439.958679199219</v>
       </c>
       <c r="D68" t="n">
-        <v>38.1125278527975</v>
+        <v>32.39751953036498</v>
       </c>
       <c r="E68" t="n">
-        <v>12.01297101839596</v>
+        <v>12.35823089503686</v>
       </c>
       <c r="F68" t="n">
-        <v>457.8446925334652</v>
+        <v>400.3760267827165</v>
       </c>
     </row>
     <row r="69">
@@ -4716,13 +4878,13 @@
         <v>441.145874023438</v>
       </c>
       <c r="D69" t="n">
-        <v>38.37419310121534</v>
+        <v>32.61994783605956</v>
       </c>
       <c r="E69" t="n">
-        <v>11.96325196720646</v>
+        <v>12.30708288897399</v>
       </c>
       <c r="F69" t="n">
-        <v>459.0801411080749</v>
+        <v>401.4564018523926</v>
       </c>
     </row>
     <row r="70">
@@ -4736,13 +4898,13 @@
         <v>442.117706298828</v>
       </c>
       <c r="D70" t="n">
-        <v>38.63331750526433</v>
+        <v>32.84021629931645</v>
       </c>
       <c r="E70" t="n">
-        <v>11.90918912316311</v>
+        <v>12.25146624688712</v>
       </c>
       <c r="F70" t="n">
-        <v>460.0914846254011</v>
+        <v>402.3408015315478</v>
       </c>
     </row>
     <row r="71">
@@ -4756,13 +4918,13 @@
         <v>442.897033691406</v>
       </c>
       <c r="D71" t="n">
-        <v>38.89391885333058</v>
+        <v>33.06174023748778</v>
       </c>
       <c r="E71" t="n">
-        <v>11.85024529692628</v>
+        <v>12.19082834029796</v>
       </c>
       <c r="F71" t="n">
-        <v>460.902478970713</v>
+        <v>403.0499998667354</v>
       </c>
     </row>
     <row r="72">
@@ -4776,13 +4938,13 @@
         <v>443.424560546875</v>
       </c>
       <c r="D72" t="n">
-        <v>39.15092797315122</v>
+        <v>33.28021060531618</v>
       </c>
       <c r="E72" t="n">
-        <v>11.78647584077579</v>
+        <v>12.12522611234354</v>
       </c>
       <c r="F72" t="n">
-        <v>461.4514666995</v>
+        <v>403.5300786558722</v>
       </c>
     </row>
     <row r="73">
@@ -4796,13 +4958,13 @@
         <v>443.643524169922</v>
       </c>
       <c r="D73" t="n">
-        <v>39.39946761174198</v>
+        <v>33.49148149835202</v>
       </c>
       <c r="E73" t="n">
-        <v>11.71790797714452</v>
+        <v>12.05468756784551</v>
       </c>
       <c r="F73" t="n">
-        <v>461.6793358228784</v>
+        <v>403.7293456469121</v>
       </c>
     </row>
     <row r="74">
@@ -4816,13 +4978,13 @@
         <v>443.641143798828</v>
       </c>
       <c r="D74" t="n">
-        <v>39.64630918192866</v>
+        <v>33.70130894989016</v>
       </c>
       <c r="E74" t="n">
-        <v>11.64488833834285</v>
+        <v>11.97956930153143</v>
       </c>
       <c r="F74" t="n">
-        <v>461.676843450976</v>
+        <v>403.7271661175305</v>
       </c>
     </row>
     <row r="75">
@@ -4836,13 +4998,13 @@
         <v>443.552459716797</v>
       </c>
       <c r="D75" t="n">
-        <v>39.90585914611816</v>
+        <v>33.92193916015625</v>
       </c>
       <c r="E75" t="n">
-        <v>11.56683708655301</v>
+        <v>11.89927481070244</v>
       </c>
       <c r="F75" t="n">
-        <v>461.5845715420803</v>
+        <v>403.6464761786281</v>
       </c>
     </row>
     <row r="76">
@@ -4856,13 +5018,13 @@
         <v>443.01904296875</v>
       </c>
       <c r="D76" t="n">
-        <v>40.14444401514534</v>
+        <v>34.12474801040653</v>
       </c>
       <c r="E76" t="n">
-        <v>11.48426600351091</v>
+        <v>11.81433058600359</v>
       </c>
       <c r="F76" t="n">
-        <v>461.0294736329808</v>
+        <v>403.1610541590109</v>
       </c>
     </row>
     <row r="77">
@@ -4876,13 +5038,13 @@
         <v>442.200164794922</v>
       </c>
       <c r="D77" t="n">
-        <v>40.38007082397937</v>
+        <v>34.32504236428833</v>
       </c>
       <c r="E77" t="n">
-        <v>11.39614880350153</v>
+        <v>11.7236808456627</v>
       </c>
       <c r="F77" t="n">
-        <v>460.1772958059996</v>
+        <v>402.415841692768</v>
       </c>
     </row>
     <row r="78">
@@ -4896,13 +5058,13 @@
         <v>441.264007568359</v>
       </c>
       <c r="D78" t="n">
-        <v>40.624162941885</v>
+        <v>34.53253264642335</v>
       </c>
       <c r="E78" t="n">
-        <v>11.30369325512495</v>
+        <v>11.62856807026224</v>
       </c>
       <c r="F78" t="n">
-        <v>459.2030766412824</v>
+        <v>401.5639065174869</v>
       </c>
     </row>
     <row r="79">
@@ -4916,13 +5078,13 @@
         <v>439.833282470703</v>
       </c>
       <c r="D79" t="n">
-        <v>40.84158245215411</v>
+        <v>34.71734990277096</v>
       </c>
       <c r="E79" t="n">
-        <v>11.20706269297768</v>
+        <v>11.52916028873138</v>
       </c>
       <c r="F79" t="n">
-        <v>457.7141750217081</v>
+        <v>400.2618918290192</v>
       </c>
     </row>
     <row r="80">
@@ -4936,13 +5098,13 @@
         <v>438.285491943359</v>
       </c>
       <c r="D80" t="n">
-        <v>41.07127645196918</v>
+        <v>34.91260107775882</v>
       </c>
       <c r="E80" t="n">
-        <v>11.10516912716388</v>
+        <v>11.42433824170261</v>
       </c>
       <c r="F80" t="n">
-        <v>456.1034712676209</v>
+        <v>398.8533636099479</v>
       </c>
     </row>
     <row r="81">
@@ -4956,13 +5118,13 @@
         <v>436.425140380859</v>
       </c>
       <c r="D81" t="n">
-        <v>41.29356487090587</v>
+        <v>35.10155714547729</v>
       </c>
       <c r="E81" t="n">
-        <v>10.99850528371637</v>
+        <v>11.31460881644571</v>
       </c>
       <c r="F81" t="n">
-        <v>454.1674914161429</v>
+        <v>397.1603879491904</v>
       </c>
     </row>
     <row r="82">
@@ -4976,13 +5138,13 @@
         <v>434.310791015625</v>
       </c>
       <c r="D82" t="n">
-        <v>41.50907770485883</v>
+        <v>35.28475363336185</v>
       </c>
       <c r="E82" t="n">
-        <v>10.88839417286719</v>
+        <v>11.20133304728757</v>
       </c>
       <c r="F82" t="n">
-        <v>451.967199802676</v>
+        <v>395.2362769387764</v>
       </c>
     </row>
     <row r="83">
@@ -4996,13 +5158,13 @@
         <v>432.012512207031</v>
       </c>
       <c r="D83" t="n">
-        <v>41.72691860311027</v>
+        <v>35.46992909017941</v>
       </c>
       <c r="E83" t="n">
-        <v>10.77423145660921</v>
+        <v>11.0838892271901</v>
       </c>
       <c r="F83" t="n">
-        <v>449.5754790010027</v>
+        <v>393.1447649318363</v>
       </c>
     </row>
     <row r="84">
@@ -5016,13 +5178,13 @@
         <v>429.482666015625</v>
       </c>
       <c r="D84" t="n">
-        <v>41.94306560511592</v>
+        <v>35.6536646520386</v>
       </c>
       <c r="E84" t="n">
-        <v>10.65594000471629</v>
+        <v>10.96219800915892</v>
       </c>
       <c r="F84" t="n">
-        <v>446.9427907019945</v>
+        <v>390.8425316677973</v>
       </c>
     </row>
     <row r="85">
@@ -5036,13 +5198,13 @@
         <v>426.424407958984</v>
       </c>
       <c r="D85" t="n">
-        <v>42.1251302464485</v>
+        <v>35.80842853430175</v>
       </c>
       <c r="E85" t="n">
-        <v>10.53433376792778</v>
+        <v>10.837096737358</v>
       </c>
       <c r="F85" t="n">
-        <v>443.7601820335183</v>
+        <v>388.0594040389988</v>
       </c>
     </row>
     <row r="86">
@@ -5056,13 +5218,13 @@
         <v>423.437835693359</v>
       </c>
       <c r="D86" t="n">
-        <v>42.33238637924194</v>
+        <v>35.98460642089844</v>
       </c>
       <c r="E86" t="n">
-        <v>10.40934015308978</v>
+        <v>10.70851073226335</v>
       </c>
       <c r="F86" t="n">
-        <v>440.6522093135538</v>
+        <v>385.3415440544637</v>
       </c>
     </row>
     <row r="87">
@@ -5076,13 +5238,13 @@
         <v>420.190887451172</v>
       </c>
       <c r="D87" t="n">
-        <v>42.53265831913944</v>
+        <v>36.15484740069577</v>
       </c>
       <c r="E87" t="n">
-        <v>10.28088202997612</v>
+        <v>10.57636064688059</v>
       </c>
       <c r="F87" t="n">
-        <v>437.2732426003549</v>
+        <v>382.3867052426918</v>
       </c>
     </row>
     <row r="88">
@@ -5096,13 +5258,13 @@
         <v>416.636871337891</v>
       </c>
       <c r="D88" t="n">
-        <v>42.71980047705168</v>
+        <v>36.31392742129513</v>
       </c>
       <c r="E88" t="n">
-        <v>10.14926882690573</v>
+        <v>10.44096480268114</v>
       </c>
       <c r="F88" t="n">
-        <v>433.5747392733732</v>
+        <v>379.1524380528601</v>
       </c>
     </row>
     <row r="89">
@@ -5116,13 +5278,13 @@
         <v>412.835113525391</v>
       </c>
       <c r="D89" t="n">
-        <v>42.8950937055588</v>
+        <v>36.4629352702637</v>
       </c>
       <c r="E89" t="n">
-        <v>10.01556131134178</v>
+        <v>10.30341445421109</v>
       </c>
       <c r="F89" t="n">
-        <v>429.6184409637752</v>
+        <v>375.6927343065985</v>
       </c>
     </row>
     <row r="90">
@@ -5136,13 +5298,13 @@
         <v>408.980102539063</v>
       </c>
       <c r="D90" t="n">
-        <v>43.08456392776966</v>
+        <v>36.62399425979614</v>
       </c>
       <c r="E90" t="n">
-        <v>9.878403806133024</v>
+        <v>10.16231496135779</v>
       </c>
       <c r="F90" t="n">
-        <v>425.6067202896614</v>
+        <v>372.1845648110082</v>
       </c>
     </row>
     <row r="91">
@@ -5156,13 +5318,13 @@
         <v>404.9140625</v>
       </c>
       <c r="D91" t="n">
-        <v>43.26451328487399</v>
+        <v>36.77696004663088</v>
       </c>
       <c r="E91" t="n">
-        <v>9.739514954200752</v>
+        <v>10.01943436185437</v>
       </c>
       <c r="F91" t="n">
-        <v>421.3753741242473</v>
+        <v>368.4843372157589</v>
       </c>
     </row>
     <row r="92">
@@ -5176,13 +5338,13 @@
         <v>400.535461425781</v>
       </c>
       <c r="D92" t="n">
-        <v>43.42604256334302</v>
+        <v>36.91426786242674</v>
       </c>
       <c r="E92" t="n">
-        <v>9.598359381034228</v>
+        <v>9.874221894210704</v>
       </c>
       <c r="F92" t="n">
-        <v>416.8187630190552</v>
+        <v>364.4996719359327</v>
       </c>
     </row>
     <row r="93">
@@ -5196,13 +5358,13 @@
         <v>396.127990722656</v>
       </c>
       <c r="D93" t="n">
-        <v>43.59836521518228</v>
+        <v>37.06075057540892</v>
       </c>
       <c r="E93" t="n">
-        <v>9.455219292519633</v>
+        <v>9.726967875076678</v>
       </c>
       <c r="F93" t="n">
-        <v>412.2321039049083</v>
+        <v>360.488730273232</v>
       </c>
     </row>
     <row r="94">
@@ -5216,13 +5378,13 @@
         <v>391.494598388672</v>
       </c>
       <c r="D94" t="n">
-        <v>43.75756642935271</v>
+        <v>37.19607942227169</v>
       </c>
       <c r="E94" t="n">
-        <v>9.310626433510153</v>
+        <v>9.578219331966377</v>
       </c>
       <c r="F94" t="n">
-        <v>407.4103546632078</v>
+        <v>356.2722069957594</v>
       </c>
     </row>
     <row r="95">
@@ -5236,13 +5398,13 @@
         <v>386.706481933594</v>
       </c>
       <c r="D95" t="n">
-        <v>43.90956649839878</v>
+        <v>37.32528694229126</v>
       </c>
       <c r="E95" t="n">
-        <v>9.164918362172019</v>
+        <v>9.428323524666943</v>
       </c>
       <c r="F95" t="n">
-        <v>402.4275922761883</v>
+        <v>351.9148809429486</v>
       </c>
     </row>
     <row r="96">
@@ -5256,13 +5418,13 @@
         <v>381.911010742188</v>
       </c>
       <c r="D96" t="n">
-        <v>44.07152133700845</v>
+        <v>37.46295650509641</v>
       </c>
       <c r="E96" t="n">
-        <v>9.01800433706269</v>
+        <v>9.277187103773226</v>
       </c>
       <c r="F96" t="n">
-        <v>397.4371705580931</v>
+        <v>347.5508569582977</v>
       </c>
     </row>
     <row r="97">
@@ -5276,13 +5438,13 @@
         <v>376.936004638672</v>
       </c>
       <c r="D97" t="n">
-        <v>44.22415974626539</v>
+        <v>37.59270664562987</v>
       </c>
       <c r="E97" t="n">
-        <v>8.869809950199301</v>
+        <v>9.124733522773017</v>
       </c>
       <c r="F97" t="n">
-        <v>392.2598921566282</v>
+        <v>343.0234305411508</v>
       </c>
     </row>
     <row r="98">
@@ -5296,13 +5458,13 @@
         <v>371.794677734375</v>
       </c>
       <c r="D98" t="n">
-        <v>44.3664219979763</v>
+        <v>37.71363654290772</v>
       </c>
       <c r="E98" t="n">
-        <v>8.720774390163694</v>
+        <v>8.971414592787195</v>
       </c>
       <c r="F98" t="n">
-        <v>386.9095567431469</v>
+        <v>338.3446692281148</v>
       </c>
     </row>
     <row r="99">
@@ -5316,13 +5478,13 @@
         <v>366.643646240234</v>
       </c>
       <c r="D99" t="n">
-        <v>44.51524705460071</v>
+        <v>37.84014514651489</v>
       </c>
       <c r="E99" t="n">
-        <v>8.571200733373887</v>
+        <v>8.817542100828895</v>
       </c>
       <c r="F99" t="n">
-        <v>381.5491182007134</v>
+        <v>333.6570729308713</v>
       </c>
     </row>
     <row r="100">
@@ -5336,13 +5498,13 @@
         <v>361.305145263672</v>
       </c>
       <c r="D100" t="n">
-        <v>44.6462903728008</v>
+        <v>37.95153839959715</v>
       </c>
       <c r="E100" t="n">
-        <v>8.421608928295583</v>
+        <v>8.663650938989576</v>
       </c>
       <c r="F100" t="n">
-        <v>375.9935976188564</v>
+        <v>328.7988812917688</v>
       </c>
     </row>
     <row r="101">
@@ -5356,13 +5518,13 @@
         <v>355.918792724609</v>
       </c>
       <c r="D101" t="n">
-        <v>44.77797203121188</v>
+        <v>38.06347427319339</v>
       </c>
       <c r="E101" t="n">
-        <v>8.271662324176996</v>
+        <v>8.509394780976166</v>
       </c>
       <c r="F101" t="n">
-        <v>370.3882642036266</v>
+        <v>323.8971293261324</v>
       </c>
     </row>
     <row r="102">
@@ -5376,13 +5538,13 @@
         <v>350.507080078125</v>
       </c>
       <c r="D102" t="n">
-        <v>44.91028368551726</v>
+        <v>38.17594567422481</v>
       </c>
       <c r="E102" t="n">
-        <v>8.121893573285764</v>
+        <v>8.35532158779683</v>
       </c>
       <c r="F102" t="n">
-        <v>364.7565444398431</v>
+        <v>318.9723030264096</v>
       </c>
     </row>
     <row r="103">
@@ -5396,13 +5558,13 @@
         <v>345.093139648438</v>
       </c>
       <c r="D103" t="n">
-        <v>45.047042860508</v>
+        <v>38.29219768615726</v>
       </c>
       <c r="E103" t="n">
-        <v>7.97216565604367</v>
+        <v>8.201290401849803</v>
       </c>
       <c r="F103" t="n">
-        <v>359.1224879988691</v>
+        <v>314.0454333492168</v>
       </c>
     </row>
     <row r="104">
@@ -5416,13 +5578,13 @@
         <v>339.573852539063</v>
       </c>
       <c r="D104" t="n">
-        <v>45.16813975346085</v>
+        <v>38.39513598953244</v>
       </c>
       <c r="E104" t="n">
-        <v>7.823630081356377</v>
+        <v>8.048485827086278</v>
       </c>
       <c r="F104" t="n">
-        <v>353.3788168940851</v>
+        <v>309.0227078408021</v>
       </c>
     </row>
     <row r="105">
@@ -5436,13 +5598,13 @@
         <v>333.988067626953</v>
       </c>
       <c r="D105" t="n">
-        <v>45.28203550128933</v>
+        <v>38.49195296606442</v>
       </c>
       <c r="E105" t="n">
-        <v>7.675581788215466</v>
+        <v>7.89618253862835</v>
       </c>
       <c r="F105" t="n">
-        <v>347.5659670270226</v>
+        <v>303.9394868883417</v>
       </c>
     </row>
     <row r="106">
@@ -5456,13 +5618,13 @@
         <v>328.462249755859</v>
       </c>
       <c r="D106" t="n">
-        <v>45.40545628638262</v>
+        <v>38.59686669183345</v>
       </c>
       <c r="E106" t="n">
-        <v>7.528071138121518</v>
+        <v>7.744432345395851</v>
       </c>
       <c r="F106" t="n">
-        <v>341.8155049827553</v>
+        <v>298.9108228391668</v>
       </c>
     </row>
     <row r="107">
@@ -5476,13 +5638,13 @@
         <v>322.857604980469</v>
       </c>
       <c r="D107" t="n">
-        <v>45.5170239699125</v>
+        <v>38.69170469943235</v>
       </c>
       <c r="E107" t="n">
-        <v>7.38147969884038</v>
+        <v>7.593627781637404</v>
       </c>
       <c r="F107" t="n">
-        <v>335.9829883855401</v>
+        <v>293.81040372452</v>
       </c>
     </row>
     <row r="108">
@@ -5496,13 +5658,13 @@
         <v>317.198272705078</v>
       </c>
       <c r="D108" t="n">
-        <v>45.62054356019495</v>
+        <v>38.77970143270873</v>
       </c>
       <c r="E108" t="n">
-        <v>7.235635061631231</v>
+        <v>7.443591483483226</v>
       </c>
       <c r="F108" t="n">
-        <v>330.0936045148215</v>
+        <v>288.660255316533</v>
       </c>
     </row>
     <row r="109">
@@ -5516,13 +5678,13 @@
         <v>311.579772949219</v>
       </c>
       <c r="D109" t="n">
-        <v>45.72491427075864</v>
+        <v>38.86842166000368</v>
       </c>
       <c r="E109" t="n">
-        <v>7.091247278281866</v>
+        <v>7.29505391002854</v>
       </c>
       <c r="F109" t="n">
-        <v>324.2466738721889</v>
+        <v>283.5472314074478</v>
       </c>
     </row>
     <row r="110">
@@ -5536,13 +5698,13 @@
         <v>305.998474121094</v>
       </c>
       <c r="D110" t="n">
-        <v>45.8258971888304</v>
+        <v>38.95426209738162</v>
       </c>
       <c r="E110" t="n">
-        <v>6.948876223492667</v>
+        <v>7.148591027103032</v>
       </c>
       <c r="F110" t="n">
-        <v>318.4384873956831</v>
+        <v>278.4680884967619</v>
       </c>
     </row>
     <row r="111">
@@ -5556,13 +5718,13 @@
         <v>300.583740234375</v>
       </c>
       <c r="D111" t="n">
-        <v>45.94190822088714</v>
+        <v>39.052877169342</v>
       </c>
       <c r="E111" t="n">
-        <v>6.808677065130358</v>
+        <v>7.004362462189486</v>
       </c>
       <c r="F111" t="n">
-        <v>312.8036168318781</v>
+        <v>273.5405068854359</v>
       </c>
     </row>
     <row r="112">
@@ -5576,13 +5738,13 @@
         <v>295.165924072266</v>
       </c>
       <c r="D112" t="n">
-        <v>46.04839421567918</v>
+        <v>39.14339549206544</v>
       </c>
       <c r="E112" t="n">
-        <v>6.670494181621001</v>
+        <v>6.862208121058092</v>
       </c>
       <c r="F112" t="n">
-        <v>307.1655456886782</v>
+        <v>268.6101264314402</v>
       </c>
     </row>
     <row r="113">
@@ -5596,13 +5758,13 @@
         <v>278.662292480469</v>
       </c>
       <c r="D113" t="n">
-        <v>46.3073058396578</v>
+        <v>39.36348308181765</v>
       </c>
       <c r="E113" t="n">
-        <v>6.262316034065567</v>
+        <v>6.442298692651593</v>
       </c>
       <c r="F113" t="n">
-        <v>289.9909838540671</v>
+        <v>253.5913155962069</v>
       </c>
     </row>
     <row r="114">
@@ -5616,13 +5778,13 @@
         <v>267.931213378906</v>
       </c>
       <c r="D114" t="n">
-        <v>46.48746380467411</v>
+        <v>39.51662619561765</v>
       </c>
       <c r="E114" t="n">
-        <v>5.997824238508771</v>
+        <v>6.170205246798079</v>
       </c>
       <c r="F114" t="n">
-        <v>278.8236371944736</v>
+        <v>243.8256942879584</v>
       </c>
     </row>
     <row r="115">
@@ -5636,13 +5798,13 @@
         <v>252.208297729492</v>
       </c>
       <c r="D115" t="n">
-        <v>46.72584423794748</v>
+        <v>39.71926126544192</v>
       </c>
       <c r="E115" t="n">
-        <v>5.617052728839835</v>
+        <v>5.778490139225231</v>
       </c>
       <c r="F115" t="n">
-        <v>262.461530884108</v>
+        <v>229.5173595596668</v>
       </c>
     </row>
     <row r="116">
@@ -5656,13 +5818,13 @@
         <v>237.047256469727</v>
       </c>
       <c r="D116" t="n">
-        <v>46.97141747202876</v>
+        <v>39.92801056903079</v>
       </c>
       <c r="E116" t="n">
-        <v>5.251792561356518</v>
+        <v>5.402732178966587</v>
       </c>
       <c r="F116" t="n">
-        <v>246.6841408759722</v>
+        <v>215.7203475434206</v>
       </c>
     </row>
     <row r="117">
@@ -5676,13 +5838,13 @@
         <v>222.414810180664</v>
       </c>
       <c r="D117" t="n">
-        <v>47.15517600960736</v>
+        <v>40.08421434625248</v>
       </c>
       <c r="E117" t="n">
-        <v>4.908407433423242</v>
+        <v>5.049477959804421</v>
       </c>
       <c r="F117" t="n">
-        <v>231.4568164499381</v>
+        <v>202.4043568774781</v>
       </c>
     </row>
     <row r="118">
@@ -5696,13 +5858,13 @@
         <v>203.971466064453</v>
       </c>
       <c r="D118" t="n">
-        <v>47.37978832068438</v>
+        <v>40.27514583636471</v>
       </c>
       <c r="E118" t="n">
-        <v>4.480047027928107</v>
+        <v>4.608806223454279</v>
       </c>
       <c r="F118" t="n">
-        <v>212.2636798499449</v>
+        <v>185.6203427811663</v>
       </c>
     </row>
     <row r="119">
@@ -5716,13 +5878,13 @@
         <v>190.665405273438</v>
       </c>
       <c r="D119" t="n">
-        <v>47.56037184584141</v>
+        <v>40.42865069717408</v>
       </c>
       <c r="E119" t="n">
-        <v>4.1718909039344</v>
+        <v>4.291793510595645</v>
       </c>
       <c r="F119" t="n">
-        <v>198.4166826914035</v>
+        <v>173.5114207042698</v>
       </c>
     </row>
     <row r="120">
@@ -5736,13 +5898,13 @@
         <v>167.499328613281</v>
       </c>
       <c r="D120" t="n">
-        <v>47.83494992401599</v>
+        <v>40.66205554202271</v>
       </c>
       <c r="E120" t="n">
-        <v>3.643963543211812</v>
+        <v>3.748693205964401</v>
       </c>
       <c r="F120" t="n">
-        <v>174.3088136144769</v>
+        <v>152.4295713509276</v>
       </c>
     </row>
     <row r="121">
@@ -5756,13 +5918,13 @@
         <v>153.135467529297</v>
       </c>
       <c r="D121" t="n">
-        <v>48.00537007169724</v>
+        <v>40.80692103308107</v>
       </c>
       <c r="E121" t="n">
-        <v>3.319649771108095</v>
+        <v>3.415058464653483</v>
       </c>
       <c r="F121" t="n">
-        <v>159.3610157704692</v>
+        <v>139.3580210904697</v>
       </c>
     </row>
     <row r="122">
@@ -5776,13 +5938,13 @@
         <v>134.292053222656</v>
       </c>
       <c r="D122" t="n">
-        <v>48.21389871275425</v>
+        <v>40.98418061416626</v>
       </c>
       <c r="E122" t="n">
-        <v>2.898573634911844</v>
+        <v>2.981880351800756</v>
       </c>
       <c r="F122" t="n">
-        <v>139.7515356450996</v>
+        <v>122.2099229080358</v>
       </c>
     </row>
     <row r="123">
@@ -5796,13 +5958,13 @@
         <v>111.541702270508</v>
       </c>
       <c r="D123" t="n">
-        <v>48.45608415434361</v>
+        <v>41.19005012783814</v>
       </c>
       <c r="E123" t="n">
-        <v>2.39549491081091</v>
+        <v>2.464342848272338</v>
       </c>
       <c r="F123" t="n">
-        <v>116.0763029895553</v>
+        <v>101.506405452517</v>
       </c>
     </row>
     <row r="124">
@@ -5816,13 +5978,13 @@
         <v>91.222526550293</v>
       </c>
       <c r="D124" t="n">
-        <v>48.6618591709614</v>
+        <v>41.36496899298098</v>
       </c>
       <c r="E124" t="n">
-        <v>1.950831217190512</v>
+        <v>2.006899257674667</v>
       </c>
       <c r="F124" t="n">
-        <v>94.93107395723989</v>
+        <v>83.01532556574915</v>
       </c>
     </row>
     <row r="125">
@@ -5836,13 +5998,13 @@
         <v>64.6833801269531</v>
       </c>
       <c r="D125" t="n">
-        <v>48.91018602948191</v>
+        <v>41.57605901251222</v>
       </c>
       <c r="E125" t="n">
-        <v>1.376257423949166</v>
+        <v>1.415811874525228</v>
       </c>
       <c r="F125" t="n">
-        <v>67.31300662980925</v>
+        <v>58.86387804587642</v>
       </c>
     </row>
     <row r="126">
@@ -5856,13 +6018,13 @@
         <v>45.0954208374023</v>
       </c>
       <c r="D126" t="n">
-        <v>49.10050737197398</v>
+        <v>41.73784149606323</v>
       </c>
       <c r="E126" t="n">
-        <v>0.9557686117396684</v>
+        <v>0.9832379656972493</v>
       </c>
       <c r="F126" t="n">
-        <v>46.92872376662493</v>
+        <v>41.03823036518345</v>
       </c>
     </row>
     <row r="127">
@@ -5876,13 +6038,13 @@
         <v>33.902530670166</v>
       </c>
       <c r="D127" t="n">
-        <v>49.19492331297398</v>
+        <v>41.81809968057252</v>
       </c>
       <c r="E127" t="n">
-        <v>0.7171633647668324</v>
+        <v>0.7377750631111966</v>
       </c>
       <c r="F127" t="n">
-        <v>35.2807967325787</v>
+        <v>30.8523511310247</v>
       </c>
     </row>
     <row r="128">
@@ -5896,13 +6058,13 @@
         <v>13.8236255645752</v>
       </c>
       <c r="D128" t="n">
-        <v>49.39688914911751</v>
+        <v>41.9897805553284</v>
       </c>
       <c r="E128" t="n">
-        <v>0.2912249901562543</v>
+        <v>0.2995949682426179</v>
       </c>
       <c r="F128" t="n">
-        <v>14.38560855620133</v>
+        <v>12.57992697198811</v>
       </c>
     </row>
     <row r="129">
@@ -5916,13 +6078,13 @@
         <v>0.6678786873817441</v>
       </c>
       <c r="D129" t="n">
-        <v>49.50210263564586</v>
+        <v>42.07921718356323</v>
       </c>
       <c r="E129" t="n">
-        <v>0.01404042428838901</v>
+        <v>0.01444395436853086</v>
       </c>
       <c r="F129" t="n">
-        <v>0.6950305241718477</v>
+        <v>0.6077902928628869</v>
       </c>
     </row>
   </sheetData>
@@ -5987,13 +6149,13 @@
         <v>5.87139368057251</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4946653576891871</v>
+        <v>0.4204898360095026</v>
       </c>
       <c r="E2" t="n">
-        <v>12.35196289938933</v>
+        <v>12.70696560274935</v>
       </c>
       <c r="F2" t="n">
-        <v>6.110088145789991</v>
+        <v>5.343149882478462</v>
       </c>
     </row>
     <row r="3">
@@ -6007,13 +6169,13 @@
         <v>224.426284790039</v>
       </c>
       <c r="D3" t="n">
-        <v>18.90966054403777</v>
+        <v>16.07413969375607</v>
       </c>
       <c r="E3" t="n">
-        <v>12.3508340758443</v>
+        <v>12.70580433614945</v>
       </c>
       <c r="F3" t="n">
-        <v>233.5500798099502</v>
+        <v>204.2348738207978</v>
       </c>
     </row>
     <row r="4">
@@ -6027,13 +6189,13 @@
         <v>228.044540405273</v>
       </c>
       <c r="D4" t="n">
-        <v>19.21662917271849</v>
+        <v>16.33507809651181</v>
       </c>
       <c r="E4" t="n">
-        <v>12.34948202835059</v>
+        <v>12.70441343001284</v>
       </c>
       <c r="F4" t="n">
-        <v>237.3154166139646</v>
+        <v>207.5275855496333</v>
       </c>
     </row>
     <row r="5">
@@ -6047,13 +6209,13 @@
         <v>231.694259643555</v>
       </c>
       <c r="D5" t="n">
-        <v>19.52677281382088</v>
+        <v>16.59871541567997</v>
       </c>
       <c r="E5" t="n">
-        <v>12.34784233048417</v>
+        <v>12.70272660626206</v>
       </c>
       <c r="F5" t="n">
-        <v>241.1135119282449</v>
+        <v>210.84894394053</v>
       </c>
     </row>
     <row r="6">
@@ -6067,13 +6229,13 @@
         <v>235.139343261719</v>
       </c>
       <c r="D6" t="n">
-        <v>19.81807498830553</v>
+        <v>16.8463365633392</v>
       </c>
       <c r="E6" t="n">
-        <v>12.34724615920674</v>
+        <v>12.70211330067028</v>
       </c>
       <c r="F6" t="n">
-        <v>244.6986502822267</v>
+        <v>213.9840757287589</v>
       </c>
     </row>
     <row r="7">
@@ -6087,13 +6249,13 @@
         <v>238.807052612305</v>
       </c>
       <c r="D7" t="n">
-        <v>20.12927627152204</v>
+        <v>17.11087293022155</v>
       </c>
       <c r="E7" t="n">
-        <v>12.34597124193919</v>
+        <v>12.70080174152805</v>
       </c>
       <c r="F7" t="n">
-        <v>248.51546596926</v>
+        <v>217.3218047112231</v>
       </c>
     </row>
     <row r="8">
@@ -6107,13 +6269,13 @@
         <v>242.288223266602</v>
       </c>
       <c r="D8" t="n">
-        <v>20.42396623849873</v>
+        <v>17.36137386779789</v>
       </c>
       <c r="E8" t="n">
-        <v>12.34521082865086</v>
+        <v>12.70001947351305</v>
       </c>
       <c r="F8" t="n">
-        <v>252.138169171514</v>
+        <v>220.4897862079737</v>
       </c>
     </row>
     <row r="9">
@@ -6127,13 +6289,13 @@
         <v>245.900390625</v>
       </c>
       <c r="D9" t="n">
-        <v>20.72966444499496</v>
+        <v>17.62123234933474</v>
       </c>
       <c r="E9" t="n">
-        <v>12.34449215642604</v>
+        <v>12.69928014622436</v>
       </c>
       <c r="F9" t="n">
-        <v>255.8971801465839</v>
+        <v>223.776966125913</v>
       </c>
     </row>
     <row r="10">
@@ -6147,13 +6309,13 @@
         <v>249.521240234375</v>
       </c>
       <c r="D10" t="n">
-        <v>21.03642029360531</v>
+        <v>17.8819898785858</v>
       </c>
       <c r="E10" t="n">
-        <v>12.34360379770366</v>
+        <v>12.69836625554802</v>
       </c>
       <c r="F10" t="n">
-        <v>259.6652374262367</v>
+        <v>227.0720568562852</v>
       </c>
     </row>
     <row r="11">
@@ -6167,13 +6329,13 @@
         <v>253.176986694336</v>
       </c>
       <c r="D11" t="n">
-        <v>21.34698740876912</v>
+        <v>18.14598717149352</v>
       </c>
       <c r="E11" t="n">
-        <v>12.34223813899361</v>
+        <v>12.69696134700069</v>
       </c>
       <c r="F11" t="n">
-        <v>263.4696021491266</v>
+        <v>230.3988977196236</v>
       </c>
     </row>
     <row r="12">
@@ -6187,13 +6349,13 @@
         <v>256.548675537109</v>
       </c>
       <c r="D12" t="n">
-        <v>21.6334206745863</v>
+        <v>18.38946950778199</v>
       </c>
       <c r="E12" t="n">
-        <v>12.34101403693395</v>
+        <v>12.69570206352542</v>
       </c>
       <c r="F12" t="n">
-        <v>266.9783482119666</v>
+        <v>233.4672259770856</v>
       </c>
     </row>
     <row r="13">
@@ -6207,13 +6369,13 @@
         <v>260.024963378906</v>
       </c>
       <c r="D13" t="n">
-        <v>21.92874480961558</v>
+        <v>18.64050951933286</v>
       </c>
       <c r="E13" t="n">
-        <v>12.33978449038774</v>
+        <v>12.69443717908584</v>
       </c>
       <c r="F13" t="n">
-        <v>270.5959850953649</v>
+        <v>236.6307770793225</v>
       </c>
     </row>
     <row r="14">
@@ -6227,13 +6389,13 @@
         <v>263.692749023438</v>
       </c>
       <c r="D14" t="n">
-        <v>22.2410058210254</v>
+        <v>18.90594670719912</v>
       </c>
       <c r="E14" t="n">
-        <v>12.33815023700777</v>
+        <v>12.69275595629926</v>
       </c>
       <c r="F14" t="n">
-        <v>274.4128712419758</v>
+        <v>239.9685676772781</v>
       </c>
     </row>
     <row r="15">
@@ -6247,13 +6409,13 @@
         <v>267.170806884766</v>
       </c>
       <c r="D15" t="n">
-        <v>22.53823454629187</v>
+        <v>19.15860571394352</v>
       </c>
       <c r="E15" t="n">
-        <v>12.33602870208154</v>
+        <v>12.69057344720721</v>
       </c>
       <c r="F15" t="n">
-        <v>278.0323082573022</v>
+        <v>243.1336929588839</v>
       </c>
     </row>
     <row r="16">
@@ -6267,13 +6429,13 @@
         <v>270.783996582031</v>
       </c>
       <c r="D16" t="n">
-        <v>22.84837818739415</v>
+        <v>19.42224303311158</v>
       </c>
       <c r="E16" t="n">
-        <v>12.33314675386688</v>
+        <v>12.68760867010005</v>
       </c>
       <c r="F16" t="n">
-        <v>281.792401272983</v>
+        <v>246.4218190996967</v>
       </c>
     </row>
     <row r="17">
@@ -6287,13 +6449,13 @@
         <v>274.132598876953</v>
       </c>
       <c r="D17" t="n">
-        <v>23.13946966788764</v>
+        <v>19.66968508053585</v>
       </c>
       <c r="E17" t="n">
-        <v>12.3285942556953</v>
+        <v>12.68292533044431</v>
       </c>
       <c r="F17" t="n">
-        <v>285.277132827355</v>
+        <v>249.4691471497907</v>
       </c>
     </row>
     <row r="18">
@@ -6307,13 +6469,13 @@
         <v>277.576263427734</v>
       </c>
       <c r="D18" t="n">
-        <v>23.44495509431361</v>
+        <v>19.9293626885681</v>
       </c>
       <c r="E18" t="n">
-        <v>12.32080863992642</v>
+        <v>12.67491595148349</v>
       </c>
       <c r="F18" t="n">
-        <v>288.8608052887061</v>
+        <v>252.6029970442317</v>
       </c>
     </row>
     <row r="19">
@@ -6327,13 +6489,13 @@
         <v>280.708312988281</v>
       </c>
       <c r="D19" t="n">
-        <v>23.74006853535172</v>
+        <v>20.18022359988401</v>
       </c>
       <c r="E19" t="n">
-        <v>12.3049424987005</v>
+        <v>12.65859380799517</v>
       </c>
       <c r="F19" t="n">
-        <v>292.1201782427119</v>
+        <v>255.4532535054497</v>
       </c>
     </row>
     <row r="20">
@@ -6347,13 +6509,13 @@
         <v>283.326507568359</v>
       </c>
       <c r="D20" t="n">
-        <v>24.01930274212362</v>
+        <v>20.41758638259889</v>
       </c>
       <c r="E20" t="n">
-        <v>12.27532812151734</v>
+        <v>12.62812829613455</v>
       </c>
       <c r="F20" t="n">
-        <v>294.8448224096286</v>
+        <v>257.8359003368686</v>
       </c>
     </row>
     <row r="21">
@@ -6367,13 +6529,13 @@
         <v>286.259399414063</v>
       </c>
       <c r="D21" t="n">
-        <v>24.3241540004969</v>
+        <v>20.67672491665653</v>
       </c>
       <c r="E21" t="n">
-        <v>12.24696053175446</v>
+        <v>12.59894540510048</v>
       </c>
       <c r="F21" t="n">
-        <v>297.8969540124029</v>
+        <v>260.5049283812363</v>
       </c>
     </row>
     <row r="22">
@@ -6387,13 +6549,13 @@
         <v>289.492126464844</v>
       </c>
       <c r="D22" t="n">
-        <v>24.62053786371949</v>
+        <v>20.92866574919131</v>
       </c>
       <c r="E22" t="n">
-        <v>12.23617046682353</v>
+        <v>12.58784522733557</v>
       </c>
       <c r="F22" t="n">
-        <v>301.261098285355</v>
+        <v>263.4468052654593</v>
       </c>
     </row>
     <row r="23">
@@ -6407,13 +6569,13 @@
         <v>292.918212890625</v>
       </c>
       <c r="D23" t="n">
-        <v>24.91797936905622</v>
+        <v>21.1815056294403</v>
       </c>
       <c r="E23" t="n">
-        <v>12.23319324009424</v>
+        <v>12.58478243335304</v>
       </c>
       <c r="F23" t="n">
-        <v>304.8264567743462</v>
+        <v>266.5646399573488</v>
       </c>
     </row>
     <row r="24">
@@ -6427,13 +6589,13 @@
         <v>296.265258789063</v>
       </c>
       <c r="D24" t="n">
-        <v>25.20483610893493</v>
+        <v>21.42534793946843</v>
       </c>
       <c r="E24" t="n">
-        <v>12.23215969506384</v>
+        <v>12.58371918362851</v>
       </c>
       <c r="F24" t="n">
-        <v>308.3095803724036</v>
+        <v>269.6105618818045</v>
       </c>
     </row>
     <row r="25">
@@ -6447,13 +6609,13 @@
         <v>299.840759277344</v>
       </c>
       <c r="D25" t="n">
-        <v>25.51201543160681</v>
+        <v>21.68646544245914</v>
       </c>
       <c r="E25" t="n">
-        <v>12.23072507285752</v>
+        <v>12.58224332953333</v>
       </c>
       <c r="F25" t="n">
-        <v>312.0304467984814</v>
+        <v>272.8643851545365</v>
       </c>
     </row>
     <row r="26">
@@ -6467,13 +6629,13 @@
         <v>303.202178955078</v>
       </c>
       <c r="D26" t="n">
-        <v>25.80120023578402</v>
+        <v>21.93228672142027</v>
       </c>
       <c r="E26" t="n">
-        <v>12.22921876491151</v>
+        <v>12.58069372940798</v>
       </c>
       <c r="F26" t="n">
-        <v>315.5285220806891</v>
+        <v>275.9233820277499</v>
       </c>
     </row>
     <row r="27">
@@ -6487,13 +6649,13 @@
         <v>306.751281738281</v>
       </c>
       <c r="D27" t="n">
-        <v>26.10499385204318</v>
+        <v>22.19052620776369</v>
       </c>
       <c r="E27" t="n">
-        <v>12.22838485105476</v>
+        <v>12.57983584837484</v>
       </c>
       <c r="F27" t="n">
-        <v>319.2219113572023</v>
+        <v>279.1531770827272</v>
       </c>
     </row>
     <row r="28">
@@ -6507,13 +6669,13 @@
         <v>310.193298339844</v>
       </c>
       <c r="D28" t="n">
-        <v>26.39968173294067</v>
+        <v>22.44102537207031</v>
       </c>
       <c r="E28" t="n">
-        <v>12.22756545582865</v>
+        <v>12.57899290324637</v>
       </c>
       <c r="F28" t="n">
-        <v>322.803836402576</v>
+        <v>282.2854988968441</v>
       </c>
     </row>
     <row r="29">
@@ -6527,13 +6689,13 @@
         <v>313.734283447266</v>
       </c>
       <c r="D29" t="n">
-        <v>26.70305187513829</v>
+        <v>22.69890488467408</v>
       </c>
       <c r="E29" t="n">
-        <v>12.22664624501587</v>
+        <v>12.57804727377234</v>
       </c>
       <c r="F29" t="n">
-        <v>326.4887689396236</v>
+        <v>285.5078987022926</v>
       </c>
     </row>
     <row r="30">
@@ -6547,13 +6709,13 @@
         <v>316.932342529297</v>
       </c>
       <c r="D30" t="n">
-        <v>26.97614675105813</v>
+        <v>22.93104893479922</v>
       </c>
       <c r="E30" t="n">
-        <v>12.2262406307678</v>
+        <v>12.57763000193141</v>
       </c>
       <c r="F30" t="n">
-        <v>329.8168614693418</v>
+        <v>288.4182490580881</v>
       </c>
     </row>
     <row r="31">
@@ -6567,13 +6729,13 @@
         <v>320.434661865234</v>
       </c>
       <c r="D31" t="n">
-        <v>27.27634188083407</v>
+        <v>23.18622953099058</v>
       </c>
       <c r="E31" t="n">
-        <v>12.22530327166645</v>
+        <v>12.57666570257629</v>
       </c>
       <c r="F31" t="n">
-        <v>333.4615516348534</v>
+        <v>291.6054577144708</v>
       </c>
     </row>
     <row r="32">
@@ -6587,13 +6749,13 @@
         <v>324.039581298828</v>
       </c>
       <c r="D32" t="n">
-        <v>27.58457884562019</v>
+        <v>23.44824608169559</v>
       </c>
       <c r="E32" t="n">
-        <v>12.22469348917269</v>
+        <v>12.57603839457379</v>
       </c>
       <c r="F32" t="n">
-        <v>337.2130214156239</v>
+        <v>294.8860430088183</v>
       </c>
     </row>
     <row r="33">
@@ -6607,13 +6769,13 @@
         <v>327.455810546875</v>
       </c>
       <c r="D33" t="n">
-        <v>27.87694074829816</v>
+        <v>23.69676805033874</v>
       </c>
       <c r="E33" t="n">
-        <v>12.22401474318256</v>
+        <v>12.57534014102334</v>
       </c>
       <c r="F33" t="n">
-        <v>340.7681347020233</v>
+        <v>297.9949184759441</v>
       </c>
     </row>
     <row r="34">
@@ -6627,13 +6789,13 @@
         <v>331.000183105469</v>
       </c>
       <c r="D34" t="n">
-        <v>28.1803088044167</v>
+        <v>23.95464578967289</v>
       </c>
       <c r="E34" t="n">
-        <v>12.22330877475976</v>
+        <v>12.57461388265143</v>
       </c>
       <c r="F34" t="n">
-        <v>344.4566158844663</v>
+        <v>301.2204215008184</v>
       </c>
     </row>
     <row r="35">
@@ -6647,13 +6809,13 @@
         <v>334.515747070313</v>
       </c>
       <c r="D35" t="n">
-        <v>28.48029115412239</v>
+        <v>24.20964551235965</v>
       </c>
       <c r="E35" t="n">
-        <v>12.22301749472921</v>
+        <v>12.57431423106091</v>
       </c>
       <c r="F35" t="n">
-        <v>348.1150970318196</v>
+        <v>304.4196900950038</v>
       </c>
     </row>
     <row r="36">
@@ -6667,13 +6829,13 @@
         <v>337.806823730469</v>
       </c>
       <c r="D36" t="n">
-        <v>28.76143203721045</v>
+        <v>24.44862906353759</v>
       </c>
       <c r="E36" t="n">
-        <v>12.2226173249677</v>
+        <v>12.57390256018429</v>
       </c>
       <c r="F36" t="n">
-        <v>351.5399775088896</v>
+        <v>307.4146795750113</v>
       </c>
     </row>
     <row r="37">
@@ -6687,13 +6849,13 @@
         <v>341.563415527344</v>
       </c>
       <c r="D37" t="n">
-        <v>29.08343086595534</v>
+        <v>24.72234387414549</v>
       </c>
       <c r="E37" t="n">
-        <v>12.22171081795685</v>
+        <v>12.57296999962695</v>
       </c>
       <c r="F37" t="n">
-        <v>355.4492816377464</v>
+        <v>310.8332878500925</v>
       </c>
     </row>
     <row r="38">
@@ -6707,13 +6869,13 @@
         <v>345.140808105469</v>
       </c>
       <c r="D38" t="n">
-        <v>29.38933976644273</v>
+        <v>24.98238145591732</v>
       </c>
       <c r="E38" t="n">
-        <v>12.22116909154495</v>
+        <v>12.57241270367828</v>
       </c>
       <c r="F38" t="n">
-        <v>359.1720907745629</v>
+        <v>314.0888099845116</v>
       </c>
     </row>
     <row r="39">
@@ -6727,13 +6889,13 @@
         <v>348.342041015625</v>
       </c>
       <c r="D39" t="n">
-        <v>29.66413062468767</v>
+        <v>25.21596717427063</v>
       </c>
       <c r="E39" t="n">
-        <v>12.2202634919485</v>
+        <v>12.57148107661498</v>
       </c>
       <c r="F39" t="n">
-        <v>362.5034924932623</v>
+        <v>317.0020541598877</v>
       </c>
     </row>
     <row r="40">
@@ -6747,13 +6909,13 @@
         <v>351.778930664063</v>
       </c>
       <c r="D40" t="n">
-        <v>29.95839503152374</v>
+        <v>25.46610636483768</v>
       </c>
       <c r="E40" t="n">
-        <v>12.21961650546328</v>
+        <v>12.57081549535635</v>
       </c>
       <c r="F40" t="n">
-        <v>366.0800984043968</v>
+        <v>320.1297244974945</v>
       </c>
     </row>
     <row r="41">
@@ -6767,13 +6929,13 @@
         <v>355.207946777344</v>
       </c>
       <c r="D41" t="n">
-        <v>30.25287430450916</v>
+        <v>25.71642820217895</v>
       </c>
       <c r="E41" t="n">
-        <v>12.21862470149649</v>
+        <v>12.56979518635823</v>
       </c>
       <c r="F41" t="n">
-        <v>369.6485172683441</v>
+        <v>323.2502354260759</v>
       </c>
     </row>
     <row r="42">
@@ -6787,13 +6949,13 @@
         <v>358.865325927734</v>
       </c>
       <c r="D42" t="n">
-        <v>30.56619295803311</v>
+        <v>25.98276443775942</v>
       </c>
       <c r="E42" t="n">
-        <v>12.21789604771297</v>
+        <v>12.56904559063495</v>
       </c>
       <c r="F42" t="n">
-        <v>373.4545681355848</v>
+        <v>326.5785507889266</v>
       </c>
     </row>
     <row r="43">
@@ -6807,13 +6969,13 @@
         <v>362.298004150391</v>
       </c>
       <c r="D43" t="n">
-        <v>30.86088292500969</v>
+        <v>26.23326537533566</v>
       </c>
       <c r="E43" t="n">
-        <v>12.21698046655792</v>
+        <v>12.56810369513716</v>
       </c>
       <c r="F43" t="n">
-        <v>377.0268038755743</v>
+        <v>329.7023994992699</v>
       </c>
     </row>
     <row r="44">
@@ -6827,13 +6989,13 @@
         <v>365.794647216797</v>
       </c>
       <c r="D44" t="n">
-        <v>31.16001832659243</v>
+        <v>26.4875451505432</v>
       </c>
       <c r="E44" t="n">
-        <v>12.2164759441374</v>
+        <v>12.56758467244453</v>
       </c>
       <c r="F44" t="n">
-        <v>380.6656143056969</v>
+        <v>332.884466444649</v>
       </c>
     </row>
     <row r="45">
@@ -6847,13 +7009,13 @@
         <v>369.377166748047</v>
       </c>
       <c r="D45" t="n">
-        <v>31.46719764926431</v>
+        <v>26.74866265353392</v>
       </c>
       <c r="E45" t="n">
-        <v>12.21569738256059</v>
+        <v>12.56678373454852</v>
       </c>
       <c r="F45" t="n">
-        <v>384.3937639606347</v>
+        <v>336.1446587553555</v>
       </c>
     </row>
     <row r="46">
@@ -6867,13 +7029,13 @@
         <v>372.713806152344</v>
       </c>
       <c r="D46" t="n">
-        <v>31.75468855719561</v>
+        <v>26.99304403753658</v>
       </c>
       <c r="E46" t="n">
-        <v>12.2144496877258</v>
+        <v>12.56550018022784</v>
       </c>
       <c r="F46" t="n">
-        <v>387.8660457312679</v>
+        <v>339.1810997185639</v>
       </c>
     </row>
     <row r="47">
@@ -6887,13 +7049,13 @@
         <v>376.022491455078</v>
       </c>
       <c r="D47" t="n">
-        <v>32.03879375871418</v>
+        <v>27.23454740489196</v>
       </c>
       <c r="E47" t="n">
-        <v>12.21360760713917</v>
+        <v>12.56463389774819</v>
       </c>
       <c r="F47" t="n">
-        <v>391.3092551749945</v>
+        <v>342.1921175133353</v>
       </c>
     </row>
     <row r="48">
@@ -6907,13 +7069,13 @@
         <v>379.48046875</v>
       </c>
       <c r="D48" t="n">
-        <v>32.33708221217397</v>
+        <v>27.48810723262027</v>
       </c>
       <c r="E48" t="n">
-        <v>12.21222742979828</v>
+        <v>12.563214053296</v>
       </c>
       <c r="F48" t="n">
-        <v>394.9078023911531</v>
+        <v>345.3389750833624</v>
       </c>
     </row>
     <row r="49">
@@ -6927,13 +7089,13 @@
         <v>382.954071044922</v>
       </c>
       <c r="D49" t="n">
-        <v>32.63579413969518</v>
+        <v>27.74202703408814</v>
       </c>
       <c r="E49" t="n">
-        <v>12.21121294047087</v>
+        <v>12.56217040694661</v>
       </c>
       <c r="F49" t="n">
-        <v>398.5226317211892</v>
+        <v>348.5000710363348</v>
       </c>
     </row>
     <row r="50">
@@ -6947,13 +7109,13 @@
         <v>386.346862792969</v>
       </c>
       <c r="D50" t="n">
-        <v>32.9285774303556</v>
+        <v>27.99090720320133</v>
       </c>
       <c r="E50" t="n">
-        <v>12.20986089297716</v>
+        <v>12.56077950081001</v>
       </c>
       <c r="F50" t="n">
-        <v>402.0533498282692</v>
+        <v>351.5876134070464</v>
       </c>
     </row>
     <row r="51">
@@ -6967,13 +7129,13 @@
         <v>389.842987060547</v>
       </c>
       <c r="D51" t="n">
-        <v>33.23173479248285</v>
+        <v>28.24860584230041</v>
       </c>
       <c r="E51" t="n">
-        <v>12.20795713751296</v>
+        <v>12.55882103029024</v>
       </c>
       <c r="F51" t="n">
-        <v>405.6915939518287</v>
+        <v>354.7691851286623</v>
       </c>
     </row>
     <row r="52">
@@ -6987,13 +7149,13 @@
         <v>393.211486816406</v>
       </c>
       <c r="D52" t="n">
-        <v>33.52240279891491</v>
+        <v>28.49568791598511</v>
       </c>
       <c r="E52" t="n">
-        <v>12.20667405351562</v>
+        <v>12.5575010697016</v>
       </c>
       <c r="F52" t="n">
-        <v>409.1970444570141</v>
+        <v>357.8346314868658</v>
       </c>
     </row>
     <row r="53">
@@ -7007,13 +7169,13 @@
         <v>396.588684082031</v>
       </c>
       <c r="D53" t="n">
-        <v>33.81518608957533</v>
+        <v>28.7445680850983</v>
       </c>
       <c r="E53" t="n">
-        <v>12.20491639177385</v>
+        <v>12.55569289172407</v>
       </c>
       <c r="F53" t="n">
-        <v>412.711518995541</v>
+        <v>360.9079691817471</v>
       </c>
     </row>
     <row r="54">
@@ -7027,13 +7189,13 @@
         <v>400.062744140625</v>
       </c>
       <c r="D54" t="n">
-        <v>34.11686233552692</v>
+        <v>29.00100770274352</v>
       </c>
       <c r="E54" t="n">
-        <v>12.20296363593067</v>
+        <v>12.55368401252551</v>
       </c>
       <c r="F54" t="n">
-        <v>416.3268304524877</v>
+        <v>364.0694867450606</v>
       </c>
     </row>
     <row r="55">
@@ -7047,13 +7209,13 @@
         <v>403.259094238281</v>
       </c>
       <c r="D55" t="n">
-        <v>34.39630932236908</v>
+        <v>29.238551358963</v>
       </c>
       <c r="E55" t="n">
-        <v>12.20052722819886</v>
+        <v>12.55117758099762</v>
       </c>
       <c r="F55" t="n">
-        <v>419.6531084371143</v>
+        <v>366.978250317464</v>
       </c>
     </row>
     <row r="56">
@@ -7067,13 +7229,13 @@
         <v>406.459838867188</v>
       </c>
       <c r="D56" t="n">
-        <v>34.675543529141</v>
+        <v>29.47591414167789</v>
       </c>
       <c r="E56" t="n">
-        <v>12.19833763719067</v>
+        <v>12.54892505985164</v>
       </c>
       <c r="F56" t="n">
-        <v>422.9839877215639</v>
+        <v>369.8910376345372</v>
       </c>
     </row>
     <row r="57">
@@ -7087,13 +7249,13 @@
         <v>409.900085449219</v>
       </c>
       <c r="D57" t="n">
-        <v>34.97531309877632</v>
+        <v>29.73073299085997</v>
       </c>
       <c r="E57" t="n">
-        <v>12.19614804618247</v>
+        <v>12.54667253870567</v>
       </c>
       <c r="F57" t="n">
-        <v>426.5640965142611</v>
+        <v>373.0217711720134</v>
       </c>
     </row>
     <row r="58">
@@ -7107,13 +7269,13 @@
         <v>413.344787597656</v>
       </c>
       <c r="D58" t="n">
-        <v>35.27445058643814</v>
+        <v>29.98501453933713</v>
       </c>
       <c r="E58" t="n">
-        <v>12.19434501371946</v>
+        <v>12.54481768602558</v>
       </c>
       <c r="F58" t="n">
-        <v>430.1488206204253</v>
+        <v>376.1565407088107</v>
       </c>
     </row>
     <row r="59">
@@ -7127,13 +7289,13 @@
         <v>416.8896484375</v>
       </c>
       <c r="D59" t="n">
-        <v>35.58459214146134</v>
+        <v>30.24865008523557</v>
       </c>
       <c r="E59" t="n">
-        <v>12.19173166017472</v>
+        <v>12.54212922315768</v>
       </c>
       <c r="F59" t="n">
-        <v>433.8377986254587</v>
+        <v>379.3824781951039</v>
       </c>
     </row>
     <row r="60">
@@ -7147,13 +7309,13 @@
         <v>420.207916259766</v>
       </c>
       <c r="D60" t="n">
-        <v>35.87885863437649</v>
+        <v>30.49879104907224</v>
       </c>
       <c r="E60" t="n">
-        <v>12.18798494601271</v>
+        <v>12.53827482621949</v>
       </c>
       <c r="F60" t="n">
-        <v>437.2909889158989</v>
+        <v>382.4022240407109</v>
       </c>
     </row>
     <row r="61">
@@ -7167,13 +7329,13 @@
         <v>423.476440429688</v>
       </c>
       <c r="D61" t="n">
-        <v>36.17185261902808</v>
+        <v>30.7478503184204</v>
       </c>
       <c r="E61" t="n">
-        <v>12.18329542826289</v>
+        <v>12.53345052896198</v>
       </c>
       <c r="F61" t="n">
-        <v>440.6923666452039</v>
+        <v>385.37666083785</v>
       </c>
     </row>
     <row r="62">
@@ -7187,13 +7349,13 @@
         <v>426.736236572266</v>
       </c>
       <c r="D62" t="n">
-        <v>36.46442521569733</v>
+        <v>30.99655138729862</v>
       </c>
       <c r="E62" t="n">
-        <v>12.17857415100826</v>
+        <v>12.52859355941274</v>
       </c>
       <c r="F62" t="n">
-        <v>444.0847063632652</v>
+        <v>388.3431940749155</v>
       </c>
     </row>
     <row r="63">
@@ -7207,13 +7369,13 @@
         <v>429.805572509766</v>
       </c>
       <c r="D63" t="n">
-        <v>36.74514471080306</v>
+        <v>31.23517673800662</v>
       </c>
       <c r="E63" t="n">
-        <v>12.17245999261072</v>
+        <v>12.52230367649453</v>
       </c>
       <c r="F63" t="n">
-        <v>447.2788039149416</v>
+        <v>391.1363685022965</v>
       </c>
     </row>
     <row r="64">
@@ -7227,13 +7389,13 @@
         <v>433.125823974609</v>
       </c>
       <c r="D64" t="n">
-        <v>37.05401792972085</v>
+        <v>31.49773413595579</v>
       </c>
       <c r="E64" t="n">
-        <v>12.16424244757543</v>
+        <v>12.51384995436525</v>
       </c>
       <c r="F64" t="n">
-        <v>450.7340577539314</v>
+        <v>394.1579188798393</v>
       </c>
     </row>
     <row r="65">
@@ -7247,13 +7409,13 @@
         <v>435.791290283203</v>
       </c>
       <c r="D65" t="n">
-        <v>37.32732349963185</v>
+        <v>31.7300572863159</v>
       </c>
       <c r="E65" t="n">
-        <v>12.14948788902056</v>
+        <v>12.49867134108997</v>
       </c>
       <c r="F65" t="n">
-        <v>453.5078647883297</v>
+        <v>396.5835576556196</v>
       </c>
     </row>
     <row r="66">
@@ -7267,13 +7429,13 @@
         <v>437.842193603516</v>
       </c>
       <c r="D66" t="n">
-        <v>37.59661128115651</v>
+        <v>31.95896511932371</v>
       </c>
       <c r="E66" t="n">
-        <v>12.11923469208196</v>
+        <v>12.46754864941713</v>
       </c>
       <c r="F66" t="n">
-        <v>455.6421557433119</v>
+        <v>398.4499524101936</v>
       </c>
     </row>
     <row r="67">
@@ -7287,13 +7449,13 @@
         <v>439.304656982422</v>
       </c>
       <c r="D67" t="n">
-        <v>37.86166014990801</v>
+        <v>32.18426966839596</v>
       </c>
       <c r="E67" t="n">
-        <v>12.07459171718735</v>
+        <v>12.42162260907758</v>
       </c>
       <c r="F67" t="n">
-        <v>457.1640880450418</v>
+        <v>399.7808517695968</v>
       </c>
     </row>
     <row r="68">
@@ -7307,13 +7469,13 @@
         <v>440.538635253906</v>
       </c>
       <c r="D68" t="n">
-        <v>38.12650041074754</v>
+        <v>32.40939689050294</v>
       </c>
       <c r="E68" t="n">
-        <v>12.02439808825341</v>
+        <v>12.36998638562581</v>
       </c>
       <c r="F68" t="n">
-        <v>458.4482186507857</v>
+        <v>400.9037983018649</v>
       </c>
     </row>
     <row r="69">
@@ -7327,13 +7489,13 @@
         <v>441.839080810547</v>
       </c>
       <c r="D69" t="n">
-        <v>38.40383211336134</v>
+        <v>32.64514245129393</v>
       </c>
       <c r="E69" t="n">
-        <v>11.97280341144688</v>
+        <v>12.31690884735876</v>
       </c>
       <c r="F69" t="n">
-        <v>459.8015321394861</v>
+        <v>402.0872438816292</v>
       </c>
     </row>
     <row r="70">
@@ -7347,13 +7509,13 @@
         <v>442.868927001953</v>
       </c>
       <c r="D70" t="n">
-        <v>38.67459683890338</v>
+        <v>32.87530575921627</v>
       </c>
       <c r="E70" t="n">
-        <v>11.91669162563132</v>
+        <v>12.25918437570394</v>
       </c>
       <c r="F70" t="n">
-        <v>460.8732442748274</v>
+        <v>403.0244347098737</v>
       </c>
     </row>
     <row r="71">
@@ -7367,13 +7529,13 @@
         <v>443.604522705078</v>
       </c>
       <c r="D71" t="n">
-        <v>38.93604930725098</v>
+        <v>33.09755319140625</v>
       </c>
       <c r="E71" t="n">
-        <v>11.85633223289105</v>
+        <v>12.19709021839463</v>
       </c>
       <c r="F71" t="n">
-        <v>461.638736422995</v>
+        <v>403.693842283697</v>
       </c>
     </row>
     <row r="72">
@@ -7387,13 +7549,13 @@
         <v>444.157318115234</v>
       </c>
       <c r="D72" t="n">
-        <v>39.19919567184448</v>
+        <v>33.32124051855469</v>
       </c>
       <c r="E72" t="n">
-        <v>11.79141580490706</v>
+        <v>12.13030805395931</v>
       </c>
       <c r="F72" t="n">
-        <v>462.2140153846312</v>
+        <v>404.1969122301392</v>
       </c>
     </row>
     <row r="73">
@@ -7407,13 +7569,13 @@
         <v>444.463897705078</v>
       </c>
       <c r="D73" t="n">
-        <v>39.46128230824467</v>
+        <v>33.54402702471921</v>
       </c>
       <c r="E73" t="n">
-        <v>11.72118646546305</v>
+        <v>12.05806028185315</v>
       </c>
       <c r="F73" t="n">
-        <v>462.533048101214</v>
+        <v>404.4758999601755</v>
       </c>
     </row>
     <row r="74">
@@ -7427,13 +7589,13 @@
         <v>444.386138916016</v>
       </c>
       <c r="D74" t="n">
-        <v>39.7077024904489</v>
+        <v>33.75349627578731</v>
       </c>
       <c r="E74" t="n">
-        <v>11.64640916491961</v>
+        <v>11.98113383756153</v>
       </c>
       <c r="F74" t="n">
-        <v>462.4521502026651</v>
+        <v>404.4051563658426</v>
       </c>
     </row>
     <row r="75">
@@ -7447,13 +7609,13 @@
         <v>443.980224609375</v>
       </c>
       <c r="D75" t="n">
-        <v>39.9435420793533</v>
+        <v>33.9539715031738</v>
       </c>
       <c r="E75" t="n">
-        <v>11.56706938464588</v>
+        <v>11.8995137851796</v>
       </c>
       <c r="F75" t="n">
-        <v>462.029722700402</v>
+        <v>404.0357519636119</v>
       </c>
     </row>
     <row r="76">
@@ -7467,13 +7629,13 @@
         <v>443.390441894531</v>
       </c>
       <c r="D76" t="n">
-        <v>40.18509335289006</v>
+        <v>34.15930194287114</v>
       </c>
       <c r="E76" t="n">
-        <v>11.48226696953208</v>
+        <v>11.81227409860845</v>
       </c>
       <c r="F76" t="n">
-        <v>461.4159700734527</v>
+        <v>403.4990375663221</v>
       </c>
     </row>
     <row r="77">
@@ -7487,13 +7649,13 @@
         <v>442.512786865234</v>
       </c>
       <c r="D77" t="n">
-        <v>40.42029460158349</v>
+        <v>34.35923454974366</v>
       </c>
       <c r="E77" t="n">
-        <v>11.39285670396666</v>
+        <v>11.72029412924434</v>
       </c>
       <c r="F77" t="n">
-        <v>460.5026243279578</v>
+        <v>402.7003349786899</v>
       </c>
     </row>
     <row r="78">
@@ -7507,13 +7669,13 @@
         <v>441.461853027344</v>
       </c>
       <c r="D78" t="n">
-        <v>40.66121170706744</v>
+        <v>34.56402591546627</v>
       </c>
       <c r="E78" t="n">
-        <v>11.29845747389119</v>
+        <v>11.62318180958587</v>
       </c>
       <c r="F78" t="n">
-        <v>459.408971309188</v>
+        <v>401.7439572867021</v>
       </c>
     </row>
     <row r="79">
@@ -7527,13 +7689,13 @@
         <v>440.084106445313</v>
       </c>
       <c r="D79" t="n">
-        <v>40.89090570688251</v>
+        <v>34.75927709045413</v>
       </c>
       <c r="E79" t="n">
-        <v>11.19992860076617</v>
+        <v>11.52182115849946</v>
       </c>
       <c r="F79" t="n">
-        <v>457.9752243377461</v>
+        <v>400.4901742349401</v>
       </c>
     </row>
     <row r="80">
@@ -7547,13 +7709,13 @@
         <v>438.354766845703</v>
       </c>
       <c r="D80" t="n">
-        <v>41.10938494534494</v>
+        <v>34.94499516778566</v>
       </c>
       <c r="E80" t="n">
-        <v>11.09662854259323</v>
+        <v>11.41555219569109</v>
       </c>
       <c r="F80" t="n">
-        <v>456.175574352967</v>
+        <v>398.9164163160302</v>
       </c>
     </row>
     <row r="81">
@@ -7567,13 +7729,13 @@
         <v>436.547424316406</v>
       </c>
       <c r="D81" t="n">
-        <v>41.34161978952888</v>
+        <v>35.14240618521121</v>
       </c>
       <c r="E81" t="n">
-        <v>10.98879867160923</v>
+        <v>11.30462323057816</v>
       </c>
       <c r="F81" t="n">
-        <v>454.2947366253488</v>
+        <v>397.2716613397523</v>
       </c>
     </row>
     <row r="82">
@@ -7587,13 +7749,13 @@
         <v>434.392425537109</v>
       </c>
       <c r="D82" t="n">
-        <v>41.56242709228992</v>
+        <v>35.33010323147583</v>
       </c>
       <c r="E82" t="n">
-        <v>10.87646167317489</v>
+        <v>11.18905760051204</v>
       </c>
       <c r="F82" t="n">
-        <v>452.052145313417</v>
+        <v>395.3105600890197</v>
       </c>
     </row>
     <row r="83">
@@ -7607,13 +7769,13 @@
         <v>431.891418457031</v>
       </c>
       <c r="D83" t="n">
-        <v>41.76714238071438</v>
+        <v>35.50412127563474</v>
       </c>
       <c r="E83" t="n">
-        <v>10.76083801969224</v>
+        <v>11.07011085499187</v>
       </c>
       <c r="F83" t="n">
-        <v>449.4494537042904</v>
+        <v>393.034558330352</v>
       </c>
     </row>
     <row r="84">
@@ -7627,13 +7789,13 @@
         <v>429.107635498047</v>
       </c>
       <c r="D84" t="n">
-        <v>41.96190707173344</v>
+        <v>35.66968082354734</v>
       </c>
       <c r="E84" t="n">
-        <v>10.64185421059276</v>
+        <v>10.94770738099941</v>
       </c>
       <c r="F84" t="n">
-        <v>446.5524974558285</v>
+        <v>390.5012280298424</v>
       </c>
     </row>
     <row r="85">
@@ -7647,13 +7809,13 @@
         <v>426.173889160156</v>
       </c>
       <c r="D85" t="n">
-        <v>42.1623917917013</v>
+        <v>35.84010267684936</v>
       </c>
       <c r="E85" t="n">
-        <v>10.5188405740307</v>
+        <v>10.82115825992486</v>
       </c>
       <c r="F85" t="n">
-        <v>443.4994774767265</v>
+        <v>387.8314231181435</v>
       </c>
     </row>
     <row r="86">
@@ -7667,13 +7829,13 @@
         <v>423.137054443359</v>
       </c>
       <c r="D86" t="n">
-        <v>42.37155042865273</v>
+        <v>36.01789778536985</v>
       </c>
       <c r="E86" t="n">
-        <v>10.39233157710249</v>
+        <v>10.69101331976441</v>
       </c>
       <c r="F86" t="n">
-        <v>440.3392014904782</v>
+        <v>385.0678249733022</v>
       </c>
     </row>
     <row r="87">
@@ -7687,13 +7849,13 @@
         <v>419.749786376953</v>
       </c>
       <c r="D87" t="n">
-        <v>42.56419983544354</v>
+        <v>36.18165923785404</v>
       </c>
       <c r="E87" t="n">
-        <v>10.26247966543161</v>
+        <v>10.55742938751874</v>
       </c>
       <c r="F87" t="n">
-        <v>436.8142352866067</v>
+        <v>381.985312526909</v>
       </c>
     </row>
     <row r="88">
@@ -7707,13 +7869,13 @@
         <v>416.172882080078</v>
       </c>
       <c r="D88" t="n">
-        <v>42.75430839786526</v>
+        <v>36.34326084790036</v>
       </c>
       <c r="E88" t="n">
-        <v>10.12978391695185</v>
+        <v>10.42091988491597</v>
       </c>
       <c r="F88" t="n">
-        <v>433.0919055890947</v>
+        <v>378.7302096525731</v>
       </c>
     </row>
     <row r="89">
@@ -7727,13 +7889,13 @@
         <v>412.345916748047</v>
       </c>
       <c r="D89" t="n">
-        <v>42.93573887114525</v>
+        <v>36.49748565618897</v>
       </c>
       <c r="E89" t="n">
-        <v>9.994223461131494</v>
+        <v>10.28146334159302</v>
       </c>
       <c r="F89" t="n">
-        <v>429.1093687470153</v>
+        <v>375.247560834424</v>
       </c>
     </row>
     <row r="90">
@@ -7747,13 +7909,13 @@
         <v>408.261871337891</v>
       </c>
       <c r="D90" t="n">
-        <v>43.10531207070355</v>
+        <v>36.64163119976811</v>
       </c>
       <c r="E90" t="n">
-        <v>9.85630917229204</v>
+        <v>10.13958531470085</v>
       </c>
       <c r="F90" t="n">
-        <v>424.8592827369861</v>
+        <v>371.5309456198534</v>
       </c>
     </row>
     <row r="91">
@@ -7767,13 +7929,13 @@
         <v>404.097137451172</v>
       </c>
       <c r="D91" t="n">
-        <v>43.27975417892932</v>
+        <v>36.78991555471801</v>
       </c>
       <c r="E91" t="n">
-        <v>9.716442127609405</v>
+        <v>9.995698408610137</v>
       </c>
       <c r="F91" t="n">
-        <v>420.5252267767281</v>
+        <v>367.7409003631961</v>
       </c>
     </row>
     <row r="92">
@@ -7787,13 +7949,13 @@
         <v>399.854187011719</v>
       </c>
       <c r="D92" t="n">
-        <v>43.4613932601214</v>
+        <v>36.94431768997197</v>
       </c>
       <c r="E92" t="n">
-        <v>9.574239398196053</v>
+        <v>9.849408688831115</v>
       </c>
       <c r="F92" t="n">
-        <v>416.1097836515466</v>
+        <v>363.879683658547</v>
       </c>
     </row>
     <row r="93">
@@ -7807,13 +7969,13 @@
         <v>395.338500976563</v>
       </c>
       <c r="D93" t="n">
-        <v>43.62694449913506</v>
+        <v>37.08504436965947</v>
       </c>
       <c r="E93" t="n">
-        <v>9.430193710085039</v>
+        <v>9.701223042633821</v>
       </c>
       <c r="F93" t="n">
-        <v>411.4105376059725</v>
+        <v>359.7702869760381</v>
       </c>
     </row>
     <row r="94">
@@ -7827,13 +7989,13 @@
         <v>390.682464599609</v>
       </c>
       <c r="D94" t="n">
-        <v>43.78699266142846</v>
+        <v>37.22109316400147</v>
       </c>
       <c r="E94" t="n">
-        <v>9.285068198807927</v>
+        <v>9.551926538515367</v>
       </c>
       <c r="F94" t="n">
-        <v>406.5652130820654</v>
+        <v>355.5331475857786</v>
       </c>
     </row>
     <row r="95">
@@ -7847,13 +8009,13 @@
         <v>385.817779541016</v>
       </c>
       <c r="D95" t="n">
-        <v>43.93624327819347</v>
+        <v>37.34796351461792</v>
       </c>
       <c r="E95" t="n">
-        <v>9.138303897078771</v>
+        <v>9.400944144140128</v>
       </c>
       <c r="F95" t="n">
-        <v>401.5027431721163</v>
+        <v>351.1061188983065</v>
       </c>
     </row>
     <row r="96">
@@ -7867,13 +8029,13 @@
         <v>381.040374755859</v>
       </c>
       <c r="D96" t="n">
-        <v>44.10433536157611</v>
+        <v>37.4908500367432</v>
       </c>
       <c r="E96" t="n">
-        <v>8.990751959628478</v>
+        <v>9.249151476928297</v>
       </c>
       <c r="F96" t="n">
-        <v>396.531139580202</v>
+        <v>346.7585509886406</v>
       </c>
     </row>
     <row r="97">
@@ -7887,13 +8049,13 @@
         <v>376.050201416016</v>
       </c>
       <c r="D97" t="n">
-        <v>44.25951044304376</v>
+        <v>37.62275647317509</v>
       </c>
       <c r="E97" t="n">
-        <v>8.841897882477925</v>
+        <v>9.09601924575275</v>
       </c>
       <c r="F97" t="n">
-        <v>391.3380716658582</v>
+        <v>342.2173169582695</v>
       </c>
     </row>
     <row r="98">
@@ -7907,13 +8069,13 @@
         <v>370.771789550781</v>
       </c>
       <c r="D98" t="n">
-        <v>44.38949820520881</v>
+        <v>37.73325245181277</v>
       </c>
       <c r="E98" t="n">
-        <v>8.692260706678349</v>
+        <v>8.942081409210852</v>
       </c>
       <c r="F98" t="n">
-        <v>385.8450910383056</v>
+        <v>337.4138152584148</v>
       </c>
     </row>
     <row r="99">
@@ -7927,13 +8089,13 @@
         <v>365.404449462891</v>
       </c>
       <c r="D99" t="n">
-        <v>44.51567261474132</v>
+        <v>37.84050689352417</v>
       </c>
       <c r="E99" t="n">
-        <v>8.542149860548793</v>
+        <v>8.787656288774151</v>
       </c>
       <c r="F99" t="n">
-        <v>380.2595466182483</v>
+        <v>332.5293683732793</v>
       </c>
     </row>
     <row r="100">
@@ -7947,13 +8109,13 @@
         <v>360.127838134766</v>
       </c>
       <c r="D100" t="n">
-        <v>44.65836042659285</v>
+        <v>37.9617985378113</v>
       </c>
       <c r="E100" t="n">
-        <v>8.391898365183314</v>
+        <v>8.63308647675948</v>
       </c>
       <c r="F100" t="n">
-        <v>374.7684218556918</v>
+        <v>327.7274895902466</v>
       </c>
     </row>
     <row r="101">
@@ -7967,13 +8129,13 @@
         <v>354.770721435547</v>
       </c>
       <c r="D101" t="n">
-        <v>44.79660071775913</v>
+        <v>38.07930957119751</v>
       </c>
       <c r="E101" t="n">
-        <v>8.241551591303175</v>
+        <v>8.478418647869409</v>
       </c>
       <c r="F101" t="n">
-        <v>369.1934959304207</v>
+        <v>322.8523283664331</v>
       </c>
     </row>
     <row r="102">
@@ -7987,13 +8149,13 @@
         <v>349.489593505859</v>
       </c>
       <c r="D102" t="n">
-        <v>44.94902634694572</v>
+        <v>38.20887883822628</v>
       </c>
       <c r="E102" t="n">
-        <v>8.091336392514711</v>
+        <v>8.323886175616797</v>
       </c>
       <c r="F102" t="n">
-        <v>363.6976926891445</v>
+        <v>318.046358347329</v>
       </c>
     </row>
     <row r="103">
@@ -8007,13 +8169,13 @@
         <v>343.9111328125</v>
       </c>
       <c r="D103" t="n">
-        <v>45.06440321094986</v>
+        <v>38.30695483621213</v>
       </c>
       <c r="E103" t="n">
-        <v>7.941799032301921</v>
+        <v>8.170051023420557</v>
       </c>
       <c r="F103" t="n">
-        <v>357.8924338119852</v>
+        <v>312.96977556372</v>
       </c>
     </row>
     <row r="104">
@@ -8027,13 +8189,13 @@
         <v>338.414855957031</v>
       </c>
       <c r="D104" t="n">
-        <v>45.19375263290405</v>
+        <v>38.41690819433594</v>
       </c>
       <c r="E104" t="n">
-        <v>7.79250848881281</v>
+        <v>8.016469781606297</v>
       </c>
       <c r="F104" t="n">
-        <v>352.1727010332111</v>
+        <v>307.9679836426374</v>
       </c>
     </row>
     <row r="105">
@@ -8047,13 +8209,13 @@
         <v>332.850280761719</v>
       </c>
       <c r="D105" t="n">
-        <v>45.31230868148803</v>
+        <v>38.51768665527344</v>
       </c>
       <c r="E105" t="n">
-        <v>7.64432317609367</v>
+        <v>7.8640255355466</v>
       </c>
       <c r="F105" t="n">
-        <v>346.3819314162094</v>
+        <v>302.9040714272528</v>
       </c>
     </row>
     <row r="106">
@@ -8067,13 +8229,13 @@
         <v>327.208068847656</v>
       </c>
       <c r="D106" t="n">
-        <v>45.42175690863127</v>
+        <v>38.6107230209045</v>
       </c>
       <c r="E106" t="n">
-        <v>7.496635126479588</v>
+        <v>7.712092844227064</v>
       </c>
       <c r="F106" t="n">
-        <v>340.5103383476621</v>
+        <v>297.7694807199508</v>
       </c>
     </row>
     <row r="107">
@@ -8087,13 +8249,13 @@
         <v>321.595733642578</v>
       </c>
       <c r="D107" t="n">
-        <v>45.53459292826655</v>
+        <v>38.70663917645266</v>
       </c>
       <c r="E107" t="n">
-        <v>7.349793240817074</v>
+        <v>7.561030636110435</v>
       </c>
       <c r="F107" t="n">
-        <v>334.6698433275304</v>
+        <v>292.662084634031</v>
       </c>
     </row>
     <row r="108">
@@ -8107,13 +8269,13 @@
         <v>316.086303710938</v>
       </c>
       <c r="D108" t="n">
-        <v>45.65780510544776</v>
+        <v>38.81137557525634</v>
       </c>
       <c r="E108" t="n">
-        <v>7.204385523653704</v>
+        <v>7.411443815342005</v>
       </c>
       <c r="F108" t="n">
-        <v>328.93643014349</v>
+        <v>287.6483294721494</v>
       </c>
     </row>
     <row r="109">
@@ -8127,13 +8289,13 @@
         <v>310.480682373047</v>
       </c>
       <c r="D109" t="n">
-        <v>45.76450388031005</v>
+        <v>38.90207477148437</v>
       </c>
       <c r="E109" t="n">
-        <v>7.06012069495896</v>
+        <v>7.263032730331276</v>
       </c>
       <c r="F109" t="n">
-        <v>323.1029209399067</v>
+        <v>282.5470423430856</v>
       </c>
     </row>
     <row r="110">
@@ -8147,13 +8309,13 @@
         <v>304.903198242188</v>
       </c>
       <c r="D110" t="n">
-        <v>45.86590818636415</v>
+        <v>38.98827340933226</v>
       </c>
       <c r="E110" t="n">
-        <v>6.917963789974123</v>
+        <v>7.116790152001889</v>
       </c>
       <c r="F110" t="n">
-        <v>317.2986920275449</v>
+        <v>277.4713602430929</v>
       </c>
     </row>
     <row r="111">
@@ -8167,13 +8329,13 @@
         <v>299.363616943359</v>
       </c>
       <c r="D111" t="n">
-        <v>45.96117524764537</v>
+        <v>39.06925508786011</v>
       </c>
       <c r="E111" t="n">
-        <v>6.77819701458546</v>
+        <v>6.973006397003828</v>
       </c>
       <c r="F111" t="n">
-        <v>311.5339008504289</v>
+        <v>272.4301656538229</v>
       </c>
     </row>
     <row r="112">
@@ -8187,13 +8349,13 @@
         <v>293.905090332031</v>
       </c>
       <c r="D112" t="n">
-        <v>46.06046426947112</v>
+        <v>39.1536556302795</v>
       </c>
       <c r="E112" t="n">
-        <v>6.640260040385345</v>
+        <v>6.83110503276035</v>
       </c>
       <c r="F112" t="n">
-        <v>305.8534603301661</v>
+        <v>267.4627340269679</v>
       </c>
     </row>
     <row r="113">
@@ -8207,13 +8369,13 @@
         <v>277.536651611328</v>
       </c>
       <c r="D113" t="n">
-        <v>46.32890093071466</v>
+        <v>39.38183996926885</v>
       </c>
       <c r="E113" t="n">
-        <v>6.234112232606458</v>
+        <v>6.413284297293801</v>
       </c>
       <c r="F113" t="n">
-        <v>288.819568015381</v>
+        <v>252.5669358734493</v>
       </c>
     </row>
     <row r="114">
@@ -8227,13 +8389,13 @@
         <v>266.875396728516</v>
       </c>
       <c r="D114" t="n">
-        <v>46.49910829832554</v>
+        <v>39.52652458682252</v>
       </c>
       <c r="E114" t="n">
-        <v>5.97269339600084</v>
+        <v>6.144352129045257</v>
       </c>
       <c r="F114" t="n">
-        <v>277.7249170533368</v>
+        <v>242.8648854988026</v>
       </c>
     </row>
     <row r="115">
@@ -8247,13 +8409,13 @@
         <v>256.541839599609</v>
       </c>
       <c r="D115" t="n">
-        <v>46.67249485051627</v>
+        <v>39.67391166732785</v>
       </c>
       <c r="E115" t="n">
-        <v>5.720097803559363</v>
+        <v>5.884496790205255</v>
       </c>
       <c r="F115" t="n">
-        <v>266.9712352810738</v>
+        <v>233.4610058612776</v>
       </c>
     </row>
     <row r="116">
@@ -8267,13 +8429,13 @@
         <v>236.392303466797</v>
       </c>
       <c r="D116" t="n">
-        <v>46.95299739339347</v>
+        <v>39.91235259799191</v>
       </c>
       <c r="E116" t="n">
-        <v>5.239336483540801</v>
+        <v>5.38991810612337</v>
       </c>
       <c r="F116" t="n">
-        <v>246.0025522548026</v>
+        <v>215.1243119258967</v>
       </c>
     </row>
     <row r="117">
@@ -8287,13 +8449,13 @@
         <v>222.190658569336</v>
       </c>
       <c r="D117" t="n">
-        <v>47.13506203472616</v>
+        <v>40.06711648025514</v>
       </c>
       <c r="E117" t="n">
-        <v>4.905553161348553</v>
+        <v>5.046541654265829</v>
       </c>
       <c r="F117" t="n">
-        <v>231.2235525748111</v>
+        <v>202.2003722839284</v>
       </c>
     </row>
     <row r="118">
@@ -8307,13 +8469,13 @@
         <v>204.302520751953</v>
       </c>
       <c r="D118" t="n">
-        <v>47.39037725830077</v>
+        <v>40.284146953125</v>
       </c>
       <c r="E118" t="n">
-        <v>4.486315900485109</v>
+        <v>4.615255267108205</v>
       </c>
       <c r="F118" t="n">
-        <v>212.6082030239027</v>
+        <v>185.9216214063711</v>
       </c>
     </row>
     <row r="119">
@@ -8327,13 +8489,13 @@
         <v>191.567626953125</v>
       </c>
       <c r="D119" t="n">
-        <v>47.54597789990903</v>
+        <v>40.41641513656617</v>
       </c>
       <c r="E119" t="n">
-        <v>4.19290117753716</v>
+        <v>4.313407631861167</v>
       </c>
       <c r="F119" t="n">
-        <v>199.3555867236844</v>
+        <v>174.3324735025337</v>
       </c>
     </row>
     <row r="120">
@@ -8347,13 +8509,13 @@
         <v>169.959136962891</v>
       </c>
       <c r="D120" t="n">
-        <v>47.7921853020429</v>
+        <v>40.62570351412959</v>
       </c>
       <c r="E120" t="n">
-        <v>3.700785380815165</v>
+        <v>3.807148136714437</v>
       </c>
       <c r="F120" t="n">
-        <v>176.8686206830097</v>
+        <v>154.6680714365316</v>
       </c>
     </row>
     <row r="121">
@@ -8367,13 +8529,13 @@
         <v>151.642333984375</v>
       </c>
       <c r="D121" t="n">
-        <v>48.00917925217151</v>
+        <v>40.81015902346802</v>
       </c>
       <c r="E121" t="n">
-        <v>3.287020736350544</v>
+        <v>3.381491652180656</v>
       </c>
       <c r="F121" t="n">
-        <v>157.8071677370581</v>
+        <v>137.9992120620222</v>
       </c>
     </row>
     <row r="122">
@@ -8387,13 +8549,13 @@
         <v>133.493270874023</v>
       </c>
       <c r="D122" t="n">
-        <v>48.20140727097987</v>
+        <v>40.97356227548217</v>
       </c>
       <c r="E122" t="n">
-        <v>2.882079336050054</v>
+        <v>2.964911997055407</v>
       </c>
       <c r="F122" t="n">
-        <v>138.9202798642239</v>
+        <v>121.4830063526739</v>
       </c>
     </row>
     <row r="123">
@@ -8407,13 +8569,13 @@
         <v>113.093757629395</v>
       </c>
       <c r="D123" t="n">
-        <v>48.43914936404225</v>
+        <v>41.17565472479246</v>
       </c>
       <c r="E123" t="n">
-        <v>2.429676304796505</v>
+        <v>2.499506635693562</v>
       </c>
       <c r="F123" t="n">
-        <v>117.6914534343122</v>
+        <v>102.9188222136457</v>
       </c>
     </row>
     <row r="124">
@@ -8427,13 +8589,13 @@
         <v>92.8880310058594</v>
       </c>
       <c r="D124" t="n">
-        <v>48.63793601560594</v>
+        <v>41.34463313659669</v>
       </c>
       <c r="E124" t="n">
-        <v>1.987425652986509</v>
+        <v>2.044545439152005</v>
       </c>
       <c r="F124" t="n">
-        <v>96.66428174573167</v>
+        <v>84.53098111284162</v>
       </c>
     </row>
     <row r="125">
@@ -8447,13 +8609,13 @@
         <v>67.6756210327148</v>
       </c>
       <c r="D125" t="n">
-        <v>48.87652505679128</v>
+        <v>41.54744553338621</v>
       </c>
       <c r="E125" t="n">
-        <v>1.440914444834339</v>
+        <v>1.482327176348613</v>
       </c>
       <c r="F125" t="n">
-        <v>70.42689096763804</v>
+        <v>61.58690762200217</v>
       </c>
     </row>
     <row r="126">
@@ -8467,13 +8629,13 @@
         <v>45.9201316833496</v>
       </c>
       <c r="D126" t="n">
-        <v>49.07785255272393</v>
+        <v>41.71858378762822</v>
       </c>
       <c r="E126" t="n">
-        <v>0.9736970791005918</v>
+        <v>1.001681707790786</v>
       </c>
       <c r="F126" t="n">
-        <v>47.78696167911681</v>
+        <v>41.78874225500442</v>
       </c>
     </row>
     <row r="127">
@@ -8487,13 +8649,13 @@
         <v>36.0078163146973</v>
       </c>
       <c r="D127" t="n">
-        <v>49.1729068339348</v>
+        <v>41.79938459265138</v>
       </c>
       <c r="E127" t="n">
-        <v>0.76203897803467</v>
+        <v>0.7839404279881335</v>
       </c>
       <c r="F127" t="n">
-        <v>37.47167167072571</v>
+        <v>32.76822744720371</v>
       </c>
     </row>
     <row r="128">
@@ -8507,13 +8669,13 @@
         <v>15.3251371383667</v>
       </c>
       <c r="D128" t="n">
-        <v>49.37889463062282</v>
+        <v>41.9744843312988</v>
       </c>
       <c r="E128" t="n">
-        <v>0.3229752791130359</v>
+        <v>0.3322577792417606</v>
       </c>
       <c r="F128" t="n">
-        <v>15.9481622756186</v>
+        <v>13.94634894873542</v>
       </c>
     </row>
     <row r="129">
@@ -8527,13 +8689,13 @@
         <v>0.717405676841736</v>
       </c>
       <c r="D129" t="n">
-        <v>49.48262700097565</v>
+        <v>42.06266193807987</v>
       </c>
       <c r="E129" t="n">
-        <v>0.01508753711395538</v>
+        <v>0.01552116183466788</v>
       </c>
       <c r="F129" t="n">
-        <v>0.7465709713732309</v>
+        <v>0.6528613831378625</v>
       </c>
     </row>
   </sheetData>
@@ -8598,13 +8760,13 @@
         <v>5.87818908691406</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4945521227069199</v>
+        <v>0.4203935807161331</v>
       </c>
       <c r="E2" t="n">
-        <v>12.36909034666628</v>
+        <v>12.72458530296897</v>
       </c>
       <c r="F2" t="n">
-        <v>6.117159886897483</v>
+        <v>5.349333978643008</v>
       </c>
     </row>
     <row r="3">
@@ -8618,13 +8780,13 @@
         <v>210.471267700195</v>
       </c>
       <c r="D3" t="n">
-        <v>17.70973323129419</v>
+        <v>15.05414257627872</v>
       </c>
       <c r="E3" t="n">
-        <v>12.36764665031568</v>
+        <v>12.72310011393324</v>
       </c>
       <c r="F3" t="n">
-        <v>219.0277228759999</v>
+        <v>191.535363127419</v>
       </c>
     </row>
     <row r="4">
@@ -8638,13 +8800,13 @@
         <v>214.04557800293</v>
       </c>
       <c r="D4" t="n">
-        <v>18.01352476147416</v>
+        <v>15.31238028935244</v>
       </c>
       <c r="E4" t="n">
-        <v>12.3655614119664</v>
+        <v>12.72095494460318</v>
       </c>
       <c r="F4" t="n">
-        <v>222.7473466839861</v>
+        <v>194.7880997554821</v>
       </c>
     </row>
     <row r="5">
@@ -8658,13 +8820,13 @@
         <v>217.538131713867</v>
       </c>
       <c r="D5" t="n">
-        <v>18.31011931868792</v>
+        <v>15.5645002221222</v>
       </c>
       <c r="E5" t="n">
-        <v>12.36375837950338</v>
+        <v>12.7191000919231</v>
       </c>
       <c r="F5" t="n">
-        <v>226.3818911561345</v>
+        <v>197.9664362059315</v>
       </c>
     </row>
     <row r="6">
@@ -8678,13 +8840,13 @@
         <v>220.788208007813</v>
       </c>
       <c r="D6" t="n">
-        <v>18.58533365099428</v>
+        <v>15.79844591421507</v>
       </c>
       <c r="E6" t="n">
-        <v>12.36265677839112</v>
+        <v>12.71796683014475</v>
       </c>
       <c r="F6" t="n">
-        <v>229.7641010391251</v>
+        <v>200.9241111048231</v>
       </c>
     </row>
     <row r="7">
@@ -8698,13 +8860,13 @@
         <v>224.217178344727</v>
       </c>
       <c r="D7" t="n">
-        <v>18.87621235141751</v>
+        <v>16.04570708813474</v>
       </c>
       <c r="E7" t="n">
-        <v>12.3611913040943</v>
+        <v>12.71645923725177</v>
       </c>
       <c r="F7" t="n">
-        <v>233.3324719725796</v>
+        <v>204.0445801191473</v>
       </c>
     </row>
     <row r="8">
@@ -8718,13 +8880,13 @@
         <v>227.309387207031</v>
       </c>
       <c r="D8" t="n">
-        <v>19.13850968180898</v>
+        <v>16.26867269453433</v>
       </c>
       <c r="E8" t="n">
-        <v>12.35991638682684</v>
+        <v>12.71514767810964</v>
       </c>
       <c r="F8" t="n">
-        <v>236.550379435635</v>
+        <v>206.8585758378339</v>
       </c>
     </row>
     <row r="9">
@@ -8738,13 +8900,13 @@
         <v>230.483352661133</v>
       </c>
       <c r="D9" t="n">
-        <v>19.40821885131597</v>
+        <v>16.49793872801208</v>
       </c>
       <c r="E9" t="n">
-        <v>12.35834111538455</v>
+        <v>12.71352713243644</v>
       </c>
       <c r="F9" t="n">
-        <v>239.8533890065997</v>
+        <v>209.7469916478555</v>
       </c>
     </row>
     <row r="10">
@@ -8758,13 +8920,13 @@
         <v>233.384994506836</v>
       </c>
       <c r="D10" t="n">
-        <v>19.65548806772236</v>
+        <v>16.70812969982914</v>
       </c>
       <c r="E10" t="n">
-        <v>12.35649724927243</v>
+        <v>12.71163027252408</v>
       </c>
       <c r="F10" t="n">
-        <v>242.8729842419185</v>
+        <v>212.3875672896068</v>
       </c>
     </row>
     <row r="11">
@@ -8778,13 +8940,13 @@
         <v>236.277084350586</v>
       </c>
       <c r="D11" t="n">
-        <v>19.90148477586506</v>
+        <v>16.91723897715758</v>
       </c>
       <c r="E11" t="n">
-        <v>12.35499003391201</v>
+        <v>12.7100797389047</v>
       </c>
       <c r="F11" t="n">
-        <v>245.8826460658644</v>
+        <v>215.0194563617794</v>
       </c>
     </row>
     <row r="12">
@@ -8798,13 +8960,13 @@
         <v>238.842407226563</v>
       </c>
       <c r="D12" t="n">
-        <v>20.11996192824841</v>
+        <v>17.10295528121949</v>
       </c>
       <c r="E12" t="n">
-        <v>12.3535154854709</v>
+        <v>12.70856281107118</v>
       </c>
       <c r="F12" t="n">
-        <v>248.5522612477018</v>
+        <v>217.3539814463194</v>
       </c>
     </row>
     <row r="13">
@@ -8818,13 +8980,13 @@
         <v>241.20295715332</v>
       </c>
       <c r="D13" t="n">
-        <v>20.32171289824248</v>
+        <v>17.27445350920106</v>
       </c>
       <c r="E13" t="n">
-        <v>12.35175328665708</v>
+        <v>12.70674996562347</v>
       </c>
       <c r="F13" t="n">
-        <v>251.0087840813681</v>
+        <v>219.5021615342047</v>
       </c>
     </row>
     <row r="14">
@@ -8838,13 +9000,13 @@
         <v>243.417434692383</v>
       </c>
       <c r="D14" t="n">
-        <v>20.51076381855008</v>
+        <v>17.43515607153318</v>
       </c>
       <c r="E14" t="n">
-        <v>12.3502605899275</v>
+        <v>12.70521436790895</v>
       </c>
       <c r="F14" t="n">
-        <v>253.3132780575499</v>
+        <v>221.5173954267782</v>
       </c>
     </row>
     <row r="15">
@@ -8858,13 +9020,13 @@
         <v>245.573043823242</v>
       </c>
       <c r="D15" t="n">
-        <v>20.69536721817255</v>
+        <v>17.59207802296448</v>
       </c>
       <c r="E15" t="n">
-        <v>12.34848931696939</v>
+        <v>12.70339218752069</v>
       </c>
       <c r="F15" t="n">
-        <v>255.5565210043623</v>
+        <v>223.4790665191813</v>
       </c>
     </row>
     <row r="16">
@@ -8878,13 +9040,13 @@
         <v>247.506469726563</v>
       </c>
       <c r="D16" t="n">
-        <v>20.86261235343213</v>
+        <v>17.73424459761043</v>
       </c>
       <c r="E16" t="n">
-        <v>12.34593948243438</v>
+        <v>12.70076906923633</v>
       </c>
       <c r="F16" t="n">
-        <v>257.5685495609608</v>
+        <v>225.238545251602</v>
       </c>
     </row>
     <row r="17">
@@ -8898,13 +9060,13 @@
         <v>249.191360473633</v>
       </c>
       <c r="D17" t="n">
-        <v>21.00720475552084</v>
+        <v>17.85715523709109</v>
       </c>
       <c r="E17" t="n">
-        <v>12.34442863741631</v>
+        <v>12.6992148016408</v>
       </c>
       <c r="F17" t="n">
-        <v>259.3219399761196</v>
+        <v>226.7718501020647</v>
       </c>
     </row>
     <row r="18">
@@ -8918,13 +9080,13 @@
         <v>250.941528320313</v>
       </c>
       <c r="D18" t="n">
-        <v>21.15708954033856</v>
+        <v>17.98456466168217</v>
       </c>
       <c r="E18" t="n">
-        <v>12.34306207129177</v>
+        <v>12.69780895959935</v>
       </c>
       <c r="F18" t="n">
-        <v>261.1432694442766</v>
+        <v>228.3645662956016</v>
       </c>
     </row>
     <row r="19">
@@ -8938,13 +9100,13 @@
         <v>252.737655639648</v>
       </c>
       <c r="D19" t="n">
-        <v>21.31078559170963</v>
+        <v>18.11521384992983</v>
       </c>
       <c r="E19" t="n">
-        <v>12.34175085744725</v>
+        <v>12.69646006069512</v>
       </c>
       <c r="F19" t="n">
-        <v>263.0124063493569</v>
+        <v>229.9990891365851</v>
       </c>
     </row>
     <row r="20">
@@ -8958,13 +9120,13 @@
         <v>254.670257568359</v>
       </c>
       <c r="D20" t="n">
-        <v>21.47612613673213</v>
+        <v>18.25576142938235</v>
       </c>
       <c r="E20" t="n">
-        <v>12.34038066166516</v>
+        <v>12.69505048467761</v>
       </c>
       <c r="F20" t="n">
-        <v>265.0235716652109</v>
+        <v>231.7578129822393</v>
       </c>
     </row>
     <row r="21">
@@ -8978,13 +9140,13 @@
         <v>256.349578857422</v>
       </c>
       <c r="D21" t="n">
-        <v>21.61944811663625</v>
+        <v>18.37759214764403</v>
       </c>
       <c r="E21" t="n">
-        <v>12.33940700598685</v>
+        <v>12.69404884556049</v>
       </c>
       <c r="F21" t="n">
-        <v>266.7711695559905</v>
+        <v>233.2860523859822</v>
       </c>
     </row>
     <row r="22">
@@ -8998,13 +9160,13 @@
         <v>258.104339599609</v>
       </c>
       <c r="D22" t="n">
-        <v>21.76890942739244</v>
+        <v>18.50464159849545</v>
       </c>
       <c r="E22" t="n">
-        <v>12.33857309213</v>
+        <v>12.69319096452726</v>
       </c>
       <c r="F22" t="n">
-        <v>268.5972801058394</v>
+        <v>234.8829495398377</v>
       </c>
     </row>
     <row r="23">
@@ -9018,13 +9180,13 @@
         <v>259.837158203125</v>
       </c>
       <c r="D23" t="n">
-        <v>21.9173130960345</v>
+        <v>18.63079200163267</v>
       </c>
       <c r="E23" t="n">
-        <v>12.337303619349</v>
+        <v>12.69188500634934</v>
       </c>
       <c r="F23" t="n">
-        <v>270.4005461861117</v>
+        <v>236.4598696619349</v>
       </c>
     </row>
     <row r="24">
@@ -9038,13 +9200,13 @@
         <v>261.526062011719</v>
       </c>
       <c r="D24" t="n">
-        <v>22.06148202406169</v>
+        <v>18.75334266737367</v>
       </c>
       <c r="E24" t="n">
-        <v>12.33634720454475</v>
+        <v>12.69090110361918</v>
       </c>
       <c r="F24" t="n">
-        <v>272.1581020956477</v>
+        <v>237.9968171539211</v>
       </c>
     </row>
     <row r="25">
@@ -9058,13 +9220,13 @@
         <v>263.21923828125</v>
       </c>
       <c r="D25" t="n">
-        <v>22.20607442615029</v>
+        <v>18.87625330685423</v>
       </c>
       <c r="E25" t="n">
-        <v>12.33536810437989</v>
+        <v>12.68989386353775</v>
       </c>
       <c r="F25" t="n">
-        <v>273.9201021998202</v>
+        <v>239.5376510052336</v>
       </c>
     </row>
     <row r="26">
@@ -9078,13 +9240,13 @@
         <v>264.889129638672</v>
       </c>
       <c r="D26" t="n">
-        <v>22.34833876394029</v>
+        <v>18.9971849774017</v>
       </c>
       <c r="E26" t="n">
-        <v>12.33460315401941</v>
+        <v>12.68910692805247</v>
       </c>
       <c r="F26" t="n">
-        <v>275.6578898047922</v>
+        <v>241.0573115102422</v>
       </c>
     </row>
     <row r="27">
@@ -9098,13 +9260,13 @@
         <v>266.666137695313</v>
       </c>
       <c r="D27" t="n">
-        <v>22.5001281389952</v>
+        <v>19.12621339718631</v>
       </c>
       <c r="E27" t="n">
-        <v>12.33357959054771</v>
+        <v>12.68805394676253</v>
       </c>
       <c r="F27" t="n">
-        <v>277.5071211998194</v>
+        <v>242.674427380792</v>
       </c>
     </row>
     <row r="28">
@@ -9118,13 +9280,13 @@
         <v>268.252105712891</v>
       </c>
       <c r="D28" t="n">
-        <v>22.63625314593313</v>
+        <v>19.24192633514403</v>
       </c>
       <c r="E28" t="n">
-        <v>12.33232282156873</v>
+        <v>12.6867610575014</v>
       </c>
       <c r="F28" t="n">
-        <v>279.157581266398</v>
+        <v>244.1177217000158</v>
       </c>
     </row>
     <row r="29">
@@ -9138,13 +9300,13 @@
         <v>270.161987304688</v>
       </c>
       <c r="D29" t="n">
-        <v>22.79989979470972</v>
+        <v>19.3810340196381</v>
       </c>
       <c r="E29" t="n">
-        <v>12.33097984821931</v>
+        <v>12.68537948630535</v>
       </c>
       <c r="F29" t="n">
-        <v>281.1451049099852</v>
+        <v>245.8557713761031</v>
       </c>
     </row>
     <row r="30">
@@ -9158,13 +9320,13 @@
         <v>271.935577392578</v>
       </c>
       <c r="D30" t="n">
-        <v>22.95211264382605</v>
+        <v>19.51042241316227</v>
       </c>
       <c r="E30" t="n">
-        <v>12.32961872658141</v>
+        <v>12.68397924522829</v>
       </c>
       <c r="F30" t="n">
-        <v>282.9907978679236</v>
+        <v>247.4697929541871</v>
       </c>
     </row>
     <row r="31">
@@ -9178,13 +9340,13 @@
         <v>273.733734130859</v>
       </c>
       <c r="D31" t="n">
-        <v>23.10665564332007</v>
+        <v>19.64179154888915</v>
       </c>
       <c r="E31" t="n">
-        <v>12.32813873365375</v>
+        <v>12.68245671643046</v>
       </c>
       <c r="F31" t="n">
-        <v>284.8620564416132</v>
+        <v>249.1061711519363</v>
       </c>
     </row>
     <row r="32">
@@ -9198,13 +9360,13 @@
         <v>275.403503417969</v>
       </c>
       <c r="D32" t="n">
-        <v>23.25082457134726</v>
+        <v>19.76434221463015</v>
       </c>
       <c r="E32" t="n">
-        <v>12.32643188711987</v>
+        <v>12.68070081411988</v>
       </c>
       <c r="F32" t="n">
-        <v>286.599705398085</v>
+        <v>250.6257104116045</v>
       </c>
     </row>
     <row r="33">
@@ -9218,13 +9380,13 @@
         <v>277.133819580078</v>
       </c>
       <c r="D33" t="n">
-        <v>23.40155630428793</v>
+        <v>19.89247158670046</v>
       </c>
       <c r="E33" t="n">
-        <v>12.32398186817163</v>
+        <v>12.67818038018117</v>
       </c>
       <c r="F33" t="n">
-        <v>288.4003555810419</v>
+        <v>252.2003429838171</v>
       </c>
     </row>
     <row r="34">
@@ -9238,13 +9400,13 @@
         <v>278.892608642578</v>
       </c>
       <c r="D34" t="n">
-        <v>23.55440540753604</v>
+        <v>20.02240082746889</v>
       </c>
       <c r="E34" t="n">
-        <v>12.32171514693728</v>
+        <v>12.67584851204082</v>
       </c>
       <c r="F34" t="n">
-        <v>290.2306738871383</v>
+        <v>253.8009197363564</v>
       </c>
     </row>
     <row r="35">
@@ -9258,13 +9420,13 @@
         <v>280.570281982422</v>
       </c>
       <c r="D35" t="n">
-        <v>23.70217282204633</v>
+        <v>20.14801038336186</v>
       </c>
       <c r="E35" t="n">
-        <v>12.31855552990851</v>
+        <v>12.67259808575396</v>
       </c>
       <c r="F35" t="n">
-        <v>291.9765320878659</v>
+        <v>255.3276378159424</v>
       </c>
     </row>
     <row r="36">
@@ -9278,13 +9440,13 @@
         <v>282.273040771484</v>
       </c>
       <c r="D36" t="n">
-        <v>23.85248316700455</v>
+        <v>20.27578155496213</v>
       </c>
       <c r="E36" t="n">
-        <v>12.3152180596523</v>
+        <v>12.66916469463295</v>
       </c>
       <c r="F36" t="n">
-        <v>293.7485314658469</v>
+        <v>256.8772158322161</v>
       </c>
     </row>
     <row r="37">
@@ -9298,13 +9460,13 @@
         <v>283.906311035156</v>
       </c>
       <c r="D37" t="n">
-        <v>24.00744755448102</v>
+        <v>20.40750889115905</v>
       </c>
       <c r="E37" t="n">
-        <v>12.30652230721493</v>
+        <v>12.66021902113865</v>
       </c>
       <c r="F37" t="n">
-        <v>295.4481888685133</v>
+        <v>258.363532237908</v>
       </c>
     </row>
     <row r="38">
@@ -9318,13 +9480,13 @@
         <v>285.185791015625</v>
       </c>
       <c r="D38" t="n">
-        <v>24.1450557636738</v>
+        <v>20.52448262384035</v>
       </c>
       <c r="E38" t="n">
-        <v>12.29153091349505</v>
+        <v>12.64479676591594</v>
       </c>
       <c r="F38" t="n">
-        <v>296.7796993272584</v>
+        <v>259.5279115040344</v>
       </c>
     </row>
     <row r="39">
@@ -9338,13 +9500,13 @@
         <v>286.564544677734</v>
       </c>
       <c r="D39" t="n">
-        <v>24.28604759320023</v>
+        <v>20.64433259989931</v>
       </c>
       <c r="E39" t="n">
-        <v>12.27925178149218</v>
+        <v>12.63216472441265</v>
       </c>
       <c r="F39" t="n">
-        <v>298.2144931742077</v>
+        <v>260.7826100274902</v>
       </c>
     </row>
     <row r="40">
@@ -9358,13 +9520,13 @@
         <v>288.248657226563</v>
       </c>
       <c r="D40" t="n">
-        <v>24.43868600245717</v>
+        <v>20.77408274043276</v>
       </c>
       <c r="E40" t="n">
-        <v>12.27427189112632</v>
+        <v>12.62704170905875</v>
       </c>
       <c r="F40" t="n">
-        <v>299.9670766560222</v>
+        <v>262.3152092308819</v>
       </c>
     </row>
     <row r="41">
@@ -9378,13 +9540,13 @@
         <v>289.797454833984</v>
       </c>
       <c r="D41" t="n">
-        <v>24.57396406127215</v>
+        <v>20.88907573091126</v>
       </c>
       <c r="E41" t="n">
-        <v>12.27229100543596</v>
+        <v>12.62500389154461</v>
       </c>
       <c r="F41" t="n">
-        <v>301.5788381170568</v>
+        <v>263.7246623935247</v>
       </c>
     </row>
     <row r="42">
@@ -9398,13 +9560,13 @@
         <v>291.65185546875</v>
       </c>
       <c r="D42" t="n">
-        <v>24.73316318936349</v>
+        <v>21.02440280450441</v>
       </c>
       <c r="E42" t="n">
-        <v>12.27132188682979</v>
+        <v>12.62400691989776</v>
       </c>
       <c r="F42" t="n">
-        <v>303.5086067761691</v>
+        <v>265.4122064907817</v>
       </c>
     </row>
     <row r="43">
@@ -9418,13 +9580,13 @@
         <v>293.41259765625</v>
       </c>
       <c r="D43" t="n">
-        <v>24.88389492230417</v>
+        <v>21.15253217657472</v>
       </c>
       <c r="E43" t="n">
-        <v>12.27062499255118</v>
+        <v>12.62328999646631</v>
       </c>
       <c r="F43" t="n">
-        <v>305.340942945643</v>
+        <v>267.0145478244875</v>
       </c>
     </row>
     <row r="44">
@@ -9438,13 +9600,13 @@
         <v>295.129943847656</v>
       </c>
       <c r="D44" t="n">
-        <v>25.03102816876175</v>
+        <v>21.27760265849306</v>
       </c>
       <c r="E44" t="n">
-        <v>12.26989633876766</v>
+        <v>12.62254040074303</v>
       </c>
       <c r="F44" t="n">
-        <v>307.12812088348</v>
+        <v>268.5773991877859</v>
       </c>
     </row>
     <row r="45">
@@ -9458,13 +9620,13 @@
         <v>296.834075927734</v>
       </c>
       <c r="D45" t="n">
-        <v>25.17646751897331</v>
+        <v>21.40123324545285</v>
       </c>
       <c r="E45" t="n">
-        <v>12.26945442794255</v>
+        <v>12.62208578914</v>
       </c>
       <c r="F45" t="n">
-        <v>308.9015208806188</v>
+        <v>270.128202017501</v>
       </c>
     </row>
     <row r="46">
@@ -9478,13 +9640,13 @@
         <v>298.561553955078</v>
       </c>
       <c r="D46" t="n">
-        <v>25.32465840754512</v>
+        <v>21.52720277508548</v>
       </c>
       <c r="E46" t="n">
-        <v>12.26864410686083</v>
+        <v>12.62125217895217</v>
       </c>
       <c r="F46" t="n">
-        <v>310.6992211299919</v>
+        <v>271.7002549317929</v>
       </c>
     </row>
     <row r="47">
@@ -9498,13 +9660,13 @@
         <v>300.36572265625</v>
       </c>
       <c r="D47" t="n">
-        <v>25.47814376492502</v>
+        <v>21.65767286309816</v>
       </c>
       <c r="E47" t="n">
-        <v>12.2684263273987</v>
+        <v>12.62102814037978</v>
       </c>
       <c r="F47" t="n">
-        <v>312.5767297388551</v>
+        <v>273.3420986603014</v>
       </c>
     </row>
     <row r="48">
@@ -9518,13 +9680,13 @@
         <v>302.324798583984</v>
       </c>
       <c r="D48" t="n">
-        <v>25.6460230682373</v>
+        <v>21.80037851171875</v>
       </c>
       <c r="E48" t="n">
-        <v>12.26761146924484</v>
+        <v>12.62018986272168</v>
       </c>
       <c r="F48" t="n">
-        <v>314.6154467324256</v>
+        <v>275.1249158970886</v>
       </c>
     </row>
     <row r="49">
@@ -9538,13 +9700,13 @@
         <v>303.816070556641</v>
       </c>
       <c r="D49" t="n">
-        <v>25.77325511988404</v>
+        <v>21.90853200114444</v>
       </c>
       <c r="E49" t="n">
-        <v>12.26726483693435</v>
+        <v>12.61983326799402</v>
       </c>
       <c r="F49" t="n">
-        <v>316.1673462654918</v>
+        <v>276.4820210009543</v>
       </c>
     </row>
     <row r="50">
@@ -9558,13 +9720,13 @@
         <v>305.562530517578</v>
       </c>
       <c r="D50" t="n">
-        <v>25.9222950426579</v>
+        <v>22.03522325152592</v>
       </c>
       <c r="E50" t="n">
-        <v>12.26684651888436</v>
+        <v>12.6194029272364</v>
       </c>
       <c r="F50" t="n">
-        <v>317.9848147055214</v>
+        <v>278.0713608026138</v>
       </c>
     </row>
     <row r="51">
@@ -9578,13 +9740,13 @@
         <v>312.527374267578</v>
       </c>
       <c r="D51" t="n">
-        <v>26.51738874732251</v>
+        <v>22.54108211225887</v>
       </c>
       <c r="E51" t="n">
-        <v>12.26488831855453</v>
+        <v>12.61738844707344</v>
       </c>
       <c r="F51" t="n">
-        <v>325.2328114856052</v>
+        <v>284.4095890277488</v>
       </c>
     </row>
     <row r="52">
@@ -9598,13 +9760,13 @@
         <v>317.855224609375</v>
       </c>
       <c r="D52" t="n">
-        <v>26.97127784239055</v>
+        <v>22.92691012342835</v>
       </c>
       <c r="E52" t="n">
-        <v>12.26405531211219</v>
+        <v>12.61653149953434</v>
       </c>
       <c r="F52" t="n">
-        <v>330.7772432974236</v>
+        <v>289.2580837592266</v>
       </c>
     </row>
     <row r="53">
@@ -9618,13 +9780,13 @@
         <v>324.805114746094</v>
       </c>
       <c r="D53" t="n">
-        <v>27.5655266850114</v>
+        <v>23.43205080995179</v>
       </c>
       <c r="E53" t="n">
-        <v>12.26204357433133</v>
+        <v>12.61446194322242</v>
       </c>
       <c r="F53" t="n">
-        <v>338.0096893610029</v>
+        <v>295.5827131937909</v>
       </c>
     </row>
     <row r="54">
@@ -9638,13 +9800,13 @@
         <v>331.983764648438</v>
       </c>
       <c r="D54" t="n">
-        <v>28.17840421417951</v>
+        <v>23.95302679447937</v>
       </c>
       <c r="E54" t="n">
-        <v>12.26045922874485</v>
+        <v>12.61283206260876</v>
       </c>
       <c r="F54" t="n">
-        <v>345.4801759990399</v>
+        <v>302.1155043499361</v>
       </c>
     </row>
     <row r="55">
@@ -9658,13 +9820,13 @@
         <v>337.167846679688</v>
       </c>
       <c r="D55" t="n">
-        <v>28.62170854378943</v>
+        <v>24.32985723542789</v>
       </c>
       <c r="E55" t="n">
-        <v>12.2590518289712</v>
+        <v>12.61138421333503</v>
       </c>
       <c r="F55" t="n">
-        <v>350.8750084720225</v>
+        <v>306.8331774515704</v>
       </c>
     </row>
     <row r="56">
@@ -9678,13 +9840,13 @@
         <v>344.151763916016</v>
       </c>
       <c r="D56" t="n">
-        <v>29.21743850258594</v>
+        <v>24.83625694340519</v>
       </c>
       <c r="E56" t="n">
-        <v>12.25784587520002</v>
+        <v>12.61014359974075</v>
       </c>
       <c r="F56" t="n">
-        <v>358.1428580328332</v>
+        <v>313.1887665363978</v>
       </c>
     </row>
     <row r="57">
@@ -9698,13 +9860,13 @@
         <v>349.383941650391</v>
       </c>
       <c r="D57" t="n">
-        <v>29.66370715062614</v>
+        <v>25.21560720053097</v>
       </c>
       <c r="E57" t="n">
-        <v>12.25698927598255</v>
+        <v>12.60926238135624</v>
       </c>
       <c r="F57" t="n">
-        <v>363.5877404311115</v>
+        <v>317.9502072967108</v>
       </c>
     </row>
     <row r="58">
@@ -9718,13 +9880,13 @@
         <v>356.292816162109</v>
       </c>
       <c r="D58" t="n">
-        <v>30.25287430450916</v>
+        <v>25.71642820217895</v>
       </c>
       <c r="E58" t="n">
-        <v>12.25594211973582</v>
+        <v>12.60818512922099</v>
       </c>
       <c r="F58" t="n">
-        <v>370.7774764317072</v>
+        <v>324.2374876353919</v>
       </c>
     </row>
     <row r="59">
@@ -9738,13 +9900,13 @@
         <v>361.345977783203</v>
       </c>
       <c r="D59" t="n">
-        <v>30.68495761452917</v>
+        <v>26.08372022566227</v>
       </c>
       <c r="E59" t="n">
-        <v>12.25473616596463</v>
+        <v>12.60694451562672</v>
       </c>
       <c r="F59" t="n">
-        <v>376.0360598298626</v>
+        <v>328.8360136460547</v>
       </c>
     </row>
     <row r="60">
@@ -9758,13 +9920,13 @@
         <v>366.963684082031</v>
       </c>
       <c r="D60" t="n">
-        <v>31.16425098112822</v>
+        <v>26.49114311466981</v>
       </c>
       <c r="E60" t="n">
-        <v>12.25385325172881</v>
+        <v>12.60603622591469</v>
       </c>
       <c r="F60" t="n">
-        <v>381.8821582227907</v>
+        <v>333.9483097694182</v>
       </c>
     </row>
     <row r="61">
@@ -9778,13 +9940,13 @@
         <v>375.338500976563</v>
       </c>
       <c r="D61" t="n">
-        <v>31.879805324614</v>
+        <v>27.09939943153378</v>
       </c>
       <c r="E61" t="n">
-        <v>12.25219086850176</v>
+        <v>12.60432606481263</v>
       </c>
       <c r="F61" t="n">
-        <v>390.5974596878496</v>
+        <v>341.5696665956498</v>
       </c>
     </row>
     <row r="62">
@@ -9798,13 +9960,13 @@
         <v>380.646362304688</v>
       </c>
       <c r="D62" t="n">
-        <v>32.33411789374347</v>
+        <v>27.48558741644283</v>
       </c>
       <c r="E62" t="n">
-        <v>12.25087058051296</v>
+        <v>12.60296783096786</v>
       </c>
       <c r="F62" t="n">
-        <v>396.1210936512997</v>
+        <v>346.3999740246839</v>
       </c>
     </row>
     <row r="63">
@@ -9818,13 +9980,13 @@
         <v>385.841949462891</v>
       </c>
       <c r="D63" t="n">
-        <v>32.77784569741492</v>
+        <v>27.86277783113102</v>
       </c>
       <c r="E63" t="n">
-        <v>12.24997859213295</v>
+        <v>12.60205020631538</v>
       </c>
       <c r="F63" t="n">
-        <v>401.5279080895698</v>
+        <v>351.1281251153243</v>
       </c>
     </row>
     <row r="64">
@@ -9838,13 +10000,13 @@
         <v>392.715393066406</v>
       </c>
       <c r="D64" t="n">
-        <v>33.36701285129782</v>
+        <v>28.36359883277891</v>
       </c>
       <c r="E64" t="n">
-        <v>12.24804852165039</v>
+        <v>12.6000646644681</v>
       </c>
       <c r="F64" t="n">
-        <v>408.6807924252278</v>
+        <v>357.3831794100462</v>
       </c>
     </row>
     <row r="65">
@@ -9858,13 +10020,13 @@
         <v>399.405212402344</v>
       </c>
       <c r="D65" t="n">
-        <v>33.94474829159977</v>
+        <v>28.8547023167267</v>
       </c>
       <c r="E65" t="n">
-        <v>12.24467929188937</v>
+        <v>12.59659860105537</v>
       </c>
       <c r="F65" t="n">
-        <v>415.6425564745487</v>
+        <v>363.4711028367486</v>
       </c>
     </row>
     <row r="66">
@@ -9878,13 +10040,13 @@
         <v>404.792541503906</v>
       </c>
       <c r="D66" t="n">
-        <v>34.40879867806439</v>
+        <v>29.24916792437748</v>
       </c>
       <c r="E66" t="n">
-        <v>12.24247608966474</v>
+        <v>12.59433207749856</v>
       </c>
       <c r="F66" t="n">
-        <v>421.248895090291</v>
+        <v>368.3737338301294</v>
       </c>
     </row>
     <row r="67">
@@ -9898,13 +10060,13 @@
         <v>411.550170898438</v>
       </c>
       <c r="D67" t="n">
-        <v>34.9950015135169</v>
+        <v>29.74746910984802</v>
       </c>
       <c r="E67" t="n">
-        <v>12.23835552075958</v>
+        <v>12.59009308101128</v>
       </c>
       <c r="F67" t="n">
-        <v>428.2812699719394</v>
+        <v>374.5234050174942</v>
       </c>
     </row>
     <row r="68">
@@ -9918,13 +10080,13 @@
         <v>416.439758300781</v>
       </c>
       <c r="D68" t="n">
-        <v>35.42073479869369</v>
+        <v>30.10936330050662</v>
       </c>
       <c r="E68" t="n">
-        <v>12.23491369784455</v>
+        <v>12.58655233807444</v>
       </c>
       <c r="F68" t="n">
-        <v>433.3696333762566</v>
+        <v>378.9730770479243</v>
       </c>
     </row>
     <row r="69">
@@ -9938,13 +10100,13 @@
         <v>423.453704833984</v>
       </c>
       <c r="D69" t="n">
-        <v>36.02937758724691</v>
+        <v>30.62673954763796</v>
       </c>
       <c r="E69" t="n">
-        <v>12.23081672171442</v>
+        <v>12.58233761243246</v>
       </c>
       <c r="F69" t="n">
-        <v>440.6687138670623</v>
+        <v>385.3559769564177</v>
       </c>
     </row>
     <row r="70">
@@ -9958,13 +10120,13 @@
         <v>430.042724609375</v>
       </c>
       <c r="D70" t="n">
-        <v>36.61282888433928</v>
+        <v>31.12270179043575</v>
       </c>
       <c r="E70" t="n">
-        <v>12.22319081088441</v>
+        <v>12.57449252842469</v>
       </c>
       <c r="F70" t="n">
-        <v>447.5255935795391</v>
+        <v>391.352181128224</v>
       </c>
     </row>
     <row r="71">
@@ -9978,13 +10140,13 @@
         <v>434.543853759766</v>
       </c>
       <c r="D71" t="n">
-        <v>37.05634599401946</v>
+        <v>31.49971310488888</v>
       </c>
       <c r="E71" t="n">
-        <v>12.20330028668246</v>
+        <v>12.55403033881859</v>
       </c>
       <c r="F71" t="n">
-        <v>452.209717692222</v>
+        <v>395.4483539828564</v>
       </c>
     </row>
     <row r="72">
@@ -9998,13 +10160,13 @@
         <v>435.731414794922</v>
       </c>
       <c r="D72" t="n">
-        <v>37.19162405283455</v>
+        <v>31.61470609536746</v>
       </c>
       <c r="E72" t="n">
-        <v>12.19214181149493</v>
+        <v>12.54255116246888</v>
       </c>
       <c r="F72" t="n">
-        <v>453.4455546519645</v>
+        <v>396.5290686875632</v>
       </c>
     </row>
     <row r="73">
@@ -10018,13 +10180,13 @@
         <v>437.854217529297</v>
       </c>
       <c r="D73" t="n">
-        <v>37.46853019530773</v>
+        <v>31.85008990914917</v>
       </c>
       <c r="E73" t="n">
-        <v>12.16099662617631</v>
+        <v>12.51051084614357</v>
       </c>
       <c r="F73" t="n">
-        <v>455.6546692929225</v>
+        <v>398.4608952590586</v>
       </c>
     </row>
     <row r="74">
@@ -10038,13 +10200,13 @@
         <v>438.912048339844</v>
       </c>
       <c r="D74" t="n">
-        <v>37.61502718763352</v>
+        <v>31.97461954382326</v>
       </c>
       <c r="E74" t="n">
-        <v>12.14290006029309</v>
+        <v>12.491894174277</v>
       </c>
       <c r="F74" t="n">
-        <v>456.7555159046413</v>
+        <v>399.4235636042093</v>
       </c>
     </row>
     <row r="75">
@@ -10058,13 +10220,13 @@
         <v>441.417755126953</v>
       </c>
       <c r="D75" t="n">
-        <v>38.01641384339332</v>
+        <v>32.3158179043579</v>
       </c>
       <c r="E75" t="n">
-        <v>12.08328293255267</v>
+        <v>12.4305636151017</v>
       </c>
       <c r="F75" t="n">
-        <v>459.3630845507337</v>
+        <v>401.7038302341633</v>
       </c>
     </row>
     <row r="76">
@@ -10078,13 +10240,13 @@
         <v>442.243804931641</v>
       </c>
       <c r="D76" t="n">
-        <v>38.15868026726251</v>
+        <v>32.43675134817509</v>
       </c>
       <c r="E76" t="n">
-        <v>12.06076090651741</v>
+        <v>12.40739429274659</v>
       </c>
       <c r="F76" t="n">
-        <v>460.2227192116971</v>
+        <v>402.4555635525879</v>
       </c>
     </row>
     <row r="77">
@@ -10098,13 +10260,13 @@
         <v>442.886657714844</v>
       </c>
       <c r="D77" t="n">
-        <v>38.28845107719903</v>
+        <v>32.54706290676884</v>
       </c>
       <c r="E77" t="n">
-        <v>12.03735505883192</v>
+        <v>12.38331574718542</v>
       </c>
       <c r="F77" t="n">
-        <v>460.8916802689602</v>
+        <v>403.0405566180252</v>
       </c>
     </row>
     <row r="78">
@@ -10118,13 +10280,13 @@
         <v>444.909149169922</v>
       </c>
       <c r="D78" t="n">
-        <v>38.71439922852515</v>
+        <v>32.90913974420165</v>
       </c>
       <c r="E78" t="n">
-        <v>11.95928202909587</v>
+        <v>12.3029988524992</v>
       </c>
       <c r="F78" t="n">
-        <v>462.9964189609438</v>
+        <v>404.8811085096488</v>
       </c>
     </row>
     <row r="79">
@@ -10138,13 +10300,13 @@
         <v>445.395050048828</v>
       </c>
       <c r="D79" t="n">
-        <v>38.84988589525221</v>
+        <v>33.02431006164549</v>
       </c>
       <c r="E79" t="n">
-        <v>11.93059049238322</v>
+        <v>12.27348270408884</v>
       </c>
       <c r="F79" t="n">
-        <v>463.5020792920691</v>
+        <v>405.3232983560732</v>
       </c>
     </row>
     <row r="80">
@@ -10158,13 +10320,13 @@
         <v>445.671417236328</v>
       </c>
       <c r="D80" t="n">
-        <v>38.97013166792393</v>
+        <v>33.1265248710022</v>
       </c>
       <c r="E80" t="n">
-        <v>11.90115759808504</v>
+        <v>12.24320389103842</v>
       </c>
       <c r="F80" t="n">
-        <v>463.7896785980873</v>
+        <v>405.5747981972351</v>
       </c>
     </row>
     <row r="81">
@@ -10178,13 +10340,13 @@
         <v>446.2763671875</v>
       </c>
       <c r="D81" t="n">
-        <v>39.2334908125877</v>
+        <v>33.35039307165524</v>
       </c>
       <c r="E81" t="n">
-        <v>11.83731554878054</v>
+        <v>12.1775269835599</v>
       </c>
       <c r="F81" t="n">
-        <v>464.4192108287829</v>
+        <v>406.1253115424109</v>
       </c>
     </row>
     <row r="82">
@@ -10198,13 +10360,13 @@
         <v>446.424041748047</v>
       </c>
       <c r="D82" t="n">
-        <v>39.47398653008942</v>
+        <v>33.554826236908</v>
       </c>
       <c r="E82" t="n">
-        <v>11.76908978038761</v>
+        <v>12.10734036631925</v>
       </c>
       <c r="F82" t="n">
-        <v>464.5728914624336</v>
+        <v>406.2597021829446</v>
       </c>
     </row>
     <row r="83">
@@ -10218,13 +10380,13 @@
         <v>446.405303955078</v>
       </c>
       <c r="D83" t="n">
-        <v>39.72146644048686</v>
+        <v>33.76519630895993</v>
       </c>
       <c r="E83" t="n">
-        <v>11.69527252430615</v>
+        <v>12.03140155873403</v>
       </c>
       <c r="F83" t="n">
-        <v>464.5533750865747</v>
+        <v>406.2426355025811</v>
       </c>
     </row>
     <row r="84">
@@ -10238,13 +10400,13 @@
         <v>446.356750488281</v>
       </c>
       <c r="D84" t="n">
-        <v>39.98842198555474</v>
+        <v>33.9921216264954</v>
       </c>
       <c r="E84" t="n">
-        <v>11.61593365144683</v>
+        <v>11.94978243984613</v>
       </c>
       <c r="F84" t="n">
-        <v>464.5028566102616</v>
+        <v>406.1984581054086</v>
       </c>
     </row>
     <row r="85">
@@ -10258,13 +10420,13 @@
         <v>446.275817871094</v>
       </c>
       <c r="D85" t="n">
-        <v>40.12221475603579</v>
+        <v>34.1058520489807</v>
       </c>
       <c r="E85" t="n">
-        <v>11.57510000230955</v>
+        <v>11.90777520753427</v>
       </c>
       <c r="F85" t="n">
-        <v>464.4186481152541</v>
+        <v>406.1248194606841</v>
       </c>
     </row>
     <row r="86">
@@ -10278,13 +10440,13 @@
         <v>445.390991210938</v>
       </c>
       <c r="D86" t="n">
-        <v>40.34471595504284</v>
+        <v>34.29498899020385</v>
       </c>
       <c r="E86" t="n">
-        <v>11.4884401098672</v>
+        <v>11.81862465863994</v>
       </c>
       <c r="F86" t="n">
-        <v>463.4978529991133</v>
+        <v>405.3196025474085</v>
       </c>
     </row>
     <row r="87">
@@ -10298,13 +10460,13 @@
         <v>445.101440429688</v>
       </c>
       <c r="D87" t="n">
-        <v>40.47681900143625</v>
+        <v>34.40728306427004</v>
       </c>
       <c r="E87" t="n">
-        <v>11.44350131787</v>
+        <v>11.77239429923968</v>
       </c>
       <c r="F87" t="n">
-        <v>463.1965315861214</v>
+        <v>405.0561029981386</v>
       </c>
     </row>
     <row r="88">
@@ -10318,13 +10480,13 @@
         <v>443.899017333984</v>
       </c>
       <c r="D88" t="n">
-        <v>40.70249104070659</v>
+        <v>34.59911537536617</v>
       </c>
       <c r="E88" t="n">
-        <v>11.34931079311227</v>
+        <v>11.67549668321295</v>
       </c>
       <c r="F88" t="n">
-        <v>461.9452208748469</v>
+        <v>403.96185680719</v>
       </c>
     </row>
     <row r="89">
@@ -10338,13 +10500,13 @@
         <v>441.810974121094</v>
       </c>
       <c r="D89" t="n">
-        <v>41.0562483379841</v>
+        <v>34.89982644317629</v>
       </c>
       <c r="E89" t="n">
-        <v>11.19859470156103</v>
+        <v>11.52044892224396</v>
       </c>
       <c r="F89" t="n">
-        <v>459.7722851037228</v>
+        <v>402.0616679337915</v>
       </c>
     </row>
     <row r="90">
@@ -10358,13 +10520,13 @@
         <v>439.943634033203</v>
       </c>
       <c r="D90" t="n">
-        <v>41.27493618435862</v>
+        <v>35.08572184747317</v>
       </c>
       <c r="E90" t="n">
-        <v>11.09218039708047</v>
+        <v>11.41097620785118</v>
       </c>
       <c r="F90" t="n">
-        <v>457.8290380348899</v>
+        <v>400.3623372368006</v>
       </c>
     </row>
     <row r="91">
@@ -10378,13 +10540,13 @@
         <v>437.840301513672</v>
       </c>
       <c r="D91" t="n">
-        <v>41.49362403073313</v>
+        <v>35.27161725177004</v>
       </c>
       <c r="E91" t="n">
-        <v>10.98096859253352</v>
+        <v>11.29656811040882</v>
       </c>
       <c r="F91" t="n">
-        <v>455.6401822718748</v>
+        <v>398.448226648891</v>
       </c>
     </row>
     <row r="92">
@@ -10398,13 +10560,13 @@
         <v>436.737396240234</v>
       </c>
       <c r="D92" t="n">
-        <v>41.60688561050891</v>
+        <v>35.36789515432739</v>
       </c>
       <c r="E92" t="n">
-        <v>10.92349114800792</v>
+        <v>11.23743873020667</v>
       </c>
       <c r="F92" t="n">
-        <v>454.492446662572</v>
+        <v>397.4445548131275</v>
       </c>
     </row>
     <row r="93">
@@ -10418,13 +10580,13 @@
         <v>433.022674560547</v>
       </c>
       <c r="D93" t="n">
-        <v>41.93798808853626</v>
+        <v>35.64934851370239</v>
       </c>
       <c r="E93" t="n">
-        <v>10.74507169405309</v>
+        <v>11.0538913958492</v>
       </c>
       <c r="F93" t="n">
-        <v>450.6266887156665</v>
+        <v>394.0640268032443</v>
       </c>
     </row>
     <row r="94">
@@ -10438,13 +10600,13 @@
         <v>429.989898681641</v>
       </c>
       <c r="D94" t="n">
-        <v>42.13190583143236</v>
+        <v>35.81418811413575</v>
       </c>
       <c r="E94" t="n">
-        <v>10.62070691741183</v>
+        <v>10.92595230213218</v>
       </c>
       <c r="F94" t="n">
-        <v>447.4706237076373</v>
+        <v>391.3041110746365</v>
       </c>
     </row>
     <row r="95">
@@ -10458,13 +10620,13 @@
         <v>426.749176025391</v>
       </c>
       <c r="D95" t="n">
-        <v>42.32518940627575</v>
+        <v>35.97848864059448</v>
       </c>
       <c r="E95" t="n">
-        <v>10.49252646311228</v>
+        <v>10.79408786592912</v>
       </c>
       <c r="F95" t="n">
-        <v>444.0981699015878</v>
+        <v>388.3549676699095</v>
       </c>
     </row>
     <row r="96">
@@ -10478,13 +10640,13 @@
         <v>423.347198486328</v>
       </c>
       <c r="D96" t="n">
-        <v>42.52101382548812</v>
+        <v>36.14494900949099</v>
       </c>
       <c r="E96" t="n">
-        <v>10.36094501954671</v>
+        <v>10.6587246940214</v>
       </c>
       <c r="F96" t="n">
-        <v>440.5578864212679</v>
+        <v>385.259060571606</v>
       </c>
     </row>
     <row r="97">
@@ -10498,13 +10660,13 @@
         <v>419.918762207031</v>
       </c>
       <c r="D97" t="n">
-        <v>42.73165775077337</v>
+        <v>36.32400668600459</v>
       </c>
       <c r="E97" t="n">
-        <v>10.22637727510766</v>
+        <v>10.5202893931907</v>
       </c>
       <c r="F97" t="n">
-        <v>436.9900537501867</v>
+        <v>382.1390622569621</v>
       </c>
     </row>
     <row r="98">
@@ -10518,13 +10680,13 @@
         <v>416.140838623047</v>
       </c>
       <c r="D98" t="n">
-        <v>42.92938884630201</v>
+        <v>36.49208782336424</v>
       </c>
       <c r="E98" t="n">
-        <v>10.08769440624999</v>
+        <v>10.37762069683701</v>
       </c>
       <c r="F98" t="n">
-        <v>433.0585557285715</v>
+        <v>378.7010458665387</v>
       </c>
     </row>
     <row r="99">
@@ -10538,13 +10700,13 @@
         <v>409.800354003906</v>
       </c>
       <c r="D99" t="n">
-        <v>43.19422493498325</v>
+        <v>36.71721149893189</v>
       </c>
       <c r="E99" t="n">
-        <v>9.87308635760087</v>
+        <v>10.15684468621668</v>
       </c>
       <c r="F99" t="n">
-        <v>426.4603129327265</v>
+        <v>372.9310145056204</v>
       </c>
     </row>
     <row r="100">
@@ -10558,13 +10720,13 @@
         <v>405.366241455078</v>
       </c>
       <c r="D100" t="n">
-        <v>43.37290178382391</v>
+        <v>36.86909559127803</v>
       </c>
       <c r="E100" t="n">
-        <v>9.726025331354741</v>
+        <v>10.00555703928674</v>
       </c>
       <c r="F100" t="n">
-        <v>421.8459414438325</v>
+        <v>368.8958389254474</v>
       </c>
     </row>
     <row r="101">
@@ -10578,13 +10740,13 @@
         <v>398.321502685547</v>
       </c>
       <c r="D101" t="n">
-        <v>43.62398226678376</v>
+        <v>37.08252632675175</v>
       </c>
       <c r="E101" t="n">
-        <v>9.501993783899154</v>
+        <v>9.775086692942869</v>
       </c>
       <c r="F101" t="n">
-        <v>414.5148083279062</v>
+        <v>362.4849096373346</v>
       </c>
     </row>
     <row r="102">
@@ -10598,13 +10760,13 @@
         <v>393.510650634766</v>
       </c>
       <c r="D102" t="n">
-        <v>43.79588353064055</v>
+        <v>37.22865083926388</v>
       </c>
       <c r="E102" t="n">
-        <v>9.350384796553472</v>
+        <v>9.619120373827347</v>
       </c>
       <c r="F102" t="n">
-        <v>409.508363516528</v>
+        <v>358.1068737780677</v>
       </c>
     </row>
     <row r="103">
@@ -10618,13 +10780,13 @@
         <v>386.091583251953</v>
       </c>
       <c r="D103" t="n">
-        <v>44.03807314438819</v>
+        <v>37.43452389947509</v>
       </c>
       <c r="E103" t="n">
-        <v>9.123643709624066</v>
+        <v>9.385862614246122</v>
       </c>
       <c r="F103" t="n">
-        <v>401.7876890277618</v>
+        <v>351.3552983501862</v>
       </c>
     </row>
     <row r="104">
@@ -10638,13 +10800,13 @@
         <v>375.758728027344</v>
       </c>
       <c r="D104" t="n">
-        <v>44.33127990911002</v>
+        <v>37.68376404232784</v>
       </c>
       <c r="E104" t="n">
-        <v>8.820741515152687</v>
+        <v>9.074254831944947</v>
       </c>
       <c r="F104" t="n">
-        <v>391.034761114141</v>
+        <v>341.9520779469667</v>
       </c>
     </row>
     <row r="105">
@@ -10658,13 +10820,13 @@
         <v>370.480102539063</v>
       </c>
       <c r="D105" t="n">
-        <v>44.47587022511955</v>
+        <v>37.80667290853879</v>
       </c>
       <c r="E105" t="n">
-        <v>8.668555412232534</v>
+        <v>8.917694810612753</v>
       </c>
       <c r="F105" t="n">
-        <v>385.5415455537119</v>
+        <v>337.1483708030101</v>
       </c>
     </row>
     <row r="106">
@@ -10678,13 +10840,13 @@
         <v>359.597503662109</v>
       </c>
       <c r="D106" t="n">
-        <v>44.74917996718883</v>
+        <v>38.03899960543823</v>
       </c>
       <c r="E106" t="n">
-        <v>8.362533526967063</v>
+        <v>8.602877675762947</v>
       </c>
       <c r="F106" t="n">
-        <v>374.2165177798994</v>
+        <v>327.2448605139801</v>
       </c>
     </row>
     <row r="107">
@@ -10698,13 +10860,13 @@
         <v>351.224670410156</v>
       </c>
       <c r="D107" t="n">
-        <v>44.93950130968092</v>
+        <v>38.20078208898924</v>
       </c>
       <c r="E107" t="n">
-        <v>8.133229901700689</v>
+        <v>8.366983728980644</v>
       </c>
       <c r="F107" t="n">
-        <v>365.5032958194142</v>
+        <v>319.6253221729082</v>
       </c>
     </row>
     <row r="108">
@@ -10718,13 +10880,13 @@
         <v>342.946899414063</v>
       </c>
       <c r="D108" t="n">
-        <v>45.14654466240411</v>
+        <v>38.37677910208134</v>
       </c>
       <c r="E108" t="n">
-        <v>7.905123156061251</v>
+        <v>8.132321060852105</v>
       </c>
       <c r="F108" t="n">
-        <v>356.8889956269242</v>
+        <v>312.092288939525</v>
       </c>
     </row>
     <row r="109">
@@ -10738,13 +10900,13 @@
         <v>331.517913818359</v>
       </c>
       <c r="D109" t="n">
-        <v>45.38195869116778</v>
+        <v>38.57689258245846</v>
       </c>
       <c r="E109" t="n">
-        <v>7.602038117583185</v>
+        <v>7.820525179499583</v>
       </c>
       <c r="F109" t="n">
-        <v>344.995379820843</v>
+        <v>301.691559787967</v>
       </c>
     </row>
     <row r="110">
@@ -10758,13 +10920,13 @@
         <v>322.7109375</v>
       </c>
       <c r="D110" t="n">
-        <v>45.55512829113009</v>
+        <v>38.72409524291994</v>
       </c>
       <c r="E110" t="n">
-        <v>7.37195547703272</v>
+        <v>7.583829828074179</v>
       </c>
       <c r="F110" t="n">
-        <v>335.8303775127247</v>
+        <v>293.6769485684417</v>
       </c>
     </row>
     <row r="111">
@@ -10778,13 +10940,13 @@
         <v>310.757202148438</v>
       </c>
       <c r="D111" t="n">
-        <v>45.76344415211674</v>
+        <v>38.90117395050046</v>
       </c>
       <c r="E111" t="n">
-        <v>7.066571957815435</v>
+        <v>7.269669406289522</v>
       </c>
       <c r="F111" t="n">
-        <v>323.3906711384009</v>
+        <v>282.7986741367001</v>
       </c>
     </row>
     <row r="112">
@@ -10798,13 +10960,13 @@
         <v>296.234710693359</v>
       </c>
       <c r="D112" t="n">
-        <v>46.02765024490356</v>
+        <v>39.12576209863281</v>
       </c>
       <c r="E112" t="n">
-        <v>6.697664891756945</v>
+        <v>6.890159733438403</v>
       </c>
       <c r="F112" t="n">
-        <v>308.2777770953585</v>
+        <v>269.5827505520902</v>
       </c>
     </row>
     <row r="113">
@@ -10818,13 +10980,13 @@
         <v>281.868469238281</v>
       </c>
       <c r="D113" t="n">
-        <v>46.27555154328345</v>
+        <v>39.33649037115477</v>
       </c>
       <c r="E113" t="n">
-        <v>6.33871443047975</v>
+        <v>6.52089282406598</v>
       </c>
       <c r="F113" t="n">
-        <v>293.3275063458203</v>
+        <v>256.5090377852037</v>
       </c>
     </row>
     <row r="114">
@@ -10838,13 +11000,13 @@
         <v>270.810852050781</v>
       </c>
       <c r="D114" t="n">
-        <v>46.44321806652547</v>
+        <v>39.47901514627077</v>
       </c>
       <c r="E114" t="n">
-        <v>6.068062652096986</v>
+        <v>6.242462353844705</v>
       </c>
       <c r="F114" t="n">
-        <v>281.8203569926793</v>
+        <v>246.4462658174602</v>
       </c>
     </row>
     <row r="115">
@@ -10858,13 +11020,13 @@
         <v>257.769592285156</v>
       </c>
       <c r="D115" t="n">
-        <v>46.64899308314326</v>
+        <v>39.6539340114136</v>
       </c>
       <c r="E115" t="n">
-        <v>5.750368695079247</v>
+        <v>5.915637685012084</v>
       </c>
       <c r="F115" t="n">
-        <v>268.2489094822753</v>
+        <v>234.5783063969007</v>
       </c>
     </row>
     <row r="116">
@@ -10878,13 +11040,13 @@
         <v>240.169509887695</v>
       </c>
       <c r="D116" t="n">
-        <v>46.90981138343816</v>
+        <v>39.87564236962895</v>
       </c>
       <c r="E116" t="n">
-        <v>5.327954122605709</v>
+        <v>5.48108266843357</v>
       </c>
       <c r="F116" t="n">
-        <v>249.9333229510456</v>
+        <v>218.5616922848286</v>
       </c>
     </row>
     <row r="117">
@@ -10898,13 +11060,13 @@
         <v>225.693634033203</v>
       </c>
       <c r="D117" t="n">
-        <v>47.09356992101665</v>
+        <v>40.03184614685055</v>
       </c>
       <c r="E117" t="n">
-        <v>4.987282617511206</v>
+        <v>5.130620063232034</v>
       </c>
       <c r="F117" t="n">
-        <v>234.8689426636349</v>
+        <v>205.3881930092494</v>
       </c>
     </row>
     <row r="118">
@@ -10918,13 +11080,13 @@
         <v>205.162216186523</v>
       </c>
       <c r="D118" t="n">
-        <v>47.35523099727633</v>
+        <v>40.25427090600589</v>
       </c>
       <c r="E118" t="n">
-        <v>4.508537572345605</v>
+        <v>4.638115602932309</v>
       </c>
       <c r="F118" t="n">
-        <v>213.5028381983256</v>
+        <v>186.70396197381</v>
       </c>
     </row>
     <row r="119">
@@ -10938,13 +11100,13 @@
         <v>190.339569091797</v>
       </c>
       <c r="D119" t="n">
-        <v>47.54047065103058</v>
+        <v>40.41173370468144</v>
       </c>
       <c r="E119" t="n">
-        <v>4.166504945613195</v>
+        <v>4.286252756653713</v>
       </c>
       <c r="F119" t="n">
-        <v>198.0776060842979</v>
+        <v>173.2149049928466</v>
       </c>
     </row>
     <row r="120">
@@ -10958,13 +11120,13 @@
         <v>170.007751464844</v>
       </c>
       <c r="D120" t="n">
-        <v>47.79027862572674</v>
+        <v>40.62408274566654</v>
       </c>
       <c r="E120" t="n">
-        <v>3.701991788293572</v>
+        <v>3.808389217055747</v>
       </c>
       <c r="F120" t="n">
-        <v>176.9192190327022</v>
+        <v>154.7123186813769</v>
       </c>
     </row>
     <row r="121">
@@ -10978,13 +11140,13 @@
         <v>151.118927001953</v>
       </c>
       <c r="D121" t="n">
-        <v>47.99817309873105</v>
+        <v>40.80080325277711</v>
       </c>
       <c r="E121" t="n">
-        <v>3.276426672935489</v>
+        <v>3.370593109130863</v>
       </c>
       <c r="F121" t="n">
-        <v>157.2624945928571</v>
+        <v>137.5229062908146</v>
       </c>
     </row>
     <row r="122">
@@ -10998,13 +11160,13 @@
         <v>135.178695678711</v>
       </c>
       <c r="D122" t="n">
-        <v>48.17981217992301</v>
+        <v>40.95520538803097</v>
       </c>
       <c r="E122" t="n">
-        <v>2.919775372958335</v>
+        <v>3.003691440311116</v>
       </c>
       <c r="F122" t="n">
-        <v>140.6742290766972</v>
+        <v>123.0167998602123</v>
       </c>
     </row>
     <row r="123">
@@ -11018,13 +11180,13 @@
         <v>109.997482299805</v>
       </c>
       <c r="D123" t="n">
-        <v>48.42729209032056</v>
+        <v>41.16557546008299</v>
       </c>
       <c r="E123" t="n">
-        <v>2.36373540592637</v>
+        <v>2.431670556474234</v>
       </c>
       <c r="F123" t="n">
-        <v>114.4693049270288</v>
+        <v>100.1011177866021</v>
       </c>
     </row>
     <row r="124">
@@ -11038,13 +11200,13 @@
         <v>91.939811706543</v>
       </c>
       <c r="D124" t="n">
-        <v>48.61528536851405</v>
+        <v>41.32537897470092</v>
       </c>
       <c r="E124" t="n">
-        <v>1.968054169835791</v>
+        <v>2.024617208143265</v>
       </c>
       <c r="F124" t="n">
-        <v>95.67751508726099</v>
+        <v>83.66807340522135</v>
       </c>
     </row>
     <row r="125">
@@ -11058,13 +11220,13 @@
         <v>67.4061660766602</v>
       </c>
       <c r="D125" t="n">
-        <v>48.86255249884123</v>
+        <v>41.53556817324825</v>
       </c>
       <c r="E125" t="n">
-        <v>1.43558780873119</v>
+        <v>1.476847449580293</v>
       </c>
       <c r="F125" t="n">
-        <v>70.14648467082421</v>
+        <v>61.34169792353008</v>
       </c>
     </row>
     <row r="126">
@@ -11078,13 +11240,13 @@
         <v>44.6109275817871</v>
       </c>
       <c r="D126" t="n">
-        <v>49.06896168351172</v>
+        <v>41.71102611236572</v>
       </c>
       <c r="E126" t="n">
-        <v>0.9461078807744023</v>
+        <v>0.9732995796226667</v>
       </c>
       <c r="F126" t="n">
-        <v>46.42453135018763</v>
+        <v>40.59732418079562</v>
       </c>
     </row>
     <row r="127">
@@ -11098,13 +11260,13 @@
         <v>35.5986442565918</v>
       </c>
       <c r="D127" t="n">
-        <v>49.1604153921604</v>
+        <v>41.78876625396727</v>
       </c>
       <c r="E127" t="n">
-        <v>0.7535710433314284</v>
+        <v>0.7752291198440863</v>
       </c>
       <c r="F127" t="n">
-        <v>37.04586551767673</v>
+        <v>32.39586848243331</v>
       </c>
     </row>
     <row r="128">
@@ -11118,13 +11280,13 @@
         <v>12.8926544189453</v>
       </c>
       <c r="D128" t="n">
-        <v>49.36047455198765</v>
+        <v>41.95882636026001</v>
       </c>
       <c r="E128" t="n">
-        <v>0.271812418146091</v>
+        <v>0.2796244674563635</v>
       </c>
       <c r="F128" t="n">
-        <v>13.41678994881435</v>
+        <v>11.73271447608173</v>
       </c>
     </row>
     <row r="129">
@@ -11138,13 +11300,13 @@
         <v>0.841667652130127</v>
       </c>
       <c r="D129" t="n">
-        <v>49.47013555920126</v>
+        <v>42.05204359939577</v>
       </c>
       <c r="E129" t="n">
-        <v>0.01770532139323874</v>
+        <v>0.0182141827790488</v>
       </c>
       <c r="F129" t="n">
-        <v>0.8758846494427466</v>
+        <v>0.7659436083519238</v>
       </c>
     </row>
   </sheetData>
